--- a/QuantLibXL/Data/XLS/020_YieldCurveBootstrap/010_Quotes/HKD_010_DepoFRAFuturesQuotes.xlsx
+++ b/QuantLibXL/Data/XLS/020_YieldCurveBootstrap/010_Quotes/HKD_010_DepoFRAFuturesQuotes.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="210" yWindow="270" windowWidth="17880" windowHeight="10485" tabRatio="684"/>
+    <workbookView xWindow="-15" yWindow="-15" windowWidth="19140" windowHeight="11325" tabRatio="684"/>
   </bookViews>
   <sheets>
     <sheet name="General Settings" sheetId="13" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="59">
   <si>
     <t>Currency</t>
   </si>
@@ -203,6 +203,15 @@
   </si>
   <si>
     <t>HKD</t>
+  </si>
+  <si>
+    <t>x10F</t>
+  </si>
+  <si>
+    <t>x11F</t>
+  </si>
+  <si>
+    <t>x12F</t>
   </si>
 </sst>
 </file>
@@ -1221,7 +1230,7 @@
   <dimension ref="A1:E18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:E2"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8" defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
@@ -1308,7 +1317,7 @@
       </c>
       <c r="D8" s="23" t="str">
         <f>[1]!qlSerializationPath(Trigger)</f>
-        <v>X:\WorkGroup\IMI_Workbooks\Production\QLXL_R01030x\Data\XML\020_YieldCurveBootstrap\010_Quotes\</v>
+        <v>\\srv0001\Risorse\WorkGroup\IMI_Workbooks\Production\QLXL_R01030x\Data\XML\020_YieldCurveBootstrap\010_Quotes\</v>
       </c>
       <c r="E8" s="22"/>
     </row>
@@ -1814,7 +1823,7 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet8"/>
-  <dimension ref="A1:G36"/>
+  <dimension ref="A1:G39"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E2" sqref="E2"/>
@@ -1850,8 +1859,8 @@
         <v>HKD_010_FRA.xml</v>
       </c>
       <c r="E2" s="80">
-        <f>IF(Serialize,_xll.ohObjectSave(E3:E35,SerializationPath&amp;D2,FileOverwrite,Serialize),"---")</f>
-        <v>33</v>
+        <f>IF(Serialize,_xll.ohObjectSave(E3:E38,SerializationPath&amp;D2,FileOverwrite,Serialize),"---")</f>
+        <v>36</v>
       </c>
       <c r="F2" s="75" t="str">
         <f>_xll.ohRangeRetrieveError(E2)</f>
@@ -1868,7 +1877,7 @@
         <v>33</v>
       </c>
       <c r="D3" s="81" t="str">
-        <f t="shared" ref="D3:D35" si="0">Currency&amp;$B3&amp;$C3&amp;QuoteSuffix</f>
+        <f t="shared" ref="D3:D38" si="0">Currency&amp;$B3&amp;$C3&amp;QuoteSuffix</f>
         <v>HKDT1F1_Quote</v>
       </c>
       <c r="E3" s="83" t="str">
@@ -2059,21 +2068,21 @@
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A12" s="3"/>
-      <c r="B12" s="84">
+      <c r="B12" s="87">
         <v>6</v>
       </c>
-      <c r="C12" s="85" t="s">
+      <c r="C12" s="88" t="s">
         <v>42</v>
       </c>
-      <c r="D12" s="84" t="str">
+      <c r="D12" s="87" t="str">
         <f t="shared" si="0"/>
         <v>HKD6x9F_Quote</v>
       </c>
-      <c r="E12" s="86" t="str">
+      <c r="E12" s="89" t="str">
         <f>_xll.qlSimpleQuote(D12,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
         <v>HKD6x9F_Quote#0002</v>
       </c>
-      <c r="F12" s="76" t="str">
+      <c r="F12" s="79" t="str">
         <f>_xll.ohRangeRetrieveError(E12)</f>
         <v/>
       </c>
@@ -2081,21 +2090,21 @@
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A13" s="3"/>
-      <c r="B13" s="81" t="s">
-        <v>35</v>
-      </c>
-      <c r="C13" s="82" t="s">
-        <v>33</v>
-      </c>
-      <c r="D13" s="81" t="str">
-        <f t="shared" si="0"/>
-        <v>HKDT6F1_Quote</v>
-      </c>
-      <c r="E13" s="83" t="str">
+      <c r="B13" s="87">
+        <v>7</v>
+      </c>
+      <c r="C13" s="88" t="s">
+        <v>56</v>
+      </c>
+      <c r="D13" s="87" t="str">
+        <f t="shared" si="0"/>
+        <v>HKD7x10F_Quote</v>
+      </c>
+      <c r="E13" s="89" t="str">
         <f>_xll.qlSimpleQuote(D13,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDT6F1_Quote#0002</v>
-      </c>
-      <c r="F13" s="78" t="str">
+        <v>HKD7x10F_Quote#0002</v>
+      </c>
+      <c r="F13" s="79" t="str">
         <f>_xll.ohRangeRetrieveError(E13)</f>
         <v/>
       </c>
@@ -2103,21 +2112,21 @@
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A14" s="3"/>
-      <c r="B14" s="84" t="s">
-        <v>36</v>
-      </c>
-      <c r="C14" s="85" t="s">
-        <v>33</v>
-      </c>
-      <c r="D14" s="84" t="str">
-        <f t="shared" si="0"/>
-        <v>HKDTOM6F1_Quote</v>
-      </c>
-      <c r="E14" s="86" t="str">
+      <c r="B14" s="87">
+        <v>8</v>
+      </c>
+      <c r="C14" s="88" t="s">
+        <v>57</v>
+      </c>
+      <c r="D14" s="87" t="str">
+        <f t="shared" si="0"/>
+        <v>HKD8x11F_Quote</v>
+      </c>
+      <c r="E14" s="89" t="str">
         <f>_xll.qlSimpleQuote(D14,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDTOM6F1_Quote#0002</v>
-      </c>
-      <c r="F14" s="76" t="str">
+        <v>HKD8x11F_Quote#0002</v>
+      </c>
+      <c r="F14" s="79" t="str">
         <f>_xll.ohRangeRetrieveError(E14)</f>
         <v/>
       </c>
@@ -2125,22 +2134,21 @@
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A15" s="3"/>
-      <c r="B15" s="81">
-        <v>1</v>
-      </c>
-      <c r="C15" s="82" t="str">
-        <f>"x"&amp;B15+6&amp;"F"</f>
-        <v>x7F</v>
-      </c>
-      <c r="D15" s="81" t="str">
-        <f t="shared" si="0"/>
-        <v>HKD1x7F_Quote</v>
-      </c>
-      <c r="E15" s="83" t="str">
+      <c r="B15" s="84">
+        <v>9</v>
+      </c>
+      <c r="C15" s="85" t="s">
+        <v>58</v>
+      </c>
+      <c r="D15" s="84" t="str">
+        <f t="shared" si="0"/>
+        <v>HKD9x12F_Quote</v>
+      </c>
+      <c r="E15" s="86" t="str">
         <f>_xll.qlSimpleQuote(D15,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD1x7F_Quote#0002</v>
-      </c>
-      <c r="F15" s="78" t="str">
+        <v>HKD9x12F_Quote#0002</v>
+      </c>
+      <c r="F15" s="76" t="str">
         <f>_xll.ohRangeRetrieveError(E15)</f>
         <v/>
       </c>
@@ -2148,22 +2156,21 @@
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A16" s="3"/>
-      <c r="B16" s="87">
-        <v>2</v>
-      </c>
-      <c r="C16" s="88" t="str">
-        <f t="shared" ref="C16:C32" si="1">"x"&amp;B16+6&amp;"F"</f>
-        <v>x8F</v>
-      </c>
-      <c r="D16" s="87" t="str">
-        <f t="shared" si="0"/>
-        <v>HKD2x8F_Quote</v>
-      </c>
-      <c r="E16" s="89" t="str">
+      <c r="B16" s="81" t="s">
+        <v>35</v>
+      </c>
+      <c r="C16" s="82" t="s">
+        <v>33</v>
+      </c>
+      <c r="D16" s="81" t="str">
+        <f t="shared" si="0"/>
+        <v>HKDT6F1_Quote</v>
+      </c>
+      <c r="E16" s="83" t="str">
         <f>_xll.qlSimpleQuote(D16,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD2x8F_Quote#0002</v>
-      </c>
-      <c r="F16" s="79" t="str">
+        <v>HKDT6F1_Quote#0002</v>
+      </c>
+      <c r="F16" s="78" t="str">
         <f>_xll.ohRangeRetrieveError(E16)</f>
         <v/>
       </c>
@@ -2171,22 +2178,21 @@
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A17" s="3"/>
-      <c r="B17" s="87">
-        <v>3</v>
-      </c>
-      <c r="C17" s="88" t="str">
-        <f t="shared" si="1"/>
-        <v>x9F</v>
-      </c>
-      <c r="D17" s="87" t="str">
-        <f t="shared" si="0"/>
-        <v>HKD3x9F_Quote</v>
-      </c>
-      <c r="E17" s="89" t="str">
+      <c r="B17" s="84" t="s">
+        <v>36</v>
+      </c>
+      <c r="C17" s="85" t="s">
+        <v>33</v>
+      </c>
+      <c r="D17" s="84" t="str">
+        <f t="shared" si="0"/>
+        <v>HKDTOM6F1_Quote</v>
+      </c>
+      <c r="E17" s="86" t="str">
         <f>_xll.qlSimpleQuote(D17,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD3x9F_Quote#0002</v>
-      </c>
-      <c r="F17" s="79" t="str">
+        <v>HKDTOM6F1_Quote#0002</v>
+      </c>
+      <c r="F17" s="76" t="str">
         <f>_xll.ohRangeRetrieveError(E17)</f>
         <v/>
       </c>
@@ -2194,22 +2200,22 @@
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A18" s="3"/>
-      <c r="B18" s="87">
-        <v>4</v>
-      </c>
-      <c r="C18" s="88" t="str">
-        <f t="shared" si="1"/>
-        <v>x10F</v>
-      </c>
-      <c r="D18" s="87" t="str">
-        <f t="shared" si="0"/>
-        <v>HKD4x10F_Quote</v>
-      </c>
-      <c r="E18" s="89" t="str">
+      <c r="B18" s="81">
+        <v>1</v>
+      </c>
+      <c r="C18" s="82" t="str">
+        <f>"x"&amp;B18+6&amp;"F"</f>
+        <v>x7F</v>
+      </c>
+      <c r="D18" s="81" t="str">
+        <f t="shared" si="0"/>
+        <v>HKD1x7F_Quote</v>
+      </c>
+      <c r="E18" s="83" t="str">
         <f>_xll.qlSimpleQuote(D18,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD4x10F_Quote#0002</v>
-      </c>
-      <c r="F18" s="79" t="str">
+        <v>HKD1x7F_Quote#0002</v>
+      </c>
+      <c r="F18" s="78" t="str">
         <f>_xll.ohRangeRetrieveError(E18)</f>
         <v/>
       </c>
@@ -2218,19 +2224,19 @@
     <row r="19" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A19" s="3"/>
       <c r="B19" s="87">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C19" s="88" t="str">
-        <f t="shared" si="1"/>
-        <v>x11F</v>
+        <f t="shared" ref="C19:C35" si="1">"x"&amp;B19+6&amp;"F"</f>
+        <v>x8F</v>
       </c>
       <c r="D19" s="87" t="str">
         <f t="shared" si="0"/>
-        <v>HKD5x11F_Quote</v>
+        <v>HKD2x8F_Quote</v>
       </c>
       <c r="E19" s="89" t="str">
         <f>_xll.qlSimpleQuote(D19,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD5x11F_Quote#0002</v>
+        <v>HKD2x8F_Quote#0002</v>
       </c>
       <c r="F19" s="79" t="str">
         <f>_xll.ohRangeRetrieveError(E19)</f>
@@ -2241,19 +2247,19 @@
     <row r="20" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A20" s="3"/>
       <c r="B20" s="87">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C20" s="88" t="str">
         <f t="shared" si="1"/>
-        <v>x12F</v>
+        <v>x9F</v>
       </c>
       <c r="D20" s="87" t="str">
         <f t="shared" si="0"/>
-        <v>HKD6x12F_Quote</v>
+        <v>HKD3x9F_Quote</v>
       </c>
       <c r="E20" s="89" t="str">
         <f>_xll.qlSimpleQuote(D20,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD6x12F_Quote#0002</v>
+        <v>HKD3x9F_Quote#0002</v>
       </c>
       <c r="F20" s="79" t="str">
         <f>_xll.ohRangeRetrieveError(E20)</f>
@@ -2264,19 +2270,19 @@
     <row r="21" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A21" s="3"/>
       <c r="B21" s="87">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C21" s="88" t="str">
         <f t="shared" si="1"/>
-        <v>x13F</v>
+        <v>x10F</v>
       </c>
       <c r="D21" s="87" t="str">
         <f t="shared" si="0"/>
-        <v>HKD7x13F_Quote</v>
+        <v>HKD4x10F_Quote</v>
       </c>
       <c r="E21" s="89" t="str">
         <f>_xll.qlSimpleQuote(D21,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD7x13F_Quote#0002</v>
+        <v>HKD4x10F_Quote#0002</v>
       </c>
       <c r="F21" s="79" t="str">
         <f>_xll.ohRangeRetrieveError(E21)</f>
@@ -2287,19 +2293,19 @@
     <row r="22" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A22" s="3"/>
       <c r="B22" s="87">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C22" s="88" t="str">
         <f t="shared" si="1"/>
-        <v>x14F</v>
+        <v>x11F</v>
       </c>
       <c r="D22" s="87" t="str">
         <f t="shared" si="0"/>
-        <v>HKD8x14F_Quote</v>
+        <v>HKD5x11F_Quote</v>
       </c>
       <c r="E22" s="89" t="str">
         <f>_xll.qlSimpleQuote(D22,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD8x14F_Quote#0002</v>
+        <v>HKD5x11F_Quote#0002</v>
       </c>
       <c r="F22" s="79" t="str">
         <f>_xll.ohRangeRetrieveError(E22)</f>
@@ -2310,19 +2316,19 @@
     <row r="23" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A23" s="3"/>
       <c r="B23" s="87">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C23" s="88" t="str">
         <f t="shared" si="1"/>
-        <v>x15F</v>
+        <v>x12F</v>
       </c>
       <c r="D23" s="87" t="str">
         <f t="shared" si="0"/>
-        <v>HKD9x15F_Quote</v>
+        <v>HKD6x12F_Quote</v>
       </c>
       <c r="E23" s="89" t="str">
         <f>_xll.qlSimpleQuote(D23,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD9x15F_Quote#0002</v>
+        <v>HKD6x12F_Quote#0002</v>
       </c>
       <c r="F23" s="79" t="str">
         <f>_xll.ohRangeRetrieveError(E23)</f>
@@ -2333,19 +2339,19 @@
     <row r="24" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A24" s="3"/>
       <c r="B24" s="87">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C24" s="88" t="str">
         <f t="shared" si="1"/>
-        <v>x16F</v>
+        <v>x13F</v>
       </c>
       <c r="D24" s="87" t="str">
         <f t="shared" si="0"/>
-        <v>HKD10x16F_Quote</v>
+        <v>HKD7x13F_Quote</v>
       </c>
       <c r="E24" s="89" t="str">
         <f>_xll.qlSimpleQuote(D24,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD10x16F_Quote#0002</v>
+        <v>HKD7x13F_Quote#0002</v>
       </c>
       <c r="F24" s="79" t="str">
         <f>_xll.ohRangeRetrieveError(E24)</f>
@@ -2356,19 +2362,19 @@
     <row r="25" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A25" s="3"/>
       <c r="B25" s="87">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="C25" s="88" t="str">
         <f t="shared" si="1"/>
-        <v>x17F</v>
+        <v>x14F</v>
       </c>
       <c r="D25" s="87" t="str">
         <f t="shared" si="0"/>
-        <v>HKD11x17F_Quote</v>
+        <v>HKD8x14F_Quote</v>
       </c>
       <c r="E25" s="89" t="str">
         <f>_xll.qlSimpleQuote(D25,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD11x17F_Quote#0002</v>
+        <v>HKD8x14F_Quote#0002</v>
       </c>
       <c r="F25" s="79" t="str">
         <f>_xll.ohRangeRetrieveError(E25)</f>
@@ -2379,19 +2385,19 @@
     <row r="26" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A26" s="3"/>
       <c r="B26" s="87">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C26" s="88" t="str">
         <f t="shared" si="1"/>
-        <v>x18F</v>
+        <v>x15F</v>
       </c>
       <c r="D26" s="87" t="str">
         <f t="shared" si="0"/>
-        <v>HKD12x18F_Quote</v>
+        <v>HKD9x15F_Quote</v>
       </c>
       <c r="E26" s="89" t="str">
         <f>_xll.qlSimpleQuote(D26,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD12x18F_Quote#0002</v>
+        <v>HKD9x15F_Quote#0002</v>
       </c>
       <c r="F26" s="79" t="str">
         <f>_xll.ohRangeRetrieveError(E26)</f>
@@ -2402,19 +2408,19 @@
     <row r="27" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A27" s="3"/>
       <c r="B27" s="87">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="C27" s="88" t="str">
         <f t="shared" si="1"/>
-        <v>x19F</v>
+        <v>x16F</v>
       </c>
       <c r="D27" s="87" t="str">
         <f t="shared" si="0"/>
-        <v>HKD13x19F_Quote</v>
+        <v>HKD10x16F_Quote</v>
       </c>
       <c r="E27" s="89" t="str">
         <f>_xll.qlSimpleQuote(D27,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD13x19F_Quote#0002</v>
+        <v>HKD10x16F_Quote#0002</v>
       </c>
       <c r="F27" s="79" t="str">
         <f>_xll.ohRangeRetrieveError(E27)</f>
@@ -2425,19 +2431,19 @@
     <row r="28" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A28" s="3"/>
       <c r="B28" s="87">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="C28" s="88" t="str">
         <f t="shared" si="1"/>
-        <v>x20F</v>
+        <v>x17F</v>
       </c>
       <c r="D28" s="87" t="str">
         <f t="shared" si="0"/>
-        <v>HKD14x20F_Quote</v>
+        <v>HKD11x17F_Quote</v>
       </c>
       <c r="E28" s="89" t="str">
         <f>_xll.qlSimpleQuote(D28,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD14x20F_Quote#0002</v>
+        <v>HKD11x17F_Quote#0002</v>
       </c>
       <c r="F28" s="79" t="str">
         <f>_xll.ohRangeRetrieveError(E28)</f>
@@ -2448,19 +2454,19 @@
     <row r="29" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A29" s="3"/>
       <c r="B29" s="87">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="C29" s="88" t="str">
         <f t="shared" si="1"/>
-        <v>x21F</v>
+        <v>x18F</v>
       </c>
       <c r="D29" s="87" t="str">
         <f t="shared" si="0"/>
-        <v>HKD15x21F_Quote</v>
+        <v>HKD12x18F_Quote</v>
       </c>
       <c r="E29" s="89" t="str">
         <f>_xll.qlSimpleQuote(D29,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD15x21F_Quote#0002</v>
+        <v>HKD12x18F_Quote#0002</v>
       </c>
       <c r="F29" s="79" t="str">
         <f>_xll.ohRangeRetrieveError(E29)</f>
@@ -2471,19 +2477,19 @@
     <row r="30" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A30" s="3"/>
       <c r="B30" s="87">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C30" s="88" t="str">
         <f t="shared" si="1"/>
-        <v>x22F</v>
+        <v>x19F</v>
       </c>
       <c r="D30" s="87" t="str">
         <f t="shared" si="0"/>
-        <v>HKD16x22F_Quote</v>
+        <v>HKD13x19F_Quote</v>
       </c>
       <c r="E30" s="89" t="str">
         <f>_xll.qlSimpleQuote(D30,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD16x22F_Quote#0002</v>
+        <v>HKD13x19F_Quote#0002</v>
       </c>
       <c r="F30" s="79" t="str">
         <f>_xll.ohRangeRetrieveError(E30)</f>
@@ -2494,19 +2500,19 @@
     <row r="31" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A31" s="3"/>
       <c r="B31" s="87">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="C31" s="88" t="str">
         <f t="shared" si="1"/>
-        <v>x23F</v>
+        <v>x20F</v>
       </c>
       <c r="D31" s="87" t="str">
         <f t="shared" si="0"/>
-        <v>HKD17x23F_Quote</v>
+        <v>HKD14x20F_Quote</v>
       </c>
       <c r="E31" s="89" t="str">
         <f>_xll.qlSimpleQuote(D31,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD17x23F_Quote#0002</v>
+        <v>HKD14x20F_Quote#0002</v>
       </c>
       <c r="F31" s="79" t="str">
         <f>_xll.ohRangeRetrieveError(E31)</f>
@@ -2516,86 +2522,89 @@
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A32" s="3"/>
-      <c r="B32" s="84">
+      <c r="B32" s="87">
+        <v>15</v>
+      </c>
+      <c r="C32" s="88" t="str">
+        <f t="shared" si="1"/>
+        <v>x21F</v>
+      </c>
+      <c r="D32" s="87" t="str">
+        <f t="shared" si="0"/>
+        <v>HKD15x21F_Quote</v>
+      </c>
+      <c r="E32" s="89" t="str">
+        <f>_xll.qlSimpleQuote(D32,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
+        <v>HKD15x21F_Quote#0002</v>
+      </c>
+      <c r="F32" s="79" t="str">
+        <f>_xll.ohRangeRetrieveError(E32)</f>
+        <v/>
+      </c>
+      <c r="G32" s="2"/>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A33" s="3"/>
+      <c r="B33" s="87">
+        <v>16</v>
+      </c>
+      <c r="C33" s="88" t="str">
+        <f t="shared" si="1"/>
+        <v>x22F</v>
+      </c>
+      <c r="D33" s="87" t="str">
+        <f t="shared" si="0"/>
+        <v>HKD16x22F_Quote</v>
+      </c>
+      <c r="E33" s="89" t="str">
+        <f>_xll.qlSimpleQuote(D33,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
+        <v>HKD16x22F_Quote#0002</v>
+      </c>
+      <c r="F33" s="79" t="str">
+        <f>_xll.ohRangeRetrieveError(E33)</f>
+        <v/>
+      </c>
+      <c r="G33" s="2"/>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A34" s="3"/>
+      <c r="B34" s="87">
+        <v>17</v>
+      </c>
+      <c r="C34" s="88" t="str">
+        <f t="shared" si="1"/>
+        <v>x23F</v>
+      </c>
+      <c r="D34" s="87" t="str">
+        <f t="shared" si="0"/>
+        <v>HKD17x23F_Quote</v>
+      </c>
+      <c r="E34" s="89" t="str">
+        <f>_xll.qlSimpleQuote(D34,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
+        <v>HKD17x23F_Quote#0002</v>
+      </c>
+      <c r="F34" s="79" t="str">
+        <f>_xll.ohRangeRetrieveError(E34)</f>
+        <v/>
+      </c>
+      <c r="G34" s="2"/>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A35" s="3"/>
+      <c r="B35" s="84">
         <v>18</v>
       </c>
-      <c r="C32" s="85" t="str">
+      <c r="C35" s="85" t="str">
         <f t="shared" si="1"/>
         <v>x24F</v>
       </c>
-      <c r="D32" s="84" t="str">
+      <c r="D35" s="84" t="str">
         <f t="shared" si="0"/>
         <v>HKD18x24F_Quote</v>
-      </c>
-      <c r="E32" s="86" t="str">
-        <f>_xll.qlSimpleQuote(D32,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD18x24F_Quote#0002</v>
-      </c>
-      <c r="F32" s="76" t="str">
-        <f>_xll.ohRangeRetrieveError(E32)</f>
-        <v/>
-      </c>
-      <c r="G32" s="2"/>
-    </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A33" s="3"/>
-      <c r="B33" s="81" t="s">
-        <v>51</v>
-      </c>
-      <c r="C33" s="82" t="s">
-        <v>33</v>
-      </c>
-      <c r="D33" s="81" t="str">
-        <f>Currency&amp;$B33&amp;$C33&amp;QuoteSuffix</f>
-        <v>HKDT12F1_Quote</v>
-      </c>
-      <c r="E33" s="83" t="str">
-        <f>_xll.qlSimpleQuote(D33,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDT12F1_Quote#0002</v>
-      </c>
-      <c r="F33" s="78" t="str">
-        <f>_xll.ohRangeRetrieveError(E33)</f>
-        <v/>
-      </c>
-      <c r="G33" s="2"/>
-    </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A34" s="3"/>
-      <c r="B34" s="84" t="s">
-        <v>52</v>
-      </c>
-      <c r="C34" s="85" t="s">
-        <v>33</v>
-      </c>
-      <c r="D34" s="84" t="str">
-        <f>Currency&amp;$B34&amp;$C34&amp;QuoteSuffix</f>
-        <v>HKDTOM12F1_Quote</v>
-      </c>
-      <c r="E34" s="86" t="str">
-        <f>_xll.qlSimpleQuote(D34,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDTOM12F1_Quote#0002</v>
-      </c>
-      <c r="F34" s="76" t="str">
-        <f>_xll.ohRangeRetrieveError(E34)</f>
-        <v/>
-      </c>
-      <c r="G34" s="2"/>
-    </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A35" s="3"/>
-      <c r="B35" s="90">
-        <v>12</v>
-      </c>
-      <c r="C35" s="91" t="s">
-        <v>43</v>
-      </c>
-      <c r="D35" s="84" t="str">
-        <f t="shared" si="0"/>
-        <v>HKD12x24F_Quote</v>
       </c>
       <c r="E35" s="86" t="str">
         <f>_xll.qlSimpleQuote(D35,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD12x24F_Quote#0002</v>
+        <v>HKD18x24F_Quote#0002</v>
       </c>
       <c r="F35" s="76" t="str">
         <f>_xll.ohRangeRetrieveError(E35)</f>
@@ -2603,14 +2612,80 @@
       </c>
       <c r="G35" s="2"/>
     </row>
-    <row r="36" spans="1:7" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="5"/>
-      <c r="B36" s="6"/>
-      <c r="C36" s="6"/>
-      <c r="D36" s="6"/>
-      <c r="E36" s="9"/>
-      <c r="F36" s="9"/>
-      <c r="G36" s="7"/>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A36" s="3"/>
+      <c r="B36" s="81" t="s">
+        <v>51</v>
+      </c>
+      <c r="C36" s="82" t="s">
+        <v>33</v>
+      </c>
+      <c r="D36" s="81" t="str">
+        <f>Currency&amp;$B36&amp;$C36&amp;QuoteSuffix</f>
+        <v>HKDT12F1_Quote</v>
+      </c>
+      <c r="E36" s="83" t="str">
+        <f>_xll.qlSimpleQuote(D36,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
+        <v>HKDT12F1_Quote#0002</v>
+      </c>
+      <c r="F36" s="78" t="str">
+        <f>_xll.ohRangeRetrieveError(E36)</f>
+        <v/>
+      </c>
+      <c r="G36" s="2"/>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A37" s="3"/>
+      <c r="B37" s="84" t="s">
+        <v>52</v>
+      </c>
+      <c r="C37" s="85" t="s">
+        <v>33</v>
+      </c>
+      <c r="D37" s="84" t="str">
+        <f>Currency&amp;$B37&amp;$C37&amp;QuoteSuffix</f>
+        <v>HKDTOM12F1_Quote</v>
+      </c>
+      <c r="E37" s="86" t="str">
+        <f>_xll.qlSimpleQuote(D37,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
+        <v>HKDTOM12F1_Quote#0002</v>
+      </c>
+      <c r="F37" s="76" t="str">
+        <f>_xll.ohRangeRetrieveError(E37)</f>
+        <v/>
+      </c>
+      <c r="G37" s="2"/>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A38" s="3"/>
+      <c r="B38" s="90">
+        <v>12</v>
+      </c>
+      <c r="C38" s="91" t="s">
+        <v>43</v>
+      </c>
+      <c r="D38" s="84" t="str">
+        <f t="shared" si="0"/>
+        <v>HKD12x24F_Quote</v>
+      </c>
+      <c r="E38" s="86" t="str">
+        <f>_xll.qlSimpleQuote(D38,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
+        <v>HKD12x24F_Quote#0002</v>
+      </c>
+      <c r="F38" s="76" t="str">
+        <f>_xll.ohRangeRetrieveError(E38)</f>
+        <v/>
+      </c>
+      <c r="G38" s="2"/>
+    </row>
+    <row r="39" spans="1:7" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="5"/>
+      <c r="B39" s="6"/>
+      <c r="C39" s="6"/>
+      <c r="D39" s="6"/>
+      <c r="E39" s="9"/>
+      <c r="F39" s="9"/>
+      <c r="G39" s="7"/>
     </row>
   </sheetData>
   <phoneticPr fontId="4" type="noConversion"/>
@@ -2691,15 +2766,15 @@
       </c>
       <c r="D3" s="39" t="str">
         <f t="array" ref="D3:D122">_xll.qlIMMNextCodes(_xll.qlSettingsEvaluationDate(Trigger)-1,$C3:$C122)</f>
-        <v>Q3</v>
+        <v>X3</v>
       </c>
       <c r="E3" s="40" t="str">
         <f t="shared" ref="E3:E34" si="0">Currency&amp;$D$1&amp;$E$1&amp;$D3&amp;QuoteSuffix</f>
-        <v>HKDFUT1MQ3_Quote</v>
+        <v>HKDFUT1MX3_Quote</v>
       </c>
       <c r="F3" s="41" t="str">
         <f>_xll.qlSimpleQuote(E3,,PriceTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDFUT1MQ3_Quote#0002</v>
+        <v>HKDFUT1MX3_Quote#0002</v>
       </c>
       <c r="G3" s="60" t="str">
         <f>_xll.ohRangeRetrieveError(F3)</f>
@@ -2716,15 +2791,15 @@
         <v>0</v>
       </c>
       <c r="D4" s="4" t="str">
-        <v>U3</v>
+        <v>Z3</v>
       </c>
       <c r="E4" s="40" t="str">
         <f t="shared" si="0"/>
-        <v>HKDFUT1MU3_Quote</v>
+        <v>HKDFUT1MZ3_Quote</v>
       </c>
       <c r="F4" s="12" t="str">
         <f>_xll.qlSimpleQuote(E4,,PriceTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDFUT1MU3_Quote#0002</v>
+        <v>HKDFUT1MZ3_Quote#0002</v>
       </c>
       <c r="G4" s="61" t="str">
         <f>_xll.ohRangeRetrieveError(F4)</f>
@@ -2741,15 +2816,15 @@
         <v>0</v>
       </c>
       <c r="D5" s="4" t="str">
-        <v>V3</v>
+        <v>F4</v>
       </c>
       <c r="E5" s="40" t="str">
         <f t="shared" si="0"/>
-        <v>HKDFUT1MV3_Quote</v>
+        <v>HKDFUT1MF4_Quote</v>
       </c>
       <c r="F5" s="12" t="str">
         <f>_xll.qlSimpleQuote(E5,,PriceTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDFUT1MV3_Quote#0002</v>
+        <v>HKDFUT1MF4_Quote#0002</v>
       </c>
       <c r="G5" s="61" t="str">
         <f>_xll.ohRangeRetrieveError(F5)</f>
@@ -2766,15 +2841,15 @@
         <v>0</v>
       </c>
       <c r="D6" s="4" t="str">
-        <v>X3</v>
+        <v>G4</v>
       </c>
       <c r="E6" s="40" t="str">
         <f t="shared" si="0"/>
-        <v>HKDFUT1MX3_Quote</v>
+        <v>HKDFUT1MG4_Quote</v>
       </c>
       <c r="F6" s="12" t="str">
         <f>_xll.qlSimpleQuote(E6,,PriceTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDFUT1MX3_Quote#0002</v>
+        <v>HKDFUT1MG4_Quote#0002</v>
       </c>
       <c r="G6" s="61" t="str">
         <f>_xll.ohRangeRetrieveError(F6)</f>
@@ -2791,15 +2866,15 @@
         <v>0</v>
       </c>
       <c r="D7" s="4" t="str">
-        <v>Z3</v>
+        <v>H4</v>
       </c>
       <c r="E7" s="40" t="str">
         <f t="shared" si="0"/>
-        <v>HKDFUT1MZ3_Quote</v>
+        <v>HKDFUT1MH4_Quote</v>
       </c>
       <c r="F7" s="12" t="str">
         <f>_xll.qlSimpleQuote(E7,,PriceTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDFUT1MZ3_Quote#0002</v>
+        <v>HKDFUT1MH4_Quote#0002</v>
       </c>
       <c r="G7" s="61" t="str">
         <f>_xll.ohRangeRetrieveError(F7)</f>
@@ -2816,15 +2891,15 @@
         <v>0</v>
       </c>
       <c r="D8" s="4" t="str">
-        <v>F4</v>
+        <v>J4</v>
       </c>
       <c r="E8" s="40" t="str">
         <f t="shared" si="0"/>
-        <v>HKDFUT1MF4_Quote</v>
+        <v>HKDFUT1MJ4_Quote</v>
       </c>
       <c r="F8" s="12" t="str">
         <f>_xll.qlSimpleQuote(E8,,PriceTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDFUT1MF4_Quote#0002</v>
+        <v>HKDFUT1MJ4_Quote#0002</v>
       </c>
       <c r="G8" s="61" t="str">
         <f>_xll.ohRangeRetrieveError(F8)</f>
@@ -2841,15 +2916,15 @@
         <v>0</v>
       </c>
       <c r="D9" s="4" t="str">
-        <v>G4</v>
+        <v>K4</v>
       </c>
       <c r="E9" s="40" t="str">
         <f t="shared" si="0"/>
-        <v>HKDFUT1MG4_Quote</v>
+        <v>HKDFUT1MK4_Quote</v>
       </c>
       <c r="F9" s="12" t="str">
         <f>_xll.qlSimpleQuote(E9,,PriceTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDFUT1MG4_Quote#0002</v>
+        <v>HKDFUT1MK4_Quote#0002</v>
       </c>
       <c r="G9" s="61" t="str">
         <f>_xll.ohRangeRetrieveError(F9)</f>
@@ -2866,15 +2941,15 @@
         <v>0</v>
       </c>
       <c r="D10" s="4" t="str">
-        <v>H4</v>
+        <v>M4</v>
       </c>
       <c r="E10" s="40" t="str">
         <f t="shared" si="0"/>
-        <v>HKDFUT1MH4_Quote</v>
+        <v>HKDFUT1MM4_Quote</v>
       </c>
       <c r="F10" s="12" t="str">
         <f>_xll.qlSimpleQuote(E10,,PriceTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDFUT1MH4_Quote#0002</v>
+        <v>HKDFUT1MM4_Quote#0002</v>
       </c>
       <c r="G10" s="61" t="str">
         <f>_xll.ohRangeRetrieveError(F10)</f>
@@ -2891,15 +2966,15 @@
         <v>0</v>
       </c>
       <c r="D11" s="4" t="str">
-        <v>J4</v>
+        <v>N4</v>
       </c>
       <c r="E11" s="40" t="str">
         <f t="shared" si="0"/>
-        <v>HKDFUT1MJ4_Quote</v>
+        <v>HKDFUT1MN4_Quote</v>
       </c>
       <c r="F11" s="12" t="str">
         <f>_xll.qlSimpleQuote(E11,,PriceTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDFUT1MJ4_Quote#0002</v>
+        <v>HKDFUT1MN4_Quote#0002</v>
       </c>
       <c r="G11" s="61" t="str">
         <f>_xll.ohRangeRetrieveError(F11)</f>
@@ -2916,15 +2991,15 @@
         <v>0</v>
       </c>
       <c r="D12" s="4" t="str">
-        <v>K4</v>
+        <v>Q4</v>
       </c>
       <c r="E12" s="40" t="str">
         <f t="shared" si="0"/>
-        <v>HKDFUT1MK4_Quote</v>
+        <v>HKDFUT1MQ4_Quote</v>
       </c>
       <c r="F12" s="12" t="str">
         <f>_xll.qlSimpleQuote(E12,,PriceTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDFUT1MK4_Quote#0002</v>
+        <v>HKDFUT1MQ4_Quote#0002</v>
       </c>
       <c r="G12" s="61" t="str">
         <f>_xll.ohRangeRetrieveError(F12)</f>
@@ -2941,15 +3016,15 @@
         <v>0</v>
       </c>
       <c r="D13" s="4" t="str">
-        <v>M4</v>
+        <v>U4</v>
       </c>
       <c r="E13" s="40" t="str">
         <f t="shared" si="0"/>
-        <v>HKDFUT1MM4_Quote</v>
+        <v>HKDFUT1MU4_Quote</v>
       </c>
       <c r="F13" s="12" t="str">
         <f>_xll.qlSimpleQuote(E13,,PriceTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDFUT1MM4_Quote#0002</v>
+        <v>HKDFUT1MU4_Quote#0002</v>
       </c>
       <c r="G13" s="61" t="str">
         <f>_xll.ohRangeRetrieveError(F13)</f>
@@ -2966,15 +3041,15 @@
         <v>0</v>
       </c>
       <c r="D14" s="4" t="str">
-        <v>N4</v>
+        <v>V4</v>
       </c>
       <c r="E14" s="40" t="str">
         <f t="shared" si="0"/>
-        <v>HKDFUT1MN4_Quote</v>
+        <v>HKDFUT1MV4_Quote</v>
       </c>
       <c r="F14" s="12" t="str">
         <f>_xll.qlSimpleQuote(E14,,PriceTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDFUT1MN4_Quote#0002</v>
+        <v>HKDFUT1MV4_Quote#0002</v>
       </c>
       <c r="G14" s="61" t="str">
         <f>_xll.ohRangeRetrieveError(F14)</f>
@@ -2991,15 +3066,15 @@
         <v>0</v>
       </c>
       <c r="D15" s="4" t="str">
-        <v>Q4</v>
+        <v>X4</v>
       </c>
       <c r="E15" s="40" t="str">
         <f t="shared" si="0"/>
-        <v>HKDFUT1MQ4_Quote</v>
+        <v>HKDFUT1MX4_Quote</v>
       </c>
       <c r="F15" s="12" t="str">
         <f>_xll.qlSimpleQuote(E15,,PriceTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDFUT1MQ4_Quote#0002</v>
+        <v>HKDFUT1MX4_Quote#0002</v>
       </c>
       <c r="G15" s="61" t="str">
         <f>_xll.ohRangeRetrieveError(F15)</f>
@@ -3016,15 +3091,15 @@
         <v>0</v>
       </c>
       <c r="D16" s="4" t="str">
-        <v>U4</v>
+        <v>Z4</v>
       </c>
       <c r="E16" s="40" t="str">
         <f t="shared" si="0"/>
-        <v>HKDFUT1MU4_Quote</v>
+        <v>HKDFUT1MZ4_Quote</v>
       </c>
       <c r="F16" s="12" t="str">
         <f>_xll.qlSimpleQuote(E16,,PriceTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDFUT1MU4_Quote#0002</v>
+        <v>HKDFUT1MZ4_Quote#0002</v>
       </c>
       <c r="G16" s="61" t="str">
         <f>_xll.ohRangeRetrieveError(F16)</f>
@@ -3041,15 +3116,15 @@
         <v>0</v>
       </c>
       <c r="D17" s="4" t="str">
-        <v>V4</v>
+        <v>F5</v>
       </c>
       <c r="E17" s="40" t="str">
         <f t="shared" si="0"/>
-        <v>HKDFUT1MV4_Quote</v>
+        <v>HKDFUT1MF5_Quote</v>
       </c>
       <c r="F17" s="12" t="str">
         <f>_xll.qlSimpleQuote(E17,,PriceTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDFUT1MV4_Quote#0002</v>
+        <v>HKDFUT1MF5_Quote#0002</v>
       </c>
       <c r="G17" s="61" t="str">
         <f>_xll.ohRangeRetrieveError(F17)</f>
@@ -3066,15 +3141,15 @@
         <v>0</v>
       </c>
       <c r="D18" s="4" t="str">
-        <v>X4</v>
+        <v>G5</v>
       </c>
       <c r="E18" s="40" t="str">
         <f t="shared" si="0"/>
-        <v>HKDFUT1MX4_Quote</v>
+        <v>HKDFUT1MG5_Quote</v>
       </c>
       <c r="F18" s="12" t="str">
         <f>_xll.qlSimpleQuote(E18,,PriceTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDFUT1MX4_Quote#0002</v>
+        <v>HKDFUT1MG5_Quote#0002</v>
       </c>
       <c r="G18" s="61" t="str">
         <f>_xll.ohRangeRetrieveError(F18)</f>
@@ -3091,15 +3166,15 @@
         <v>0</v>
       </c>
       <c r="D19" s="4" t="str">
-        <v>Z4</v>
+        <v>H5</v>
       </c>
       <c r="E19" s="40" t="str">
         <f t="shared" si="0"/>
-        <v>HKDFUT1MZ4_Quote</v>
+        <v>HKDFUT1MH5_Quote</v>
       </c>
       <c r="F19" s="12" t="str">
         <f>_xll.qlSimpleQuote(E19,,PriceTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDFUT1MZ4_Quote#0002</v>
+        <v>HKDFUT1MH5_Quote#0002</v>
       </c>
       <c r="G19" s="61" t="str">
         <f>_xll.ohRangeRetrieveError(F19)</f>
@@ -3116,15 +3191,15 @@
         <v>0</v>
       </c>
       <c r="D20" s="4" t="str">
-        <v>F5</v>
+        <v>J5</v>
       </c>
       <c r="E20" s="40" t="str">
         <f t="shared" si="0"/>
-        <v>HKDFUT1MF5_Quote</v>
+        <v>HKDFUT1MJ5_Quote</v>
       </c>
       <c r="F20" s="12" t="str">
         <f>_xll.qlSimpleQuote(E20,,PriceTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDFUT1MF5_Quote#0002</v>
+        <v>HKDFUT1MJ5_Quote#0002</v>
       </c>
       <c r="G20" s="61" t="str">
         <f>_xll.ohRangeRetrieveError(F20)</f>
@@ -3141,15 +3216,15 @@
         <v>0</v>
       </c>
       <c r="D21" s="4" t="str">
-        <v>G5</v>
+        <v>K5</v>
       </c>
       <c r="E21" s="40" t="str">
         <f t="shared" si="0"/>
-        <v>HKDFUT1MG5_Quote</v>
+        <v>HKDFUT1MK5_Quote</v>
       </c>
       <c r="F21" s="12" t="str">
         <f>_xll.qlSimpleQuote(E21,,PriceTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDFUT1MG5_Quote#0002</v>
+        <v>HKDFUT1MK5_Quote#0002</v>
       </c>
       <c r="G21" s="61" t="str">
         <f>_xll.ohRangeRetrieveError(F21)</f>
@@ -3166,15 +3241,15 @@
         <v>0</v>
       </c>
       <c r="D22" s="4" t="str">
-        <v>H5</v>
+        <v>M5</v>
       </c>
       <c r="E22" s="40" t="str">
         <f t="shared" si="0"/>
-        <v>HKDFUT1MH5_Quote</v>
+        <v>HKDFUT1MM5_Quote</v>
       </c>
       <c r="F22" s="12" t="str">
         <f>_xll.qlSimpleQuote(E22,,PriceTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDFUT1MH5_Quote#0002</v>
+        <v>HKDFUT1MM5_Quote#0002</v>
       </c>
       <c r="G22" s="61" t="str">
         <f>_xll.ohRangeRetrieveError(F22)</f>
@@ -3191,15 +3266,15 @@
         <v>0</v>
       </c>
       <c r="D23" s="4" t="str">
-        <v>J5</v>
+        <v>N5</v>
       </c>
       <c r="E23" s="40" t="str">
         <f t="shared" si="0"/>
-        <v>HKDFUT1MJ5_Quote</v>
+        <v>HKDFUT1MN5_Quote</v>
       </c>
       <c r="F23" s="12" t="str">
         <f>_xll.qlSimpleQuote(E23,,PriceTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDFUT1MJ5_Quote#0002</v>
+        <v>HKDFUT1MN5_Quote#0002</v>
       </c>
       <c r="G23" s="61" t="str">
         <f>_xll.ohRangeRetrieveError(F23)</f>
@@ -3216,15 +3291,15 @@
         <v>0</v>
       </c>
       <c r="D24" s="4" t="str">
-        <v>K5</v>
+        <v>Q5</v>
       </c>
       <c r="E24" s="40" t="str">
         <f t="shared" si="0"/>
-        <v>HKDFUT1MK5_Quote</v>
+        <v>HKDFUT1MQ5_Quote</v>
       </c>
       <c r="F24" s="12" t="str">
         <f>_xll.qlSimpleQuote(E24,,PriceTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDFUT1MK5_Quote#0002</v>
+        <v>HKDFUT1MQ5_Quote#0002</v>
       </c>
       <c r="G24" s="61" t="str">
         <f>_xll.ohRangeRetrieveError(F24)</f>
@@ -3241,15 +3316,15 @@
         <v>0</v>
       </c>
       <c r="D25" s="4" t="str">
-        <v>M5</v>
+        <v>U5</v>
       </c>
       <c r="E25" s="40" t="str">
         <f t="shared" si="0"/>
-        <v>HKDFUT1MM5_Quote</v>
+        <v>HKDFUT1MU5_Quote</v>
       </c>
       <c r="F25" s="12" t="str">
         <f>_xll.qlSimpleQuote(E25,,PriceTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDFUT1MM5_Quote#0002</v>
+        <v>HKDFUT1MU5_Quote#0002</v>
       </c>
       <c r="G25" s="61" t="str">
         <f>_xll.ohRangeRetrieveError(F25)</f>
@@ -3266,15 +3341,15 @@
         <v>0</v>
       </c>
       <c r="D26" s="4" t="str">
-        <v>N5</v>
+        <v>V5</v>
       </c>
       <c r="E26" s="40" t="str">
         <f t="shared" si="0"/>
-        <v>HKDFUT1MN5_Quote</v>
+        <v>HKDFUT1MV5_Quote</v>
       </c>
       <c r="F26" s="12" t="str">
         <f>_xll.qlSimpleQuote(E26,,PriceTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDFUT1MN5_Quote#0002</v>
+        <v>HKDFUT1MV5_Quote#0002</v>
       </c>
       <c r="G26" s="61" t="str">
         <f>_xll.ohRangeRetrieveError(F26)</f>
@@ -3291,15 +3366,15 @@
         <v>0</v>
       </c>
       <c r="D27" s="4" t="str">
-        <v>Q5</v>
+        <v>X5</v>
       </c>
       <c r="E27" s="40" t="str">
         <f t="shared" si="0"/>
-        <v>HKDFUT1MQ5_Quote</v>
+        <v>HKDFUT1MX5_Quote</v>
       </c>
       <c r="F27" s="12" t="str">
         <f>_xll.qlSimpleQuote(E27,,PriceTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDFUT1MQ5_Quote#0002</v>
+        <v>HKDFUT1MX5_Quote#0002</v>
       </c>
       <c r="G27" s="61" t="str">
         <f>_xll.ohRangeRetrieveError(F27)</f>
@@ -3316,15 +3391,15 @@
         <v>0</v>
       </c>
       <c r="D28" s="4" t="str">
-        <v>U5</v>
+        <v>Z5</v>
       </c>
       <c r="E28" s="40" t="str">
         <f t="shared" si="0"/>
-        <v>HKDFUT1MU5_Quote</v>
+        <v>HKDFUT1MZ5_Quote</v>
       </c>
       <c r="F28" s="12" t="str">
         <f>_xll.qlSimpleQuote(E28,,PriceTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDFUT1MU5_Quote#0002</v>
+        <v>HKDFUT1MZ5_Quote#0002</v>
       </c>
       <c r="G28" s="61" t="str">
         <f>_xll.ohRangeRetrieveError(F28)</f>
@@ -3341,15 +3416,15 @@
         <v>0</v>
       </c>
       <c r="D29" s="4" t="str">
-        <v>V5</v>
+        <v>F6</v>
       </c>
       <c r="E29" s="40" t="str">
         <f t="shared" si="0"/>
-        <v>HKDFUT1MV5_Quote</v>
+        <v>HKDFUT1MF6_Quote</v>
       </c>
       <c r="F29" s="12" t="str">
         <f>_xll.qlSimpleQuote(E29,,PriceTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDFUT1MV5_Quote#0002</v>
+        <v>HKDFUT1MF6_Quote#0002</v>
       </c>
       <c r="G29" s="61" t="str">
         <f>_xll.ohRangeRetrieveError(F29)</f>
@@ -3366,15 +3441,15 @@
         <v>0</v>
       </c>
       <c r="D30" s="4" t="str">
-        <v>X5</v>
+        <v>G6</v>
       </c>
       <c r="E30" s="40" t="str">
         <f t="shared" si="0"/>
-        <v>HKDFUT1MX5_Quote</v>
+        <v>HKDFUT1MG6_Quote</v>
       </c>
       <c r="F30" s="12" t="str">
         <f>_xll.qlSimpleQuote(E30,,PriceTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDFUT1MX5_Quote#0002</v>
+        <v>HKDFUT1MG6_Quote#0002</v>
       </c>
       <c r="G30" s="61" t="str">
         <f>_xll.ohRangeRetrieveError(F30)</f>
@@ -3391,15 +3466,15 @@
         <v>0</v>
       </c>
       <c r="D31" s="4" t="str">
-        <v>Z5</v>
+        <v>H6</v>
       </c>
       <c r="E31" s="40" t="str">
         <f t="shared" si="0"/>
-        <v>HKDFUT1MZ5_Quote</v>
+        <v>HKDFUT1MH6_Quote</v>
       </c>
       <c r="F31" s="12" t="str">
         <f>_xll.qlSimpleQuote(E31,,PriceTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDFUT1MZ5_Quote#0002</v>
+        <v>HKDFUT1MH6_Quote#0002</v>
       </c>
       <c r="G31" s="61" t="str">
         <f>_xll.ohRangeRetrieveError(F31)</f>
@@ -3416,15 +3491,15 @@
         <v>0</v>
       </c>
       <c r="D32" s="4" t="str">
-        <v>F6</v>
+        <v>J6</v>
       </c>
       <c r="E32" s="40" t="str">
         <f t="shared" si="0"/>
-        <v>HKDFUT1MF6_Quote</v>
+        <v>HKDFUT1MJ6_Quote</v>
       </c>
       <c r="F32" s="12" t="str">
         <f>_xll.qlSimpleQuote(E32,,PriceTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDFUT1MF6_Quote#0002</v>
+        <v>HKDFUT1MJ6_Quote#0002</v>
       </c>
       <c r="G32" s="61" t="str">
         <f>_xll.ohRangeRetrieveError(F32)</f>
@@ -3441,15 +3516,15 @@
         <v>0</v>
       </c>
       <c r="D33" s="4" t="str">
-        <v>G6</v>
+        <v>K6</v>
       </c>
       <c r="E33" s="40" t="str">
         <f t="shared" si="0"/>
-        <v>HKDFUT1MG6_Quote</v>
+        <v>HKDFUT1MK6_Quote</v>
       </c>
       <c r="F33" s="12" t="str">
         <f>_xll.qlSimpleQuote(E33,,PriceTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDFUT1MG6_Quote#0002</v>
+        <v>HKDFUT1MK6_Quote#0002</v>
       </c>
       <c r="G33" s="61" t="str">
         <f>_xll.ohRangeRetrieveError(F33)</f>
@@ -3466,15 +3541,15 @@
         <v>0</v>
       </c>
       <c r="D34" s="4" t="str">
-        <v>H6</v>
+        <v>M6</v>
       </c>
       <c r="E34" s="40" t="str">
         <f t="shared" si="0"/>
-        <v>HKDFUT1MH6_Quote</v>
+        <v>HKDFUT1MM6_Quote</v>
       </c>
       <c r="F34" s="12" t="str">
         <f>_xll.qlSimpleQuote(E34,,PriceTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDFUT1MH6_Quote#0002</v>
+        <v>HKDFUT1MM6_Quote#0002</v>
       </c>
       <c r="G34" s="61" t="str">
         <f>_xll.ohRangeRetrieveError(F34)</f>
@@ -3491,15 +3566,15 @@
         <v>0</v>
       </c>
       <c r="D35" s="4" t="str">
-        <v>J6</v>
+        <v>N6</v>
       </c>
       <c r="E35" s="40" t="str">
         <f t="shared" ref="E35:E66" si="1">Currency&amp;$D$1&amp;$E$1&amp;$D35&amp;QuoteSuffix</f>
-        <v>HKDFUT1MJ6_Quote</v>
+        <v>HKDFUT1MN6_Quote</v>
       </c>
       <c r="F35" s="12" t="str">
         <f>_xll.qlSimpleQuote(E35,,PriceTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDFUT1MJ6_Quote#0002</v>
+        <v>HKDFUT1MN6_Quote#0002</v>
       </c>
       <c r="G35" s="61" t="str">
         <f>_xll.ohRangeRetrieveError(F35)</f>
@@ -3516,15 +3591,15 @@
         <v>0</v>
       </c>
       <c r="D36" s="4" t="str">
-        <v>K6</v>
+        <v>Q6</v>
       </c>
       <c r="E36" s="40" t="str">
         <f t="shared" si="1"/>
-        <v>HKDFUT1MK6_Quote</v>
+        <v>HKDFUT1MQ6_Quote</v>
       </c>
       <c r="F36" s="12" t="str">
         <f>_xll.qlSimpleQuote(E36,,PriceTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDFUT1MK6_Quote#0002</v>
+        <v>HKDFUT1MQ6_Quote#0002</v>
       </c>
       <c r="G36" s="61" t="str">
         <f>_xll.ohRangeRetrieveError(F36)</f>
@@ -3541,15 +3616,15 @@
         <v>0</v>
       </c>
       <c r="D37" s="4" t="str">
-        <v>M6</v>
+        <v>U6</v>
       </c>
       <c r="E37" s="40" t="str">
         <f t="shared" si="1"/>
-        <v>HKDFUT1MM6_Quote</v>
+        <v>HKDFUT1MU6_Quote</v>
       </c>
       <c r="F37" s="12" t="str">
         <f>_xll.qlSimpleQuote(E37,,PriceTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDFUT1MM6_Quote#0002</v>
+        <v>HKDFUT1MU6_Quote#0002</v>
       </c>
       <c r="G37" s="61" t="str">
         <f>_xll.ohRangeRetrieveError(F37)</f>
@@ -3566,15 +3641,15 @@
         <v>0</v>
       </c>
       <c r="D38" s="4" t="str">
-        <v>N6</v>
+        <v>V6</v>
       </c>
       <c r="E38" s="40" t="str">
         <f t="shared" si="1"/>
-        <v>HKDFUT1MN6_Quote</v>
+        <v>HKDFUT1MV6_Quote</v>
       </c>
       <c r="F38" s="12" t="str">
         <f>_xll.qlSimpleQuote(E38,,PriceTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDFUT1MN6_Quote#0002</v>
+        <v>HKDFUT1MV6_Quote#0002</v>
       </c>
       <c r="G38" s="61" t="str">
         <f>_xll.ohRangeRetrieveError(F38)</f>
@@ -3591,15 +3666,15 @@
         <v>0</v>
       </c>
       <c r="D39" s="4" t="str">
-        <v>Q6</v>
+        <v>X6</v>
       </c>
       <c r="E39" s="40" t="str">
         <f t="shared" si="1"/>
-        <v>HKDFUT1MQ6_Quote</v>
+        <v>HKDFUT1MX6_Quote</v>
       </c>
       <c r="F39" s="12" t="str">
         <f>_xll.qlSimpleQuote(E39,,PriceTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDFUT1MQ6_Quote#0002</v>
+        <v>HKDFUT1MX6_Quote#0002</v>
       </c>
       <c r="G39" s="61" t="str">
         <f>_xll.ohRangeRetrieveError(F39)</f>
@@ -3616,15 +3691,15 @@
         <v>0</v>
       </c>
       <c r="D40" s="4" t="str">
-        <v>U6</v>
+        <v>Z6</v>
       </c>
       <c r="E40" s="40" t="str">
         <f t="shared" si="1"/>
-        <v>HKDFUT1MU6_Quote</v>
+        <v>HKDFUT1MZ6_Quote</v>
       </c>
       <c r="F40" s="12" t="str">
         <f>_xll.qlSimpleQuote(E40,,PriceTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDFUT1MU6_Quote#0002</v>
+        <v>HKDFUT1MZ6_Quote#0002</v>
       </c>
       <c r="G40" s="61" t="str">
         <f>_xll.ohRangeRetrieveError(F40)</f>
@@ -3641,15 +3716,15 @@
         <v>0</v>
       </c>
       <c r="D41" s="4" t="str">
-        <v>V6</v>
+        <v>F7</v>
       </c>
       <c r="E41" s="40" t="str">
         <f t="shared" si="1"/>
-        <v>HKDFUT1MV6_Quote</v>
+        <v>HKDFUT1MF7_Quote</v>
       </c>
       <c r="F41" s="12" t="str">
         <f>_xll.qlSimpleQuote(E41,,PriceTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDFUT1MV6_Quote#0002</v>
+        <v>HKDFUT1MF7_Quote#0002</v>
       </c>
       <c r="G41" s="61" t="str">
         <f>_xll.ohRangeRetrieveError(F41)</f>
@@ -3666,15 +3741,15 @@
         <v>0</v>
       </c>
       <c r="D42" s="4" t="str">
-        <v>X6</v>
+        <v>G7</v>
       </c>
       <c r="E42" s="40" t="str">
         <f t="shared" si="1"/>
-        <v>HKDFUT1MX6_Quote</v>
+        <v>HKDFUT1MG7_Quote</v>
       </c>
       <c r="F42" s="12" t="str">
         <f>_xll.qlSimpleQuote(E42,,PriceTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDFUT1MX6_Quote#0002</v>
+        <v>HKDFUT1MG7_Quote#0002</v>
       </c>
       <c r="G42" s="61" t="str">
         <f>_xll.ohRangeRetrieveError(F42)</f>
@@ -3691,15 +3766,15 @@
         <v>0</v>
       </c>
       <c r="D43" s="4" t="str">
-        <v>Z6</v>
+        <v>H7</v>
       </c>
       <c r="E43" s="40" t="str">
         <f t="shared" si="1"/>
-        <v>HKDFUT1MZ6_Quote</v>
+        <v>HKDFUT1MH7_Quote</v>
       </c>
       <c r="F43" s="12" t="str">
         <f>_xll.qlSimpleQuote(E43,,PriceTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDFUT1MZ6_Quote#0002</v>
+        <v>HKDFUT1MH7_Quote#0002</v>
       </c>
       <c r="G43" s="61" t="str">
         <f>_xll.ohRangeRetrieveError(F43)</f>
@@ -3716,15 +3791,15 @@
         <v>0</v>
       </c>
       <c r="D44" s="4" t="str">
-        <v>F7</v>
+        <v>J7</v>
       </c>
       <c r="E44" s="40" t="str">
         <f t="shared" si="1"/>
-        <v>HKDFUT1MF7_Quote</v>
+        <v>HKDFUT1MJ7_Quote</v>
       </c>
       <c r="F44" s="12" t="str">
         <f>_xll.qlSimpleQuote(E44,,PriceTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDFUT1MF7_Quote#0002</v>
+        <v>HKDFUT1MJ7_Quote#0002</v>
       </c>
       <c r="G44" s="61" t="str">
         <f>_xll.ohRangeRetrieveError(F44)</f>
@@ -3741,15 +3816,15 @@
         <v>0</v>
       </c>
       <c r="D45" s="4" t="str">
-        <v>G7</v>
+        <v>K7</v>
       </c>
       <c r="E45" s="40" t="str">
         <f t="shared" si="1"/>
-        <v>HKDFUT1MG7_Quote</v>
+        <v>HKDFUT1MK7_Quote</v>
       </c>
       <c r="F45" s="12" t="str">
         <f>_xll.qlSimpleQuote(E45,,PriceTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDFUT1MG7_Quote#0002</v>
+        <v>HKDFUT1MK7_Quote#0002</v>
       </c>
       <c r="G45" s="61" t="str">
         <f>_xll.ohRangeRetrieveError(F45)</f>
@@ -3766,15 +3841,15 @@
         <v>0</v>
       </c>
       <c r="D46" s="4" t="str">
-        <v>H7</v>
+        <v>M7</v>
       </c>
       <c r="E46" s="40" t="str">
         <f t="shared" si="1"/>
-        <v>HKDFUT1MH7_Quote</v>
+        <v>HKDFUT1MM7_Quote</v>
       </c>
       <c r="F46" s="12" t="str">
         <f>_xll.qlSimpleQuote(E46,,PriceTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDFUT1MH7_Quote#0002</v>
+        <v>HKDFUT1MM7_Quote#0002</v>
       </c>
       <c r="G46" s="61" t="str">
         <f>_xll.ohRangeRetrieveError(F46)</f>
@@ -3791,15 +3866,15 @@
         <v>0</v>
       </c>
       <c r="D47" s="4" t="str">
-        <v>J7</v>
+        <v>N7</v>
       </c>
       <c r="E47" s="40" t="str">
         <f t="shared" si="1"/>
-        <v>HKDFUT1MJ7_Quote</v>
+        <v>HKDFUT1MN7_Quote</v>
       </c>
       <c r="F47" s="12" t="str">
         <f>_xll.qlSimpleQuote(E47,,PriceTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDFUT1MJ7_Quote#0002</v>
+        <v>HKDFUT1MN7_Quote#0002</v>
       </c>
       <c r="G47" s="61" t="str">
         <f>_xll.ohRangeRetrieveError(F47)</f>
@@ -3816,15 +3891,15 @@
         <v>0</v>
       </c>
       <c r="D48" s="4" t="str">
-        <v>K7</v>
+        <v>Q7</v>
       </c>
       <c r="E48" s="40" t="str">
         <f t="shared" si="1"/>
-        <v>HKDFUT1MK7_Quote</v>
+        <v>HKDFUT1MQ7_Quote</v>
       </c>
       <c r="F48" s="12" t="str">
         <f>_xll.qlSimpleQuote(E48,,PriceTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDFUT1MK7_Quote#0002</v>
+        <v>HKDFUT1MQ7_Quote#0002</v>
       </c>
       <c r="G48" s="61" t="str">
         <f>_xll.ohRangeRetrieveError(F48)</f>
@@ -3841,15 +3916,15 @@
         <v>0</v>
       </c>
       <c r="D49" s="4" t="str">
-        <v>M7</v>
+        <v>U7</v>
       </c>
       <c r="E49" s="40" t="str">
         <f t="shared" si="1"/>
-        <v>HKDFUT1MM7_Quote</v>
+        <v>HKDFUT1MU7_Quote</v>
       </c>
       <c r="F49" s="12" t="str">
         <f>_xll.qlSimpleQuote(E49,,PriceTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDFUT1MM7_Quote#0002</v>
+        <v>HKDFUT1MU7_Quote#0002</v>
       </c>
       <c r="G49" s="61" t="str">
         <f>_xll.ohRangeRetrieveError(F49)</f>
@@ -3866,15 +3941,15 @@
         <v>0</v>
       </c>
       <c r="D50" s="4" t="str">
-        <v>N7</v>
+        <v>V7</v>
       </c>
       <c r="E50" s="40" t="str">
         <f t="shared" si="1"/>
-        <v>HKDFUT1MN7_Quote</v>
+        <v>HKDFUT1MV7_Quote</v>
       </c>
       <c r="F50" s="12" t="str">
         <f>_xll.qlSimpleQuote(E50,,PriceTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDFUT1MN7_Quote#0002</v>
+        <v>HKDFUT1MV7_Quote#0002</v>
       </c>
       <c r="G50" s="61" t="str">
         <f>_xll.ohRangeRetrieveError(F50)</f>
@@ -3891,15 +3966,15 @@
         <v>0</v>
       </c>
       <c r="D51" s="4" t="str">
-        <v>Q7</v>
+        <v>X7</v>
       </c>
       <c r="E51" s="40" t="str">
         <f t="shared" si="1"/>
-        <v>HKDFUT1MQ7_Quote</v>
+        <v>HKDFUT1MX7_Quote</v>
       </c>
       <c r="F51" s="12" t="str">
         <f>_xll.qlSimpleQuote(E51,,PriceTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDFUT1MQ7_Quote#0002</v>
+        <v>HKDFUT1MX7_Quote#0002</v>
       </c>
       <c r="G51" s="61" t="str">
         <f>_xll.ohRangeRetrieveError(F51)</f>
@@ -3916,15 +3991,15 @@
         <v>0</v>
       </c>
       <c r="D52" s="4" t="str">
-        <v>U7</v>
+        <v>Z7</v>
       </c>
       <c r="E52" s="40" t="str">
         <f t="shared" si="1"/>
-        <v>HKDFUT1MU7_Quote</v>
+        <v>HKDFUT1MZ7_Quote</v>
       </c>
       <c r="F52" s="12" t="str">
         <f>_xll.qlSimpleQuote(E52,,PriceTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDFUT1MU7_Quote#0002</v>
+        <v>HKDFUT1MZ7_Quote#0002</v>
       </c>
       <c r="G52" s="61" t="str">
         <f>_xll.ohRangeRetrieveError(F52)</f>
@@ -3941,15 +4016,15 @@
         <v>0</v>
       </c>
       <c r="D53" s="4" t="str">
-        <v>V7</v>
+        <v>F8</v>
       </c>
       <c r="E53" s="40" t="str">
         <f t="shared" si="1"/>
-        <v>HKDFUT1MV7_Quote</v>
+        <v>HKDFUT1MF8_Quote</v>
       </c>
       <c r="F53" s="12" t="str">
         <f>_xll.qlSimpleQuote(E53,,PriceTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDFUT1MV7_Quote#0002</v>
+        <v>HKDFUT1MF8_Quote#0002</v>
       </c>
       <c r="G53" s="61" t="str">
         <f>_xll.ohRangeRetrieveError(F53)</f>
@@ -3966,15 +4041,15 @@
         <v>0</v>
       </c>
       <c r="D54" s="4" t="str">
-        <v>X7</v>
+        <v>G8</v>
       </c>
       <c r="E54" s="40" t="str">
         <f t="shared" si="1"/>
-        <v>HKDFUT1MX7_Quote</v>
+        <v>HKDFUT1MG8_Quote</v>
       </c>
       <c r="F54" s="12" t="str">
         <f>_xll.qlSimpleQuote(E54,,PriceTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDFUT1MX7_Quote#0002</v>
+        <v>HKDFUT1MG8_Quote#0002</v>
       </c>
       <c r="G54" s="61" t="str">
         <f>_xll.ohRangeRetrieveError(F54)</f>
@@ -3991,15 +4066,15 @@
         <v>0</v>
       </c>
       <c r="D55" s="4" t="str">
-        <v>Z7</v>
+        <v>H8</v>
       </c>
       <c r="E55" s="40" t="str">
         <f t="shared" si="1"/>
-        <v>HKDFUT1MZ7_Quote</v>
+        <v>HKDFUT1MH8_Quote</v>
       </c>
       <c r="F55" s="12" t="str">
         <f>_xll.qlSimpleQuote(E55,,PriceTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDFUT1MZ7_Quote#0002</v>
+        <v>HKDFUT1MH8_Quote#0002</v>
       </c>
       <c r="G55" s="61" t="str">
         <f>_xll.ohRangeRetrieveError(F55)</f>
@@ -4016,15 +4091,15 @@
         <v>0</v>
       </c>
       <c r="D56" s="4" t="str">
-        <v>F8</v>
+        <v>J8</v>
       </c>
       <c r="E56" s="40" t="str">
         <f t="shared" si="1"/>
-        <v>HKDFUT1MF8_Quote</v>
+        <v>HKDFUT1MJ8_Quote</v>
       </c>
       <c r="F56" s="12" t="str">
         <f>_xll.qlSimpleQuote(E56,,PriceTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDFUT1MF8_Quote#0002</v>
+        <v>HKDFUT1MJ8_Quote#0002</v>
       </c>
       <c r="G56" s="61" t="str">
         <f>_xll.ohRangeRetrieveError(F56)</f>
@@ -4041,15 +4116,15 @@
         <v>0</v>
       </c>
       <c r="D57" s="4" t="str">
-        <v>G8</v>
+        <v>K8</v>
       </c>
       <c r="E57" s="40" t="str">
         <f t="shared" si="1"/>
-        <v>HKDFUT1MG8_Quote</v>
+        <v>HKDFUT1MK8_Quote</v>
       </c>
       <c r="F57" s="12" t="str">
         <f>_xll.qlSimpleQuote(E57,,PriceTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDFUT1MG8_Quote#0002</v>
+        <v>HKDFUT1MK8_Quote#0002</v>
       </c>
       <c r="G57" s="61" t="str">
         <f>_xll.ohRangeRetrieveError(F57)</f>
@@ -4066,15 +4141,15 @@
         <v>0</v>
       </c>
       <c r="D58" s="4" t="str">
-        <v>H8</v>
+        <v>M8</v>
       </c>
       <c r="E58" s="40" t="str">
         <f t="shared" si="1"/>
-        <v>HKDFUT1MH8_Quote</v>
+        <v>HKDFUT1MM8_Quote</v>
       </c>
       <c r="F58" s="12" t="str">
         <f>_xll.qlSimpleQuote(E58,,PriceTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDFUT1MH8_Quote#0002</v>
+        <v>HKDFUT1MM8_Quote#0002</v>
       </c>
       <c r="G58" s="61" t="str">
         <f>_xll.ohRangeRetrieveError(F58)</f>
@@ -4091,15 +4166,15 @@
         <v>0</v>
       </c>
       <c r="D59" s="4" t="str">
-        <v>J8</v>
+        <v>N8</v>
       </c>
       <c r="E59" s="40" t="str">
         <f t="shared" si="1"/>
-        <v>HKDFUT1MJ8_Quote</v>
+        <v>HKDFUT1MN8_Quote</v>
       </c>
       <c r="F59" s="12" t="str">
         <f>_xll.qlSimpleQuote(E59,,PriceTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDFUT1MJ8_Quote#0002</v>
+        <v>HKDFUT1MN8_Quote#0002</v>
       </c>
       <c r="G59" s="61" t="str">
         <f>_xll.ohRangeRetrieveError(F59)</f>
@@ -4116,15 +4191,15 @@
         <v>0</v>
       </c>
       <c r="D60" s="4" t="str">
-        <v>K8</v>
+        <v>Q8</v>
       </c>
       <c r="E60" s="40" t="str">
         <f t="shared" si="1"/>
-        <v>HKDFUT1MK8_Quote</v>
+        <v>HKDFUT1MQ8_Quote</v>
       </c>
       <c r="F60" s="12" t="str">
         <f>_xll.qlSimpleQuote(E60,,PriceTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDFUT1MK8_Quote#0002</v>
+        <v>HKDFUT1MQ8_Quote#0002</v>
       </c>
       <c r="G60" s="61" t="str">
         <f>_xll.ohRangeRetrieveError(F60)</f>
@@ -4141,15 +4216,15 @@
         <v>0</v>
       </c>
       <c r="D61" s="4" t="str">
-        <v>M8</v>
+        <v>U8</v>
       </c>
       <c r="E61" s="40" t="str">
         <f t="shared" si="1"/>
-        <v>HKDFUT1MM8_Quote</v>
+        <v>HKDFUT1MU8_Quote</v>
       </c>
       <c r="F61" s="12" t="str">
         <f>_xll.qlSimpleQuote(E61,,PriceTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDFUT1MM8_Quote#0002</v>
+        <v>HKDFUT1MU8_Quote#0002</v>
       </c>
       <c r="G61" s="61" t="str">
         <f>_xll.ohRangeRetrieveError(F61)</f>
@@ -4166,15 +4241,15 @@
         <v>0</v>
       </c>
       <c r="D62" s="4" t="str">
-        <v>N8</v>
+        <v>V8</v>
       </c>
       <c r="E62" s="40" t="str">
         <f t="shared" si="1"/>
-        <v>HKDFUT1MN8_Quote</v>
+        <v>HKDFUT1MV8_Quote</v>
       </c>
       <c r="F62" s="12" t="str">
         <f>_xll.qlSimpleQuote(E62,,PriceTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDFUT1MN8_Quote#0002</v>
+        <v>HKDFUT1MV8_Quote#0002</v>
       </c>
       <c r="G62" s="61" t="str">
         <f>_xll.ohRangeRetrieveError(F62)</f>
@@ -4191,15 +4266,15 @@
         <v>0</v>
       </c>
       <c r="D63" s="4" t="str">
-        <v>Q8</v>
+        <v>X8</v>
       </c>
       <c r="E63" s="40" t="str">
         <f t="shared" si="1"/>
-        <v>HKDFUT1MQ8_Quote</v>
+        <v>HKDFUT1MX8_Quote</v>
       </c>
       <c r="F63" s="12" t="str">
         <f>_xll.qlSimpleQuote(E63,,PriceTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDFUT1MQ8_Quote#0002</v>
+        <v>HKDFUT1MX8_Quote#0002</v>
       </c>
       <c r="G63" s="61" t="str">
         <f>_xll.ohRangeRetrieveError(F63)</f>
@@ -4216,15 +4291,15 @@
         <v>0</v>
       </c>
       <c r="D64" s="4" t="str">
-        <v>U8</v>
+        <v>Z8</v>
       </c>
       <c r="E64" s="40" t="str">
         <f t="shared" si="1"/>
-        <v>HKDFUT1MU8_Quote</v>
+        <v>HKDFUT1MZ8_Quote</v>
       </c>
       <c r="F64" s="12" t="str">
         <f>_xll.qlSimpleQuote(E64,,PriceTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDFUT1MU8_Quote#0002</v>
+        <v>HKDFUT1MZ8_Quote#0002</v>
       </c>
       <c r="G64" s="61" t="str">
         <f>_xll.ohRangeRetrieveError(F64)</f>
@@ -4241,15 +4316,15 @@
         <v>0</v>
       </c>
       <c r="D65" s="4" t="str">
-        <v>V8</v>
+        <v>F9</v>
       </c>
       <c r="E65" s="40" t="str">
         <f t="shared" si="1"/>
-        <v>HKDFUT1MV8_Quote</v>
+        <v>HKDFUT1MF9_Quote</v>
       </c>
       <c r="F65" s="12" t="str">
         <f>_xll.qlSimpleQuote(E65,,PriceTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDFUT1MV8_Quote#0002</v>
+        <v>HKDFUT1MF9_Quote#0002</v>
       </c>
       <c r="G65" s="61" t="str">
         <f>_xll.ohRangeRetrieveError(F65)</f>
@@ -4266,15 +4341,15 @@
         <v>0</v>
       </c>
       <c r="D66" s="4" t="str">
-        <v>X8</v>
+        <v>G9</v>
       </c>
       <c r="E66" s="40" t="str">
         <f t="shared" si="1"/>
-        <v>HKDFUT1MX8_Quote</v>
+        <v>HKDFUT1MG9_Quote</v>
       </c>
       <c r="F66" s="12" t="str">
         <f>_xll.qlSimpleQuote(E66,,PriceTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDFUT1MX8_Quote#0002</v>
+        <v>HKDFUT1MG9_Quote#0002</v>
       </c>
       <c r="G66" s="61" t="str">
         <f>_xll.ohRangeRetrieveError(F66)</f>
@@ -4291,15 +4366,15 @@
         <v>0</v>
       </c>
       <c r="D67" s="4" t="str">
-        <v>Z8</v>
+        <v>H9</v>
       </c>
       <c r="E67" s="40" t="str">
         <f t="shared" ref="E67:E98" si="2">Currency&amp;$D$1&amp;$E$1&amp;$D67&amp;QuoteSuffix</f>
-        <v>HKDFUT1MZ8_Quote</v>
+        <v>HKDFUT1MH9_Quote</v>
       </c>
       <c r="F67" s="12" t="str">
         <f>_xll.qlSimpleQuote(E67,,PriceTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDFUT1MZ8_Quote#0002</v>
+        <v>HKDFUT1MH9_Quote#0002</v>
       </c>
       <c r="G67" s="61" t="str">
         <f>_xll.ohRangeRetrieveError(F67)</f>
@@ -4316,15 +4391,15 @@
         <v>0</v>
       </c>
       <c r="D68" s="4" t="str">
-        <v>F9</v>
+        <v>J9</v>
       </c>
       <c r="E68" s="40" t="str">
         <f t="shared" si="2"/>
-        <v>HKDFUT1MF9_Quote</v>
+        <v>HKDFUT1MJ9_Quote</v>
       </c>
       <c r="F68" s="12" t="str">
         <f>_xll.qlSimpleQuote(E68,,PriceTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDFUT1MF9_Quote#0002</v>
+        <v>HKDFUT1MJ9_Quote#0002</v>
       </c>
       <c r="G68" s="61" t="str">
         <f>_xll.ohRangeRetrieveError(F68)</f>
@@ -4341,15 +4416,15 @@
         <v>0</v>
       </c>
       <c r="D69" s="4" t="str">
-        <v>G9</v>
+        <v>K9</v>
       </c>
       <c r="E69" s="40" t="str">
         <f t="shared" si="2"/>
-        <v>HKDFUT1MG9_Quote</v>
+        <v>HKDFUT1MK9_Quote</v>
       </c>
       <c r="F69" s="12" t="str">
         <f>_xll.qlSimpleQuote(E69,,PriceTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDFUT1MG9_Quote#0002</v>
+        <v>HKDFUT1MK9_Quote#0002</v>
       </c>
       <c r="G69" s="61" t="str">
         <f>_xll.ohRangeRetrieveError(F69)</f>
@@ -4366,15 +4441,15 @@
         <v>0</v>
       </c>
       <c r="D70" s="4" t="str">
-        <v>H9</v>
+        <v>M9</v>
       </c>
       <c r="E70" s="40" t="str">
         <f t="shared" si="2"/>
-        <v>HKDFUT1MH9_Quote</v>
+        <v>HKDFUT1MM9_Quote</v>
       </c>
       <c r="F70" s="12" t="str">
         <f>_xll.qlSimpleQuote(E70,,PriceTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDFUT1MH9_Quote#0002</v>
+        <v>HKDFUT1MM9_Quote#0002</v>
       </c>
       <c r="G70" s="61" t="str">
         <f>_xll.ohRangeRetrieveError(F70)</f>
@@ -4391,15 +4466,15 @@
         <v>0</v>
       </c>
       <c r="D71" s="4" t="str">
-        <v>J9</v>
+        <v>N9</v>
       </c>
       <c r="E71" s="40" t="str">
         <f t="shared" si="2"/>
-        <v>HKDFUT1MJ9_Quote</v>
+        <v>HKDFUT1MN9_Quote</v>
       </c>
       <c r="F71" s="12" t="str">
         <f>_xll.qlSimpleQuote(E71,,PriceTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDFUT1MJ9_Quote#0002</v>
+        <v>HKDFUT1MN9_Quote#0002</v>
       </c>
       <c r="G71" s="61" t="str">
         <f>_xll.ohRangeRetrieveError(F71)</f>
@@ -4416,15 +4491,15 @@
         <v>0</v>
       </c>
       <c r="D72" s="4" t="str">
-        <v>K9</v>
+        <v>Q9</v>
       </c>
       <c r="E72" s="40" t="str">
         <f t="shared" si="2"/>
-        <v>HKDFUT1MK9_Quote</v>
+        <v>HKDFUT1MQ9_Quote</v>
       </c>
       <c r="F72" s="12" t="str">
         <f>_xll.qlSimpleQuote(E72,,PriceTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDFUT1MK9_Quote#0002</v>
+        <v>HKDFUT1MQ9_Quote#0002</v>
       </c>
       <c r="G72" s="61" t="str">
         <f>_xll.ohRangeRetrieveError(F72)</f>
@@ -4441,15 +4516,15 @@
         <v>0</v>
       </c>
       <c r="D73" s="4" t="str">
-        <v>M9</v>
+        <v>U9</v>
       </c>
       <c r="E73" s="40" t="str">
         <f t="shared" si="2"/>
-        <v>HKDFUT1MM9_Quote</v>
+        <v>HKDFUT1MU9_Quote</v>
       </c>
       <c r="F73" s="12" t="str">
         <f>_xll.qlSimpleQuote(E73,,PriceTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDFUT1MM9_Quote#0002</v>
+        <v>HKDFUT1MU9_Quote#0002</v>
       </c>
       <c r="G73" s="61" t="str">
         <f>_xll.ohRangeRetrieveError(F73)</f>
@@ -4466,15 +4541,15 @@
         <v>0</v>
       </c>
       <c r="D74" s="4" t="str">
-        <v>N9</v>
+        <v>V9</v>
       </c>
       <c r="E74" s="40" t="str">
         <f t="shared" si="2"/>
-        <v>HKDFUT1MN9_Quote</v>
+        <v>HKDFUT1MV9_Quote</v>
       </c>
       <c r="F74" s="12" t="str">
         <f>_xll.qlSimpleQuote(E74,,PriceTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDFUT1MN9_Quote#0002</v>
+        <v>HKDFUT1MV9_Quote#0002</v>
       </c>
       <c r="G74" s="61" t="str">
         <f>_xll.ohRangeRetrieveError(F74)</f>
@@ -4491,15 +4566,15 @@
         <v>0</v>
       </c>
       <c r="D75" s="4" t="str">
-        <v>Q9</v>
+        <v>X9</v>
       </c>
       <c r="E75" s="40" t="str">
         <f t="shared" si="2"/>
-        <v>HKDFUT1MQ9_Quote</v>
+        <v>HKDFUT1MX9_Quote</v>
       </c>
       <c r="F75" s="12" t="str">
         <f>_xll.qlSimpleQuote(E75,,PriceTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDFUT1MQ9_Quote#0002</v>
+        <v>HKDFUT1MX9_Quote#0002</v>
       </c>
       <c r="G75" s="61" t="str">
         <f>_xll.ohRangeRetrieveError(F75)</f>
@@ -4516,15 +4591,15 @@
         <v>0</v>
       </c>
       <c r="D76" s="4" t="str">
-        <v>U9</v>
+        <v>Z9</v>
       </c>
       <c r="E76" s="40" t="str">
         <f t="shared" si="2"/>
-        <v>HKDFUT1MU9_Quote</v>
+        <v>HKDFUT1MZ9_Quote</v>
       </c>
       <c r="F76" s="12" t="str">
         <f>_xll.qlSimpleQuote(E76,,PriceTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDFUT1MU9_Quote#0002</v>
+        <v>HKDFUT1MZ9_Quote#0002</v>
       </c>
       <c r="G76" s="61" t="str">
         <f>_xll.ohRangeRetrieveError(F76)</f>
@@ -4541,15 +4616,15 @@
         <v>0</v>
       </c>
       <c r="D77" s="4" t="str">
-        <v>V9</v>
+        <v>F0</v>
       </c>
       <c r="E77" s="40" t="str">
         <f t="shared" si="2"/>
-        <v>HKDFUT1MV9_Quote</v>
+        <v>HKDFUT1MF0_Quote</v>
       </c>
       <c r="F77" s="12" t="str">
         <f>_xll.qlSimpleQuote(E77,,PriceTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDFUT1MV9_Quote#0002</v>
+        <v>HKDFUT1MF0_Quote#0002</v>
       </c>
       <c r="G77" s="61" t="str">
         <f>_xll.ohRangeRetrieveError(F77)</f>
@@ -4566,15 +4641,15 @@
         <v>0</v>
       </c>
       <c r="D78" s="4" t="str">
-        <v>X9</v>
+        <v>G0</v>
       </c>
       <c r="E78" s="40" t="str">
         <f t="shared" si="2"/>
-        <v>HKDFUT1MX9_Quote</v>
+        <v>HKDFUT1MG0_Quote</v>
       </c>
       <c r="F78" s="12" t="str">
         <f>_xll.qlSimpleQuote(E78,,PriceTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDFUT1MX9_Quote#0002</v>
+        <v>HKDFUT1MG0_Quote#0002</v>
       </c>
       <c r="G78" s="61" t="str">
         <f>_xll.ohRangeRetrieveError(F78)</f>
@@ -4591,15 +4666,15 @@
         <v>0</v>
       </c>
       <c r="D79" s="4" t="str">
-        <v>Z9</v>
+        <v>H0</v>
       </c>
       <c r="E79" s="40" t="str">
         <f t="shared" si="2"/>
-        <v>HKDFUT1MZ9_Quote</v>
+        <v>HKDFUT1MH0_Quote</v>
       </c>
       <c r="F79" s="12" t="str">
         <f>_xll.qlSimpleQuote(E79,,PriceTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDFUT1MZ9_Quote#0002</v>
+        <v>HKDFUT1MH0_Quote#0002</v>
       </c>
       <c r="G79" s="61" t="str">
         <f>_xll.ohRangeRetrieveError(F79)</f>
@@ -4616,15 +4691,15 @@
         <v>0</v>
       </c>
       <c r="D80" s="4" t="str">
-        <v>F0</v>
+        <v>J0</v>
       </c>
       <c r="E80" s="40" t="str">
         <f t="shared" si="2"/>
-        <v>HKDFUT1MF0_Quote</v>
+        <v>HKDFUT1MJ0_Quote</v>
       </c>
       <c r="F80" s="12" t="str">
         <f>_xll.qlSimpleQuote(E80,,PriceTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDFUT1MF0_Quote#0002</v>
+        <v>HKDFUT1MJ0_Quote#0002</v>
       </c>
       <c r="G80" s="61" t="str">
         <f>_xll.ohRangeRetrieveError(F80)</f>
@@ -4641,15 +4716,15 @@
         <v>0</v>
       </c>
       <c r="D81" s="4" t="str">
-        <v>G0</v>
+        <v>K0</v>
       </c>
       <c r="E81" s="40" t="str">
         <f t="shared" si="2"/>
-        <v>HKDFUT1MG0_Quote</v>
+        <v>HKDFUT1MK0_Quote</v>
       </c>
       <c r="F81" s="12" t="str">
         <f>_xll.qlSimpleQuote(E81,,PriceTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDFUT1MG0_Quote#0002</v>
+        <v>HKDFUT1MK0_Quote#0002</v>
       </c>
       <c r="G81" s="61" t="str">
         <f>_xll.ohRangeRetrieveError(F81)</f>
@@ -4666,15 +4741,15 @@
         <v>0</v>
       </c>
       <c r="D82" s="4" t="str">
-        <v>H0</v>
+        <v>M0</v>
       </c>
       <c r="E82" s="40" t="str">
         <f t="shared" si="2"/>
-        <v>HKDFUT1MH0_Quote</v>
+        <v>HKDFUT1MM0_Quote</v>
       </c>
       <c r="F82" s="12" t="str">
         <f>_xll.qlSimpleQuote(E82,,PriceTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDFUT1MH0_Quote#0002</v>
+        <v>HKDFUT1MM0_Quote#0002</v>
       </c>
       <c r="G82" s="61" t="str">
         <f>_xll.ohRangeRetrieveError(F82)</f>
@@ -4691,15 +4766,15 @@
         <v>0</v>
       </c>
       <c r="D83" s="4" t="str">
-        <v>J0</v>
+        <v>N0</v>
       </c>
       <c r="E83" s="40" t="str">
         <f t="shared" si="2"/>
-        <v>HKDFUT1MJ0_Quote</v>
+        <v>HKDFUT1MN0_Quote</v>
       </c>
       <c r="F83" s="12" t="str">
         <f>_xll.qlSimpleQuote(E83,,PriceTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDFUT1MJ0_Quote#0002</v>
+        <v>HKDFUT1MN0_Quote#0002</v>
       </c>
       <c r="G83" s="61" t="str">
         <f>_xll.ohRangeRetrieveError(F83)</f>
@@ -4716,15 +4791,15 @@
         <v>0</v>
       </c>
       <c r="D84" s="4" t="str">
-        <v>K0</v>
+        <v>Q0</v>
       </c>
       <c r="E84" s="40" t="str">
         <f t="shared" si="2"/>
-        <v>HKDFUT1MK0_Quote</v>
+        <v>HKDFUT1MQ0_Quote</v>
       </c>
       <c r="F84" s="12" t="str">
         <f>_xll.qlSimpleQuote(E84,,PriceTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDFUT1MK0_Quote#0002</v>
+        <v>HKDFUT1MQ0_Quote#0002</v>
       </c>
       <c r="G84" s="61" t="str">
         <f>_xll.ohRangeRetrieveError(F84)</f>
@@ -4741,15 +4816,15 @@
         <v>0</v>
       </c>
       <c r="D85" s="4" t="str">
-        <v>M0</v>
+        <v>U0</v>
       </c>
       <c r="E85" s="40" t="str">
         <f t="shared" si="2"/>
-        <v>HKDFUT1MM0_Quote</v>
+        <v>HKDFUT1MU0_Quote</v>
       </c>
       <c r="F85" s="12" t="str">
         <f>_xll.qlSimpleQuote(E85,,PriceTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDFUT1MM0_Quote#0002</v>
+        <v>HKDFUT1MU0_Quote#0002</v>
       </c>
       <c r="G85" s="61" t="str">
         <f>_xll.ohRangeRetrieveError(F85)</f>
@@ -4766,15 +4841,15 @@
         <v>0</v>
       </c>
       <c r="D86" s="4" t="str">
-        <v>N0</v>
+        <v>V0</v>
       </c>
       <c r="E86" s="40" t="str">
         <f t="shared" si="2"/>
-        <v>HKDFUT1MN0_Quote</v>
+        <v>HKDFUT1MV0_Quote</v>
       </c>
       <c r="F86" s="12" t="str">
         <f>_xll.qlSimpleQuote(E86,,PriceTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDFUT1MN0_Quote#0002</v>
+        <v>HKDFUT1MV0_Quote#0002</v>
       </c>
       <c r="G86" s="61" t="str">
         <f>_xll.ohRangeRetrieveError(F86)</f>
@@ -4791,15 +4866,15 @@
         <v>0</v>
       </c>
       <c r="D87" s="4" t="str">
-        <v>Q0</v>
+        <v>X0</v>
       </c>
       <c r="E87" s="40" t="str">
         <f t="shared" si="2"/>
-        <v>HKDFUT1MQ0_Quote</v>
+        <v>HKDFUT1MX0_Quote</v>
       </c>
       <c r="F87" s="12" t="str">
         <f>_xll.qlSimpleQuote(E87,,PriceTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDFUT1MQ0_Quote#0002</v>
+        <v>HKDFUT1MX0_Quote#0002</v>
       </c>
       <c r="G87" s="61" t="str">
         <f>_xll.ohRangeRetrieveError(F87)</f>
@@ -4816,15 +4891,15 @@
         <v>0</v>
       </c>
       <c r="D88" s="4" t="str">
-        <v>U0</v>
+        <v>Z0</v>
       </c>
       <c r="E88" s="40" t="str">
         <f t="shared" si="2"/>
-        <v>HKDFUT1MU0_Quote</v>
+        <v>HKDFUT1MZ0_Quote</v>
       </c>
       <c r="F88" s="12" t="str">
         <f>_xll.qlSimpleQuote(E88,,PriceTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDFUT1MU0_Quote#0002</v>
+        <v>HKDFUT1MZ0_Quote#0002</v>
       </c>
       <c r="G88" s="61" t="str">
         <f>_xll.ohRangeRetrieveError(F88)</f>
@@ -4841,15 +4916,15 @@
         <v>0</v>
       </c>
       <c r="D89" s="4" t="str">
-        <v>V0</v>
+        <v>F1</v>
       </c>
       <c r="E89" s="40" t="str">
         <f t="shared" si="2"/>
-        <v>HKDFUT1MV0_Quote</v>
+        <v>HKDFUT1MF1_Quote</v>
       </c>
       <c r="F89" s="12" t="str">
         <f>_xll.qlSimpleQuote(E89,,PriceTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDFUT1MV0_Quote#0002</v>
+        <v>HKDFUT1MF1_Quote#0002</v>
       </c>
       <c r="G89" s="61" t="str">
         <f>_xll.ohRangeRetrieveError(F89)</f>
@@ -4866,15 +4941,15 @@
         <v>0</v>
       </c>
       <c r="D90" s="4" t="str">
-        <v>X0</v>
+        <v>G1</v>
       </c>
       <c r="E90" s="40" t="str">
         <f t="shared" si="2"/>
-        <v>HKDFUT1MX0_Quote</v>
+        <v>HKDFUT1MG1_Quote</v>
       </c>
       <c r="F90" s="12" t="str">
         <f>_xll.qlSimpleQuote(E90,,PriceTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDFUT1MX0_Quote#0002</v>
+        <v>HKDFUT1MG1_Quote#0002</v>
       </c>
       <c r="G90" s="61" t="str">
         <f>_xll.ohRangeRetrieveError(F90)</f>
@@ -4891,15 +4966,15 @@
         <v>0</v>
       </c>
       <c r="D91" s="4" t="str">
-        <v>Z0</v>
+        <v>H1</v>
       </c>
       <c r="E91" s="40" t="str">
         <f t="shared" si="2"/>
-        <v>HKDFUT1MZ0_Quote</v>
+        <v>HKDFUT1MH1_Quote</v>
       </c>
       <c r="F91" s="12" t="str">
         <f>_xll.qlSimpleQuote(E91,,PriceTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDFUT1MZ0_Quote#0002</v>
+        <v>HKDFUT1MH1_Quote#0002</v>
       </c>
       <c r="G91" s="61" t="str">
         <f>_xll.ohRangeRetrieveError(F91)</f>
@@ -4916,15 +4991,15 @@
         <v>0</v>
       </c>
       <c r="D92" s="4" t="str">
-        <v>F1</v>
+        <v>J1</v>
       </c>
       <c r="E92" s="40" t="str">
         <f t="shared" si="2"/>
-        <v>HKDFUT1MF1_Quote</v>
+        <v>HKDFUT1MJ1_Quote</v>
       </c>
       <c r="F92" s="12" t="str">
         <f>_xll.qlSimpleQuote(E92,,PriceTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDFUT1MF1_Quote#0002</v>
+        <v>HKDFUT1MJ1_Quote#0002</v>
       </c>
       <c r="G92" s="61" t="str">
         <f>_xll.ohRangeRetrieveError(F92)</f>
@@ -4941,15 +5016,15 @@
         <v>0</v>
       </c>
       <c r="D93" s="4" t="str">
-        <v>G1</v>
+        <v>K1</v>
       </c>
       <c r="E93" s="40" t="str">
         <f t="shared" si="2"/>
-        <v>HKDFUT1MG1_Quote</v>
+        <v>HKDFUT1MK1_Quote</v>
       </c>
       <c r="F93" s="12" t="str">
         <f>_xll.qlSimpleQuote(E93,,PriceTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDFUT1MG1_Quote#0002</v>
+        <v>HKDFUT1MK1_Quote#0002</v>
       </c>
       <c r="G93" s="61" t="str">
         <f>_xll.ohRangeRetrieveError(F93)</f>
@@ -4966,15 +5041,15 @@
         <v>0</v>
       </c>
       <c r="D94" s="4" t="str">
-        <v>H1</v>
+        <v>M1</v>
       </c>
       <c r="E94" s="40" t="str">
         <f t="shared" si="2"/>
-        <v>HKDFUT1MH1_Quote</v>
+        <v>HKDFUT1MM1_Quote</v>
       </c>
       <c r="F94" s="12" t="str">
         <f>_xll.qlSimpleQuote(E94,,PriceTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDFUT1MH1_Quote#0002</v>
+        <v>HKDFUT1MM1_Quote#0002</v>
       </c>
       <c r="G94" s="61" t="str">
         <f>_xll.ohRangeRetrieveError(F94)</f>
@@ -4991,15 +5066,15 @@
         <v>0</v>
       </c>
       <c r="D95" s="4" t="str">
-        <v>J1</v>
+        <v>N1</v>
       </c>
       <c r="E95" s="40" t="str">
         <f t="shared" si="2"/>
-        <v>HKDFUT1MJ1_Quote</v>
+        <v>HKDFUT1MN1_Quote</v>
       </c>
       <c r="F95" s="12" t="str">
         <f>_xll.qlSimpleQuote(E95,,PriceTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDFUT1MJ1_Quote#0002</v>
+        <v>HKDFUT1MN1_Quote#0002</v>
       </c>
       <c r="G95" s="61" t="str">
         <f>_xll.ohRangeRetrieveError(F95)</f>
@@ -5016,15 +5091,15 @@
         <v>0</v>
       </c>
       <c r="D96" s="4" t="str">
-        <v>K1</v>
+        <v>Q1</v>
       </c>
       <c r="E96" s="40" t="str">
         <f t="shared" si="2"/>
-        <v>HKDFUT1MK1_Quote</v>
+        <v>HKDFUT1MQ1_Quote</v>
       </c>
       <c r="F96" s="12" t="str">
         <f>_xll.qlSimpleQuote(E96,,PriceTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDFUT1MK1_Quote#0002</v>
+        <v>HKDFUT1MQ1_Quote#0002</v>
       </c>
       <c r="G96" s="61" t="str">
         <f>_xll.ohRangeRetrieveError(F96)</f>
@@ -5041,15 +5116,15 @@
         <v>0</v>
       </c>
       <c r="D97" s="4" t="str">
-        <v>M1</v>
+        <v>U1</v>
       </c>
       <c r="E97" s="40" t="str">
         <f t="shared" si="2"/>
-        <v>HKDFUT1MM1_Quote</v>
+        <v>HKDFUT1MU1_Quote</v>
       </c>
       <c r="F97" s="12" t="str">
         <f>_xll.qlSimpleQuote(E97,,PriceTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDFUT1MM1_Quote#0002</v>
+        <v>HKDFUT1MU1_Quote#0002</v>
       </c>
       <c r="G97" s="61" t="str">
         <f>_xll.ohRangeRetrieveError(F97)</f>
@@ -5066,15 +5141,15 @@
         <v>0</v>
       </c>
       <c r="D98" s="4" t="str">
-        <v>N1</v>
+        <v>V1</v>
       </c>
       <c r="E98" s="40" t="str">
         <f t="shared" si="2"/>
-        <v>HKDFUT1MN1_Quote</v>
+        <v>HKDFUT1MV1_Quote</v>
       </c>
       <c r="F98" s="12" t="str">
         <f>_xll.qlSimpleQuote(E98,,PriceTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDFUT1MN1_Quote#0002</v>
+        <v>HKDFUT1MV1_Quote#0002</v>
       </c>
       <c r="G98" s="61" t="str">
         <f>_xll.ohRangeRetrieveError(F98)</f>
@@ -5091,15 +5166,15 @@
         <v>0</v>
       </c>
       <c r="D99" s="4" t="str">
-        <v>Q1</v>
+        <v>X1</v>
       </c>
       <c r="E99" s="40" t="str">
         <f t="shared" ref="E99:E122" si="3">Currency&amp;$D$1&amp;$E$1&amp;$D99&amp;QuoteSuffix</f>
-        <v>HKDFUT1MQ1_Quote</v>
+        <v>HKDFUT1MX1_Quote</v>
       </c>
       <c r="F99" s="12" t="str">
         <f>_xll.qlSimpleQuote(E99,,PriceTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDFUT1MQ1_Quote#0002</v>
+        <v>HKDFUT1MX1_Quote#0002</v>
       </c>
       <c r="G99" s="61" t="str">
         <f>_xll.ohRangeRetrieveError(F99)</f>
@@ -5116,15 +5191,15 @@
         <v>0</v>
       </c>
       <c r="D100" s="4" t="str">
-        <v>U1</v>
+        <v>Z1</v>
       </c>
       <c r="E100" s="40" t="str">
         <f t="shared" si="3"/>
-        <v>HKDFUT1MU1_Quote</v>
+        <v>HKDFUT1MZ1_Quote</v>
       </c>
       <c r="F100" s="12" t="str">
         <f>_xll.qlSimpleQuote(E100,,PriceTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDFUT1MU1_Quote#0002</v>
+        <v>HKDFUT1MZ1_Quote#0002</v>
       </c>
       <c r="G100" s="61" t="str">
         <f>_xll.ohRangeRetrieveError(F100)</f>
@@ -5141,15 +5216,15 @@
         <v>0</v>
       </c>
       <c r="D101" s="4" t="str">
-        <v>V1</v>
+        <v>F2</v>
       </c>
       <c r="E101" s="40" t="str">
         <f t="shared" si="3"/>
-        <v>HKDFUT1MV1_Quote</v>
+        <v>HKDFUT1MF2_Quote</v>
       </c>
       <c r="F101" s="12" t="str">
         <f>_xll.qlSimpleQuote(E101,,PriceTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDFUT1MV1_Quote#0002</v>
+        <v>HKDFUT1MF2_Quote#0002</v>
       </c>
       <c r="G101" s="61" t="str">
         <f>_xll.ohRangeRetrieveError(F101)</f>
@@ -5166,15 +5241,15 @@
         <v>0</v>
       </c>
       <c r="D102" s="4" t="str">
-        <v>X1</v>
+        <v>G2</v>
       </c>
       <c r="E102" s="40" t="str">
         <f t="shared" si="3"/>
-        <v>HKDFUT1MX1_Quote</v>
+        <v>HKDFUT1MG2_Quote</v>
       </c>
       <c r="F102" s="12" t="str">
         <f>_xll.qlSimpleQuote(E102,,PriceTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDFUT1MX1_Quote#0002</v>
+        <v>HKDFUT1MG2_Quote#0002</v>
       </c>
       <c r="G102" s="61" t="str">
         <f>_xll.ohRangeRetrieveError(F102)</f>
@@ -5191,15 +5266,15 @@
         <v>0</v>
       </c>
       <c r="D103" s="4" t="str">
-        <v>Z1</v>
+        <v>H2</v>
       </c>
       <c r="E103" s="40" t="str">
         <f t="shared" si="3"/>
-        <v>HKDFUT1MZ1_Quote</v>
+        <v>HKDFUT1MH2_Quote</v>
       </c>
       <c r="F103" s="12" t="str">
         <f>_xll.qlSimpleQuote(E103,,PriceTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDFUT1MZ1_Quote#0002</v>
+        <v>HKDFUT1MH2_Quote#0002</v>
       </c>
       <c r="G103" s="61" t="str">
         <f>_xll.ohRangeRetrieveError(F103)</f>
@@ -5216,15 +5291,15 @@
         <v>0</v>
       </c>
       <c r="D104" s="4" t="str">
-        <v>F2</v>
+        <v>J2</v>
       </c>
       <c r="E104" s="40" t="str">
         <f t="shared" si="3"/>
-        <v>HKDFUT1MF2_Quote</v>
+        <v>HKDFUT1MJ2_Quote</v>
       </c>
       <c r="F104" s="12" t="str">
         <f>_xll.qlSimpleQuote(E104,,PriceTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDFUT1MF2_Quote#0002</v>
+        <v>HKDFUT1MJ2_Quote#0002</v>
       </c>
       <c r="G104" s="61" t="str">
         <f>_xll.ohRangeRetrieveError(F104)</f>
@@ -5241,15 +5316,15 @@
         <v>0</v>
       </c>
       <c r="D105" s="4" t="str">
-        <v>G2</v>
+        <v>K2</v>
       </c>
       <c r="E105" s="40" t="str">
         <f t="shared" si="3"/>
-        <v>HKDFUT1MG2_Quote</v>
+        <v>HKDFUT1MK2_Quote</v>
       </c>
       <c r="F105" s="12" t="str">
         <f>_xll.qlSimpleQuote(E105,,PriceTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDFUT1MG2_Quote#0002</v>
+        <v>HKDFUT1MK2_Quote#0002</v>
       </c>
       <c r="G105" s="61" t="str">
         <f>_xll.ohRangeRetrieveError(F105)</f>
@@ -5266,15 +5341,15 @@
         <v>0</v>
       </c>
       <c r="D106" s="4" t="str">
-        <v>H2</v>
+        <v>M2</v>
       </c>
       <c r="E106" s="40" t="str">
         <f t="shared" si="3"/>
-        <v>HKDFUT1MH2_Quote</v>
+        <v>HKDFUT1MM2_Quote</v>
       </c>
       <c r="F106" s="12" t="str">
         <f>_xll.qlSimpleQuote(E106,,PriceTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDFUT1MH2_Quote#0002</v>
+        <v>HKDFUT1MM2_Quote#0002</v>
       </c>
       <c r="G106" s="61" t="str">
         <f>_xll.ohRangeRetrieveError(F106)</f>
@@ -5291,15 +5366,15 @@
         <v>0</v>
       </c>
       <c r="D107" s="4" t="str">
-        <v>J2</v>
+        <v>N2</v>
       </c>
       <c r="E107" s="40" t="str">
         <f t="shared" si="3"/>
-        <v>HKDFUT1MJ2_Quote</v>
+        <v>HKDFUT1MN2_Quote</v>
       </c>
       <c r="F107" s="12" t="str">
         <f>_xll.qlSimpleQuote(E107,,PriceTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDFUT1MJ2_Quote#0002</v>
+        <v>HKDFUT1MN2_Quote#0002</v>
       </c>
       <c r="G107" s="61" t="str">
         <f>_xll.ohRangeRetrieveError(F107)</f>
@@ -5316,15 +5391,15 @@
         <v>0</v>
       </c>
       <c r="D108" s="4" t="str">
-        <v>K2</v>
+        <v>Q2</v>
       </c>
       <c r="E108" s="40" t="str">
         <f t="shared" si="3"/>
-        <v>HKDFUT1MK2_Quote</v>
+        <v>HKDFUT1MQ2_Quote</v>
       </c>
       <c r="F108" s="12" t="str">
         <f>_xll.qlSimpleQuote(E108,,PriceTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDFUT1MK2_Quote#0002</v>
+        <v>HKDFUT1MQ2_Quote#0002</v>
       </c>
       <c r="G108" s="61" t="str">
         <f>_xll.ohRangeRetrieveError(F108)</f>
@@ -5341,15 +5416,15 @@
         <v>0</v>
       </c>
       <c r="D109" s="4" t="str">
-        <v>M2</v>
+        <v>U2</v>
       </c>
       <c r="E109" s="40" t="str">
         <f t="shared" si="3"/>
-        <v>HKDFUT1MM2_Quote</v>
+        <v>HKDFUT1MU2_Quote</v>
       </c>
       <c r="F109" s="12" t="str">
         <f>_xll.qlSimpleQuote(E109,,PriceTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDFUT1MM2_Quote#0002</v>
+        <v>HKDFUT1MU2_Quote#0002</v>
       </c>
       <c r="G109" s="61" t="str">
         <f>_xll.ohRangeRetrieveError(F109)</f>
@@ -5366,15 +5441,15 @@
         <v>0</v>
       </c>
       <c r="D110" s="4" t="str">
-        <v>N2</v>
+        <v>V2</v>
       </c>
       <c r="E110" s="40" t="str">
         <f t="shared" si="3"/>
-        <v>HKDFUT1MN2_Quote</v>
+        <v>HKDFUT1MV2_Quote</v>
       </c>
       <c r="F110" s="12" t="str">
         <f>_xll.qlSimpleQuote(E110,,PriceTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDFUT1MN2_Quote#0002</v>
+        <v>HKDFUT1MV2_Quote#0002</v>
       </c>
       <c r="G110" s="61" t="str">
         <f>_xll.ohRangeRetrieveError(F110)</f>
@@ -5391,15 +5466,15 @@
         <v>0</v>
       </c>
       <c r="D111" s="4" t="str">
-        <v>Q2</v>
+        <v>X2</v>
       </c>
       <c r="E111" s="40" t="str">
         <f t="shared" si="3"/>
-        <v>HKDFUT1MQ2_Quote</v>
+        <v>HKDFUT1MX2_Quote</v>
       </c>
       <c r="F111" s="12" t="str">
         <f>_xll.qlSimpleQuote(E111,,PriceTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDFUT1MQ2_Quote#0002</v>
+        <v>HKDFUT1MX2_Quote#0002</v>
       </c>
       <c r="G111" s="61" t="str">
         <f>_xll.ohRangeRetrieveError(F111)</f>
@@ -5416,15 +5491,15 @@
         <v>0</v>
       </c>
       <c r="D112" s="4" t="str">
-        <v>U2</v>
+        <v>Z2</v>
       </c>
       <c r="E112" s="40" t="str">
         <f t="shared" si="3"/>
-        <v>HKDFUT1MU2_Quote</v>
+        <v>HKDFUT1MZ2_Quote</v>
       </c>
       <c r="F112" s="12" t="str">
         <f>_xll.qlSimpleQuote(E112,,PriceTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDFUT1MU2_Quote#0002</v>
+        <v>HKDFUT1MZ2_Quote#0002</v>
       </c>
       <c r="G112" s="61" t="str">
         <f>_xll.ohRangeRetrieveError(F112)</f>
@@ -5441,15 +5516,15 @@
         <v>0</v>
       </c>
       <c r="D113" s="4" t="str">
-        <v>V2</v>
+        <v>F3</v>
       </c>
       <c r="E113" s="40" t="str">
         <f t="shared" si="3"/>
-        <v>HKDFUT1MV2_Quote</v>
+        <v>HKDFUT1MF3_Quote</v>
       </c>
       <c r="F113" s="12" t="str">
         <f>_xll.qlSimpleQuote(E113,,PriceTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDFUT1MV2_Quote#0002</v>
+        <v>HKDFUT1MF3_Quote#0002</v>
       </c>
       <c r="G113" s="61" t="str">
         <f>_xll.ohRangeRetrieveError(F113)</f>
@@ -5466,15 +5541,15 @@
         <v>0</v>
       </c>
       <c r="D114" s="4" t="str">
-        <v>X2</v>
+        <v>G3</v>
       </c>
       <c r="E114" s="40" t="str">
         <f t="shared" si="3"/>
-        <v>HKDFUT1MX2_Quote</v>
+        <v>HKDFUT1MG3_Quote</v>
       </c>
       <c r="F114" s="12" t="str">
         <f>_xll.qlSimpleQuote(E114,,PriceTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDFUT1MX2_Quote#0002</v>
+        <v>HKDFUT1MG3_Quote#0002</v>
       </c>
       <c r="G114" s="61" t="str">
         <f>_xll.ohRangeRetrieveError(F114)</f>
@@ -5491,15 +5566,15 @@
         <v>0</v>
       </c>
       <c r="D115" s="4" t="str">
-        <v>Z2</v>
+        <v>H3</v>
       </c>
       <c r="E115" s="40" t="str">
         <f t="shared" si="3"/>
-        <v>HKDFUT1MZ2_Quote</v>
+        <v>HKDFUT1MH3_Quote</v>
       </c>
       <c r="F115" s="12" t="str">
         <f>_xll.qlSimpleQuote(E115,,PriceTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDFUT1MZ2_Quote#0002</v>
+        <v>HKDFUT1MH3_Quote#0002</v>
       </c>
       <c r="G115" s="61" t="str">
         <f>_xll.ohRangeRetrieveError(F115)</f>
@@ -5516,15 +5591,15 @@
         <v>0</v>
       </c>
       <c r="D116" s="4" t="str">
-        <v>F3</v>
+        <v>J3</v>
       </c>
       <c r="E116" s="40" t="str">
         <f t="shared" si="3"/>
-        <v>HKDFUT1MF3_Quote</v>
+        <v>HKDFUT1MJ3_Quote</v>
       </c>
       <c r="F116" s="12" t="str">
         <f>_xll.qlSimpleQuote(E116,,PriceTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDFUT1MF3_Quote#0002</v>
+        <v>HKDFUT1MJ3_Quote#0002</v>
       </c>
       <c r="G116" s="61" t="str">
         <f>_xll.ohRangeRetrieveError(F116)</f>
@@ -5541,15 +5616,15 @@
         <v>0</v>
       </c>
       <c r="D117" s="4" t="str">
-        <v>G3</v>
+        <v>K3</v>
       </c>
       <c r="E117" s="40" t="str">
         <f t="shared" si="3"/>
-        <v>HKDFUT1MG3_Quote</v>
+        <v>HKDFUT1MK3_Quote</v>
       </c>
       <c r="F117" s="12" t="str">
         <f>_xll.qlSimpleQuote(E117,,PriceTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDFUT1MG3_Quote#0002</v>
+        <v>HKDFUT1MK3_Quote#0002</v>
       </c>
       <c r="G117" s="61" t="str">
         <f>_xll.ohRangeRetrieveError(F117)</f>
@@ -5566,15 +5641,15 @@
         <v>0</v>
       </c>
       <c r="D118" s="4" t="str">
-        <v>H3</v>
+        <v>M3</v>
       </c>
       <c r="E118" s="40" t="str">
         <f t="shared" si="3"/>
-        <v>HKDFUT1MH3_Quote</v>
+        <v>HKDFUT1MM3_Quote</v>
       </c>
       <c r="F118" s="12" t="str">
         <f>_xll.qlSimpleQuote(E118,,PriceTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDFUT1MH3_Quote#0002</v>
+        <v>HKDFUT1MM3_Quote#0002</v>
       </c>
       <c r="G118" s="61" t="str">
         <f>_xll.ohRangeRetrieveError(F118)</f>
@@ -5591,15 +5666,15 @@
         <v>0</v>
       </c>
       <c r="D119" s="4" t="str">
-        <v>J3</v>
+        <v>N3</v>
       </c>
       <c r="E119" s="40" t="str">
         <f t="shared" si="3"/>
-        <v>HKDFUT1MJ3_Quote</v>
+        <v>HKDFUT1MN3_Quote</v>
       </c>
       <c r="F119" s="12" t="str">
         <f>_xll.qlSimpleQuote(E119,,PriceTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDFUT1MJ3_Quote#0002</v>
+        <v>HKDFUT1MN3_Quote#0002</v>
       </c>
       <c r="G119" s="61" t="str">
         <f>_xll.ohRangeRetrieveError(F119)</f>
@@ -5616,15 +5691,15 @@
         <v>0</v>
       </c>
       <c r="D120" s="4" t="str">
-        <v>K3</v>
+        <v>Q3</v>
       </c>
       <c r="E120" s="40" t="str">
         <f t="shared" si="3"/>
-        <v>HKDFUT1MK3_Quote</v>
+        <v>HKDFUT1MQ3_Quote</v>
       </c>
       <c r="F120" s="12" t="str">
         <f>_xll.qlSimpleQuote(E120,,PriceTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDFUT1MK3_Quote#0002</v>
+        <v>HKDFUT1MQ3_Quote#0002</v>
       </c>
       <c r="G120" s="61" t="str">
         <f>_xll.ohRangeRetrieveError(F120)</f>
@@ -5641,15 +5716,15 @@
         <v>0</v>
       </c>
       <c r="D121" s="4" t="str">
-        <v>M3</v>
+        <v>U3</v>
       </c>
       <c r="E121" s="40" t="str">
         <f t="shared" si="3"/>
-        <v>HKDFUT1MM3_Quote</v>
+        <v>HKDFUT1MU3_Quote</v>
       </c>
       <c r="F121" s="12" t="str">
         <f>_xll.qlSimpleQuote(E121,,PriceTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDFUT1MM3_Quote#0002</v>
+        <v>HKDFUT1MU3_Quote#0002</v>
       </c>
       <c r="G121" s="61" t="str">
         <f>_xll.ohRangeRetrieveError(F121)</f>
@@ -5666,15 +5741,15 @@
         <v>0</v>
       </c>
       <c r="D122" s="4" t="str">
-        <v>N3</v>
+        <v>V3</v>
       </c>
       <c r="E122" s="40" t="str">
         <f t="shared" si="3"/>
-        <v>HKDFUT1MN3_Quote</v>
+        <v>HKDFUT1MV3_Quote</v>
       </c>
       <c r="F122" s="12" t="str">
         <f>_xll.qlSimpleQuote(E122,,PriceTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDFUT1MN3_Quote#0002</v>
+        <v>HKDFUT1MV3_Quote#0002</v>
       </c>
       <c r="G122" s="61" t="str">
         <f>_xll.ohRangeRetrieveError(F122)</f>
@@ -5771,15 +5846,15 @@
       </c>
       <c r="D3" s="39" t="str">
         <f t="array" ref="D3:D122">_xll.qlIMMNextCodes(_xll.qlSettingsEvaluationDate(Trigger)-1,$C3:$C122)</f>
-        <v>Q3</v>
+        <v>X3</v>
       </c>
       <c r="E3" s="40" t="str">
         <f t="shared" ref="E3:E34" si="0">Currency&amp;$D$1&amp;$E$1&amp;$D3&amp;QuoteSuffix</f>
-        <v>HKDFUT3MQ3_Quote</v>
+        <v>HKDFUT3MX3_Quote</v>
       </c>
       <c r="F3" s="41" t="str">
         <f>_xll.qlSimpleQuote(E3,,PriceTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDFUT3MQ3_Quote#0002</v>
+        <v>HKDFUT3MX3_Quote#0002</v>
       </c>
       <c r="G3" s="60" t="str">
         <f>_xll.ohRangeRetrieveError(F3)</f>
@@ -5796,15 +5871,15 @@
         <v>0</v>
       </c>
       <c r="D4" s="4" t="str">
-        <v>U3</v>
+        <v>Z3</v>
       </c>
       <c r="E4" s="40" t="str">
         <f t="shared" si="0"/>
-        <v>HKDFUT3MU3_Quote</v>
+        <v>HKDFUT3MZ3_Quote</v>
       </c>
       <c r="F4" s="12" t="str">
         <f>_xll.qlSimpleQuote(E4,,PriceTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDFUT3MU3_Quote#0002</v>
+        <v>HKDFUT3MZ3_Quote#0002</v>
       </c>
       <c r="G4" s="61" t="str">
         <f>_xll.ohRangeRetrieveError(F4)</f>
@@ -5821,15 +5896,15 @@
         <v>0</v>
       </c>
       <c r="D5" s="4" t="str">
-        <v>V3</v>
+        <v>F4</v>
       </c>
       <c r="E5" s="40" t="str">
         <f t="shared" si="0"/>
-        <v>HKDFUT3MV3_Quote</v>
+        <v>HKDFUT3MF4_Quote</v>
       </c>
       <c r="F5" s="12" t="str">
         <f>_xll.qlSimpleQuote(E5,,PriceTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDFUT3MV3_Quote#0002</v>
+        <v>HKDFUT3MF4_Quote#0002</v>
       </c>
       <c r="G5" s="61" t="str">
         <f>_xll.ohRangeRetrieveError(F5)</f>
@@ -5846,15 +5921,15 @@
         <v>0</v>
       </c>
       <c r="D6" s="4" t="str">
-        <v>X3</v>
+        <v>G4</v>
       </c>
       <c r="E6" s="40" t="str">
         <f t="shared" si="0"/>
-        <v>HKDFUT3MX3_Quote</v>
+        <v>HKDFUT3MG4_Quote</v>
       </c>
       <c r="F6" s="12" t="str">
         <f>_xll.qlSimpleQuote(E6,,PriceTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDFUT3MX3_Quote#0002</v>
+        <v>HKDFUT3MG4_Quote#0002</v>
       </c>
       <c r="G6" s="61" t="str">
         <f>_xll.ohRangeRetrieveError(F6)</f>
@@ -5871,15 +5946,15 @@
         <v>0</v>
       </c>
       <c r="D7" s="4" t="str">
-        <v>Z3</v>
+        <v>H4</v>
       </c>
       <c r="E7" s="40" t="str">
         <f t="shared" si="0"/>
-        <v>HKDFUT3MZ3_Quote</v>
+        <v>HKDFUT3MH4_Quote</v>
       </c>
       <c r="F7" s="12" t="str">
         <f>_xll.qlSimpleQuote(E7,,PriceTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDFUT3MZ3_Quote#0002</v>
+        <v>HKDFUT3MH4_Quote#0002</v>
       </c>
       <c r="G7" s="61" t="str">
         <f>_xll.ohRangeRetrieveError(F7)</f>
@@ -5896,15 +5971,15 @@
         <v>0</v>
       </c>
       <c r="D8" s="4" t="str">
-        <v>F4</v>
+        <v>J4</v>
       </c>
       <c r="E8" s="40" t="str">
         <f t="shared" si="0"/>
-        <v>HKDFUT3MF4_Quote</v>
+        <v>HKDFUT3MJ4_Quote</v>
       </c>
       <c r="F8" s="12" t="str">
         <f>_xll.qlSimpleQuote(E8,,PriceTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDFUT3MF4_Quote#0002</v>
+        <v>HKDFUT3MJ4_Quote#0002</v>
       </c>
       <c r="G8" s="61" t="str">
         <f>_xll.ohRangeRetrieveError(F8)</f>
@@ -5921,15 +5996,15 @@
         <v>0</v>
       </c>
       <c r="D9" s="4" t="str">
-        <v>G4</v>
+        <v>K4</v>
       </c>
       <c r="E9" s="40" t="str">
         <f t="shared" si="0"/>
-        <v>HKDFUT3MG4_Quote</v>
+        <v>HKDFUT3MK4_Quote</v>
       </c>
       <c r="F9" s="12" t="str">
         <f>_xll.qlSimpleQuote(E9,,PriceTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDFUT3MG4_Quote#0002</v>
+        <v>HKDFUT3MK4_Quote#0002</v>
       </c>
       <c r="G9" s="61" t="str">
         <f>_xll.ohRangeRetrieveError(F9)</f>
@@ -5946,15 +6021,15 @@
         <v>0</v>
       </c>
       <c r="D10" s="4" t="str">
-        <v>H4</v>
+        <v>M4</v>
       </c>
       <c r="E10" s="40" t="str">
         <f t="shared" si="0"/>
-        <v>HKDFUT3MH4_Quote</v>
+        <v>HKDFUT3MM4_Quote</v>
       </c>
       <c r="F10" s="12" t="str">
         <f>_xll.qlSimpleQuote(E10,,PriceTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDFUT3MH4_Quote#0002</v>
+        <v>HKDFUT3MM4_Quote#0002</v>
       </c>
       <c r="G10" s="61" t="str">
         <f>_xll.ohRangeRetrieveError(F10)</f>
@@ -5971,15 +6046,15 @@
         <v>0</v>
       </c>
       <c r="D11" s="4" t="str">
-        <v>J4</v>
+        <v>N4</v>
       </c>
       <c r="E11" s="40" t="str">
         <f t="shared" si="0"/>
-        <v>HKDFUT3MJ4_Quote</v>
+        <v>HKDFUT3MN4_Quote</v>
       </c>
       <c r="F11" s="12" t="str">
         <f>_xll.qlSimpleQuote(E11,,PriceTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDFUT3MJ4_Quote#0002</v>
+        <v>HKDFUT3MN4_Quote#0002</v>
       </c>
       <c r="G11" s="61" t="str">
         <f>_xll.ohRangeRetrieveError(F11)</f>
@@ -5996,15 +6071,15 @@
         <v>0</v>
       </c>
       <c r="D12" s="4" t="str">
-        <v>K4</v>
+        <v>Q4</v>
       </c>
       <c r="E12" s="40" t="str">
         <f t="shared" si="0"/>
-        <v>HKDFUT3MK4_Quote</v>
+        <v>HKDFUT3MQ4_Quote</v>
       </c>
       <c r="F12" s="12" t="str">
         <f>_xll.qlSimpleQuote(E12,,PriceTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDFUT3MK4_Quote#0002</v>
+        <v>HKDFUT3MQ4_Quote#0002</v>
       </c>
       <c r="G12" s="61" t="str">
         <f>_xll.ohRangeRetrieveError(F12)</f>
@@ -6021,15 +6096,15 @@
         <v>0</v>
       </c>
       <c r="D13" s="4" t="str">
-        <v>M4</v>
+        <v>U4</v>
       </c>
       <c r="E13" s="40" t="str">
         <f t="shared" si="0"/>
-        <v>HKDFUT3MM4_Quote</v>
+        <v>HKDFUT3MU4_Quote</v>
       </c>
       <c r="F13" s="12" t="str">
         <f>_xll.qlSimpleQuote(E13,,PriceTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDFUT3MM4_Quote#0002</v>
+        <v>HKDFUT3MU4_Quote#0002</v>
       </c>
       <c r="G13" s="61" t="str">
         <f>_xll.ohRangeRetrieveError(F13)</f>
@@ -6046,15 +6121,15 @@
         <v>0</v>
       </c>
       <c r="D14" s="4" t="str">
-        <v>N4</v>
+        <v>V4</v>
       </c>
       <c r="E14" s="40" t="str">
         <f t="shared" si="0"/>
-        <v>HKDFUT3MN4_Quote</v>
+        <v>HKDFUT3MV4_Quote</v>
       </c>
       <c r="F14" s="12" t="str">
         <f>_xll.qlSimpleQuote(E14,,PriceTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDFUT3MN4_Quote#0002</v>
+        <v>HKDFUT3MV4_Quote#0002</v>
       </c>
       <c r="G14" s="61" t="str">
         <f>_xll.ohRangeRetrieveError(F14)</f>
@@ -6071,15 +6146,15 @@
         <v>0</v>
       </c>
       <c r="D15" s="4" t="str">
-        <v>Q4</v>
+        <v>X4</v>
       </c>
       <c r="E15" s="40" t="str">
         <f t="shared" si="0"/>
-        <v>HKDFUT3MQ4_Quote</v>
+        <v>HKDFUT3MX4_Quote</v>
       </c>
       <c r="F15" s="12" t="str">
         <f>_xll.qlSimpleQuote(E15,,PriceTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDFUT3MQ4_Quote#0002</v>
+        <v>HKDFUT3MX4_Quote#0002</v>
       </c>
       <c r="G15" s="61" t="str">
         <f>_xll.ohRangeRetrieveError(F15)</f>
@@ -6096,15 +6171,15 @@
         <v>0</v>
       </c>
       <c r="D16" s="4" t="str">
-        <v>U4</v>
+        <v>Z4</v>
       </c>
       <c r="E16" s="40" t="str">
         <f t="shared" si="0"/>
-        <v>HKDFUT3MU4_Quote</v>
+        <v>HKDFUT3MZ4_Quote</v>
       </c>
       <c r="F16" s="12" t="str">
         <f>_xll.qlSimpleQuote(E16,,PriceTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDFUT3MU4_Quote#0002</v>
+        <v>HKDFUT3MZ4_Quote#0002</v>
       </c>
       <c r="G16" s="61" t="str">
         <f>_xll.ohRangeRetrieveError(F16)</f>
@@ -6121,15 +6196,15 @@
         <v>0</v>
       </c>
       <c r="D17" s="4" t="str">
-        <v>V4</v>
+        <v>F5</v>
       </c>
       <c r="E17" s="40" t="str">
         <f t="shared" si="0"/>
-        <v>HKDFUT3MV4_Quote</v>
+        <v>HKDFUT3MF5_Quote</v>
       </c>
       <c r="F17" s="12" t="str">
         <f>_xll.qlSimpleQuote(E17,,PriceTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDFUT3MV4_Quote#0002</v>
+        <v>HKDFUT3MF5_Quote#0002</v>
       </c>
       <c r="G17" s="61" t="str">
         <f>_xll.ohRangeRetrieveError(F17)</f>
@@ -6146,15 +6221,15 @@
         <v>0</v>
       </c>
       <c r="D18" s="4" t="str">
-        <v>X4</v>
+        <v>G5</v>
       </c>
       <c r="E18" s="40" t="str">
         <f t="shared" si="0"/>
-        <v>HKDFUT3MX4_Quote</v>
+        <v>HKDFUT3MG5_Quote</v>
       </c>
       <c r="F18" s="12" t="str">
         <f>_xll.qlSimpleQuote(E18,,PriceTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDFUT3MX4_Quote#0002</v>
+        <v>HKDFUT3MG5_Quote#0002</v>
       </c>
       <c r="G18" s="61" t="str">
         <f>_xll.ohRangeRetrieveError(F18)</f>
@@ -6171,15 +6246,15 @@
         <v>0</v>
       </c>
       <c r="D19" s="4" t="str">
-        <v>Z4</v>
+        <v>H5</v>
       </c>
       <c r="E19" s="40" t="str">
         <f t="shared" si="0"/>
-        <v>HKDFUT3MZ4_Quote</v>
+        <v>HKDFUT3MH5_Quote</v>
       </c>
       <c r="F19" s="12" t="str">
         <f>_xll.qlSimpleQuote(E19,,PriceTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDFUT3MZ4_Quote#0002</v>
+        <v>HKDFUT3MH5_Quote#0002</v>
       </c>
       <c r="G19" s="61" t="str">
         <f>_xll.ohRangeRetrieveError(F19)</f>
@@ -6196,15 +6271,15 @@
         <v>0</v>
       </c>
       <c r="D20" s="4" t="str">
-        <v>F5</v>
+        <v>J5</v>
       </c>
       <c r="E20" s="40" t="str">
         <f t="shared" si="0"/>
-        <v>HKDFUT3MF5_Quote</v>
+        <v>HKDFUT3MJ5_Quote</v>
       </c>
       <c r="F20" s="12" t="str">
         <f>_xll.qlSimpleQuote(E20,,PriceTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDFUT3MF5_Quote#0002</v>
+        <v>HKDFUT3MJ5_Quote#0002</v>
       </c>
       <c r="G20" s="61" t="str">
         <f>_xll.ohRangeRetrieveError(F20)</f>
@@ -6221,15 +6296,15 @@
         <v>0</v>
       </c>
       <c r="D21" s="4" t="str">
-        <v>G5</v>
+        <v>K5</v>
       </c>
       <c r="E21" s="40" t="str">
         <f t="shared" si="0"/>
-        <v>HKDFUT3MG5_Quote</v>
+        <v>HKDFUT3MK5_Quote</v>
       </c>
       <c r="F21" s="12" t="str">
         <f>_xll.qlSimpleQuote(E21,,PriceTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDFUT3MG5_Quote#0002</v>
+        <v>HKDFUT3MK5_Quote#0002</v>
       </c>
       <c r="G21" s="61" t="str">
         <f>_xll.ohRangeRetrieveError(F21)</f>
@@ -6246,15 +6321,15 @@
         <v>0</v>
       </c>
       <c r="D22" s="4" t="str">
-        <v>H5</v>
+        <v>M5</v>
       </c>
       <c r="E22" s="40" t="str">
         <f t="shared" si="0"/>
-        <v>HKDFUT3MH5_Quote</v>
+        <v>HKDFUT3MM5_Quote</v>
       </c>
       <c r="F22" s="12" t="str">
         <f>_xll.qlSimpleQuote(E22,,PriceTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDFUT3MH5_Quote#0002</v>
+        <v>HKDFUT3MM5_Quote#0002</v>
       </c>
       <c r="G22" s="61" t="str">
         <f>_xll.ohRangeRetrieveError(F22)</f>
@@ -6271,15 +6346,15 @@
         <v>0</v>
       </c>
       <c r="D23" s="4" t="str">
-        <v>J5</v>
+        <v>N5</v>
       </c>
       <c r="E23" s="40" t="str">
         <f t="shared" si="0"/>
-        <v>HKDFUT3MJ5_Quote</v>
+        <v>HKDFUT3MN5_Quote</v>
       </c>
       <c r="F23" s="12" t="str">
         <f>_xll.qlSimpleQuote(E23,,PriceTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDFUT3MJ5_Quote#0002</v>
+        <v>HKDFUT3MN5_Quote#0002</v>
       </c>
       <c r="G23" s="61" t="str">
         <f>_xll.ohRangeRetrieveError(F23)</f>
@@ -6296,15 +6371,15 @@
         <v>0</v>
       </c>
       <c r="D24" s="4" t="str">
-        <v>K5</v>
+        <v>Q5</v>
       </c>
       <c r="E24" s="40" t="str">
         <f t="shared" si="0"/>
-        <v>HKDFUT3MK5_Quote</v>
+        <v>HKDFUT3MQ5_Quote</v>
       </c>
       <c r="F24" s="12" t="str">
         <f>_xll.qlSimpleQuote(E24,,PriceTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDFUT3MK5_Quote#0002</v>
+        <v>HKDFUT3MQ5_Quote#0002</v>
       </c>
       <c r="G24" s="61" t="str">
         <f>_xll.ohRangeRetrieveError(F24)</f>
@@ -6321,15 +6396,15 @@
         <v>0</v>
       </c>
       <c r="D25" s="4" t="str">
-        <v>M5</v>
+        <v>U5</v>
       </c>
       <c r="E25" s="40" t="str">
         <f t="shared" si="0"/>
-        <v>HKDFUT3MM5_Quote</v>
+        <v>HKDFUT3MU5_Quote</v>
       </c>
       <c r="F25" s="12" t="str">
         <f>_xll.qlSimpleQuote(E25,,PriceTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDFUT3MM5_Quote#0002</v>
+        <v>HKDFUT3MU5_Quote#0002</v>
       </c>
       <c r="G25" s="61" t="str">
         <f>_xll.ohRangeRetrieveError(F25)</f>
@@ -6346,15 +6421,15 @@
         <v>0</v>
       </c>
       <c r="D26" s="4" t="str">
-        <v>N5</v>
+        <v>V5</v>
       </c>
       <c r="E26" s="40" t="str">
         <f t="shared" si="0"/>
-        <v>HKDFUT3MN5_Quote</v>
+        <v>HKDFUT3MV5_Quote</v>
       </c>
       <c r="F26" s="12" t="str">
         <f>_xll.qlSimpleQuote(E26,,PriceTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDFUT3MN5_Quote#0002</v>
+        <v>HKDFUT3MV5_Quote#0002</v>
       </c>
       <c r="G26" s="61" t="str">
         <f>_xll.ohRangeRetrieveError(F26)</f>
@@ -6371,15 +6446,15 @@
         <v>0</v>
       </c>
       <c r="D27" s="4" t="str">
-        <v>Q5</v>
+        <v>X5</v>
       </c>
       <c r="E27" s="40" t="str">
         <f t="shared" si="0"/>
-        <v>HKDFUT3MQ5_Quote</v>
+        <v>HKDFUT3MX5_Quote</v>
       </c>
       <c r="F27" s="12" t="str">
         <f>_xll.qlSimpleQuote(E27,,PriceTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDFUT3MQ5_Quote#0002</v>
+        <v>HKDFUT3MX5_Quote#0002</v>
       </c>
       <c r="G27" s="61" t="str">
         <f>_xll.ohRangeRetrieveError(F27)</f>
@@ -6396,15 +6471,15 @@
         <v>0</v>
       </c>
       <c r="D28" s="4" t="str">
-        <v>U5</v>
+        <v>Z5</v>
       </c>
       <c r="E28" s="40" t="str">
         <f t="shared" si="0"/>
-        <v>HKDFUT3MU5_Quote</v>
+        <v>HKDFUT3MZ5_Quote</v>
       </c>
       <c r="F28" s="12" t="str">
         <f>_xll.qlSimpleQuote(E28,,PriceTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDFUT3MU5_Quote#0002</v>
+        <v>HKDFUT3MZ5_Quote#0002</v>
       </c>
       <c r="G28" s="61" t="str">
         <f>_xll.ohRangeRetrieveError(F28)</f>
@@ -6421,15 +6496,15 @@
         <v>0</v>
       </c>
       <c r="D29" s="4" t="str">
-        <v>V5</v>
+        <v>F6</v>
       </c>
       <c r="E29" s="40" t="str">
         <f t="shared" si="0"/>
-        <v>HKDFUT3MV5_Quote</v>
+        <v>HKDFUT3MF6_Quote</v>
       </c>
       <c r="F29" s="12" t="str">
         <f>_xll.qlSimpleQuote(E29,,PriceTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDFUT3MV5_Quote#0002</v>
+        <v>HKDFUT3MF6_Quote#0002</v>
       </c>
       <c r="G29" s="61" t="str">
         <f>_xll.ohRangeRetrieveError(F29)</f>
@@ -6446,15 +6521,15 @@
         <v>0</v>
       </c>
       <c r="D30" s="4" t="str">
-        <v>X5</v>
+        <v>G6</v>
       </c>
       <c r="E30" s="40" t="str">
         <f t="shared" si="0"/>
-        <v>HKDFUT3MX5_Quote</v>
+        <v>HKDFUT3MG6_Quote</v>
       </c>
       <c r="F30" s="12" t="str">
         <f>_xll.qlSimpleQuote(E30,,PriceTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDFUT3MX5_Quote#0002</v>
+        <v>HKDFUT3MG6_Quote#0002</v>
       </c>
       <c r="G30" s="61" t="str">
         <f>_xll.ohRangeRetrieveError(F30)</f>
@@ -6471,15 +6546,15 @@
         <v>0</v>
       </c>
       <c r="D31" s="4" t="str">
-        <v>Z5</v>
+        <v>H6</v>
       </c>
       <c r="E31" s="40" t="str">
         <f t="shared" si="0"/>
-        <v>HKDFUT3MZ5_Quote</v>
+        <v>HKDFUT3MH6_Quote</v>
       </c>
       <c r="F31" s="12" t="str">
         <f>_xll.qlSimpleQuote(E31,,PriceTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDFUT3MZ5_Quote#0002</v>
+        <v>HKDFUT3MH6_Quote#0002</v>
       </c>
       <c r="G31" s="61" t="str">
         <f>_xll.ohRangeRetrieveError(F31)</f>
@@ -6496,15 +6571,15 @@
         <v>0</v>
       </c>
       <c r="D32" s="4" t="str">
-        <v>F6</v>
+        <v>J6</v>
       </c>
       <c r="E32" s="40" t="str">
         <f t="shared" si="0"/>
-        <v>HKDFUT3MF6_Quote</v>
+        <v>HKDFUT3MJ6_Quote</v>
       </c>
       <c r="F32" s="12" t="str">
         <f>_xll.qlSimpleQuote(E32,,PriceTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDFUT3MF6_Quote#0002</v>
+        <v>HKDFUT3MJ6_Quote#0002</v>
       </c>
       <c r="G32" s="61" t="str">
         <f>_xll.ohRangeRetrieveError(F32)</f>
@@ -6521,15 +6596,15 @@
         <v>0</v>
       </c>
       <c r="D33" s="4" t="str">
-        <v>G6</v>
+        <v>K6</v>
       </c>
       <c r="E33" s="40" t="str">
         <f t="shared" si="0"/>
-        <v>HKDFUT3MG6_Quote</v>
+        <v>HKDFUT3MK6_Quote</v>
       </c>
       <c r="F33" s="12" t="str">
         <f>_xll.qlSimpleQuote(E33,,PriceTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDFUT3MG6_Quote#0002</v>
+        <v>HKDFUT3MK6_Quote#0002</v>
       </c>
       <c r="G33" s="61" t="str">
         <f>_xll.ohRangeRetrieveError(F33)</f>
@@ -6546,15 +6621,15 @@
         <v>0</v>
       </c>
       <c r="D34" s="4" t="str">
-        <v>H6</v>
+        <v>M6</v>
       </c>
       <c r="E34" s="40" t="str">
         <f t="shared" si="0"/>
-        <v>HKDFUT3MH6_Quote</v>
+        <v>HKDFUT3MM6_Quote</v>
       </c>
       <c r="F34" s="12" t="str">
         <f>_xll.qlSimpleQuote(E34,,PriceTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDFUT3MH6_Quote#0002</v>
+        <v>HKDFUT3MM6_Quote#0002</v>
       </c>
       <c r="G34" s="61" t="str">
         <f>_xll.ohRangeRetrieveError(F34)</f>
@@ -6571,15 +6646,15 @@
         <v>0</v>
       </c>
       <c r="D35" s="4" t="str">
-        <v>J6</v>
+        <v>N6</v>
       </c>
       <c r="E35" s="40" t="str">
         <f t="shared" ref="E35:E66" si="1">Currency&amp;$D$1&amp;$E$1&amp;$D35&amp;QuoteSuffix</f>
-        <v>HKDFUT3MJ6_Quote</v>
+        <v>HKDFUT3MN6_Quote</v>
       </c>
       <c r="F35" s="12" t="str">
         <f>_xll.qlSimpleQuote(E35,,PriceTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDFUT3MJ6_Quote#0002</v>
+        <v>HKDFUT3MN6_Quote#0002</v>
       </c>
       <c r="G35" s="61" t="str">
         <f>_xll.ohRangeRetrieveError(F35)</f>
@@ -6596,15 +6671,15 @@
         <v>0</v>
       </c>
       <c r="D36" s="4" t="str">
-        <v>K6</v>
+        <v>Q6</v>
       </c>
       <c r="E36" s="40" t="str">
         <f t="shared" si="1"/>
-        <v>HKDFUT3MK6_Quote</v>
+        <v>HKDFUT3MQ6_Quote</v>
       </c>
       <c r="F36" s="12" t="str">
         <f>_xll.qlSimpleQuote(E36,,PriceTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDFUT3MK6_Quote#0002</v>
+        <v>HKDFUT3MQ6_Quote#0002</v>
       </c>
       <c r="G36" s="61" t="str">
         <f>_xll.ohRangeRetrieveError(F36)</f>
@@ -6621,15 +6696,15 @@
         <v>0</v>
       </c>
       <c r="D37" s="4" t="str">
-        <v>M6</v>
+        <v>U6</v>
       </c>
       <c r="E37" s="40" t="str">
         <f t="shared" si="1"/>
-        <v>HKDFUT3MM6_Quote</v>
+        <v>HKDFUT3MU6_Quote</v>
       </c>
       <c r="F37" s="12" t="str">
         <f>_xll.qlSimpleQuote(E37,,PriceTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDFUT3MM6_Quote#0002</v>
+        <v>HKDFUT3MU6_Quote#0002</v>
       </c>
       <c r="G37" s="61" t="str">
         <f>_xll.ohRangeRetrieveError(F37)</f>
@@ -6646,15 +6721,15 @@
         <v>0</v>
       </c>
       <c r="D38" s="4" t="str">
-        <v>N6</v>
+        <v>V6</v>
       </c>
       <c r="E38" s="40" t="str">
         <f t="shared" si="1"/>
-        <v>HKDFUT3MN6_Quote</v>
+        <v>HKDFUT3MV6_Quote</v>
       </c>
       <c r="F38" s="12" t="str">
         <f>_xll.qlSimpleQuote(E38,,PriceTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDFUT3MN6_Quote#0002</v>
+        <v>HKDFUT3MV6_Quote#0002</v>
       </c>
       <c r="G38" s="61" t="str">
         <f>_xll.ohRangeRetrieveError(F38)</f>
@@ -6671,15 +6746,15 @@
         <v>0</v>
       </c>
       <c r="D39" s="4" t="str">
-        <v>Q6</v>
+        <v>X6</v>
       </c>
       <c r="E39" s="40" t="str">
         <f t="shared" si="1"/>
-        <v>HKDFUT3MQ6_Quote</v>
+        <v>HKDFUT3MX6_Quote</v>
       </c>
       <c r="F39" s="12" t="str">
         <f>_xll.qlSimpleQuote(E39,,PriceTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDFUT3MQ6_Quote#0002</v>
+        <v>HKDFUT3MX6_Quote#0002</v>
       </c>
       <c r="G39" s="61" t="str">
         <f>_xll.ohRangeRetrieveError(F39)</f>
@@ -6696,15 +6771,15 @@
         <v>0</v>
       </c>
       <c r="D40" s="4" t="str">
-        <v>U6</v>
+        <v>Z6</v>
       </c>
       <c r="E40" s="40" t="str">
         <f t="shared" si="1"/>
-        <v>HKDFUT3MU6_Quote</v>
+        <v>HKDFUT3MZ6_Quote</v>
       </c>
       <c r="F40" s="12" t="str">
         <f>_xll.qlSimpleQuote(E40,,PriceTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDFUT3MU6_Quote#0002</v>
+        <v>HKDFUT3MZ6_Quote#0002</v>
       </c>
       <c r="G40" s="61" t="str">
         <f>_xll.ohRangeRetrieveError(F40)</f>
@@ -6721,15 +6796,15 @@
         <v>0</v>
       </c>
       <c r="D41" s="4" t="str">
-        <v>V6</v>
+        <v>F7</v>
       </c>
       <c r="E41" s="40" t="str">
         <f t="shared" si="1"/>
-        <v>HKDFUT3MV6_Quote</v>
+        <v>HKDFUT3MF7_Quote</v>
       </c>
       <c r="F41" s="12" t="str">
         <f>_xll.qlSimpleQuote(E41,,PriceTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDFUT3MV6_Quote#0002</v>
+        <v>HKDFUT3MF7_Quote#0002</v>
       </c>
       <c r="G41" s="61" t="str">
         <f>_xll.ohRangeRetrieveError(F41)</f>
@@ -6746,15 +6821,15 @@
         <v>0</v>
       </c>
       <c r="D42" s="4" t="str">
-        <v>X6</v>
+        <v>G7</v>
       </c>
       <c r="E42" s="40" t="str">
         <f t="shared" si="1"/>
-        <v>HKDFUT3MX6_Quote</v>
+        <v>HKDFUT3MG7_Quote</v>
       </c>
       <c r="F42" s="12" t="str">
         <f>_xll.qlSimpleQuote(E42,,PriceTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDFUT3MX6_Quote#0002</v>
+        <v>HKDFUT3MG7_Quote#0002</v>
       </c>
       <c r="G42" s="61" t="str">
         <f>_xll.ohRangeRetrieveError(F42)</f>
@@ -6771,15 +6846,15 @@
         <v>0</v>
       </c>
       <c r="D43" s="4" t="str">
-        <v>Z6</v>
+        <v>H7</v>
       </c>
       <c r="E43" s="40" t="str">
         <f t="shared" si="1"/>
-        <v>HKDFUT3MZ6_Quote</v>
+        <v>HKDFUT3MH7_Quote</v>
       </c>
       <c r="F43" s="12" t="str">
         <f>_xll.qlSimpleQuote(E43,,PriceTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDFUT3MZ6_Quote#0002</v>
+        <v>HKDFUT3MH7_Quote#0002</v>
       </c>
       <c r="G43" s="61" t="str">
         <f>_xll.ohRangeRetrieveError(F43)</f>
@@ -6796,15 +6871,15 @@
         <v>0</v>
       </c>
       <c r="D44" s="4" t="str">
-        <v>F7</v>
+        <v>J7</v>
       </c>
       <c r="E44" s="40" t="str">
         <f t="shared" si="1"/>
-        <v>HKDFUT3MF7_Quote</v>
+        <v>HKDFUT3MJ7_Quote</v>
       </c>
       <c r="F44" s="12" t="str">
         <f>_xll.qlSimpleQuote(E44,,PriceTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDFUT3MF7_Quote#0002</v>
+        <v>HKDFUT3MJ7_Quote#0002</v>
       </c>
       <c r="G44" s="61" t="str">
         <f>_xll.ohRangeRetrieveError(F44)</f>
@@ -6821,15 +6896,15 @@
         <v>0</v>
       </c>
       <c r="D45" s="4" t="str">
-        <v>G7</v>
+        <v>K7</v>
       </c>
       <c r="E45" s="40" t="str">
         <f t="shared" si="1"/>
-        <v>HKDFUT3MG7_Quote</v>
+        <v>HKDFUT3MK7_Quote</v>
       </c>
       <c r="F45" s="12" t="str">
         <f>_xll.qlSimpleQuote(E45,,PriceTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDFUT3MG7_Quote#0002</v>
+        <v>HKDFUT3MK7_Quote#0002</v>
       </c>
       <c r="G45" s="61" t="str">
         <f>_xll.ohRangeRetrieveError(F45)</f>
@@ -6846,15 +6921,15 @@
         <v>0</v>
       </c>
       <c r="D46" s="4" t="str">
-        <v>H7</v>
+        <v>M7</v>
       </c>
       <c r="E46" s="40" t="str">
         <f t="shared" si="1"/>
-        <v>HKDFUT3MH7_Quote</v>
+        <v>HKDFUT3MM7_Quote</v>
       </c>
       <c r="F46" s="12" t="str">
         <f>_xll.qlSimpleQuote(E46,,PriceTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDFUT3MH7_Quote#0002</v>
+        <v>HKDFUT3MM7_Quote#0002</v>
       </c>
       <c r="G46" s="61" t="str">
         <f>_xll.ohRangeRetrieveError(F46)</f>
@@ -6871,15 +6946,15 @@
         <v>0</v>
       </c>
       <c r="D47" s="4" t="str">
-        <v>J7</v>
+        <v>N7</v>
       </c>
       <c r="E47" s="40" t="str">
         <f t="shared" si="1"/>
-        <v>HKDFUT3MJ7_Quote</v>
+        <v>HKDFUT3MN7_Quote</v>
       </c>
       <c r="F47" s="12" t="str">
         <f>_xll.qlSimpleQuote(E47,,PriceTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDFUT3MJ7_Quote#0002</v>
+        <v>HKDFUT3MN7_Quote#0002</v>
       </c>
       <c r="G47" s="61" t="str">
         <f>_xll.ohRangeRetrieveError(F47)</f>
@@ -6896,15 +6971,15 @@
         <v>0</v>
       </c>
       <c r="D48" s="4" t="str">
-        <v>K7</v>
+        <v>Q7</v>
       </c>
       <c r="E48" s="40" t="str">
         <f t="shared" si="1"/>
-        <v>HKDFUT3MK7_Quote</v>
+        <v>HKDFUT3MQ7_Quote</v>
       </c>
       <c r="F48" s="12" t="str">
         <f>_xll.qlSimpleQuote(E48,,PriceTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDFUT3MK7_Quote#0002</v>
+        <v>HKDFUT3MQ7_Quote#0002</v>
       </c>
       <c r="G48" s="61" t="str">
         <f>_xll.ohRangeRetrieveError(F48)</f>
@@ -6921,15 +6996,15 @@
         <v>0</v>
       </c>
       <c r="D49" s="4" t="str">
-        <v>M7</v>
+        <v>U7</v>
       </c>
       <c r="E49" s="40" t="str">
         <f t="shared" si="1"/>
-        <v>HKDFUT3MM7_Quote</v>
+        <v>HKDFUT3MU7_Quote</v>
       </c>
       <c r="F49" s="12" t="str">
         <f>_xll.qlSimpleQuote(E49,,PriceTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDFUT3MM7_Quote#0002</v>
+        <v>HKDFUT3MU7_Quote#0002</v>
       </c>
       <c r="G49" s="61" t="str">
         <f>_xll.ohRangeRetrieveError(F49)</f>
@@ -6946,15 +7021,15 @@
         <v>0</v>
       </c>
       <c r="D50" s="4" t="str">
-        <v>N7</v>
+        <v>V7</v>
       </c>
       <c r="E50" s="40" t="str">
         <f t="shared" si="1"/>
-        <v>HKDFUT3MN7_Quote</v>
+        <v>HKDFUT3MV7_Quote</v>
       </c>
       <c r="F50" s="12" t="str">
         <f>_xll.qlSimpleQuote(E50,,PriceTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDFUT3MN7_Quote#0002</v>
+        <v>HKDFUT3MV7_Quote#0002</v>
       </c>
       <c r="G50" s="61" t="str">
         <f>_xll.ohRangeRetrieveError(F50)</f>
@@ -6971,15 +7046,15 @@
         <v>0</v>
       </c>
       <c r="D51" s="4" t="str">
-        <v>Q7</v>
+        <v>X7</v>
       </c>
       <c r="E51" s="40" t="str">
         <f t="shared" si="1"/>
-        <v>HKDFUT3MQ7_Quote</v>
+        <v>HKDFUT3MX7_Quote</v>
       </c>
       <c r="F51" s="12" t="str">
         <f>_xll.qlSimpleQuote(E51,,PriceTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDFUT3MQ7_Quote#0002</v>
+        <v>HKDFUT3MX7_Quote#0002</v>
       </c>
       <c r="G51" s="61" t="str">
         <f>_xll.ohRangeRetrieveError(F51)</f>
@@ -6996,15 +7071,15 @@
         <v>0</v>
       </c>
       <c r="D52" s="4" t="str">
-        <v>U7</v>
+        <v>Z7</v>
       </c>
       <c r="E52" s="40" t="str">
         <f t="shared" si="1"/>
-        <v>HKDFUT3MU7_Quote</v>
+        <v>HKDFUT3MZ7_Quote</v>
       </c>
       <c r="F52" s="12" t="str">
         <f>_xll.qlSimpleQuote(E52,,PriceTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDFUT3MU7_Quote#0002</v>
+        <v>HKDFUT3MZ7_Quote#0002</v>
       </c>
       <c r="G52" s="61" t="str">
         <f>_xll.ohRangeRetrieveError(F52)</f>
@@ -7021,15 +7096,15 @@
         <v>0</v>
       </c>
       <c r="D53" s="4" t="str">
-        <v>V7</v>
+        <v>F8</v>
       </c>
       <c r="E53" s="40" t="str">
         <f t="shared" si="1"/>
-        <v>HKDFUT3MV7_Quote</v>
+        <v>HKDFUT3MF8_Quote</v>
       </c>
       <c r="F53" s="12" t="str">
         <f>_xll.qlSimpleQuote(E53,,PriceTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDFUT3MV7_Quote#0002</v>
+        <v>HKDFUT3MF8_Quote#0002</v>
       </c>
       <c r="G53" s="61" t="str">
         <f>_xll.ohRangeRetrieveError(F53)</f>
@@ -7046,15 +7121,15 @@
         <v>0</v>
       </c>
       <c r="D54" s="4" t="str">
-        <v>X7</v>
+        <v>G8</v>
       </c>
       <c r="E54" s="40" t="str">
         <f t="shared" si="1"/>
-        <v>HKDFUT3MX7_Quote</v>
+        <v>HKDFUT3MG8_Quote</v>
       </c>
       <c r="F54" s="12" t="str">
         <f>_xll.qlSimpleQuote(E54,,PriceTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDFUT3MX7_Quote#0002</v>
+        <v>HKDFUT3MG8_Quote#0002</v>
       </c>
       <c r="G54" s="61" t="str">
         <f>_xll.ohRangeRetrieveError(F54)</f>
@@ -7071,15 +7146,15 @@
         <v>0</v>
       </c>
       <c r="D55" s="4" t="str">
-        <v>Z7</v>
+        <v>H8</v>
       </c>
       <c r="E55" s="40" t="str">
         <f t="shared" si="1"/>
-        <v>HKDFUT3MZ7_Quote</v>
+        <v>HKDFUT3MH8_Quote</v>
       </c>
       <c r="F55" s="12" t="str">
         <f>_xll.qlSimpleQuote(E55,,PriceTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDFUT3MZ7_Quote#0002</v>
+        <v>HKDFUT3MH8_Quote#0002</v>
       </c>
       <c r="G55" s="61" t="str">
         <f>_xll.ohRangeRetrieveError(F55)</f>
@@ -7096,15 +7171,15 @@
         <v>0</v>
       </c>
       <c r="D56" s="4" t="str">
-        <v>F8</v>
+        <v>J8</v>
       </c>
       <c r="E56" s="40" t="str">
         <f t="shared" si="1"/>
-        <v>HKDFUT3MF8_Quote</v>
+        <v>HKDFUT3MJ8_Quote</v>
       </c>
       <c r="F56" s="12" t="str">
         <f>_xll.qlSimpleQuote(E56,,PriceTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDFUT3MF8_Quote#0002</v>
+        <v>HKDFUT3MJ8_Quote#0002</v>
       </c>
       <c r="G56" s="61" t="str">
         <f>_xll.ohRangeRetrieveError(F56)</f>
@@ -7121,15 +7196,15 @@
         <v>0</v>
       </c>
       <c r="D57" s="4" t="str">
-        <v>G8</v>
+        <v>K8</v>
       </c>
       <c r="E57" s="40" t="str">
         <f t="shared" si="1"/>
-        <v>HKDFUT3MG8_Quote</v>
+        <v>HKDFUT3MK8_Quote</v>
       </c>
       <c r="F57" s="12" t="str">
         <f>_xll.qlSimpleQuote(E57,,PriceTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDFUT3MG8_Quote#0002</v>
+        <v>HKDFUT3MK8_Quote#0002</v>
       </c>
       <c r="G57" s="61" t="str">
         <f>_xll.ohRangeRetrieveError(F57)</f>
@@ -7146,15 +7221,15 @@
         <v>0</v>
       </c>
       <c r="D58" s="4" t="str">
-        <v>H8</v>
+        <v>M8</v>
       </c>
       <c r="E58" s="40" t="str">
         <f t="shared" si="1"/>
-        <v>HKDFUT3MH8_Quote</v>
+        <v>HKDFUT3MM8_Quote</v>
       </c>
       <c r="F58" s="12" t="str">
         <f>_xll.qlSimpleQuote(E58,,PriceTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDFUT3MH8_Quote#0002</v>
+        <v>HKDFUT3MM8_Quote#0002</v>
       </c>
       <c r="G58" s="61" t="str">
         <f>_xll.ohRangeRetrieveError(F58)</f>
@@ -7171,15 +7246,15 @@
         <v>0</v>
       </c>
       <c r="D59" s="4" t="str">
-        <v>J8</v>
+        <v>N8</v>
       </c>
       <c r="E59" s="40" t="str">
         <f t="shared" si="1"/>
-        <v>HKDFUT3MJ8_Quote</v>
+        <v>HKDFUT3MN8_Quote</v>
       </c>
       <c r="F59" s="12" t="str">
         <f>_xll.qlSimpleQuote(E59,,PriceTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDFUT3MJ8_Quote#0002</v>
+        <v>HKDFUT3MN8_Quote#0002</v>
       </c>
       <c r="G59" s="61" t="str">
         <f>_xll.ohRangeRetrieveError(F59)</f>
@@ -7196,15 +7271,15 @@
         <v>0</v>
       </c>
       <c r="D60" s="4" t="str">
-        <v>K8</v>
+        <v>Q8</v>
       </c>
       <c r="E60" s="40" t="str">
         <f t="shared" si="1"/>
-        <v>HKDFUT3MK8_Quote</v>
+        <v>HKDFUT3MQ8_Quote</v>
       </c>
       <c r="F60" s="12" t="str">
         <f>_xll.qlSimpleQuote(E60,,PriceTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDFUT3MK8_Quote#0002</v>
+        <v>HKDFUT3MQ8_Quote#0002</v>
       </c>
       <c r="G60" s="61" t="str">
         <f>_xll.ohRangeRetrieveError(F60)</f>
@@ -7221,15 +7296,15 @@
         <v>0</v>
       </c>
       <c r="D61" s="4" t="str">
-        <v>M8</v>
+        <v>U8</v>
       </c>
       <c r="E61" s="40" t="str">
         <f t="shared" si="1"/>
-        <v>HKDFUT3MM8_Quote</v>
+        <v>HKDFUT3MU8_Quote</v>
       </c>
       <c r="F61" s="12" t="str">
         <f>_xll.qlSimpleQuote(E61,,PriceTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDFUT3MM8_Quote#0002</v>
+        <v>HKDFUT3MU8_Quote#0002</v>
       </c>
       <c r="G61" s="61" t="str">
         <f>_xll.ohRangeRetrieveError(F61)</f>
@@ -7246,15 +7321,15 @@
         <v>0</v>
       </c>
       <c r="D62" s="4" t="str">
-        <v>N8</v>
+        <v>V8</v>
       </c>
       <c r="E62" s="40" t="str">
         <f t="shared" si="1"/>
-        <v>HKDFUT3MN8_Quote</v>
+        <v>HKDFUT3MV8_Quote</v>
       </c>
       <c r="F62" s="12" t="str">
         <f>_xll.qlSimpleQuote(E62,,PriceTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDFUT3MN8_Quote#0002</v>
+        <v>HKDFUT3MV8_Quote#0002</v>
       </c>
       <c r="G62" s="61" t="str">
         <f>_xll.ohRangeRetrieveError(F62)</f>
@@ -7271,15 +7346,15 @@
         <v>0</v>
       </c>
       <c r="D63" s="4" t="str">
-        <v>Q8</v>
+        <v>X8</v>
       </c>
       <c r="E63" s="40" t="str">
         <f t="shared" si="1"/>
-        <v>HKDFUT3MQ8_Quote</v>
+        <v>HKDFUT3MX8_Quote</v>
       </c>
       <c r="F63" s="12" t="str">
         <f>_xll.qlSimpleQuote(E63,,PriceTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDFUT3MQ8_Quote#0002</v>
+        <v>HKDFUT3MX8_Quote#0002</v>
       </c>
       <c r="G63" s="61" t="str">
         <f>_xll.ohRangeRetrieveError(F63)</f>
@@ -7296,15 +7371,15 @@
         <v>0</v>
       </c>
       <c r="D64" s="4" t="str">
-        <v>U8</v>
+        <v>Z8</v>
       </c>
       <c r="E64" s="40" t="str">
         <f t="shared" si="1"/>
-        <v>HKDFUT3MU8_Quote</v>
+        <v>HKDFUT3MZ8_Quote</v>
       </c>
       <c r="F64" s="12" t="str">
         <f>_xll.qlSimpleQuote(E64,,PriceTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDFUT3MU8_Quote#0002</v>
+        <v>HKDFUT3MZ8_Quote#0002</v>
       </c>
       <c r="G64" s="61" t="str">
         <f>_xll.ohRangeRetrieveError(F64)</f>
@@ -7321,15 +7396,15 @@
         <v>0</v>
       </c>
       <c r="D65" s="4" t="str">
-        <v>V8</v>
+        <v>F9</v>
       </c>
       <c r="E65" s="40" t="str">
         <f t="shared" si="1"/>
-        <v>HKDFUT3MV8_Quote</v>
+        <v>HKDFUT3MF9_Quote</v>
       </c>
       <c r="F65" s="12" t="str">
         <f>_xll.qlSimpleQuote(E65,,PriceTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDFUT3MV8_Quote#0002</v>
+        <v>HKDFUT3MF9_Quote#0002</v>
       </c>
       <c r="G65" s="61" t="str">
         <f>_xll.ohRangeRetrieveError(F65)</f>
@@ -7346,15 +7421,15 @@
         <v>0</v>
       </c>
       <c r="D66" s="4" t="str">
-        <v>X8</v>
+        <v>G9</v>
       </c>
       <c r="E66" s="40" t="str">
         <f t="shared" si="1"/>
-        <v>HKDFUT3MX8_Quote</v>
+        <v>HKDFUT3MG9_Quote</v>
       </c>
       <c r="F66" s="12" t="str">
         <f>_xll.qlSimpleQuote(E66,,PriceTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDFUT3MX8_Quote#0002</v>
+        <v>HKDFUT3MG9_Quote#0002</v>
       </c>
       <c r="G66" s="61" t="str">
         <f>_xll.ohRangeRetrieveError(F66)</f>
@@ -7371,15 +7446,15 @@
         <v>0</v>
       </c>
       <c r="D67" s="4" t="str">
-        <v>Z8</v>
+        <v>H9</v>
       </c>
       <c r="E67" s="40" t="str">
         <f t="shared" ref="E67:E98" si="2">Currency&amp;$D$1&amp;$E$1&amp;$D67&amp;QuoteSuffix</f>
-        <v>HKDFUT3MZ8_Quote</v>
+        <v>HKDFUT3MH9_Quote</v>
       </c>
       <c r="F67" s="12" t="str">
         <f>_xll.qlSimpleQuote(E67,,PriceTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDFUT3MZ8_Quote#0002</v>
+        <v>HKDFUT3MH9_Quote#0002</v>
       </c>
       <c r="G67" s="61" t="str">
         <f>_xll.ohRangeRetrieveError(F67)</f>
@@ -7396,15 +7471,15 @@
         <v>0</v>
       </c>
       <c r="D68" s="4" t="str">
-        <v>F9</v>
+        <v>J9</v>
       </c>
       <c r="E68" s="40" t="str">
         <f t="shared" si="2"/>
-        <v>HKDFUT3MF9_Quote</v>
+        <v>HKDFUT3MJ9_Quote</v>
       </c>
       <c r="F68" s="12" t="str">
         <f>_xll.qlSimpleQuote(E68,,PriceTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDFUT3MF9_Quote#0002</v>
+        <v>HKDFUT3MJ9_Quote#0002</v>
       </c>
       <c r="G68" s="61" t="str">
         <f>_xll.ohRangeRetrieveError(F68)</f>
@@ -7421,15 +7496,15 @@
         <v>0</v>
       </c>
       <c r="D69" s="4" t="str">
-        <v>G9</v>
+        <v>K9</v>
       </c>
       <c r="E69" s="40" t="str">
         <f t="shared" si="2"/>
-        <v>HKDFUT3MG9_Quote</v>
+        <v>HKDFUT3MK9_Quote</v>
       </c>
       <c r="F69" s="12" t="str">
         <f>_xll.qlSimpleQuote(E69,,PriceTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDFUT3MG9_Quote#0002</v>
+        <v>HKDFUT3MK9_Quote#0002</v>
       </c>
       <c r="G69" s="61" t="str">
         <f>_xll.ohRangeRetrieveError(F69)</f>
@@ -7446,15 +7521,15 @@
         <v>0</v>
       </c>
       <c r="D70" s="4" t="str">
-        <v>H9</v>
+        <v>M9</v>
       </c>
       <c r="E70" s="40" t="str">
         <f t="shared" si="2"/>
-        <v>HKDFUT3MH9_Quote</v>
+        <v>HKDFUT3MM9_Quote</v>
       </c>
       <c r="F70" s="12" t="str">
         <f>_xll.qlSimpleQuote(E70,,PriceTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDFUT3MH9_Quote#0002</v>
+        <v>HKDFUT3MM9_Quote#0002</v>
       </c>
       <c r="G70" s="61" t="str">
         <f>_xll.ohRangeRetrieveError(F70)</f>
@@ -7471,15 +7546,15 @@
         <v>0</v>
       </c>
       <c r="D71" s="4" t="str">
-        <v>J9</v>
+        <v>N9</v>
       </c>
       <c r="E71" s="40" t="str">
         <f t="shared" si="2"/>
-        <v>HKDFUT3MJ9_Quote</v>
+        <v>HKDFUT3MN9_Quote</v>
       </c>
       <c r="F71" s="12" t="str">
         <f>_xll.qlSimpleQuote(E71,,PriceTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDFUT3MJ9_Quote#0002</v>
+        <v>HKDFUT3MN9_Quote#0002</v>
       </c>
       <c r="G71" s="61" t="str">
         <f>_xll.ohRangeRetrieveError(F71)</f>
@@ -7496,15 +7571,15 @@
         <v>0</v>
       </c>
       <c r="D72" s="4" t="str">
-        <v>K9</v>
+        <v>Q9</v>
       </c>
       <c r="E72" s="40" t="str">
         <f t="shared" si="2"/>
-        <v>HKDFUT3MK9_Quote</v>
+        <v>HKDFUT3MQ9_Quote</v>
       </c>
       <c r="F72" s="12" t="str">
         <f>_xll.qlSimpleQuote(E72,,PriceTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDFUT3MK9_Quote#0002</v>
+        <v>HKDFUT3MQ9_Quote#0002</v>
       </c>
       <c r="G72" s="61" t="str">
         <f>_xll.ohRangeRetrieveError(F72)</f>
@@ -7521,15 +7596,15 @@
         <v>0</v>
       </c>
       <c r="D73" s="4" t="str">
-        <v>M9</v>
+        <v>U9</v>
       </c>
       <c r="E73" s="40" t="str">
         <f t="shared" si="2"/>
-        <v>HKDFUT3MM9_Quote</v>
+        <v>HKDFUT3MU9_Quote</v>
       </c>
       <c r="F73" s="12" t="str">
         <f>_xll.qlSimpleQuote(E73,,PriceTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDFUT3MM9_Quote#0002</v>
+        <v>HKDFUT3MU9_Quote#0002</v>
       </c>
       <c r="G73" s="61" t="str">
         <f>_xll.ohRangeRetrieveError(F73)</f>
@@ -7546,15 +7621,15 @@
         <v>0</v>
       </c>
       <c r="D74" s="4" t="str">
-        <v>N9</v>
+        <v>V9</v>
       </c>
       <c r="E74" s="40" t="str">
         <f t="shared" si="2"/>
-        <v>HKDFUT3MN9_Quote</v>
+        <v>HKDFUT3MV9_Quote</v>
       </c>
       <c r="F74" s="12" t="str">
         <f>_xll.qlSimpleQuote(E74,,PriceTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDFUT3MN9_Quote#0002</v>
+        <v>HKDFUT3MV9_Quote#0002</v>
       </c>
       <c r="G74" s="61" t="str">
         <f>_xll.ohRangeRetrieveError(F74)</f>
@@ -7571,15 +7646,15 @@
         <v>0</v>
       </c>
       <c r="D75" s="4" t="str">
-        <v>Q9</v>
+        <v>X9</v>
       </c>
       <c r="E75" s="40" t="str">
         <f t="shared" si="2"/>
-        <v>HKDFUT3MQ9_Quote</v>
+        <v>HKDFUT3MX9_Quote</v>
       </c>
       <c r="F75" s="12" t="str">
         <f>_xll.qlSimpleQuote(E75,,PriceTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDFUT3MQ9_Quote#0002</v>
+        <v>HKDFUT3MX9_Quote#0002</v>
       </c>
       <c r="G75" s="61" t="str">
         <f>_xll.ohRangeRetrieveError(F75)</f>
@@ -7596,15 +7671,15 @@
         <v>0</v>
       </c>
       <c r="D76" s="4" t="str">
-        <v>U9</v>
+        <v>Z9</v>
       </c>
       <c r="E76" s="40" t="str">
         <f t="shared" si="2"/>
-        <v>HKDFUT3MU9_Quote</v>
+        <v>HKDFUT3MZ9_Quote</v>
       </c>
       <c r="F76" s="12" t="str">
         <f>_xll.qlSimpleQuote(E76,,PriceTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDFUT3MU9_Quote#0002</v>
+        <v>HKDFUT3MZ9_Quote#0002</v>
       </c>
       <c r="G76" s="61" t="str">
         <f>_xll.ohRangeRetrieveError(F76)</f>
@@ -7621,15 +7696,15 @@
         <v>0</v>
       </c>
       <c r="D77" s="4" t="str">
-        <v>V9</v>
+        <v>F0</v>
       </c>
       <c r="E77" s="40" t="str">
         <f t="shared" si="2"/>
-        <v>HKDFUT3MV9_Quote</v>
+        <v>HKDFUT3MF0_Quote</v>
       </c>
       <c r="F77" s="12" t="str">
         <f>_xll.qlSimpleQuote(E77,,PriceTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDFUT3MV9_Quote#0002</v>
+        <v>HKDFUT3MF0_Quote#0002</v>
       </c>
       <c r="G77" s="61" t="str">
         <f>_xll.ohRangeRetrieveError(F77)</f>
@@ -7646,15 +7721,15 @@
         <v>0</v>
       </c>
       <c r="D78" s="4" t="str">
-        <v>X9</v>
+        <v>G0</v>
       </c>
       <c r="E78" s="40" t="str">
         <f t="shared" si="2"/>
-        <v>HKDFUT3MX9_Quote</v>
+        <v>HKDFUT3MG0_Quote</v>
       </c>
       <c r="F78" s="12" t="str">
         <f>_xll.qlSimpleQuote(E78,,PriceTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDFUT3MX9_Quote#0002</v>
+        <v>HKDFUT3MG0_Quote#0002</v>
       </c>
       <c r="G78" s="61" t="str">
         <f>_xll.ohRangeRetrieveError(F78)</f>
@@ -7671,15 +7746,15 @@
         <v>0</v>
       </c>
       <c r="D79" s="4" t="str">
-        <v>Z9</v>
+        <v>H0</v>
       </c>
       <c r="E79" s="40" t="str">
         <f t="shared" si="2"/>
-        <v>HKDFUT3MZ9_Quote</v>
+        <v>HKDFUT3MH0_Quote</v>
       </c>
       <c r="F79" s="12" t="str">
         <f>_xll.qlSimpleQuote(E79,,PriceTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDFUT3MZ9_Quote#0002</v>
+        <v>HKDFUT3MH0_Quote#0002</v>
       </c>
       <c r="G79" s="61" t="str">
         <f>_xll.ohRangeRetrieveError(F79)</f>
@@ -7696,15 +7771,15 @@
         <v>0</v>
       </c>
       <c r="D80" s="4" t="str">
-        <v>F0</v>
+        <v>J0</v>
       </c>
       <c r="E80" s="40" t="str">
         <f t="shared" si="2"/>
-        <v>HKDFUT3MF0_Quote</v>
+        <v>HKDFUT3MJ0_Quote</v>
       </c>
       <c r="F80" s="12" t="str">
         <f>_xll.qlSimpleQuote(E80,,PriceTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDFUT3MF0_Quote#0002</v>
+        <v>HKDFUT3MJ0_Quote#0002</v>
       </c>
       <c r="G80" s="61" t="str">
         <f>_xll.ohRangeRetrieveError(F80)</f>
@@ -7721,15 +7796,15 @@
         <v>0</v>
       </c>
       <c r="D81" s="4" t="str">
-        <v>G0</v>
+        <v>K0</v>
       </c>
       <c r="E81" s="40" t="str">
         <f t="shared" si="2"/>
-        <v>HKDFUT3MG0_Quote</v>
+        <v>HKDFUT3MK0_Quote</v>
       </c>
       <c r="F81" s="12" t="str">
         <f>_xll.qlSimpleQuote(E81,,PriceTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDFUT3MG0_Quote#0002</v>
+        <v>HKDFUT3MK0_Quote#0002</v>
       </c>
       <c r="G81" s="61" t="str">
         <f>_xll.ohRangeRetrieveError(F81)</f>
@@ -7746,15 +7821,15 @@
         <v>0</v>
       </c>
       <c r="D82" s="4" t="str">
-        <v>H0</v>
+        <v>M0</v>
       </c>
       <c r="E82" s="40" t="str">
         <f t="shared" si="2"/>
-        <v>HKDFUT3MH0_Quote</v>
+        <v>HKDFUT3MM0_Quote</v>
       </c>
       <c r="F82" s="12" t="str">
         <f>_xll.qlSimpleQuote(E82,,PriceTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDFUT3MH0_Quote#0002</v>
+        <v>HKDFUT3MM0_Quote#0002</v>
       </c>
       <c r="G82" s="61" t="str">
         <f>_xll.ohRangeRetrieveError(F82)</f>
@@ -7771,15 +7846,15 @@
         <v>0</v>
       </c>
       <c r="D83" s="4" t="str">
-        <v>J0</v>
+        <v>N0</v>
       </c>
       <c r="E83" s="40" t="str">
         <f t="shared" si="2"/>
-        <v>HKDFUT3MJ0_Quote</v>
+        <v>HKDFUT3MN0_Quote</v>
       </c>
       <c r="F83" s="12" t="str">
         <f>_xll.qlSimpleQuote(E83,,PriceTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDFUT3MJ0_Quote#0002</v>
+        <v>HKDFUT3MN0_Quote#0002</v>
       </c>
       <c r="G83" s="61" t="str">
         <f>_xll.ohRangeRetrieveError(F83)</f>
@@ -7796,15 +7871,15 @@
         <v>0</v>
       </c>
       <c r="D84" s="4" t="str">
-        <v>K0</v>
+        <v>Q0</v>
       </c>
       <c r="E84" s="40" t="str">
         <f t="shared" si="2"/>
-        <v>HKDFUT3MK0_Quote</v>
+        <v>HKDFUT3MQ0_Quote</v>
       </c>
       <c r="F84" s="12" t="str">
         <f>_xll.qlSimpleQuote(E84,,PriceTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDFUT3MK0_Quote#0002</v>
+        <v>HKDFUT3MQ0_Quote#0002</v>
       </c>
       <c r="G84" s="61" t="str">
         <f>_xll.ohRangeRetrieveError(F84)</f>
@@ -7821,15 +7896,15 @@
         <v>0</v>
       </c>
       <c r="D85" s="4" t="str">
-        <v>M0</v>
+        <v>U0</v>
       </c>
       <c r="E85" s="40" t="str">
         <f t="shared" si="2"/>
-        <v>HKDFUT3MM0_Quote</v>
+        <v>HKDFUT3MU0_Quote</v>
       </c>
       <c r="F85" s="12" t="str">
         <f>_xll.qlSimpleQuote(E85,,PriceTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDFUT3MM0_Quote#0002</v>
+        <v>HKDFUT3MU0_Quote#0002</v>
       </c>
       <c r="G85" s="61" t="str">
         <f>_xll.ohRangeRetrieveError(F85)</f>
@@ -7846,15 +7921,15 @@
         <v>0</v>
       </c>
       <c r="D86" s="4" t="str">
-        <v>N0</v>
+        <v>V0</v>
       </c>
       <c r="E86" s="40" t="str">
         <f t="shared" si="2"/>
-        <v>HKDFUT3MN0_Quote</v>
+        <v>HKDFUT3MV0_Quote</v>
       </c>
       <c r="F86" s="12" t="str">
         <f>_xll.qlSimpleQuote(E86,,PriceTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDFUT3MN0_Quote#0002</v>
+        <v>HKDFUT3MV0_Quote#0002</v>
       </c>
       <c r="G86" s="61" t="str">
         <f>_xll.ohRangeRetrieveError(F86)</f>
@@ -7871,15 +7946,15 @@
         <v>0</v>
       </c>
       <c r="D87" s="4" t="str">
-        <v>Q0</v>
+        <v>X0</v>
       </c>
       <c r="E87" s="40" t="str">
         <f t="shared" si="2"/>
-        <v>HKDFUT3MQ0_Quote</v>
+        <v>HKDFUT3MX0_Quote</v>
       </c>
       <c r="F87" s="12" t="str">
         <f>_xll.qlSimpleQuote(E87,,PriceTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDFUT3MQ0_Quote#0002</v>
+        <v>HKDFUT3MX0_Quote#0002</v>
       </c>
       <c r="G87" s="61" t="str">
         <f>_xll.ohRangeRetrieveError(F87)</f>
@@ -7896,15 +7971,15 @@
         <v>0</v>
       </c>
       <c r="D88" s="4" t="str">
-        <v>U0</v>
+        <v>Z0</v>
       </c>
       <c r="E88" s="40" t="str">
         <f t="shared" si="2"/>
-        <v>HKDFUT3MU0_Quote</v>
+        <v>HKDFUT3MZ0_Quote</v>
       </c>
       <c r="F88" s="12" t="str">
         <f>_xll.qlSimpleQuote(E88,,PriceTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDFUT3MU0_Quote#0002</v>
+        <v>HKDFUT3MZ0_Quote#0002</v>
       </c>
       <c r="G88" s="61" t="str">
         <f>_xll.ohRangeRetrieveError(F88)</f>
@@ -7921,15 +7996,15 @@
         <v>0</v>
       </c>
       <c r="D89" s="4" t="str">
-        <v>V0</v>
+        <v>F1</v>
       </c>
       <c r="E89" s="40" t="str">
         <f t="shared" si="2"/>
-        <v>HKDFUT3MV0_Quote</v>
+        <v>HKDFUT3MF1_Quote</v>
       </c>
       <c r="F89" s="12" t="str">
         <f>_xll.qlSimpleQuote(E89,,PriceTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDFUT3MV0_Quote#0002</v>
+        <v>HKDFUT3MF1_Quote#0002</v>
       </c>
       <c r="G89" s="61" t="str">
         <f>_xll.ohRangeRetrieveError(F89)</f>
@@ -7946,15 +8021,15 @@
         <v>0</v>
       </c>
       <c r="D90" s="4" t="str">
-        <v>X0</v>
+        <v>G1</v>
       </c>
       <c r="E90" s="40" t="str">
         <f t="shared" si="2"/>
-        <v>HKDFUT3MX0_Quote</v>
+        <v>HKDFUT3MG1_Quote</v>
       </c>
       <c r="F90" s="12" t="str">
         <f>_xll.qlSimpleQuote(E90,,PriceTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDFUT3MX0_Quote#0002</v>
+        <v>HKDFUT3MG1_Quote#0002</v>
       </c>
       <c r="G90" s="61" t="str">
         <f>_xll.ohRangeRetrieveError(F90)</f>
@@ -7971,15 +8046,15 @@
         <v>0</v>
       </c>
       <c r="D91" s="4" t="str">
-        <v>Z0</v>
+        <v>H1</v>
       </c>
       <c r="E91" s="40" t="str">
         <f t="shared" si="2"/>
-        <v>HKDFUT3MZ0_Quote</v>
+        <v>HKDFUT3MH1_Quote</v>
       </c>
       <c r="F91" s="12" t="str">
         <f>_xll.qlSimpleQuote(E91,,PriceTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDFUT3MZ0_Quote#0002</v>
+        <v>HKDFUT3MH1_Quote#0002</v>
       </c>
       <c r="G91" s="61" t="str">
         <f>_xll.ohRangeRetrieveError(F91)</f>
@@ -7996,15 +8071,15 @@
         <v>0</v>
       </c>
       <c r="D92" s="4" t="str">
-        <v>F1</v>
+        <v>J1</v>
       </c>
       <c r="E92" s="40" t="str">
         <f t="shared" si="2"/>
-        <v>HKDFUT3MF1_Quote</v>
+        <v>HKDFUT3MJ1_Quote</v>
       </c>
       <c r="F92" s="12" t="str">
         <f>_xll.qlSimpleQuote(E92,,PriceTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDFUT3MF1_Quote#0002</v>
+        <v>HKDFUT3MJ1_Quote#0002</v>
       </c>
       <c r="G92" s="61" t="str">
         <f>_xll.ohRangeRetrieveError(F92)</f>
@@ -8021,15 +8096,15 @@
         <v>0</v>
       </c>
       <c r="D93" s="4" t="str">
-        <v>G1</v>
+        <v>K1</v>
       </c>
       <c r="E93" s="40" t="str">
         <f t="shared" si="2"/>
-        <v>HKDFUT3MG1_Quote</v>
+        <v>HKDFUT3MK1_Quote</v>
       </c>
       <c r="F93" s="12" t="str">
         <f>_xll.qlSimpleQuote(E93,,PriceTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDFUT3MG1_Quote#0002</v>
+        <v>HKDFUT3MK1_Quote#0002</v>
       </c>
       <c r="G93" s="61" t="str">
         <f>_xll.ohRangeRetrieveError(F93)</f>
@@ -8046,15 +8121,15 @@
         <v>0</v>
       </c>
       <c r="D94" s="4" t="str">
-        <v>H1</v>
+        <v>M1</v>
       </c>
       <c r="E94" s="40" t="str">
         <f t="shared" si="2"/>
-        <v>HKDFUT3MH1_Quote</v>
+        <v>HKDFUT3MM1_Quote</v>
       </c>
       <c r="F94" s="12" t="str">
         <f>_xll.qlSimpleQuote(E94,,PriceTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDFUT3MH1_Quote#0002</v>
+        <v>HKDFUT3MM1_Quote#0002</v>
       </c>
       <c r="G94" s="61" t="str">
         <f>_xll.ohRangeRetrieveError(F94)</f>
@@ -8071,15 +8146,15 @@
         <v>0</v>
       </c>
       <c r="D95" s="4" t="str">
-        <v>J1</v>
+        <v>N1</v>
       </c>
       <c r="E95" s="40" t="str">
         <f t="shared" si="2"/>
-        <v>HKDFUT3MJ1_Quote</v>
+        <v>HKDFUT3MN1_Quote</v>
       </c>
       <c r="F95" s="12" t="str">
         <f>_xll.qlSimpleQuote(E95,,PriceTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDFUT3MJ1_Quote#0002</v>
+        <v>HKDFUT3MN1_Quote#0002</v>
       </c>
       <c r="G95" s="61" t="str">
         <f>_xll.ohRangeRetrieveError(F95)</f>
@@ -8096,15 +8171,15 @@
         <v>0</v>
       </c>
       <c r="D96" s="4" t="str">
-        <v>K1</v>
+        <v>Q1</v>
       </c>
       <c r="E96" s="40" t="str">
         <f t="shared" si="2"/>
-        <v>HKDFUT3MK1_Quote</v>
+        <v>HKDFUT3MQ1_Quote</v>
       </c>
       <c r="F96" s="12" t="str">
         <f>_xll.qlSimpleQuote(E96,,PriceTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDFUT3MK1_Quote#0002</v>
+        <v>HKDFUT3MQ1_Quote#0002</v>
       </c>
       <c r="G96" s="61" t="str">
         <f>_xll.ohRangeRetrieveError(F96)</f>
@@ -8121,15 +8196,15 @@
         <v>0</v>
       </c>
       <c r="D97" s="4" t="str">
-        <v>M1</v>
+        <v>U1</v>
       </c>
       <c r="E97" s="40" t="str">
         <f t="shared" si="2"/>
-        <v>HKDFUT3MM1_Quote</v>
+        <v>HKDFUT3MU1_Quote</v>
       </c>
       <c r="F97" s="12" t="str">
         <f>_xll.qlSimpleQuote(E97,,PriceTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDFUT3MM1_Quote#0002</v>
+        <v>HKDFUT3MU1_Quote#0002</v>
       </c>
       <c r="G97" s="61" t="str">
         <f>_xll.ohRangeRetrieveError(F97)</f>
@@ -8146,15 +8221,15 @@
         <v>0</v>
       </c>
       <c r="D98" s="4" t="str">
-        <v>N1</v>
+        <v>V1</v>
       </c>
       <c r="E98" s="40" t="str">
         <f t="shared" si="2"/>
-        <v>HKDFUT3MN1_Quote</v>
+        <v>HKDFUT3MV1_Quote</v>
       </c>
       <c r="F98" s="12" t="str">
         <f>_xll.qlSimpleQuote(E98,,PriceTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDFUT3MN1_Quote#0002</v>
+        <v>HKDFUT3MV1_Quote#0002</v>
       </c>
       <c r="G98" s="61" t="str">
         <f>_xll.ohRangeRetrieveError(F98)</f>
@@ -8171,15 +8246,15 @@
         <v>0</v>
       </c>
       <c r="D99" s="4" t="str">
-        <v>Q1</v>
+        <v>X1</v>
       </c>
       <c r="E99" s="40" t="str">
         <f t="shared" ref="E99:E122" si="3">Currency&amp;$D$1&amp;$E$1&amp;$D99&amp;QuoteSuffix</f>
-        <v>HKDFUT3MQ1_Quote</v>
+        <v>HKDFUT3MX1_Quote</v>
       </c>
       <c r="F99" s="12" t="str">
         <f>_xll.qlSimpleQuote(E99,,PriceTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDFUT3MQ1_Quote#0002</v>
+        <v>HKDFUT3MX1_Quote#0002</v>
       </c>
       <c r="G99" s="61" t="str">
         <f>_xll.ohRangeRetrieveError(F99)</f>
@@ -8196,15 +8271,15 @@
         <v>0</v>
       </c>
       <c r="D100" s="4" t="str">
-        <v>U1</v>
+        <v>Z1</v>
       </c>
       <c r="E100" s="40" t="str">
         <f t="shared" si="3"/>
-        <v>HKDFUT3MU1_Quote</v>
+        <v>HKDFUT3MZ1_Quote</v>
       </c>
       <c r="F100" s="12" t="str">
         <f>_xll.qlSimpleQuote(E100,,PriceTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDFUT3MU1_Quote#0002</v>
+        <v>HKDFUT3MZ1_Quote#0002</v>
       </c>
       <c r="G100" s="61" t="str">
         <f>_xll.ohRangeRetrieveError(F100)</f>
@@ -8221,15 +8296,15 @@
         <v>0</v>
       </c>
       <c r="D101" s="4" t="str">
-        <v>V1</v>
+        <v>F2</v>
       </c>
       <c r="E101" s="40" t="str">
         <f t="shared" si="3"/>
-        <v>HKDFUT3MV1_Quote</v>
+        <v>HKDFUT3MF2_Quote</v>
       </c>
       <c r="F101" s="12" t="str">
         <f>_xll.qlSimpleQuote(E101,,PriceTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDFUT3MV1_Quote#0002</v>
+        <v>HKDFUT3MF2_Quote#0002</v>
       </c>
       <c r="G101" s="61" t="str">
         <f>_xll.ohRangeRetrieveError(F101)</f>
@@ -8246,15 +8321,15 @@
         <v>0</v>
       </c>
       <c r="D102" s="4" t="str">
-        <v>X1</v>
+        <v>G2</v>
       </c>
       <c r="E102" s="40" t="str">
         <f t="shared" si="3"/>
-        <v>HKDFUT3MX1_Quote</v>
+        <v>HKDFUT3MG2_Quote</v>
       </c>
       <c r="F102" s="12" t="str">
         <f>_xll.qlSimpleQuote(E102,,PriceTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDFUT3MX1_Quote#0002</v>
+        <v>HKDFUT3MG2_Quote#0002</v>
       </c>
       <c r="G102" s="61" t="str">
         <f>_xll.ohRangeRetrieveError(F102)</f>
@@ -8271,15 +8346,15 @@
         <v>0</v>
       </c>
       <c r="D103" s="4" t="str">
-        <v>Z1</v>
+        <v>H2</v>
       </c>
       <c r="E103" s="40" t="str">
         <f t="shared" si="3"/>
-        <v>HKDFUT3MZ1_Quote</v>
+        <v>HKDFUT3MH2_Quote</v>
       </c>
       <c r="F103" s="12" t="str">
         <f>_xll.qlSimpleQuote(E103,,PriceTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDFUT3MZ1_Quote#0002</v>
+        <v>HKDFUT3MH2_Quote#0002</v>
       </c>
       <c r="G103" s="61" t="str">
         <f>_xll.ohRangeRetrieveError(F103)</f>
@@ -8296,15 +8371,15 @@
         <v>0</v>
       </c>
       <c r="D104" s="4" t="str">
-        <v>F2</v>
+        <v>J2</v>
       </c>
       <c r="E104" s="40" t="str">
         <f t="shared" si="3"/>
-        <v>HKDFUT3MF2_Quote</v>
+        <v>HKDFUT3MJ2_Quote</v>
       </c>
       <c r="F104" s="12" t="str">
         <f>_xll.qlSimpleQuote(E104,,PriceTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDFUT3MF2_Quote#0002</v>
+        <v>HKDFUT3MJ2_Quote#0002</v>
       </c>
       <c r="G104" s="61" t="str">
         <f>_xll.ohRangeRetrieveError(F104)</f>
@@ -8321,15 +8396,15 @@
         <v>0</v>
       </c>
       <c r="D105" s="4" t="str">
-        <v>G2</v>
+        <v>K2</v>
       </c>
       <c r="E105" s="40" t="str">
         <f t="shared" si="3"/>
-        <v>HKDFUT3MG2_Quote</v>
+        <v>HKDFUT3MK2_Quote</v>
       </c>
       <c r="F105" s="12" t="str">
         <f>_xll.qlSimpleQuote(E105,,PriceTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDFUT3MG2_Quote#0002</v>
+        <v>HKDFUT3MK2_Quote#0002</v>
       </c>
       <c r="G105" s="61" t="str">
         <f>_xll.ohRangeRetrieveError(F105)</f>
@@ -8346,15 +8421,15 @@
         <v>0</v>
       </c>
       <c r="D106" s="4" t="str">
-        <v>H2</v>
+        <v>M2</v>
       </c>
       <c r="E106" s="40" t="str">
         <f t="shared" si="3"/>
-        <v>HKDFUT3MH2_Quote</v>
+        <v>HKDFUT3MM2_Quote</v>
       </c>
       <c r="F106" s="12" t="str">
         <f>_xll.qlSimpleQuote(E106,,PriceTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDFUT3MH2_Quote#0002</v>
+        <v>HKDFUT3MM2_Quote#0002</v>
       </c>
       <c r="G106" s="61" t="str">
         <f>_xll.ohRangeRetrieveError(F106)</f>
@@ -8371,15 +8446,15 @@
         <v>0</v>
       </c>
       <c r="D107" s="4" t="str">
-        <v>J2</v>
+        <v>N2</v>
       </c>
       <c r="E107" s="40" t="str">
         <f t="shared" si="3"/>
-        <v>HKDFUT3MJ2_Quote</v>
+        <v>HKDFUT3MN2_Quote</v>
       </c>
       <c r="F107" s="12" t="str">
         <f>_xll.qlSimpleQuote(E107,,PriceTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDFUT3MJ2_Quote#0002</v>
+        <v>HKDFUT3MN2_Quote#0002</v>
       </c>
       <c r="G107" s="61" t="str">
         <f>_xll.ohRangeRetrieveError(F107)</f>
@@ -8396,15 +8471,15 @@
         <v>0</v>
       </c>
       <c r="D108" s="4" t="str">
-        <v>K2</v>
+        <v>Q2</v>
       </c>
       <c r="E108" s="40" t="str">
         <f t="shared" si="3"/>
-        <v>HKDFUT3MK2_Quote</v>
+        <v>HKDFUT3MQ2_Quote</v>
       </c>
       <c r="F108" s="12" t="str">
         <f>_xll.qlSimpleQuote(E108,,PriceTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDFUT3MK2_Quote#0002</v>
+        <v>HKDFUT3MQ2_Quote#0002</v>
       </c>
       <c r="G108" s="61" t="str">
         <f>_xll.ohRangeRetrieveError(F108)</f>
@@ -8421,15 +8496,15 @@
         <v>0</v>
       </c>
       <c r="D109" s="4" t="str">
-        <v>M2</v>
+        <v>U2</v>
       </c>
       <c r="E109" s="40" t="str">
         <f t="shared" si="3"/>
-        <v>HKDFUT3MM2_Quote</v>
+        <v>HKDFUT3MU2_Quote</v>
       </c>
       <c r="F109" s="12" t="str">
         <f>_xll.qlSimpleQuote(E109,,PriceTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDFUT3MM2_Quote#0002</v>
+        <v>HKDFUT3MU2_Quote#0002</v>
       </c>
       <c r="G109" s="61" t="str">
         <f>_xll.ohRangeRetrieveError(F109)</f>
@@ -8446,15 +8521,15 @@
         <v>0</v>
       </c>
       <c r="D110" s="4" t="str">
-        <v>N2</v>
+        <v>V2</v>
       </c>
       <c r="E110" s="40" t="str">
         <f t="shared" si="3"/>
-        <v>HKDFUT3MN2_Quote</v>
+        <v>HKDFUT3MV2_Quote</v>
       </c>
       <c r="F110" s="12" t="str">
         <f>_xll.qlSimpleQuote(E110,,PriceTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDFUT3MN2_Quote#0002</v>
+        <v>HKDFUT3MV2_Quote#0002</v>
       </c>
       <c r="G110" s="61" t="str">
         <f>_xll.ohRangeRetrieveError(F110)</f>
@@ -8471,15 +8546,15 @@
         <v>0</v>
       </c>
       <c r="D111" s="4" t="str">
-        <v>Q2</v>
+        <v>X2</v>
       </c>
       <c r="E111" s="40" t="str">
         <f t="shared" si="3"/>
-        <v>HKDFUT3MQ2_Quote</v>
+        <v>HKDFUT3MX2_Quote</v>
       </c>
       <c r="F111" s="12" t="str">
         <f>_xll.qlSimpleQuote(E111,,PriceTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDFUT3MQ2_Quote#0002</v>
+        <v>HKDFUT3MX2_Quote#0002</v>
       </c>
       <c r="G111" s="61" t="str">
         <f>_xll.ohRangeRetrieveError(F111)</f>
@@ -8496,15 +8571,15 @@
         <v>0</v>
       </c>
       <c r="D112" s="4" t="str">
-        <v>U2</v>
+        <v>Z2</v>
       </c>
       <c r="E112" s="40" t="str">
         <f t="shared" si="3"/>
-        <v>HKDFUT3MU2_Quote</v>
+        <v>HKDFUT3MZ2_Quote</v>
       </c>
       <c r="F112" s="12" t="str">
         <f>_xll.qlSimpleQuote(E112,,PriceTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDFUT3MU2_Quote#0002</v>
+        <v>HKDFUT3MZ2_Quote#0002</v>
       </c>
       <c r="G112" s="61" t="str">
         <f>_xll.ohRangeRetrieveError(F112)</f>
@@ -8521,15 +8596,15 @@
         <v>0</v>
       </c>
       <c r="D113" s="4" t="str">
-        <v>V2</v>
+        <v>F3</v>
       </c>
       <c r="E113" s="40" t="str">
         <f t="shared" si="3"/>
-        <v>HKDFUT3MV2_Quote</v>
+        <v>HKDFUT3MF3_Quote</v>
       </c>
       <c r="F113" s="12" t="str">
         <f>_xll.qlSimpleQuote(E113,,PriceTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDFUT3MV2_Quote#0002</v>
+        <v>HKDFUT3MF3_Quote#0002</v>
       </c>
       <c r="G113" s="61" t="str">
         <f>_xll.ohRangeRetrieveError(F113)</f>
@@ -8546,15 +8621,15 @@
         <v>0</v>
       </c>
       <c r="D114" s="4" t="str">
-        <v>X2</v>
+        <v>G3</v>
       </c>
       <c r="E114" s="40" t="str">
         <f t="shared" si="3"/>
-        <v>HKDFUT3MX2_Quote</v>
+        <v>HKDFUT3MG3_Quote</v>
       </c>
       <c r="F114" s="12" t="str">
         <f>_xll.qlSimpleQuote(E114,,PriceTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDFUT3MX2_Quote#0002</v>
+        <v>HKDFUT3MG3_Quote#0002</v>
       </c>
       <c r="G114" s="61" t="str">
         <f>_xll.ohRangeRetrieveError(F114)</f>
@@ -8571,15 +8646,15 @@
         <v>0</v>
       </c>
       <c r="D115" s="4" t="str">
-        <v>Z2</v>
+        <v>H3</v>
       </c>
       <c r="E115" s="40" t="str">
         <f t="shared" si="3"/>
-        <v>HKDFUT3MZ2_Quote</v>
+        <v>HKDFUT3MH3_Quote</v>
       </c>
       <c r="F115" s="12" t="str">
         <f>_xll.qlSimpleQuote(E115,,PriceTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDFUT3MZ2_Quote#0002</v>
+        <v>HKDFUT3MH3_Quote#0002</v>
       </c>
       <c r="G115" s="61" t="str">
         <f>_xll.ohRangeRetrieveError(F115)</f>
@@ -8596,15 +8671,15 @@
         <v>0</v>
       </c>
       <c r="D116" s="4" t="str">
-        <v>F3</v>
+        <v>J3</v>
       </c>
       <c r="E116" s="40" t="str">
         <f t="shared" si="3"/>
-        <v>HKDFUT3MF3_Quote</v>
+        <v>HKDFUT3MJ3_Quote</v>
       </c>
       <c r="F116" s="12" t="str">
         <f>_xll.qlSimpleQuote(E116,,PriceTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDFUT3MF3_Quote#0002</v>
+        <v>HKDFUT3MJ3_Quote#0002</v>
       </c>
       <c r="G116" s="61" t="str">
         <f>_xll.ohRangeRetrieveError(F116)</f>
@@ -8621,15 +8696,15 @@
         <v>0</v>
       </c>
       <c r="D117" s="4" t="str">
-        <v>G3</v>
+        <v>K3</v>
       </c>
       <c r="E117" s="40" t="str">
         <f t="shared" si="3"/>
-        <v>HKDFUT3MG3_Quote</v>
+        <v>HKDFUT3MK3_Quote</v>
       </c>
       <c r="F117" s="12" t="str">
         <f>_xll.qlSimpleQuote(E117,,PriceTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDFUT3MG3_Quote#0002</v>
+        <v>HKDFUT3MK3_Quote#0002</v>
       </c>
       <c r="G117" s="61" t="str">
         <f>_xll.ohRangeRetrieveError(F117)</f>
@@ -8646,15 +8721,15 @@
         <v>0</v>
       </c>
       <c r="D118" s="4" t="str">
-        <v>H3</v>
+        <v>M3</v>
       </c>
       <c r="E118" s="40" t="str">
         <f t="shared" si="3"/>
-        <v>HKDFUT3MH3_Quote</v>
+        <v>HKDFUT3MM3_Quote</v>
       </c>
       <c r="F118" s="12" t="str">
         <f>_xll.qlSimpleQuote(E118,,PriceTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDFUT3MH3_Quote#0002</v>
+        <v>HKDFUT3MM3_Quote#0002</v>
       </c>
       <c r="G118" s="61" t="str">
         <f>_xll.ohRangeRetrieveError(F118)</f>
@@ -8671,15 +8746,15 @@
         <v>0</v>
       </c>
       <c r="D119" s="4" t="str">
-        <v>J3</v>
+        <v>N3</v>
       </c>
       <c r="E119" s="40" t="str">
         <f t="shared" si="3"/>
-        <v>HKDFUT3MJ3_Quote</v>
+        <v>HKDFUT3MN3_Quote</v>
       </c>
       <c r="F119" s="12" t="str">
         <f>_xll.qlSimpleQuote(E119,,PriceTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDFUT3MJ3_Quote#0002</v>
+        <v>HKDFUT3MN3_Quote#0002</v>
       </c>
       <c r="G119" s="61" t="str">
         <f>_xll.ohRangeRetrieveError(F119)</f>
@@ -8696,15 +8771,15 @@
         <v>0</v>
       </c>
       <c r="D120" s="4" t="str">
-        <v>K3</v>
+        <v>Q3</v>
       </c>
       <c r="E120" s="40" t="str">
         <f t="shared" si="3"/>
-        <v>HKDFUT3MK3_Quote</v>
+        <v>HKDFUT3MQ3_Quote</v>
       </c>
       <c r="F120" s="12" t="str">
         <f>_xll.qlSimpleQuote(E120,,PriceTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDFUT3MK3_Quote#0002</v>
+        <v>HKDFUT3MQ3_Quote#0002</v>
       </c>
       <c r="G120" s="61" t="str">
         <f>_xll.ohRangeRetrieveError(F120)</f>
@@ -8721,15 +8796,15 @@
         <v>0</v>
       </c>
       <c r="D121" s="4" t="str">
-        <v>M3</v>
+        <v>U3</v>
       </c>
       <c r="E121" s="40" t="str">
         <f t="shared" si="3"/>
-        <v>HKDFUT3MM3_Quote</v>
+        <v>HKDFUT3MU3_Quote</v>
       </c>
       <c r="F121" s="12" t="str">
         <f>_xll.qlSimpleQuote(E121,,PriceTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDFUT3MM3_Quote#0002</v>
+        <v>HKDFUT3MU3_Quote#0002</v>
       </c>
       <c r="G121" s="61" t="str">
         <f>_xll.ohRangeRetrieveError(F121)</f>
@@ -8746,15 +8821,15 @@
         <v>0</v>
       </c>
       <c r="D122" s="4" t="str">
-        <v>N3</v>
+        <v>V3</v>
       </c>
       <c r="E122" s="40" t="str">
         <f t="shared" si="3"/>
-        <v>HKDFUT3MN3_Quote</v>
+        <v>HKDFUT3MV3_Quote</v>
       </c>
       <c r="F122" s="12" t="str">
         <f>_xll.qlSimpleQuote(E122,,PriceTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDFUT3MN3_Quote#0002</v>
+        <v>HKDFUT3MV3_Quote#0002</v>
       </c>
       <c r="G122" s="61" t="str">
         <f>_xll.ohRangeRetrieveError(F122)</f>
@@ -8851,15 +8926,15 @@
       </c>
       <c r="D3" s="39" t="str">
         <f t="array" ref="D3:D122">_xll.qlIMMNextCodes(_xll.qlSettingsEvaluationDate(Trigger)-1,$C3:$C122)</f>
-        <v>Q3</v>
+        <v>X3</v>
       </c>
       <c r="E3" s="40" t="str">
         <f t="shared" ref="E3:E34" si="0">Currency&amp;$D$1&amp;$E$1&amp;$D3&amp;QuoteSuffix</f>
-        <v>HKDIMMFRA6MQ3_Quote</v>
+        <v>HKDIMMFRA6MX3_Quote</v>
       </c>
       <c r="F3" s="41" t="str">
         <f>_xll.qlSimpleQuote(E3,,PriceTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDIMMFRA6MQ3_Quote#0002</v>
+        <v>HKDIMMFRA6MX3_Quote#0002</v>
       </c>
       <c r="G3" s="60" t="str">
         <f>_xll.ohRangeRetrieveError(F3)</f>
@@ -8876,15 +8951,15 @@
         <v>0</v>
       </c>
       <c r="D4" s="4" t="str">
-        <v>U3</v>
+        <v>Z3</v>
       </c>
       <c r="E4" s="40" t="str">
         <f t="shared" si="0"/>
-        <v>HKDIMMFRA6MU3_Quote</v>
+        <v>HKDIMMFRA6MZ3_Quote</v>
       </c>
       <c r="F4" s="12" t="str">
         <f>_xll.qlSimpleQuote(E4,,PriceTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDIMMFRA6MU3_Quote#0002</v>
+        <v>HKDIMMFRA6MZ3_Quote#0002</v>
       </c>
       <c r="G4" s="61" t="str">
         <f>_xll.ohRangeRetrieveError(F4)</f>
@@ -8901,15 +8976,15 @@
         <v>0</v>
       </c>
       <c r="D5" s="4" t="str">
-        <v>V3</v>
+        <v>F4</v>
       </c>
       <c r="E5" s="40" t="str">
         <f t="shared" si="0"/>
-        <v>HKDIMMFRA6MV3_Quote</v>
+        <v>HKDIMMFRA6MF4_Quote</v>
       </c>
       <c r="F5" s="12" t="str">
         <f>_xll.qlSimpleQuote(E5,,PriceTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDIMMFRA6MV3_Quote#0002</v>
+        <v>HKDIMMFRA6MF4_Quote#0002</v>
       </c>
       <c r="G5" s="61" t="str">
         <f>_xll.ohRangeRetrieveError(F5)</f>
@@ -8926,15 +9001,15 @@
         <v>0</v>
       </c>
       <c r="D6" s="4" t="str">
-        <v>X3</v>
+        <v>G4</v>
       </c>
       <c r="E6" s="40" t="str">
         <f t="shared" si="0"/>
-        <v>HKDIMMFRA6MX3_Quote</v>
+        <v>HKDIMMFRA6MG4_Quote</v>
       </c>
       <c r="F6" s="12" t="str">
         <f>_xll.qlSimpleQuote(E6,,PriceTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDIMMFRA6MX3_Quote#0002</v>
+        <v>HKDIMMFRA6MG4_Quote#0002</v>
       </c>
       <c r="G6" s="61" t="str">
         <f>_xll.ohRangeRetrieveError(F6)</f>
@@ -8951,15 +9026,15 @@
         <v>0</v>
       </c>
       <c r="D7" s="4" t="str">
-        <v>Z3</v>
+        <v>H4</v>
       </c>
       <c r="E7" s="40" t="str">
         <f t="shared" si="0"/>
-        <v>HKDIMMFRA6MZ3_Quote</v>
+        <v>HKDIMMFRA6MH4_Quote</v>
       </c>
       <c r="F7" s="12" t="str">
         <f>_xll.qlSimpleQuote(E7,,PriceTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDIMMFRA6MZ3_Quote#0002</v>
+        <v>HKDIMMFRA6MH4_Quote#0002</v>
       </c>
       <c r="G7" s="61" t="str">
         <f>_xll.ohRangeRetrieveError(F7)</f>
@@ -8976,15 +9051,15 @@
         <v>0</v>
       </c>
       <c r="D8" s="4" t="str">
-        <v>F4</v>
+        <v>J4</v>
       </c>
       <c r="E8" s="40" t="str">
         <f t="shared" si="0"/>
-        <v>HKDIMMFRA6MF4_Quote</v>
+        <v>HKDIMMFRA6MJ4_Quote</v>
       </c>
       <c r="F8" s="12" t="str">
         <f>_xll.qlSimpleQuote(E8,,PriceTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDIMMFRA6MF4_Quote#0002</v>
+        <v>HKDIMMFRA6MJ4_Quote#0002</v>
       </c>
       <c r="G8" s="61" t="str">
         <f>_xll.ohRangeRetrieveError(F8)</f>
@@ -9001,15 +9076,15 @@
         <v>0</v>
       </c>
       <c r="D9" s="4" t="str">
-        <v>G4</v>
+        <v>K4</v>
       </c>
       <c r="E9" s="40" t="str">
         <f t="shared" si="0"/>
-        <v>HKDIMMFRA6MG4_Quote</v>
+        <v>HKDIMMFRA6MK4_Quote</v>
       </c>
       <c r="F9" s="12" t="str">
         <f>_xll.qlSimpleQuote(E9,,PriceTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDIMMFRA6MG4_Quote#0002</v>
+        <v>HKDIMMFRA6MK4_Quote#0002</v>
       </c>
       <c r="G9" s="61" t="str">
         <f>_xll.ohRangeRetrieveError(F9)</f>
@@ -9026,15 +9101,15 @@
         <v>0</v>
       </c>
       <c r="D10" s="4" t="str">
-        <v>H4</v>
+        <v>M4</v>
       </c>
       <c r="E10" s="40" t="str">
         <f t="shared" si="0"/>
-        <v>HKDIMMFRA6MH4_Quote</v>
+        <v>HKDIMMFRA6MM4_Quote</v>
       </c>
       <c r="F10" s="12" t="str">
         <f>_xll.qlSimpleQuote(E10,,PriceTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDIMMFRA6MH4_Quote#0002</v>
+        <v>HKDIMMFRA6MM4_Quote#0002</v>
       </c>
       <c r="G10" s="61" t="str">
         <f>_xll.ohRangeRetrieveError(F10)</f>
@@ -9051,15 +9126,15 @@
         <v>0</v>
       </c>
       <c r="D11" s="4" t="str">
-        <v>J4</v>
+        <v>N4</v>
       </c>
       <c r="E11" s="40" t="str">
         <f t="shared" si="0"/>
-        <v>HKDIMMFRA6MJ4_Quote</v>
+        <v>HKDIMMFRA6MN4_Quote</v>
       </c>
       <c r="F11" s="12" t="str">
         <f>_xll.qlSimpleQuote(E11,,PriceTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDIMMFRA6MJ4_Quote#0002</v>
+        <v>HKDIMMFRA6MN4_Quote#0002</v>
       </c>
       <c r="G11" s="61" t="str">
         <f>_xll.ohRangeRetrieveError(F11)</f>
@@ -9076,15 +9151,15 @@
         <v>0</v>
       </c>
       <c r="D12" s="4" t="str">
-        <v>K4</v>
+        <v>Q4</v>
       </c>
       <c r="E12" s="40" t="str">
         <f t="shared" si="0"/>
-        <v>HKDIMMFRA6MK4_Quote</v>
+        <v>HKDIMMFRA6MQ4_Quote</v>
       </c>
       <c r="F12" s="12" t="str">
         <f>_xll.qlSimpleQuote(E12,,PriceTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDIMMFRA6MK4_Quote#0002</v>
+        <v>HKDIMMFRA6MQ4_Quote#0002</v>
       </c>
       <c r="G12" s="61" t="str">
         <f>_xll.ohRangeRetrieveError(F12)</f>
@@ -9101,15 +9176,15 @@
         <v>0</v>
       </c>
       <c r="D13" s="4" t="str">
-        <v>M4</v>
+        <v>U4</v>
       </c>
       <c r="E13" s="40" t="str">
         <f t="shared" si="0"/>
-        <v>HKDIMMFRA6MM4_Quote</v>
+        <v>HKDIMMFRA6MU4_Quote</v>
       </c>
       <c r="F13" s="12" t="str">
         <f>_xll.qlSimpleQuote(E13,,PriceTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDIMMFRA6MM4_Quote#0002</v>
+        <v>HKDIMMFRA6MU4_Quote#0002</v>
       </c>
       <c r="G13" s="61" t="str">
         <f>_xll.ohRangeRetrieveError(F13)</f>
@@ -9126,15 +9201,15 @@
         <v>0</v>
       </c>
       <c r="D14" s="4" t="str">
-        <v>N4</v>
+        <v>V4</v>
       </c>
       <c r="E14" s="40" t="str">
         <f t="shared" si="0"/>
-        <v>HKDIMMFRA6MN4_Quote</v>
+        <v>HKDIMMFRA6MV4_Quote</v>
       </c>
       <c r="F14" s="12" t="str">
         <f>_xll.qlSimpleQuote(E14,,PriceTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDIMMFRA6MN4_Quote#0002</v>
+        <v>HKDIMMFRA6MV4_Quote#0002</v>
       </c>
       <c r="G14" s="61" t="str">
         <f>_xll.ohRangeRetrieveError(F14)</f>
@@ -9151,15 +9226,15 @@
         <v>0</v>
       </c>
       <c r="D15" s="4" t="str">
-        <v>Q4</v>
+        <v>X4</v>
       </c>
       <c r="E15" s="40" t="str">
         <f t="shared" si="0"/>
-        <v>HKDIMMFRA6MQ4_Quote</v>
+        <v>HKDIMMFRA6MX4_Quote</v>
       </c>
       <c r="F15" s="12" t="str">
         <f>_xll.qlSimpleQuote(E15,,PriceTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDIMMFRA6MQ4_Quote#0002</v>
+        <v>HKDIMMFRA6MX4_Quote#0002</v>
       </c>
       <c r="G15" s="61" t="str">
         <f>_xll.ohRangeRetrieveError(F15)</f>
@@ -9176,15 +9251,15 @@
         <v>0</v>
       </c>
       <c r="D16" s="4" t="str">
-        <v>U4</v>
+        <v>Z4</v>
       </c>
       <c r="E16" s="40" t="str">
         <f t="shared" si="0"/>
-        <v>HKDIMMFRA6MU4_Quote</v>
+        <v>HKDIMMFRA6MZ4_Quote</v>
       </c>
       <c r="F16" s="12" t="str">
         <f>_xll.qlSimpleQuote(E16,,PriceTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDIMMFRA6MU4_Quote#0002</v>
+        <v>HKDIMMFRA6MZ4_Quote#0002</v>
       </c>
       <c r="G16" s="61" t="str">
         <f>_xll.ohRangeRetrieveError(F16)</f>
@@ -9201,15 +9276,15 @@
         <v>0</v>
       </c>
       <c r="D17" s="4" t="str">
-        <v>V4</v>
+        <v>F5</v>
       </c>
       <c r="E17" s="40" t="str">
         <f t="shared" si="0"/>
-        <v>HKDIMMFRA6MV4_Quote</v>
+        <v>HKDIMMFRA6MF5_Quote</v>
       </c>
       <c r="F17" s="12" t="str">
         <f>_xll.qlSimpleQuote(E17,,PriceTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDIMMFRA6MV4_Quote#0002</v>
+        <v>HKDIMMFRA6MF5_Quote#0002</v>
       </c>
       <c r="G17" s="61" t="str">
         <f>_xll.ohRangeRetrieveError(F17)</f>
@@ -9226,15 +9301,15 @@
         <v>0</v>
       </c>
       <c r="D18" s="4" t="str">
-        <v>X4</v>
+        <v>G5</v>
       </c>
       <c r="E18" s="40" t="str">
         <f t="shared" si="0"/>
-        <v>HKDIMMFRA6MX4_Quote</v>
+        <v>HKDIMMFRA6MG5_Quote</v>
       </c>
       <c r="F18" s="12" t="str">
         <f>_xll.qlSimpleQuote(E18,,PriceTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDIMMFRA6MX4_Quote#0002</v>
+        <v>HKDIMMFRA6MG5_Quote#0002</v>
       </c>
       <c r="G18" s="61" t="str">
         <f>_xll.ohRangeRetrieveError(F18)</f>
@@ -9251,15 +9326,15 @@
         <v>0</v>
       </c>
       <c r="D19" s="4" t="str">
-        <v>Z4</v>
+        <v>H5</v>
       </c>
       <c r="E19" s="40" t="str">
         <f t="shared" si="0"/>
-        <v>HKDIMMFRA6MZ4_Quote</v>
+        <v>HKDIMMFRA6MH5_Quote</v>
       </c>
       <c r="F19" s="12" t="str">
         <f>_xll.qlSimpleQuote(E19,,PriceTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDIMMFRA6MZ4_Quote#0002</v>
+        <v>HKDIMMFRA6MH5_Quote#0002</v>
       </c>
       <c r="G19" s="61" t="str">
         <f>_xll.ohRangeRetrieveError(F19)</f>
@@ -9276,15 +9351,15 @@
         <v>0</v>
       </c>
       <c r="D20" s="4" t="str">
-        <v>F5</v>
+        <v>J5</v>
       </c>
       <c r="E20" s="40" t="str">
         <f t="shared" si="0"/>
-        <v>HKDIMMFRA6MF5_Quote</v>
+        <v>HKDIMMFRA6MJ5_Quote</v>
       </c>
       <c r="F20" s="12" t="str">
         <f>_xll.qlSimpleQuote(E20,,PriceTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDIMMFRA6MF5_Quote#0002</v>
+        <v>HKDIMMFRA6MJ5_Quote#0002</v>
       </c>
       <c r="G20" s="61" t="str">
         <f>_xll.ohRangeRetrieveError(F20)</f>
@@ -9301,15 +9376,15 @@
         <v>0</v>
       </c>
       <c r="D21" s="4" t="str">
-        <v>G5</v>
+        <v>K5</v>
       </c>
       <c r="E21" s="40" t="str">
         <f t="shared" si="0"/>
-        <v>HKDIMMFRA6MG5_Quote</v>
+        <v>HKDIMMFRA6MK5_Quote</v>
       </c>
       <c r="F21" s="12" t="str">
         <f>_xll.qlSimpleQuote(E21,,PriceTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDIMMFRA6MG5_Quote#0002</v>
+        <v>HKDIMMFRA6MK5_Quote#0002</v>
       </c>
       <c r="G21" s="61" t="str">
         <f>_xll.ohRangeRetrieveError(F21)</f>
@@ -9326,15 +9401,15 @@
         <v>0</v>
       </c>
       <c r="D22" s="4" t="str">
-        <v>H5</v>
+        <v>M5</v>
       </c>
       <c r="E22" s="40" t="str">
         <f t="shared" si="0"/>
-        <v>HKDIMMFRA6MH5_Quote</v>
+        <v>HKDIMMFRA6MM5_Quote</v>
       </c>
       <c r="F22" s="12" t="str">
         <f>_xll.qlSimpleQuote(E22,,PriceTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDIMMFRA6MH5_Quote#0002</v>
+        <v>HKDIMMFRA6MM5_Quote#0002</v>
       </c>
       <c r="G22" s="61" t="str">
         <f>_xll.ohRangeRetrieveError(F22)</f>
@@ -9351,15 +9426,15 @@
         <v>0</v>
       </c>
       <c r="D23" s="4" t="str">
-        <v>J5</v>
+        <v>N5</v>
       </c>
       <c r="E23" s="40" t="str">
         <f t="shared" si="0"/>
-        <v>HKDIMMFRA6MJ5_Quote</v>
+        <v>HKDIMMFRA6MN5_Quote</v>
       </c>
       <c r="F23" s="12" t="str">
         <f>_xll.qlSimpleQuote(E23,,PriceTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDIMMFRA6MJ5_Quote#0002</v>
+        <v>HKDIMMFRA6MN5_Quote#0002</v>
       </c>
       <c r="G23" s="61" t="str">
         <f>_xll.ohRangeRetrieveError(F23)</f>
@@ -9376,15 +9451,15 @@
         <v>0</v>
       </c>
       <c r="D24" s="4" t="str">
-        <v>K5</v>
+        <v>Q5</v>
       </c>
       <c r="E24" s="40" t="str">
         <f t="shared" si="0"/>
-        <v>HKDIMMFRA6MK5_Quote</v>
+        <v>HKDIMMFRA6MQ5_Quote</v>
       </c>
       <c r="F24" s="12" t="str">
         <f>_xll.qlSimpleQuote(E24,,PriceTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDIMMFRA6MK5_Quote#0002</v>
+        <v>HKDIMMFRA6MQ5_Quote#0002</v>
       </c>
       <c r="G24" s="61" t="str">
         <f>_xll.ohRangeRetrieveError(F24)</f>
@@ -9401,15 +9476,15 @@
         <v>0</v>
       </c>
       <c r="D25" s="4" t="str">
-        <v>M5</v>
+        <v>U5</v>
       </c>
       <c r="E25" s="40" t="str">
         <f t="shared" si="0"/>
-        <v>HKDIMMFRA6MM5_Quote</v>
+        <v>HKDIMMFRA6MU5_Quote</v>
       </c>
       <c r="F25" s="12" t="str">
         <f>_xll.qlSimpleQuote(E25,,PriceTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDIMMFRA6MM5_Quote#0002</v>
+        <v>HKDIMMFRA6MU5_Quote#0002</v>
       </c>
       <c r="G25" s="61" t="str">
         <f>_xll.ohRangeRetrieveError(F25)</f>
@@ -9426,15 +9501,15 @@
         <v>0</v>
       </c>
       <c r="D26" s="4" t="str">
-        <v>N5</v>
+        <v>V5</v>
       </c>
       <c r="E26" s="40" t="str">
         <f t="shared" si="0"/>
-        <v>HKDIMMFRA6MN5_Quote</v>
+        <v>HKDIMMFRA6MV5_Quote</v>
       </c>
       <c r="F26" s="12" t="str">
         <f>_xll.qlSimpleQuote(E26,,PriceTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDIMMFRA6MN5_Quote#0002</v>
+        <v>HKDIMMFRA6MV5_Quote#0002</v>
       </c>
       <c r="G26" s="61" t="str">
         <f>_xll.ohRangeRetrieveError(F26)</f>
@@ -9451,15 +9526,15 @@
         <v>0</v>
       </c>
       <c r="D27" s="4" t="str">
-        <v>Q5</v>
+        <v>X5</v>
       </c>
       <c r="E27" s="40" t="str">
         <f t="shared" si="0"/>
-        <v>HKDIMMFRA6MQ5_Quote</v>
+        <v>HKDIMMFRA6MX5_Quote</v>
       </c>
       <c r="F27" s="12" t="str">
         <f>_xll.qlSimpleQuote(E27,,PriceTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDIMMFRA6MQ5_Quote#0002</v>
+        <v>HKDIMMFRA6MX5_Quote#0002</v>
       </c>
       <c r="G27" s="61" t="str">
         <f>_xll.ohRangeRetrieveError(F27)</f>
@@ -9476,15 +9551,15 @@
         <v>0</v>
       </c>
       <c r="D28" s="4" t="str">
-        <v>U5</v>
+        <v>Z5</v>
       </c>
       <c r="E28" s="40" t="str">
         <f t="shared" si="0"/>
-        <v>HKDIMMFRA6MU5_Quote</v>
+        <v>HKDIMMFRA6MZ5_Quote</v>
       </c>
       <c r="F28" s="12" t="str">
         <f>_xll.qlSimpleQuote(E28,,PriceTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDIMMFRA6MU5_Quote#0002</v>
+        <v>HKDIMMFRA6MZ5_Quote#0002</v>
       </c>
       <c r="G28" s="61" t="str">
         <f>_xll.ohRangeRetrieveError(F28)</f>
@@ -9501,15 +9576,15 @@
         <v>0</v>
       </c>
       <c r="D29" s="4" t="str">
-        <v>V5</v>
+        <v>F6</v>
       </c>
       <c r="E29" s="40" t="str">
         <f t="shared" si="0"/>
-        <v>HKDIMMFRA6MV5_Quote</v>
+        <v>HKDIMMFRA6MF6_Quote</v>
       </c>
       <c r="F29" s="12" t="str">
         <f>_xll.qlSimpleQuote(E29,,PriceTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDIMMFRA6MV5_Quote#0002</v>
+        <v>HKDIMMFRA6MF6_Quote#0002</v>
       </c>
       <c r="G29" s="61" t="str">
         <f>_xll.ohRangeRetrieveError(F29)</f>
@@ -9526,15 +9601,15 @@
         <v>0</v>
       </c>
       <c r="D30" s="4" t="str">
-        <v>X5</v>
+        <v>G6</v>
       </c>
       <c r="E30" s="40" t="str">
         <f t="shared" si="0"/>
-        <v>HKDIMMFRA6MX5_Quote</v>
+        <v>HKDIMMFRA6MG6_Quote</v>
       </c>
       <c r="F30" s="12" t="str">
         <f>_xll.qlSimpleQuote(E30,,PriceTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDIMMFRA6MX5_Quote#0002</v>
+        <v>HKDIMMFRA6MG6_Quote#0002</v>
       </c>
       <c r="G30" s="61" t="str">
         <f>_xll.ohRangeRetrieveError(F30)</f>
@@ -9551,15 +9626,15 @@
         <v>0</v>
       </c>
       <c r="D31" s="4" t="str">
-        <v>Z5</v>
+        <v>H6</v>
       </c>
       <c r="E31" s="40" t="str">
         <f t="shared" si="0"/>
-        <v>HKDIMMFRA6MZ5_Quote</v>
+        <v>HKDIMMFRA6MH6_Quote</v>
       </c>
       <c r="F31" s="12" t="str">
         <f>_xll.qlSimpleQuote(E31,,PriceTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDIMMFRA6MZ5_Quote#0002</v>
+        <v>HKDIMMFRA6MH6_Quote#0002</v>
       </c>
       <c r="G31" s="61" t="str">
         <f>_xll.ohRangeRetrieveError(F31)</f>
@@ -9576,15 +9651,15 @@
         <v>0</v>
       </c>
       <c r="D32" s="4" t="str">
-        <v>F6</v>
+        <v>J6</v>
       </c>
       <c r="E32" s="40" t="str">
         <f t="shared" si="0"/>
-        <v>HKDIMMFRA6MF6_Quote</v>
+        <v>HKDIMMFRA6MJ6_Quote</v>
       </c>
       <c r="F32" s="12" t="str">
         <f>_xll.qlSimpleQuote(E32,,PriceTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDIMMFRA6MF6_Quote#0002</v>
+        <v>HKDIMMFRA6MJ6_Quote#0002</v>
       </c>
       <c r="G32" s="61" t="str">
         <f>_xll.ohRangeRetrieveError(F32)</f>
@@ -9601,15 +9676,15 @@
         <v>0</v>
       </c>
       <c r="D33" s="4" t="str">
-        <v>G6</v>
+        <v>K6</v>
       </c>
       <c r="E33" s="40" t="str">
         <f t="shared" si="0"/>
-        <v>HKDIMMFRA6MG6_Quote</v>
+        <v>HKDIMMFRA6MK6_Quote</v>
       </c>
       <c r="F33" s="12" t="str">
         <f>_xll.qlSimpleQuote(E33,,PriceTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDIMMFRA6MG6_Quote#0002</v>
+        <v>HKDIMMFRA6MK6_Quote#0002</v>
       </c>
       <c r="G33" s="61" t="str">
         <f>_xll.ohRangeRetrieveError(F33)</f>
@@ -9626,15 +9701,15 @@
         <v>0</v>
       </c>
       <c r="D34" s="4" t="str">
-        <v>H6</v>
+        <v>M6</v>
       </c>
       <c r="E34" s="40" t="str">
         <f t="shared" si="0"/>
-        <v>HKDIMMFRA6MH6_Quote</v>
+        <v>HKDIMMFRA6MM6_Quote</v>
       </c>
       <c r="F34" s="12" t="str">
         <f>_xll.qlSimpleQuote(E34,,PriceTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDIMMFRA6MH6_Quote#0002</v>
+        <v>HKDIMMFRA6MM6_Quote#0002</v>
       </c>
       <c r="G34" s="61" t="str">
         <f>_xll.ohRangeRetrieveError(F34)</f>
@@ -9651,15 +9726,15 @@
         <v>0</v>
       </c>
       <c r="D35" s="4" t="str">
-        <v>J6</v>
+        <v>N6</v>
       </c>
       <c r="E35" s="40" t="str">
         <f t="shared" ref="E35:E66" si="1">Currency&amp;$D$1&amp;$E$1&amp;$D35&amp;QuoteSuffix</f>
-        <v>HKDIMMFRA6MJ6_Quote</v>
+        <v>HKDIMMFRA6MN6_Quote</v>
       </c>
       <c r="F35" s="12" t="str">
         <f>_xll.qlSimpleQuote(E35,,PriceTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDIMMFRA6MJ6_Quote#0002</v>
+        <v>HKDIMMFRA6MN6_Quote#0002</v>
       </c>
       <c r="G35" s="61" t="str">
         <f>_xll.ohRangeRetrieveError(F35)</f>
@@ -9676,15 +9751,15 @@
         <v>0</v>
       </c>
       <c r="D36" s="4" t="str">
-        <v>K6</v>
+        <v>Q6</v>
       </c>
       <c r="E36" s="40" t="str">
         <f t="shared" si="1"/>
-        <v>HKDIMMFRA6MK6_Quote</v>
+        <v>HKDIMMFRA6MQ6_Quote</v>
       </c>
       <c r="F36" s="12" t="str">
         <f>_xll.qlSimpleQuote(E36,,PriceTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDIMMFRA6MK6_Quote#0002</v>
+        <v>HKDIMMFRA6MQ6_Quote#0002</v>
       </c>
       <c r="G36" s="61" t="str">
         <f>_xll.ohRangeRetrieveError(F36)</f>
@@ -9701,15 +9776,15 @@
         <v>0</v>
       </c>
       <c r="D37" s="4" t="str">
-        <v>M6</v>
+        <v>U6</v>
       </c>
       <c r="E37" s="40" t="str">
         <f t="shared" si="1"/>
-        <v>HKDIMMFRA6MM6_Quote</v>
+        <v>HKDIMMFRA6MU6_Quote</v>
       </c>
       <c r="F37" s="12" t="str">
         <f>_xll.qlSimpleQuote(E37,,PriceTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDIMMFRA6MM6_Quote#0002</v>
+        <v>HKDIMMFRA6MU6_Quote#0002</v>
       </c>
       <c r="G37" s="61" t="str">
         <f>_xll.ohRangeRetrieveError(F37)</f>
@@ -9726,15 +9801,15 @@
         <v>0</v>
       </c>
       <c r="D38" s="4" t="str">
-        <v>N6</v>
+        <v>V6</v>
       </c>
       <c r="E38" s="40" t="str">
         <f t="shared" si="1"/>
-        <v>HKDIMMFRA6MN6_Quote</v>
+        <v>HKDIMMFRA6MV6_Quote</v>
       </c>
       <c r="F38" s="12" t="str">
         <f>_xll.qlSimpleQuote(E38,,PriceTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDIMMFRA6MN6_Quote#0002</v>
+        <v>HKDIMMFRA6MV6_Quote#0002</v>
       </c>
       <c r="G38" s="61" t="str">
         <f>_xll.ohRangeRetrieveError(F38)</f>
@@ -9751,15 +9826,15 @@
         <v>0</v>
       </c>
       <c r="D39" s="4" t="str">
-        <v>Q6</v>
+        <v>X6</v>
       </c>
       <c r="E39" s="40" t="str">
         <f t="shared" si="1"/>
-        <v>HKDIMMFRA6MQ6_Quote</v>
+        <v>HKDIMMFRA6MX6_Quote</v>
       </c>
       <c r="F39" s="12" t="str">
         <f>_xll.qlSimpleQuote(E39,,PriceTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDIMMFRA6MQ6_Quote#0002</v>
+        <v>HKDIMMFRA6MX6_Quote#0002</v>
       </c>
       <c r="G39" s="61" t="str">
         <f>_xll.ohRangeRetrieveError(F39)</f>
@@ -9776,15 +9851,15 @@
         <v>0</v>
       </c>
       <c r="D40" s="4" t="str">
-        <v>U6</v>
+        <v>Z6</v>
       </c>
       <c r="E40" s="40" t="str">
         <f t="shared" si="1"/>
-        <v>HKDIMMFRA6MU6_Quote</v>
+        <v>HKDIMMFRA6MZ6_Quote</v>
       </c>
       <c r="F40" s="12" t="str">
         <f>_xll.qlSimpleQuote(E40,,PriceTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDIMMFRA6MU6_Quote#0002</v>
+        <v>HKDIMMFRA6MZ6_Quote#0002</v>
       </c>
       <c r="G40" s="61" t="str">
         <f>_xll.ohRangeRetrieveError(F40)</f>
@@ -9801,15 +9876,15 @@
         <v>0</v>
       </c>
       <c r="D41" s="4" t="str">
-        <v>V6</v>
+        <v>F7</v>
       </c>
       <c r="E41" s="40" t="str">
         <f t="shared" si="1"/>
-        <v>HKDIMMFRA6MV6_Quote</v>
+        <v>HKDIMMFRA6MF7_Quote</v>
       </c>
       <c r="F41" s="12" t="str">
         <f>_xll.qlSimpleQuote(E41,,PriceTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDIMMFRA6MV6_Quote#0002</v>
+        <v>HKDIMMFRA6MF7_Quote#0002</v>
       </c>
       <c r="G41" s="61" t="str">
         <f>_xll.ohRangeRetrieveError(F41)</f>
@@ -9826,15 +9901,15 @@
         <v>0</v>
       </c>
       <c r="D42" s="4" t="str">
-        <v>X6</v>
+        <v>G7</v>
       </c>
       <c r="E42" s="40" t="str">
         <f t="shared" si="1"/>
-        <v>HKDIMMFRA6MX6_Quote</v>
+        <v>HKDIMMFRA6MG7_Quote</v>
       </c>
       <c r="F42" s="12" t="str">
         <f>_xll.qlSimpleQuote(E42,,PriceTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDIMMFRA6MX6_Quote#0002</v>
+        <v>HKDIMMFRA6MG7_Quote#0002</v>
       </c>
       <c r="G42" s="61" t="str">
         <f>_xll.ohRangeRetrieveError(F42)</f>
@@ -9851,15 +9926,15 @@
         <v>0</v>
       </c>
       <c r="D43" s="4" t="str">
-        <v>Z6</v>
+        <v>H7</v>
       </c>
       <c r="E43" s="40" t="str">
         <f t="shared" si="1"/>
-        <v>HKDIMMFRA6MZ6_Quote</v>
+        <v>HKDIMMFRA6MH7_Quote</v>
       </c>
       <c r="F43" s="12" t="str">
         <f>_xll.qlSimpleQuote(E43,,PriceTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDIMMFRA6MZ6_Quote#0002</v>
+        <v>HKDIMMFRA6MH7_Quote#0002</v>
       </c>
       <c r="G43" s="61" t="str">
         <f>_xll.ohRangeRetrieveError(F43)</f>
@@ -9876,15 +9951,15 @@
         <v>0</v>
       </c>
       <c r="D44" s="4" t="str">
-        <v>F7</v>
+        <v>J7</v>
       </c>
       <c r="E44" s="40" t="str">
         <f t="shared" si="1"/>
-        <v>HKDIMMFRA6MF7_Quote</v>
+        <v>HKDIMMFRA6MJ7_Quote</v>
       </c>
       <c r="F44" s="12" t="str">
         <f>_xll.qlSimpleQuote(E44,,PriceTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDIMMFRA6MF7_Quote#0002</v>
+        <v>HKDIMMFRA6MJ7_Quote#0002</v>
       </c>
       <c r="G44" s="61" t="str">
         <f>_xll.ohRangeRetrieveError(F44)</f>
@@ -9901,15 +9976,15 @@
         <v>0</v>
       </c>
       <c r="D45" s="4" t="str">
-        <v>G7</v>
+        <v>K7</v>
       </c>
       <c r="E45" s="40" t="str">
         <f t="shared" si="1"/>
-        <v>HKDIMMFRA6MG7_Quote</v>
+        <v>HKDIMMFRA6MK7_Quote</v>
       </c>
       <c r="F45" s="12" t="str">
         <f>_xll.qlSimpleQuote(E45,,PriceTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDIMMFRA6MG7_Quote#0002</v>
+        <v>HKDIMMFRA6MK7_Quote#0002</v>
       </c>
       <c r="G45" s="61" t="str">
         <f>_xll.ohRangeRetrieveError(F45)</f>
@@ -9926,15 +10001,15 @@
         <v>0</v>
       </c>
       <c r="D46" s="4" t="str">
-        <v>H7</v>
+        <v>M7</v>
       </c>
       <c r="E46" s="40" t="str">
         <f t="shared" si="1"/>
-        <v>HKDIMMFRA6MH7_Quote</v>
+        <v>HKDIMMFRA6MM7_Quote</v>
       </c>
       <c r="F46" s="12" t="str">
         <f>_xll.qlSimpleQuote(E46,,PriceTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDIMMFRA6MH7_Quote#0002</v>
+        <v>HKDIMMFRA6MM7_Quote#0002</v>
       </c>
       <c r="G46" s="61" t="str">
         <f>_xll.ohRangeRetrieveError(F46)</f>
@@ -9951,15 +10026,15 @@
         <v>0</v>
       </c>
       <c r="D47" s="4" t="str">
-        <v>J7</v>
+        <v>N7</v>
       </c>
       <c r="E47" s="40" t="str">
         <f t="shared" si="1"/>
-        <v>HKDIMMFRA6MJ7_Quote</v>
+        <v>HKDIMMFRA6MN7_Quote</v>
       </c>
       <c r="F47" s="12" t="str">
         <f>_xll.qlSimpleQuote(E47,,PriceTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDIMMFRA6MJ7_Quote#0002</v>
+        <v>HKDIMMFRA6MN7_Quote#0002</v>
       </c>
       <c r="G47" s="61" t="str">
         <f>_xll.ohRangeRetrieveError(F47)</f>
@@ -9976,15 +10051,15 @@
         <v>0</v>
       </c>
       <c r="D48" s="4" t="str">
-        <v>K7</v>
+        <v>Q7</v>
       </c>
       <c r="E48" s="40" t="str">
         <f t="shared" si="1"/>
-        <v>HKDIMMFRA6MK7_Quote</v>
+        <v>HKDIMMFRA6MQ7_Quote</v>
       </c>
       <c r="F48" s="12" t="str">
         <f>_xll.qlSimpleQuote(E48,,PriceTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDIMMFRA6MK7_Quote#0002</v>
+        <v>HKDIMMFRA6MQ7_Quote#0002</v>
       </c>
       <c r="G48" s="61" t="str">
         <f>_xll.ohRangeRetrieveError(F48)</f>
@@ -10001,15 +10076,15 @@
         <v>0</v>
       </c>
       <c r="D49" s="4" t="str">
-        <v>M7</v>
+        <v>U7</v>
       </c>
       <c r="E49" s="40" t="str">
         <f t="shared" si="1"/>
-        <v>HKDIMMFRA6MM7_Quote</v>
+        <v>HKDIMMFRA6MU7_Quote</v>
       </c>
       <c r="F49" s="12" t="str">
         <f>_xll.qlSimpleQuote(E49,,PriceTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDIMMFRA6MM7_Quote#0002</v>
+        <v>HKDIMMFRA6MU7_Quote#0002</v>
       </c>
       <c r="G49" s="61" t="str">
         <f>_xll.ohRangeRetrieveError(F49)</f>
@@ -10026,15 +10101,15 @@
         <v>0</v>
       </c>
       <c r="D50" s="4" t="str">
-        <v>N7</v>
+        <v>V7</v>
       </c>
       <c r="E50" s="40" t="str">
         <f t="shared" si="1"/>
-        <v>HKDIMMFRA6MN7_Quote</v>
+        <v>HKDIMMFRA6MV7_Quote</v>
       </c>
       <c r="F50" s="12" t="str">
         <f>_xll.qlSimpleQuote(E50,,PriceTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDIMMFRA6MN7_Quote#0002</v>
+        <v>HKDIMMFRA6MV7_Quote#0002</v>
       </c>
       <c r="G50" s="61" t="str">
         <f>_xll.ohRangeRetrieveError(F50)</f>
@@ -10051,15 +10126,15 @@
         <v>0</v>
       </c>
       <c r="D51" s="4" t="str">
-        <v>Q7</v>
+        <v>X7</v>
       </c>
       <c r="E51" s="40" t="str">
         <f t="shared" si="1"/>
-        <v>HKDIMMFRA6MQ7_Quote</v>
+        <v>HKDIMMFRA6MX7_Quote</v>
       </c>
       <c r="F51" s="12" t="str">
         <f>_xll.qlSimpleQuote(E51,,PriceTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDIMMFRA6MQ7_Quote#0002</v>
+        <v>HKDIMMFRA6MX7_Quote#0002</v>
       </c>
       <c r="G51" s="61" t="str">
         <f>_xll.ohRangeRetrieveError(F51)</f>
@@ -10076,15 +10151,15 @@
         <v>0</v>
       </c>
       <c r="D52" s="4" t="str">
-        <v>U7</v>
+        <v>Z7</v>
       </c>
       <c r="E52" s="40" t="str">
         <f t="shared" si="1"/>
-        <v>HKDIMMFRA6MU7_Quote</v>
+        <v>HKDIMMFRA6MZ7_Quote</v>
       </c>
       <c r="F52" s="12" t="str">
         <f>_xll.qlSimpleQuote(E52,,PriceTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDIMMFRA6MU7_Quote#0002</v>
+        <v>HKDIMMFRA6MZ7_Quote#0002</v>
       </c>
       <c r="G52" s="61" t="str">
         <f>_xll.ohRangeRetrieveError(F52)</f>
@@ -10101,15 +10176,15 @@
         <v>0</v>
       </c>
       <c r="D53" s="4" t="str">
-        <v>V7</v>
+        <v>F8</v>
       </c>
       <c r="E53" s="40" t="str">
         <f t="shared" si="1"/>
-        <v>HKDIMMFRA6MV7_Quote</v>
+        <v>HKDIMMFRA6MF8_Quote</v>
       </c>
       <c r="F53" s="12" t="str">
         <f>_xll.qlSimpleQuote(E53,,PriceTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDIMMFRA6MV7_Quote#0002</v>
+        <v>HKDIMMFRA6MF8_Quote#0002</v>
       </c>
       <c r="G53" s="61" t="str">
         <f>_xll.ohRangeRetrieveError(F53)</f>
@@ -10126,15 +10201,15 @@
         <v>0</v>
       </c>
       <c r="D54" s="4" t="str">
-        <v>X7</v>
+        <v>G8</v>
       </c>
       <c r="E54" s="40" t="str">
         <f t="shared" si="1"/>
-        <v>HKDIMMFRA6MX7_Quote</v>
+        <v>HKDIMMFRA6MG8_Quote</v>
       </c>
       <c r="F54" s="12" t="str">
         <f>_xll.qlSimpleQuote(E54,,PriceTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDIMMFRA6MX7_Quote#0002</v>
+        <v>HKDIMMFRA6MG8_Quote#0002</v>
       </c>
       <c r="G54" s="61" t="str">
         <f>_xll.ohRangeRetrieveError(F54)</f>
@@ -10151,15 +10226,15 @@
         <v>0</v>
       </c>
       <c r="D55" s="4" t="str">
-        <v>Z7</v>
+        <v>H8</v>
       </c>
       <c r="E55" s="40" t="str">
         <f t="shared" si="1"/>
-        <v>HKDIMMFRA6MZ7_Quote</v>
+        <v>HKDIMMFRA6MH8_Quote</v>
       </c>
       <c r="F55" s="12" t="str">
         <f>_xll.qlSimpleQuote(E55,,PriceTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDIMMFRA6MZ7_Quote#0002</v>
+        <v>HKDIMMFRA6MH8_Quote#0002</v>
       </c>
       <c r="G55" s="61" t="str">
         <f>_xll.ohRangeRetrieveError(F55)</f>
@@ -10176,15 +10251,15 @@
         <v>0</v>
       </c>
       <c r="D56" s="4" t="str">
-        <v>F8</v>
+        <v>J8</v>
       </c>
       <c r="E56" s="40" t="str">
         <f t="shared" si="1"/>
-        <v>HKDIMMFRA6MF8_Quote</v>
+        <v>HKDIMMFRA6MJ8_Quote</v>
       </c>
       <c r="F56" s="12" t="str">
         <f>_xll.qlSimpleQuote(E56,,PriceTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDIMMFRA6MF8_Quote#0002</v>
+        <v>HKDIMMFRA6MJ8_Quote#0002</v>
       </c>
       <c r="G56" s="61" t="str">
         <f>_xll.ohRangeRetrieveError(F56)</f>
@@ -10201,15 +10276,15 @@
         <v>0</v>
       </c>
       <c r="D57" s="4" t="str">
-        <v>G8</v>
+        <v>K8</v>
       </c>
       <c r="E57" s="40" t="str">
         <f t="shared" si="1"/>
-        <v>HKDIMMFRA6MG8_Quote</v>
+        <v>HKDIMMFRA6MK8_Quote</v>
       </c>
       <c r="F57" s="12" t="str">
         <f>_xll.qlSimpleQuote(E57,,PriceTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDIMMFRA6MG8_Quote#0002</v>
+        <v>HKDIMMFRA6MK8_Quote#0002</v>
       </c>
       <c r="G57" s="61" t="str">
         <f>_xll.ohRangeRetrieveError(F57)</f>
@@ -10226,15 +10301,15 @@
         <v>0</v>
       </c>
       <c r="D58" s="4" t="str">
-        <v>H8</v>
+        <v>M8</v>
       </c>
       <c r="E58" s="40" t="str">
         <f t="shared" si="1"/>
-        <v>HKDIMMFRA6MH8_Quote</v>
+        <v>HKDIMMFRA6MM8_Quote</v>
       </c>
       <c r="F58" s="12" t="str">
         <f>_xll.qlSimpleQuote(E58,,PriceTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDIMMFRA6MH8_Quote#0002</v>
+        <v>HKDIMMFRA6MM8_Quote#0002</v>
       </c>
       <c r="G58" s="61" t="str">
         <f>_xll.ohRangeRetrieveError(F58)</f>
@@ -10251,15 +10326,15 @@
         <v>0</v>
       </c>
       <c r="D59" s="4" t="str">
-        <v>J8</v>
+        <v>N8</v>
       </c>
       <c r="E59" s="40" t="str">
         <f t="shared" si="1"/>
-        <v>HKDIMMFRA6MJ8_Quote</v>
+        <v>HKDIMMFRA6MN8_Quote</v>
       </c>
       <c r="F59" s="12" t="str">
         <f>_xll.qlSimpleQuote(E59,,PriceTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDIMMFRA6MJ8_Quote#0002</v>
+        <v>HKDIMMFRA6MN8_Quote#0002</v>
       </c>
       <c r="G59" s="61" t="str">
         <f>_xll.ohRangeRetrieveError(F59)</f>
@@ -10276,15 +10351,15 @@
         <v>0</v>
       </c>
       <c r="D60" s="4" t="str">
-        <v>K8</v>
+        <v>Q8</v>
       </c>
       <c r="E60" s="40" t="str">
         <f t="shared" si="1"/>
-        <v>HKDIMMFRA6MK8_Quote</v>
+        <v>HKDIMMFRA6MQ8_Quote</v>
       </c>
       <c r="F60" s="12" t="str">
         <f>_xll.qlSimpleQuote(E60,,PriceTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDIMMFRA6MK8_Quote#0002</v>
+        <v>HKDIMMFRA6MQ8_Quote#0002</v>
       </c>
       <c r="G60" s="61" t="str">
         <f>_xll.ohRangeRetrieveError(F60)</f>
@@ -10301,15 +10376,15 @@
         <v>0</v>
       </c>
       <c r="D61" s="4" t="str">
-        <v>M8</v>
+        <v>U8</v>
       </c>
       <c r="E61" s="40" t="str">
         <f t="shared" si="1"/>
-        <v>HKDIMMFRA6MM8_Quote</v>
+        <v>HKDIMMFRA6MU8_Quote</v>
       </c>
       <c r="F61" s="12" t="str">
         <f>_xll.qlSimpleQuote(E61,,PriceTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDIMMFRA6MM8_Quote#0002</v>
+        <v>HKDIMMFRA6MU8_Quote#0002</v>
       </c>
       <c r="G61" s="61" t="str">
         <f>_xll.ohRangeRetrieveError(F61)</f>
@@ -10326,15 +10401,15 @@
         <v>0</v>
       </c>
       <c r="D62" s="4" t="str">
-        <v>N8</v>
+        <v>V8</v>
       </c>
       <c r="E62" s="40" t="str">
         <f t="shared" si="1"/>
-        <v>HKDIMMFRA6MN8_Quote</v>
+        <v>HKDIMMFRA6MV8_Quote</v>
       </c>
       <c r="F62" s="12" t="str">
         <f>_xll.qlSimpleQuote(E62,,PriceTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDIMMFRA6MN8_Quote#0002</v>
+        <v>HKDIMMFRA6MV8_Quote#0002</v>
       </c>
       <c r="G62" s="61" t="str">
         <f>_xll.ohRangeRetrieveError(F62)</f>
@@ -10351,15 +10426,15 @@
         <v>0</v>
       </c>
       <c r="D63" s="4" t="str">
-        <v>Q8</v>
+        <v>X8</v>
       </c>
       <c r="E63" s="40" t="str">
         <f t="shared" si="1"/>
-        <v>HKDIMMFRA6MQ8_Quote</v>
+        <v>HKDIMMFRA6MX8_Quote</v>
       </c>
       <c r="F63" s="12" t="str">
         <f>_xll.qlSimpleQuote(E63,,PriceTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDIMMFRA6MQ8_Quote#0002</v>
+        <v>HKDIMMFRA6MX8_Quote#0002</v>
       </c>
       <c r="G63" s="61" t="str">
         <f>_xll.ohRangeRetrieveError(F63)</f>
@@ -10376,15 +10451,15 @@
         <v>0</v>
       </c>
       <c r="D64" s="4" t="str">
-        <v>U8</v>
+        <v>Z8</v>
       </c>
       <c r="E64" s="40" t="str">
         <f t="shared" si="1"/>
-        <v>HKDIMMFRA6MU8_Quote</v>
+        <v>HKDIMMFRA6MZ8_Quote</v>
       </c>
       <c r="F64" s="12" t="str">
         <f>_xll.qlSimpleQuote(E64,,PriceTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDIMMFRA6MU8_Quote#0002</v>
+        <v>HKDIMMFRA6MZ8_Quote#0002</v>
       </c>
       <c r="G64" s="61" t="str">
         <f>_xll.ohRangeRetrieveError(F64)</f>
@@ -10401,15 +10476,15 @@
         <v>0</v>
       </c>
       <c r="D65" s="4" t="str">
-        <v>V8</v>
+        <v>F9</v>
       </c>
       <c r="E65" s="40" t="str">
         <f t="shared" si="1"/>
-        <v>HKDIMMFRA6MV8_Quote</v>
+        <v>HKDIMMFRA6MF9_Quote</v>
       </c>
       <c r="F65" s="12" t="str">
         <f>_xll.qlSimpleQuote(E65,,PriceTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDIMMFRA6MV8_Quote#0002</v>
+        <v>HKDIMMFRA6MF9_Quote#0002</v>
       </c>
       <c r="G65" s="61" t="str">
         <f>_xll.ohRangeRetrieveError(F65)</f>
@@ -10426,15 +10501,15 @@
         <v>0</v>
       </c>
       <c r="D66" s="4" t="str">
-        <v>X8</v>
+        <v>G9</v>
       </c>
       <c r="E66" s="40" t="str">
         <f t="shared" si="1"/>
-        <v>HKDIMMFRA6MX8_Quote</v>
+        <v>HKDIMMFRA6MG9_Quote</v>
       </c>
       <c r="F66" s="12" t="str">
         <f>_xll.qlSimpleQuote(E66,,PriceTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDIMMFRA6MX8_Quote#0002</v>
+        <v>HKDIMMFRA6MG9_Quote#0002</v>
       </c>
       <c r="G66" s="61" t="str">
         <f>_xll.ohRangeRetrieveError(F66)</f>
@@ -10451,15 +10526,15 @@
         <v>0</v>
       </c>
       <c r="D67" s="4" t="str">
-        <v>Z8</v>
+        <v>H9</v>
       </c>
       <c r="E67" s="40" t="str">
         <f t="shared" ref="E67:E98" si="2">Currency&amp;$D$1&amp;$E$1&amp;$D67&amp;QuoteSuffix</f>
-        <v>HKDIMMFRA6MZ8_Quote</v>
+        <v>HKDIMMFRA6MH9_Quote</v>
       </c>
       <c r="F67" s="12" t="str">
         <f>_xll.qlSimpleQuote(E67,,PriceTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDIMMFRA6MZ8_Quote#0002</v>
+        <v>HKDIMMFRA6MH9_Quote#0002</v>
       </c>
       <c r="G67" s="61" t="str">
         <f>_xll.ohRangeRetrieveError(F67)</f>
@@ -10476,15 +10551,15 @@
         <v>0</v>
       </c>
       <c r="D68" s="4" t="str">
-        <v>F9</v>
+        <v>J9</v>
       </c>
       <c r="E68" s="40" t="str">
         <f t="shared" si="2"/>
-        <v>HKDIMMFRA6MF9_Quote</v>
+        <v>HKDIMMFRA6MJ9_Quote</v>
       </c>
       <c r="F68" s="12" t="str">
         <f>_xll.qlSimpleQuote(E68,,PriceTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDIMMFRA6MF9_Quote#0002</v>
+        <v>HKDIMMFRA6MJ9_Quote#0002</v>
       </c>
       <c r="G68" s="61" t="str">
         <f>_xll.ohRangeRetrieveError(F68)</f>
@@ -10501,15 +10576,15 @@
         <v>0</v>
       </c>
       <c r="D69" s="4" t="str">
-        <v>G9</v>
+        <v>K9</v>
       </c>
       <c r="E69" s="40" t="str">
         <f t="shared" si="2"/>
-        <v>HKDIMMFRA6MG9_Quote</v>
+        <v>HKDIMMFRA6MK9_Quote</v>
       </c>
       <c r="F69" s="12" t="str">
         <f>_xll.qlSimpleQuote(E69,,PriceTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDIMMFRA6MG9_Quote#0002</v>
+        <v>HKDIMMFRA6MK9_Quote#0002</v>
       </c>
       <c r="G69" s="61" t="str">
         <f>_xll.ohRangeRetrieveError(F69)</f>
@@ -10526,15 +10601,15 @@
         <v>0</v>
       </c>
       <c r="D70" s="4" t="str">
-        <v>H9</v>
+        <v>M9</v>
       </c>
       <c r="E70" s="40" t="str">
         <f t="shared" si="2"/>
-        <v>HKDIMMFRA6MH9_Quote</v>
+        <v>HKDIMMFRA6MM9_Quote</v>
       </c>
       <c r="F70" s="12" t="str">
         <f>_xll.qlSimpleQuote(E70,,PriceTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDIMMFRA6MH9_Quote#0002</v>
+        <v>HKDIMMFRA6MM9_Quote#0002</v>
       </c>
       <c r="G70" s="61" t="str">
         <f>_xll.ohRangeRetrieveError(F70)</f>
@@ -10551,15 +10626,15 @@
         <v>0</v>
       </c>
       <c r="D71" s="4" t="str">
-        <v>J9</v>
+        <v>N9</v>
       </c>
       <c r="E71" s="40" t="str">
         <f t="shared" si="2"/>
-        <v>HKDIMMFRA6MJ9_Quote</v>
+        <v>HKDIMMFRA6MN9_Quote</v>
       </c>
       <c r="F71" s="12" t="str">
         <f>_xll.qlSimpleQuote(E71,,PriceTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDIMMFRA6MJ9_Quote#0002</v>
+        <v>HKDIMMFRA6MN9_Quote#0002</v>
       </c>
       <c r="G71" s="61" t="str">
         <f>_xll.ohRangeRetrieveError(F71)</f>
@@ -10576,15 +10651,15 @@
         <v>0</v>
       </c>
       <c r="D72" s="4" t="str">
-        <v>K9</v>
+        <v>Q9</v>
       </c>
       <c r="E72" s="40" t="str">
         <f t="shared" si="2"/>
-        <v>HKDIMMFRA6MK9_Quote</v>
+        <v>HKDIMMFRA6MQ9_Quote</v>
       </c>
       <c r="F72" s="12" t="str">
         <f>_xll.qlSimpleQuote(E72,,PriceTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDIMMFRA6MK9_Quote#0002</v>
+        <v>HKDIMMFRA6MQ9_Quote#0002</v>
       </c>
       <c r="G72" s="61" t="str">
         <f>_xll.ohRangeRetrieveError(F72)</f>
@@ -10601,15 +10676,15 @@
         <v>0</v>
       </c>
       <c r="D73" s="4" t="str">
-        <v>M9</v>
+        <v>U9</v>
       </c>
       <c r="E73" s="40" t="str">
         <f t="shared" si="2"/>
-        <v>HKDIMMFRA6MM9_Quote</v>
+        <v>HKDIMMFRA6MU9_Quote</v>
       </c>
       <c r="F73" s="12" t="str">
         <f>_xll.qlSimpleQuote(E73,,PriceTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDIMMFRA6MM9_Quote#0002</v>
+        <v>HKDIMMFRA6MU9_Quote#0002</v>
       </c>
       <c r="G73" s="61" t="str">
         <f>_xll.ohRangeRetrieveError(F73)</f>
@@ -10626,15 +10701,15 @@
         <v>0</v>
       </c>
       <c r="D74" s="4" t="str">
-        <v>N9</v>
+        <v>V9</v>
       </c>
       <c r="E74" s="40" t="str">
         <f t="shared" si="2"/>
-        <v>HKDIMMFRA6MN9_Quote</v>
+        <v>HKDIMMFRA6MV9_Quote</v>
       </c>
       <c r="F74" s="12" t="str">
         <f>_xll.qlSimpleQuote(E74,,PriceTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDIMMFRA6MN9_Quote#0002</v>
+        <v>HKDIMMFRA6MV9_Quote#0002</v>
       </c>
       <c r="G74" s="61" t="str">
         <f>_xll.ohRangeRetrieveError(F74)</f>
@@ -10651,15 +10726,15 @@
         <v>0</v>
       </c>
       <c r="D75" s="4" t="str">
-        <v>Q9</v>
+        <v>X9</v>
       </c>
       <c r="E75" s="40" t="str">
         <f t="shared" si="2"/>
-        <v>HKDIMMFRA6MQ9_Quote</v>
+        <v>HKDIMMFRA6MX9_Quote</v>
       </c>
       <c r="F75" s="12" t="str">
         <f>_xll.qlSimpleQuote(E75,,PriceTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDIMMFRA6MQ9_Quote#0002</v>
+        <v>HKDIMMFRA6MX9_Quote#0002</v>
       </c>
       <c r="G75" s="61" t="str">
         <f>_xll.ohRangeRetrieveError(F75)</f>
@@ -10676,15 +10751,15 @@
         <v>0</v>
       </c>
       <c r="D76" s="4" t="str">
-        <v>U9</v>
+        <v>Z9</v>
       </c>
       <c r="E76" s="40" t="str">
         <f t="shared" si="2"/>
-        <v>HKDIMMFRA6MU9_Quote</v>
+        <v>HKDIMMFRA6MZ9_Quote</v>
       </c>
       <c r="F76" s="12" t="str">
         <f>_xll.qlSimpleQuote(E76,,PriceTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDIMMFRA6MU9_Quote#0002</v>
+        <v>HKDIMMFRA6MZ9_Quote#0002</v>
       </c>
       <c r="G76" s="61" t="str">
         <f>_xll.ohRangeRetrieveError(F76)</f>
@@ -10701,15 +10776,15 @@
         <v>0</v>
       </c>
       <c r="D77" s="4" t="str">
-        <v>V9</v>
+        <v>F0</v>
       </c>
       <c r="E77" s="40" t="str">
         <f t="shared" si="2"/>
-        <v>HKDIMMFRA6MV9_Quote</v>
+        <v>HKDIMMFRA6MF0_Quote</v>
       </c>
       <c r="F77" s="12" t="str">
         <f>_xll.qlSimpleQuote(E77,,PriceTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDIMMFRA6MV9_Quote#0002</v>
+        <v>HKDIMMFRA6MF0_Quote#0002</v>
       </c>
       <c r="G77" s="61" t="str">
         <f>_xll.ohRangeRetrieveError(F77)</f>
@@ -10726,15 +10801,15 @@
         <v>0</v>
       </c>
       <c r="D78" s="4" t="str">
-        <v>X9</v>
+        <v>G0</v>
       </c>
       <c r="E78" s="40" t="str">
         <f t="shared" si="2"/>
-        <v>HKDIMMFRA6MX9_Quote</v>
+        <v>HKDIMMFRA6MG0_Quote</v>
       </c>
       <c r="F78" s="12" t="str">
         <f>_xll.qlSimpleQuote(E78,,PriceTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDIMMFRA6MX9_Quote#0002</v>
+        <v>HKDIMMFRA6MG0_Quote#0002</v>
       </c>
       <c r="G78" s="61" t="str">
         <f>_xll.ohRangeRetrieveError(F78)</f>
@@ -10751,15 +10826,15 @@
         <v>0</v>
       </c>
       <c r="D79" s="4" t="str">
-        <v>Z9</v>
+        <v>H0</v>
       </c>
       <c r="E79" s="40" t="str">
         <f t="shared" si="2"/>
-        <v>HKDIMMFRA6MZ9_Quote</v>
+        <v>HKDIMMFRA6MH0_Quote</v>
       </c>
       <c r="F79" s="12" t="str">
         <f>_xll.qlSimpleQuote(E79,,PriceTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDIMMFRA6MZ9_Quote#0002</v>
+        <v>HKDIMMFRA6MH0_Quote#0002</v>
       </c>
       <c r="G79" s="61" t="str">
         <f>_xll.ohRangeRetrieveError(F79)</f>
@@ -10776,15 +10851,15 @@
         <v>0</v>
       </c>
       <c r="D80" s="4" t="str">
-        <v>F0</v>
+        <v>J0</v>
       </c>
       <c r="E80" s="40" t="str">
         <f t="shared" si="2"/>
-        <v>HKDIMMFRA6MF0_Quote</v>
+        <v>HKDIMMFRA6MJ0_Quote</v>
       </c>
       <c r="F80" s="12" t="str">
         <f>_xll.qlSimpleQuote(E80,,PriceTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDIMMFRA6MF0_Quote#0002</v>
+        <v>HKDIMMFRA6MJ0_Quote#0002</v>
       </c>
       <c r="G80" s="61" t="str">
         <f>_xll.ohRangeRetrieveError(F80)</f>
@@ -10801,15 +10876,15 @@
         <v>0</v>
       </c>
       <c r="D81" s="4" t="str">
-        <v>G0</v>
+        <v>K0</v>
       </c>
       <c r="E81" s="40" t="str">
         <f t="shared" si="2"/>
-        <v>HKDIMMFRA6MG0_Quote</v>
+        <v>HKDIMMFRA6MK0_Quote</v>
       </c>
       <c r="F81" s="12" t="str">
         <f>_xll.qlSimpleQuote(E81,,PriceTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDIMMFRA6MG0_Quote#0002</v>
+        <v>HKDIMMFRA6MK0_Quote#0002</v>
       </c>
       <c r="G81" s="61" t="str">
         <f>_xll.ohRangeRetrieveError(F81)</f>
@@ -10826,15 +10901,15 @@
         <v>0</v>
       </c>
       <c r="D82" s="4" t="str">
-        <v>H0</v>
+        <v>M0</v>
       </c>
       <c r="E82" s="40" t="str">
         <f t="shared" si="2"/>
-        <v>HKDIMMFRA6MH0_Quote</v>
+        <v>HKDIMMFRA6MM0_Quote</v>
       </c>
       <c r="F82" s="12" t="str">
         <f>_xll.qlSimpleQuote(E82,,PriceTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDIMMFRA6MH0_Quote#0002</v>
+        <v>HKDIMMFRA6MM0_Quote#0002</v>
       </c>
       <c r="G82" s="61" t="str">
         <f>_xll.ohRangeRetrieveError(F82)</f>
@@ -10851,15 +10926,15 @@
         <v>0</v>
       </c>
       <c r="D83" s="4" t="str">
-        <v>J0</v>
+        <v>N0</v>
       </c>
       <c r="E83" s="40" t="str">
         <f t="shared" si="2"/>
-        <v>HKDIMMFRA6MJ0_Quote</v>
+        <v>HKDIMMFRA6MN0_Quote</v>
       </c>
       <c r="F83" s="12" t="str">
         <f>_xll.qlSimpleQuote(E83,,PriceTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDIMMFRA6MJ0_Quote#0002</v>
+        <v>HKDIMMFRA6MN0_Quote#0002</v>
       </c>
       <c r="G83" s="61" t="str">
         <f>_xll.ohRangeRetrieveError(F83)</f>
@@ -10876,15 +10951,15 @@
         <v>0</v>
       </c>
       <c r="D84" s="4" t="str">
-        <v>K0</v>
+        <v>Q0</v>
       </c>
       <c r="E84" s="40" t="str">
         <f t="shared" si="2"/>
-        <v>HKDIMMFRA6MK0_Quote</v>
+        <v>HKDIMMFRA6MQ0_Quote</v>
       </c>
       <c r="F84" s="12" t="str">
         <f>_xll.qlSimpleQuote(E84,,PriceTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDIMMFRA6MK0_Quote#0002</v>
+        <v>HKDIMMFRA6MQ0_Quote#0002</v>
       </c>
       <c r="G84" s="61" t="str">
         <f>_xll.ohRangeRetrieveError(F84)</f>
@@ -10901,15 +10976,15 @@
         <v>0</v>
       </c>
       <c r="D85" s="4" t="str">
-        <v>M0</v>
+        <v>U0</v>
       </c>
       <c r="E85" s="40" t="str">
         <f t="shared" si="2"/>
-        <v>HKDIMMFRA6MM0_Quote</v>
+        <v>HKDIMMFRA6MU0_Quote</v>
       </c>
       <c r="F85" s="12" t="str">
         <f>_xll.qlSimpleQuote(E85,,PriceTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDIMMFRA6MM0_Quote#0002</v>
+        <v>HKDIMMFRA6MU0_Quote#0002</v>
       </c>
       <c r="G85" s="61" t="str">
         <f>_xll.ohRangeRetrieveError(F85)</f>
@@ -10926,15 +11001,15 @@
         <v>0</v>
       </c>
       <c r="D86" s="4" t="str">
-        <v>N0</v>
+        <v>V0</v>
       </c>
       <c r="E86" s="40" t="str">
         <f t="shared" si="2"/>
-        <v>HKDIMMFRA6MN0_Quote</v>
+        <v>HKDIMMFRA6MV0_Quote</v>
       </c>
       <c r="F86" s="12" t="str">
         <f>_xll.qlSimpleQuote(E86,,PriceTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDIMMFRA6MN0_Quote#0002</v>
+        <v>HKDIMMFRA6MV0_Quote#0002</v>
       </c>
       <c r="G86" s="61" t="str">
         <f>_xll.ohRangeRetrieveError(F86)</f>
@@ -10951,15 +11026,15 @@
         <v>0</v>
       </c>
       <c r="D87" s="4" t="str">
-        <v>Q0</v>
+        <v>X0</v>
       </c>
       <c r="E87" s="40" t="str">
         <f t="shared" si="2"/>
-        <v>HKDIMMFRA6MQ0_Quote</v>
+        <v>HKDIMMFRA6MX0_Quote</v>
       </c>
       <c r="F87" s="12" t="str">
         <f>_xll.qlSimpleQuote(E87,,PriceTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDIMMFRA6MQ0_Quote#0002</v>
+        <v>HKDIMMFRA6MX0_Quote#0002</v>
       </c>
       <c r="G87" s="61" t="str">
         <f>_xll.ohRangeRetrieveError(F87)</f>
@@ -10976,15 +11051,15 @@
         <v>0</v>
       </c>
       <c r="D88" s="4" t="str">
-        <v>U0</v>
+        <v>Z0</v>
       </c>
       <c r="E88" s="40" t="str">
         <f t="shared" si="2"/>
-        <v>HKDIMMFRA6MU0_Quote</v>
+        <v>HKDIMMFRA6MZ0_Quote</v>
       </c>
       <c r="F88" s="12" t="str">
         <f>_xll.qlSimpleQuote(E88,,PriceTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDIMMFRA6MU0_Quote#0002</v>
+        <v>HKDIMMFRA6MZ0_Quote#0002</v>
       </c>
       <c r="G88" s="61" t="str">
         <f>_xll.ohRangeRetrieveError(F88)</f>
@@ -11001,15 +11076,15 @@
         <v>0</v>
       </c>
       <c r="D89" s="4" t="str">
-        <v>V0</v>
+        <v>F1</v>
       </c>
       <c r="E89" s="40" t="str">
         <f t="shared" si="2"/>
-        <v>HKDIMMFRA6MV0_Quote</v>
+        <v>HKDIMMFRA6MF1_Quote</v>
       </c>
       <c r="F89" s="12" t="str">
         <f>_xll.qlSimpleQuote(E89,,PriceTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDIMMFRA6MV0_Quote#0002</v>
+        <v>HKDIMMFRA6MF1_Quote#0002</v>
       </c>
       <c r="G89" s="61" t="str">
         <f>_xll.ohRangeRetrieveError(F89)</f>
@@ -11026,15 +11101,15 @@
         <v>0</v>
       </c>
       <c r="D90" s="4" t="str">
-        <v>X0</v>
+        <v>G1</v>
       </c>
       <c r="E90" s="40" t="str">
         <f t="shared" si="2"/>
-        <v>HKDIMMFRA6MX0_Quote</v>
+        <v>HKDIMMFRA6MG1_Quote</v>
       </c>
       <c r="F90" s="12" t="str">
         <f>_xll.qlSimpleQuote(E90,,PriceTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDIMMFRA6MX0_Quote#0002</v>
+        <v>HKDIMMFRA6MG1_Quote#0002</v>
       </c>
       <c r="G90" s="61" t="str">
         <f>_xll.ohRangeRetrieveError(F90)</f>
@@ -11051,15 +11126,15 @@
         <v>0</v>
       </c>
       <c r="D91" s="4" t="str">
-        <v>Z0</v>
+        <v>H1</v>
       </c>
       <c r="E91" s="40" t="str">
         <f t="shared" si="2"/>
-        <v>HKDIMMFRA6MZ0_Quote</v>
+        <v>HKDIMMFRA6MH1_Quote</v>
       </c>
       <c r="F91" s="12" t="str">
         <f>_xll.qlSimpleQuote(E91,,PriceTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDIMMFRA6MZ0_Quote#0002</v>
+        <v>HKDIMMFRA6MH1_Quote#0002</v>
       </c>
       <c r="G91" s="61" t="str">
         <f>_xll.ohRangeRetrieveError(F91)</f>
@@ -11076,15 +11151,15 @@
         <v>0</v>
       </c>
       <c r="D92" s="4" t="str">
-        <v>F1</v>
+        <v>J1</v>
       </c>
       <c r="E92" s="40" t="str">
         <f t="shared" si="2"/>
-        <v>HKDIMMFRA6MF1_Quote</v>
+        <v>HKDIMMFRA6MJ1_Quote</v>
       </c>
       <c r="F92" s="12" t="str">
         <f>_xll.qlSimpleQuote(E92,,PriceTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDIMMFRA6MF1_Quote#0002</v>
+        <v>HKDIMMFRA6MJ1_Quote#0002</v>
       </c>
       <c r="G92" s="61" t="str">
         <f>_xll.ohRangeRetrieveError(F92)</f>
@@ -11101,15 +11176,15 @@
         <v>0</v>
       </c>
       <c r="D93" s="4" t="str">
-        <v>G1</v>
+        <v>K1</v>
       </c>
       <c r="E93" s="40" t="str">
         <f t="shared" si="2"/>
-        <v>HKDIMMFRA6MG1_Quote</v>
+        <v>HKDIMMFRA6MK1_Quote</v>
       </c>
       <c r="F93" s="12" t="str">
         <f>_xll.qlSimpleQuote(E93,,PriceTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDIMMFRA6MG1_Quote#0002</v>
+        <v>HKDIMMFRA6MK1_Quote#0002</v>
       </c>
       <c r="G93" s="61" t="str">
         <f>_xll.ohRangeRetrieveError(F93)</f>
@@ -11126,15 +11201,15 @@
         <v>0</v>
       </c>
       <c r="D94" s="4" t="str">
-        <v>H1</v>
+        <v>M1</v>
       </c>
       <c r="E94" s="40" t="str">
         <f t="shared" si="2"/>
-        <v>HKDIMMFRA6MH1_Quote</v>
+        <v>HKDIMMFRA6MM1_Quote</v>
       </c>
       <c r="F94" s="12" t="str">
         <f>_xll.qlSimpleQuote(E94,,PriceTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDIMMFRA6MH1_Quote#0002</v>
+        <v>HKDIMMFRA6MM1_Quote#0002</v>
       </c>
       <c r="G94" s="61" t="str">
         <f>_xll.ohRangeRetrieveError(F94)</f>
@@ -11151,15 +11226,15 @@
         <v>0</v>
       </c>
       <c r="D95" s="4" t="str">
-        <v>J1</v>
+        <v>N1</v>
       </c>
       <c r="E95" s="40" t="str">
         <f t="shared" si="2"/>
-        <v>HKDIMMFRA6MJ1_Quote</v>
+        <v>HKDIMMFRA6MN1_Quote</v>
       </c>
       <c r="F95" s="12" t="str">
         <f>_xll.qlSimpleQuote(E95,,PriceTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDIMMFRA6MJ1_Quote#0002</v>
+        <v>HKDIMMFRA6MN1_Quote#0002</v>
       </c>
       <c r="G95" s="61" t="str">
         <f>_xll.ohRangeRetrieveError(F95)</f>
@@ -11176,15 +11251,15 @@
         <v>0</v>
       </c>
       <c r="D96" s="4" t="str">
-        <v>K1</v>
+        <v>Q1</v>
       </c>
       <c r="E96" s="40" t="str">
         <f t="shared" si="2"/>
-        <v>HKDIMMFRA6MK1_Quote</v>
+        <v>HKDIMMFRA6MQ1_Quote</v>
       </c>
       <c r="F96" s="12" t="str">
         <f>_xll.qlSimpleQuote(E96,,PriceTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDIMMFRA6MK1_Quote#0002</v>
+        <v>HKDIMMFRA6MQ1_Quote#0002</v>
       </c>
       <c r="G96" s="61" t="str">
         <f>_xll.ohRangeRetrieveError(F96)</f>
@@ -11201,15 +11276,15 @@
         <v>0</v>
       </c>
       <c r="D97" s="4" t="str">
-        <v>M1</v>
+        <v>U1</v>
       </c>
       <c r="E97" s="40" t="str">
         <f t="shared" si="2"/>
-        <v>HKDIMMFRA6MM1_Quote</v>
+        <v>HKDIMMFRA6MU1_Quote</v>
       </c>
       <c r="F97" s="12" t="str">
         <f>_xll.qlSimpleQuote(E97,,PriceTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDIMMFRA6MM1_Quote#0002</v>
+        <v>HKDIMMFRA6MU1_Quote#0002</v>
       </c>
       <c r="G97" s="61" t="str">
         <f>_xll.ohRangeRetrieveError(F97)</f>
@@ -11226,15 +11301,15 @@
         <v>0</v>
       </c>
       <c r="D98" s="4" t="str">
-        <v>N1</v>
+        <v>V1</v>
       </c>
       <c r="E98" s="40" t="str">
         <f t="shared" si="2"/>
-        <v>HKDIMMFRA6MN1_Quote</v>
+        <v>HKDIMMFRA6MV1_Quote</v>
       </c>
       <c r="F98" s="12" t="str">
         <f>_xll.qlSimpleQuote(E98,,PriceTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDIMMFRA6MN1_Quote#0002</v>
+        <v>HKDIMMFRA6MV1_Quote#0002</v>
       </c>
       <c r="G98" s="61" t="str">
         <f>_xll.ohRangeRetrieveError(F98)</f>
@@ -11251,15 +11326,15 @@
         <v>0</v>
       </c>
       <c r="D99" s="4" t="str">
-        <v>Q1</v>
+        <v>X1</v>
       </c>
       <c r="E99" s="40" t="str">
         <f t="shared" ref="E99:E122" si="3">Currency&amp;$D$1&amp;$E$1&amp;$D99&amp;QuoteSuffix</f>
-        <v>HKDIMMFRA6MQ1_Quote</v>
+        <v>HKDIMMFRA6MX1_Quote</v>
       </c>
       <c r="F99" s="12" t="str">
         <f>_xll.qlSimpleQuote(E99,,PriceTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDIMMFRA6MQ1_Quote#0002</v>
+        <v>HKDIMMFRA6MX1_Quote#0002</v>
       </c>
       <c r="G99" s="61" t="str">
         <f>_xll.ohRangeRetrieveError(F99)</f>
@@ -11276,15 +11351,15 @@
         <v>0</v>
       </c>
       <c r="D100" s="4" t="str">
-        <v>U1</v>
+        <v>Z1</v>
       </c>
       <c r="E100" s="40" t="str">
         <f t="shared" si="3"/>
-        <v>HKDIMMFRA6MU1_Quote</v>
+        <v>HKDIMMFRA6MZ1_Quote</v>
       </c>
       <c r="F100" s="12" t="str">
         <f>_xll.qlSimpleQuote(E100,,PriceTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDIMMFRA6MU1_Quote#0002</v>
+        <v>HKDIMMFRA6MZ1_Quote#0002</v>
       </c>
       <c r="G100" s="61" t="str">
         <f>_xll.ohRangeRetrieveError(F100)</f>
@@ -11301,15 +11376,15 @@
         <v>0</v>
       </c>
       <c r="D101" s="4" t="str">
-        <v>V1</v>
+        <v>F2</v>
       </c>
       <c r="E101" s="40" t="str">
         <f t="shared" si="3"/>
-        <v>HKDIMMFRA6MV1_Quote</v>
+        <v>HKDIMMFRA6MF2_Quote</v>
       </c>
       <c r="F101" s="12" t="str">
         <f>_xll.qlSimpleQuote(E101,,PriceTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDIMMFRA6MV1_Quote#0002</v>
+        <v>HKDIMMFRA6MF2_Quote#0002</v>
       </c>
       <c r="G101" s="61" t="str">
         <f>_xll.ohRangeRetrieveError(F101)</f>
@@ -11326,15 +11401,15 @@
         <v>0</v>
       </c>
       <c r="D102" s="4" t="str">
-        <v>X1</v>
+        <v>G2</v>
       </c>
       <c r="E102" s="40" t="str">
         <f t="shared" si="3"/>
-        <v>HKDIMMFRA6MX1_Quote</v>
+        <v>HKDIMMFRA6MG2_Quote</v>
       </c>
       <c r="F102" s="12" t="str">
         <f>_xll.qlSimpleQuote(E102,,PriceTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDIMMFRA6MX1_Quote#0002</v>
+        <v>HKDIMMFRA6MG2_Quote#0002</v>
       </c>
       <c r="G102" s="61" t="str">
         <f>_xll.ohRangeRetrieveError(F102)</f>
@@ -11351,15 +11426,15 @@
         <v>0</v>
       </c>
       <c r="D103" s="4" t="str">
-        <v>Z1</v>
+        <v>H2</v>
       </c>
       <c r="E103" s="40" t="str">
         <f t="shared" si="3"/>
-        <v>HKDIMMFRA6MZ1_Quote</v>
+        <v>HKDIMMFRA6MH2_Quote</v>
       </c>
       <c r="F103" s="12" t="str">
         <f>_xll.qlSimpleQuote(E103,,PriceTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDIMMFRA6MZ1_Quote#0002</v>
+        <v>HKDIMMFRA6MH2_Quote#0002</v>
       </c>
       <c r="G103" s="61" t="str">
         <f>_xll.ohRangeRetrieveError(F103)</f>
@@ -11376,15 +11451,15 @@
         <v>0</v>
       </c>
       <c r="D104" s="4" t="str">
-        <v>F2</v>
+        <v>J2</v>
       </c>
       <c r="E104" s="40" t="str">
         <f t="shared" si="3"/>
-        <v>HKDIMMFRA6MF2_Quote</v>
+        <v>HKDIMMFRA6MJ2_Quote</v>
       </c>
       <c r="F104" s="12" t="str">
         <f>_xll.qlSimpleQuote(E104,,PriceTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDIMMFRA6MF2_Quote#0002</v>
+        <v>HKDIMMFRA6MJ2_Quote#0002</v>
       </c>
       <c r="G104" s="61" t="str">
         <f>_xll.ohRangeRetrieveError(F104)</f>
@@ -11401,15 +11476,15 @@
         <v>0</v>
       </c>
       <c r="D105" s="4" t="str">
-        <v>G2</v>
+        <v>K2</v>
       </c>
       <c r="E105" s="40" t="str">
         <f t="shared" si="3"/>
-        <v>HKDIMMFRA6MG2_Quote</v>
+        <v>HKDIMMFRA6MK2_Quote</v>
       </c>
       <c r="F105" s="12" t="str">
         <f>_xll.qlSimpleQuote(E105,,PriceTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDIMMFRA6MG2_Quote#0002</v>
+        <v>HKDIMMFRA6MK2_Quote#0002</v>
       </c>
       <c r="G105" s="61" t="str">
         <f>_xll.ohRangeRetrieveError(F105)</f>
@@ -11426,15 +11501,15 @@
         <v>0</v>
       </c>
       <c r="D106" s="4" t="str">
-        <v>H2</v>
+        <v>M2</v>
       </c>
       <c r="E106" s="40" t="str">
         <f t="shared" si="3"/>
-        <v>HKDIMMFRA6MH2_Quote</v>
+        <v>HKDIMMFRA6MM2_Quote</v>
       </c>
       <c r="F106" s="12" t="str">
         <f>_xll.qlSimpleQuote(E106,,PriceTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDIMMFRA6MH2_Quote#0002</v>
+        <v>HKDIMMFRA6MM2_Quote#0002</v>
       </c>
       <c r="G106" s="61" t="str">
         <f>_xll.ohRangeRetrieveError(F106)</f>
@@ -11451,15 +11526,15 @@
         <v>0</v>
       </c>
       <c r="D107" s="4" t="str">
-        <v>J2</v>
+        <v>N2</v>
       </c>
       <c r="E107" s="40" t="str">
         <f t="shared" si="3"/>
-        <v>HKDIMMFRA6MJ2_Quote</v>
+        <v>HKDIMMFRA6MN2_Quote</v>
       </c>
       <c r="F107" s="12" t="str">
         <f>_xll.qlSimpleQuote(E107,,PriceTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDIMMFRA6MJ2_Quote#0002</v>
+        <v>HKDIMMFRA6MN2_Quote#0002</v>
       </c>
       <c r="G107" s="61" t="str">
         <f>_xll.ohRangeRetrieveError(F107)</f>
@@ -11476,15 +11551,15 @@
         <v>0</v>
       </c>
       <c r="D108" s="4" t="str">
-        <v>K2</v>
+        <v>Q2</v>
       </c>
       <c r="E108" s="40" t="str">
         <f t="shared" si="3"/>
-        <v>HKDIMMFRA6MK2_Quote</v>
+        <v>HKDIMMFRA6MQ2_Quote</v>
       </c>
       <c r="F108" s="12" t="str">
         <f>_xll.qlSimpleQuote(E108,,PriceTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDIMMFRA6MK2_Quote#0002</v>
+        <v>HKDIMMFRA6MQ2_Quote#0002</v>
       </c>
       <c r="G108" s="61" t="str">
         <f>_xll.ohRangeRetrieveError(F108)</f>
@@ -11501,15 +11576,15 @@
         <v>0</v>
       </c>
       <c r="D109" s="4" t="str">
-        <v>M2</v>
+        <v>U2</v>
       </c>
       <c r="E109" s="40" t="str">
         <f t="shared" si="3"/>
-        <v>HKDIMMFRA6MM2_Quote</v>
+        <v>HKDIMMFRA6MU2_Quote</v>
       </c>
       <c r="F109" s="12" t="str">
         <f>_xll.qlSimpleQuote(E109,,PriceTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDIMMFRA6MM2_Quote#0002</v>
+        <v>HKDIMMFRA6MU2_Quote#0002</v>
       </c>
       <c r="G109" s="61" t="str">
         <f>_xll.ohRangeRetrieveError(F109)</f>
@@ -11526,15 +11601,15 @@
         <v>0</v>
       </c>
       <c r="D110" s="4" t="str">
-        <v>N2</v>
+        <v>V2</v>
       </c>
       <c r="E110" s="40" t="str">
         <f t="shared" si="3"/>
-        <v>HKDIMMFRA6MN2_Quote</v>
+        <v>HKDIMMFRA6MV2_Quote</v>
       </c>
       <c r="F110" s="12" t="str">
         <f>_xll.qlSimpleQuote(E110,,PriceTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDIMMFRA6MN2_Quote#0002</v>
+        <v>HKDIMMFRA6MV2_Quote#0002</v>
       </c>
       <c r="G110" s="61" t="str">
         <f>_xll.ohRangeRetrieveError(F110)</f>
@@ -11551,15 +11626,15 @@
         <v>0</v>
       </c>
       <c r="D111" s="4" t="str">
-        <v>Q2</v>
+        <v>X2</v>
       </c>
       <c r="E111" s="40" t="str">
         <f t="shared" si="3"/>
-        <v>HKDIMMFRA6MQ2_Quote</v>
+        <v>HKDIMMFRA6MX2_Quote</v>
       </c>
       <c r="F111" s="12" t="str">
         <f>_xll.qlSimpleQuote(E111,,PriceTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDIMMFRA6MQ2_Quote#0002</v>
+        <v>HKDIMMFRA6MX2_Quote#0002</v>
       </c>
       <c r="G111" s="61" t="str">
         <f>_xll.ohRangeRetrieveError(F111)</f>
@@ -11576,15 +11651,15 @@
         <v>0</v>
       </c>
       <c r="D112" s="4" t="str">
-        <v>U2</v>
+        <v>Z2</v>
       </c>
       <c r="E112" s="40" t="str">
         <f t="shared" si="3"/>
-        <v>HKDIMMFRA6MU2_Quote</v>
+        <v>HKDIMMFRA6MZ2_Quote</v>
       </c>
       <c r="F112" s="12" t="str">
         <f>_xll.qlSimpleQuote(E112,,PriceTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDIMMFRA6MU2_Quote#0002</v>
+        <v>HKDIMMFRA6MZ2_Quote#0002</v>
       </c>
       <c r="G112" s="61" t="str">
         <f>_xll.ohRangeRetrieveError(F112)</f>
@@ -11601,15 +11676,15 @@
         <v>0</v>
       </c>
       <c r="D113" s="4" t="str">
-        <v>V2</v>
+        <v>F3</v>
       </c>
       <c r="E113" s="40" t="str">
         <f t="shared" si="3"/>
-        <v>HKDIMMFRA6MV2_Quote</v>
+        <v>HKDIMMFRA6MF3_Quote</v>
       </c>
       <c r="F113" s="12" t="str">
         <f>_xll.qlSimpleQuote(E113,,PriceTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDIMMFRA6MV2_Quote#0002</v>
+        <v>HKDIMMFRA6MF3_Quote#0002</v>
       </c>
       <c r="G113" s="61" t="str">
         <f>_xll.ohRangeRetrieveError(F113)</f>
@@ -11626,15 +11701,15 @@
         <v>0</v>
       </c>
       <c r="D114" s="4" t="str">
-        <v>X2</v>
+        <v>G3</v>
       </c>
       <c r="E114" s="40" t="str">
         <f t="shared" si="3"/>
-        <v>HKDIMMFRA6MX2_Quote</v>
+        <v>HKDIMMFRA6MG3_Quote</v>
       </c>
       <c r="F114" s="12" t="str">
         <f>_xll.qlSimpleQuote(E114,,PriceTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDIMMFRA6MX2_Quote#0002</v>
+        <v>HKDIMMFRA6MG3_Quote#0002</v>
       </c>
       <c r="G114" s="61" t="str">
         <f>_xll.ohRangeRetrieveError(F114)</f>
@@ -11651,15 +11726,15 @@
         <v>0</v>
       </c>
       <c r="D115" s="4" t="str">
-        <v>Z2</v>
+        <v>H3</v>
       </c>
       <c r="E115" s="40" t="str">
         <f t="shared" si="3"/>
-        <v>HKDIMMFRA6MZ2_Quote</v>
+        <v>HKDIMMFRA6MH3_Quote</v>
       </c>
       <c r="F115" s="12" t="str">
         <f>_xll.qlSimpleQuote(E115,,PriceTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDIMMFRA6MZ2_Quote#0002</v>
+        <v>HKDIMMFRA6MH3_Quote#0002</v>
       </c>
       <c r="G115" s="61" t="str">
         <f>_xll.ohRangeRetrieveError(F115)</f>
@@ -11676,15 +11751,15 @@
         <v>0</v>
       </c>
       <c r="D116" s="4" t="str">
-        <v>F3</v>
+        <v>J3</v>
       </c>
       <c r="E116" s="40" t="str">
         <f t="shared" si="3"/>
-        <v>HKDIMMFRA6MF3_Quote</v>
+        <v>HKDIMMFRA6MJ3_Quote</v>
       </c>
       <c r="F116" s="12" t="str">
         <f>_xll.qlSimpleQuote(E116,,PriceTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDIMMFRA6MF3_Quote#0002</v>
+        <v>HKDIMMFRA6MJ3_Quote#0002</v>
       </c>
       <c r="G116" s="61" t="str">
         <f>_xll.ohRangeRetrieveError(F116)</f>
@@ -11701,15 +11776,15 @@
         <v>0</v>
       </c>
       <c r="D117" s="4" t="str">
-        <v>G3</v>
+        <v>K3</v>
       </c>
       <c r="E117" s="40" t="str">
         <f t="shared" si="3"/>
-        <v>HKDIMMFRA6MG3_Quote</v>
+        <v>HKDIMMFRA6MK3_Quote</v>
       </c>
       <c r="F117" s="12" t="str">
         <f>_xll.qlSimpleQuote(E117,,PriceTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDIMMFRA6MG3_Quote#0002</v>
+        <v>HKDIMMFRA6MK3_Quote#0002</v>
       </c>
       <c r="G117" s="61" t="str">
         <f>_xll.ohRangeRetrieveError(F117)</f>
@@ -11726,15 +11801,15 @@
         <v>0</v>
       </c>
       <c r="D118" s="4" t="str">
-        <v>H3</v>
+        <v>M3</v>
       </c>
       <c r="E118" s="40" t="str">
         <f t="shared" si="3"/>
-        <v>HKDIMMFRA6MH3_Quote</v>
+        <v>HKDIMMFRA6MM3_Quote</v>
       </c>
       <c r="F118" s="12" t="str">
         <f>_xll.qlSimpleQuote(E118,,PriceTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDIMMFRA6MH3_Quote#0002</v>
+        <v>HKDIMMFRA6MM3_Quote#0002</v>
       </c>
       <c r="G118" s="61" t="str">
         <f>_xll.ohRangeRetrieveError(F118)</f>
@@ -11751,15 +11826,15 @@
         <v>0</v>
       </c>
       <c r="D119" s="4" t="str">
-        <v>J3</v>
+        <v>N3</v>
       </c>
       <c r="E119" s="40" t="str">
         <f t="shared" si="3"/>
-        <v>HKDIMMFRA6MJ3_Quote</v>
+        <v>HKDIMMFRA6MN3_Quote</v>
       </c>
       <c r="F119" s="12" t="str">
         <f>_xll.qlSimpleQuote(E119,,PriceTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDIMMFRA6MJ3_Quote#0002</v>
+        <v>HKDIMMFRA6MN3_Quote#0002</v>
       </c>
       <c r="G119" s="61" t="str">
         <f>_xll.ohRangeRetrieveError(F119)</f>
@@ -11776,15 +11851,15 @@
         <v>0</v>
       </c>
       <c r="D120" s="4" t="str">
-        <v>K3</v>
+        <v>Q3</v>
       </c>
       <c r="E120" s="40" t="str">
         <f t="shared" si="3"/>
-        <v>HKDIMMFRA6MK3_Quote</v>
+        <v>HKDIMMFRA6MQ3_Quote</v>
       </c>
       <c r="F120" s="12" t="str">
         <f>_xll.qlSimpleQuote(E120,,PriceTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDIMMFRA6MK3_Quote#0002</v>
+        <v>HKDIMMFRA6MQ3_Quote#0002</v>
       </c>
       <c r="G120" s="61" t="str">
         <f>_xll.ohRangeRetrieveError(F120)</f>
@@ -11801,15 +11876,15 @@
         <v>0</v>
       </c>
       <c r="D121" s="4" t="str">
-        <v>M3</v>
+        <v>U3</v>
       </c>
       <c r="E121" s="40" t="str">
         <f t="shared" si="3"/>
-        <v>HKDIMMFRA6MM3_Quote</v>
+        <v>HKDIMMFRA6MU3_Quote</v>
       </c>
       <c r="F121" s="12" t="str">
         <f>_xll.qlSimpleQuote(E121,,PriceTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDIMMFRA6MM3_Quote#0002</v>
+        <v>HKDIMMFRA6MU3_Quote#0002</v>
       </c>
       <c r="G121" s="61" t="str">
         <f>_xll.ohRangeRetrieveError(F121)</f>
@@ -11826,15 +11901,15 @@
         <v>0</v>
       </c>
       <c r="D122" s="4" t="str">
-        <v>N3</v>
+        <v>V3</v>
       </c>
       <c r="E122" s="40" t="str">
         <f t="shared" si="3"/>
-        <v>HKDIMMFRA6MN3_Quote</v>
+        <v>HKDIMMFRA6MV3_Quote</v>
       </c>
       <c r="F122" s="12" t="str">
         <f>_xll.qlSimpleQuote(E122,,PriceTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDIMMFRA6MN3_Quote#0002</v>
+        <v>HKDIMMFRA6MV3_Quote#0002</v>
       </c>
       <c r="G122" s="61" t="str">
         <f>_xll.ohRangeRetrieveError(F122)</f>

--- a/QuantLibXL/Data/XLS/020_YieldCurveBootstrap/010_Quotes/HKD_010_DepoFRAFuturesQuotes.xlsx
+++ b/QuantLibXL/Data/XLS/020_YieldCurveBootstrap/010_Quotes/HKD_010_DepoFRAFuturesQuotes.xlsx
@@ -15,9 +15,6 @@
     <sheet name="ImmFra6M " sheetId="19" r:id="rId6"/>
     <sheet name="FuturesHWConvAdj" sheetId="14" r:id="rId7"/>
   </sheets>
-  <externalReferences>
-    <externalReference r:id="rId8"/>
-  </externalReferences>
   <definedNames>
     <definedName name="Currency">'General Settings'!$D$14</definedName>
     <definedName name="FileOverwrite">'General Settings'!$D$9</definedName>
@@ -923,22 +920,6 @@
 </styleSheet>
 </file>
 
-<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="Feuil1"/>
-    </sheetNames>
-    <definedNames>
-      <definedName name="qlSerializationPath"/>
-    </definedNames>
-    <sheetDataSet>
-      <sheetData sheetId="0"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -1248,7 +1229,7 @@
     <row r="1" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B1" s="14" t="str">
         <f>_xll.qlxlVersion(TRUE,Trigger)</f>
-        <v>QuantLibXL 1.2.0 - MS VC++ 9.0 - Multithreaded Dynamic Runtime library - Release Configuration - Jan 18 2013 12:11:06</v>
+        <v>QuantLibXL 1.3.0 - MS VC++ 9.0 - Multithreaded Dynamic Runtime library - Release Configuration - Nov  4 2013 11:55:45</v>
       </c>
     </row>
     <row r="2" spans="1:5" s="16" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
@@ -1316,8 +1297,8 @@
         <v>22</v>
       </c>
       <c r="D8" s="23" t="str">
-        <f>[1]!qlSerializationPath(Trigger)</f>
-        <v>\\srv0001\Risorse\WorkGroup\IMI_Workbooks\Production\QLXL_R01030x\Data\XML\020_YieldCurveBootstrap\010_Quotes\</v>
+        <f>qlSerializationPath(Trigger)</f>
+        <v>C:\Projects\quantlib\QuantLibXL\Data\XML\020_YieldCurveBootstrap\010_Quotes\</v>
       </c>
       <c r="E8" s="22"/>
     </row>
@@ -1452,13 +1433,13 @@
         <f>Currency&amp;"_010_"&amp;"Deposits.xml"</f>
         <v>HKD_010_Deposits.xml</v>
       </c>
-      <c r="D2" s="72">
+      <c r="D2" s="72" t="e">
         <f>IF(Serialize,_xll.ohObjectSave(D3:D20,SerializationPath&amp;C2,FileOverwrite,Serialize),"---")</f>
-        <v>18</v>
+        <v>#NUM!</v>
       </c>
       <c r="E2" s="65" t="str">
-        <f>_xll.ohRangeRetrieveError(D2)</f>
-        <v/>
+        <f ca="1">_xll.ohRangeRetrieveError(D2)</f>
+        <v>ohObjectSave - Invalid parent path : C:\Projects\quantlib\QuantLibXL\Data\XML\020_YieldCurveBootstrap\010_Quotes\HKD_010_Deposits.xml</v>
       </c>
       <c r="F2" s="34"/>
     </row>
@@ -1473,7 +1454,7 @@
       </c>
       <c r="D3" s="93" t="str">
         <f>_xll.qlSimpleQuote(C3,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDOND_Quote#0002</v>
+        <v>HKDOND_Quote#0001</v>
       </c>
       <c r="E3" s="61" t="str">
         <f>_xll.ohRangeRetrieveError(D3)</f>
@@ -1492,7 +1473,7 @@
       </c>
       <c r="D4" s="93" t="str">
         <f>_xll.qlSimpleQuote(C4,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDTND_Quote#0002</v>
+        <v>HKDTND_Quote#0001</v>
       </c>
       <c r="E4" s="61" t="str">
         <f>_xll.ohRangeRetrieveError(D4)</f>
@@ -1511,7 +1492,7 @@
       </c>
       <c r="D5" s="93" t="str">
         <f>_xll.qlSimpleQuote(C5,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDSND_Quote#0002</v>
+        <v>HKDSND_Quote#0001</v>
       </c>
       <c r="E5" s="61" t="str">
         <f>_xll.ohRangeRetrieveError(D5)</f>
@@ -1530,7 +1511,7 @@
       </c>
       <c r="D6" s="93" t="str">
         <f>_xll.qlSimpleQuote(C6,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDSWD_Quote#0002</v>
+        <v>HKDSWD_Quote#0001</v>
       </c>
       <c r="E6" s="61" t="str">
         <f>_xll.ohRangeRetrieveError(D6)</f>
@@ -1549,7 +1530,7 @@
       </c>
       <c r="D7" s="93" t="str">
         <f>_xll.qlSimpleQuote(C7,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD2WD_Quote#0002</v>
+        <v>HKD2WD_Quote#0001</v>
       </c>
       <c r="E7" s="61" t="str">
         <f>_xll.ohRangeRetrieveError(D7)</f>
@@ -1568,7 +1549,7 @@
       </c>
       <c r="D8" s="93" t="str">
         <f>_xll.qlSimpleQuote(C8,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD3WD_Quote#0002</v>
+        <v>HKD3WD_Quote#0001</v>
       </c>
       <c r="E8" s="61" t="str">
         <f>_xll.ohRangeRetrieveError(D8)</f>
@@ -1587,7 +1568,7 @@
       </c>
       <c r="D9" s="93" t="str">
         <f>_xll.qlSimpleQuote(C9,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD1MD_Quote#0002</v>
+        <v>HKD1MD_Quote#0001</v>
       </c>
       <c r="E9" s="61" t="str">
         <f>_xll.ohRangeRetrieveError(D9)</f>
@@ -1606,7 +1587,7 @@
       </c>
       <c r="D10" s="93" t="str">
         <f>_xll.qlSimpleQuote(C10,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD2MD_Quote#0002</v>
+        <v>HKD2MD_Quote#0001</v>
       </c>
       <c r="E10" s="61" t="str">
         <f>_xll.ohRangeRetrieveError(D10)</f>
@@ -1625,7 +1606,7 @@
       </c>
       <c r="D11" s="93" t="str">
         <f>_xll.qlSimpleQuote(C11,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD3MD_Quote#0002</v>
+        <v>HKD3MD_Quote#0001</v>
       </c>
       <c r="E11" s="61" t="str">
         <f>_xll.ohRangeRetrieveError(D11)</f>
@@ -1644,7 +1625,7 @@
       </c>
       <c r="D12" s="93" t="str">
         <f>_xll.qlSimpleQuote(C12,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD4MD_Quote#0002</v>
+        <v>HKD4MD_Quote#0001</v>
       </c>
       <c r="E12" s="61" t="str">
         <f>_xll.ohRangeRetrieveError(D12)</f>
@@ -1663,7 +1644,7 @@
       </c>
       <c r="D13" s="93" t="str">
         <f>_xll.qlSimpleQuote(C13,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD5MD_Quote#0002</v>
+        <v>HKD5MD_Quote#0001</v>
       </c>
       <c r="E13" s="61" t="str">
         <f>_xll.ohRangeRetrieveError(D13)</f>
@@ -1682,7 +1663,7 @@
       </c>
       <c r="D14" s="93" t="str">
         <f>_xll.qlSimpleQuote(C14,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD6MD_Quote#0002</v>
+        <v>HKD6MD_Quote#0001</v>
       </c>
       <c r="E14" s="61" t="str">
         <f>_xll.ohRangeRetrieveError(D14)</f>
@@ -1701,7 +1682,7 @@
       </c>
       <c r="D15" s="93" t="str">
         <f>_xll.qlSimpleQuote(C15,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD7MD_Quote#0002</v>
+        <v>HKD7MD_Quote#0001</v>
       </c>
       <c r="E15" s="61" t="str">
         <f>_xll.ohRangeRetrieveError(D15)</f>
@@ -1720,7 +1701,7 @@
       </c>
       <c r="D16" s="93" t="str">
         <f>_xll.qlSimpleQuote(C16,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD8MD_Quote#0002</v>
+        <v>HKD8MD_Quote#0001</v>
       </c>
       <c r="E16" s="61" t="str">
         <f>_xll.ohRangeRetrieveError(D16)</f>
@@ -1739,7 +1720,7 @@
       </c>
       <c r="D17" s="93" t="str">
         <f>_xll.qlSimpleQuote(C17,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD9MD_Quote#0002</v>
+        <v>HKD9MD_Quote#0001</v>
       </c>
       <c r="E17" s="61" t="str">
         <f>_xll.ohRangeRetrieveError(D17)</f>
@@ -1758,7 +1739,7 @@
       </c>
       <c r="D18" s="93" t="str">
         <f>_xll.qlSimpleQuote(C18,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD10MD_Quote#0002</v>
+        <v>HKD10MD_Quote#0001</v>
       </c>
       <c r="E18" s="61" t="str">
         <f>_xll.ohRangeRetrieveError(D18)</f>
@@ -1777,7 +1758,7 @@
       </c>
       <c r="D19" s="93" t="str">
         <f>_xll.qlSimpleQuote(C19,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD11MD_Quote#0002</v>
+        <v>HKD11MD_Quote#0001</v>
       </c>
       <c r="E19" s="61" t="str">
         <f>_xll.ohRangeRetrieveError(D19)</f>
@@ -1796,7 +1777,7 @@
       </c>
       <c r="D20" s="93" t="str">
         <f>_xll.qlSimpleQuote(C20,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD1YD_Quote#0002</v>
+        <v>HKD1YD_Quote#0001</v>
       </c>
       <c r="E20" s="61" t="str">
         <f>_xll.ohRangeRetrieveError(D20)</f>
@@ -1858,13 +1839,13 @@
         <f>Currency&amp;"_010_"&amp;"FRA.xml"</f>
         <v>HKD_010_FRA.xml</v>
       </c>
-      <c r="E2" s="80">
+      <c r="E2" s="80" t="e">
         <f>IF(Serialize,_xll.ohObjectSave(E3:E38,SerializationPath&amp;D2,FileOverwrite,Serialize),"---")</f>
-        <v>36</v>
+        <v>#NUM!</v>
       </c>
       <c r="F2" s="75" t="str">
-        <f>_xll.ohRangeRetrieveError(E2)</f>
-        <v/>
+        <f ca="1">_xll.ohRangeRetrieveError(E2)</f>
+        <v>ohObjectSave - Invalid parent path : C:\Projects\quantlib\QuantLibXL\Data\XML\020_YieldCurveBootstrap\010_Quotes\HKD_010_FRA.xml</v>
       </c>
       <c r="G2" s="2"/>
     </row>
@@ -1882,7 +1863,7 @@
       </c>
       <c r="E3" s="83" t="str">
         <f>_xll.qlSimpleQuote(D3,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDT1F1_Quote#0002</v>
+        <v>HKDT1F1_Quote#0001</v>
       </c>
       <c r="F3" s="78" t="str">
         <f>_xll.ohRangeRetrieveError(E3)</f>
@@ -1904,7 +1885,7 @@
       </c>
       <c r="E4" s="86" t="str">
         <f>_xll.qlSimpleQuote(D4,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDTOM1F1_Quote#0002</v>
+        <v>HKDTOM1F1_Quote#0001</v>
       </c>
       <c r="F4" s="76" t="str">
         <f>_xll.ohRangeRetrieveError(E4)</f>
@@ -1926,7 +1907,7 @@
       </c>
       <c r="E5" s="83" t="str">
         <f>_xll.qlSimpleQuote(D5,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDT3F1_Quote#0002</v>
+        <v>HKDT3F1_Quote#0001</v>
       </c>
       <c r="F5" s="78" t="str">
         <f>_xll.ohRangeRetrieveError(E5)</f>
@@ -1948,7 +1929,7 @@
       </c>
       <c r="E6" s="86" t="str">
         <f>_xll.qlSimpleQuote(D6,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDTOM3F1_Quote#0002</v>
+        <v>HKDTOM3F1_Quote#0001</v>
       </c>
       <c r="F6" s="76" t="str">
         <f>_xll.ohRangeRetrieveError(E6)</f>
@@ -1970,7 +1951,7 @@
       </c>
       <c r="E7" s="83" t="str">
         <f>_xll.qlSimpleQuote(D7,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD1x4F_Quote#0002</v>
+        <v>HKD1x4F_Quote#0001</v>
       </c>
       <c r="F7" s="78" t="str">
         <f>_xll.ohRangeRetrieveError(E7)</f>
@@ -1992,7 +1973,7 @@
       </c>
       <c r="E8" s="89" t="str">
         <f>_xll.qlSimpleQuote(D8,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD2x5F_Quote#0002</v>
+        <v>HKD2x5F_Quote#0001</v>
       </c>
       <c r="F8" s="79" t="str">
         <f>_xll.ohRangeRetrieveError(E8)</f>
@@ -2014,7 +1995,7 @@
       </c>
       <c r="E9" s="89" t="str">
         <f>_xll.qlSimpleQuote(D9,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD3x6F_Quote#0002</v>
+        <v>HKD3x6F_Quote#0001</v>
       </c>
       <c r="F9" s="79" t="str">
         <f>_xll.ohRangeRetrieveError(E9)</f>
@@ -2036,7 +2017,7 @@
       </c>
       <c r="E10" s="89" t="str">
         <f>_xll.qlSimpleQuote(D10,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD4x7F_Quote#0002</v>
+        <v>HKD4x7F_Quote#0001</v>
       </c>
       <c r="F10" s="79" t="str">
         <f>_xll.ohRangeRetrieveError(E10)</f>
@@ -2058,7 +2039,7 @@
       </c>
       <c r="E11" s="89" t="str">
         <f>_xll.qlSimpleQuote(D11,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD5x8F_Quote#0002</v>
+        <v>HKD5x8F_Quote#0001</v>
       </c>
       <c r="F11" s="79" t="str">
         <f>_xll.ohRangeRetrieveError(E11)</f>
@@ -2080,7 +2061,7 @@
       </c>
       <c r="E12" s="89" t="str">
         <f>_xll.qlSimpleQuote(D12,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD6x9F_Quote#0002</v>
+        <v>HKD6x9F_Quote#0001</v>
       </c>
       <c r="F12" s="79" t="str">
         <f>_xll.ohRangeRetrieveError(E12)</f>
@@ -2102,7 +2083,7 @@
       </c>
       <c r="E13" s="89" t="str">
         <f>_xll.qlSimpleQuote(D13,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD7x10F_Quote#0002</v>
+        <v>HKD7x10F_Quote#0001</v>
       </c>
       <c r="F13" s="79" t="str">
         <f>_xll.ohRangeRetrieveError(E13)</f>
@@ -2124,7 +2105,7 @@
       </c>
       <c r="E14" s="89" t="str">
         <f>_xll.qlSimpleQuote(D14,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD8x11F_Quote#0002</v>
+        <v>HKD8x11F_Quote#0001</v>
       </c>
       <c r="F14" s="79" t="str">
         <f>_xll.ohRangeRetrieveError(E14)</f>
@@ -2146,7 +2127,7 @@
       </c>
       <c r="E15" s="86" t="str">
         <f>_xll.qlSimpleQuote(D15,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD9x12F_Quote#0002</v>
+        <v>HKD9x12F_Quote#0001</v>
       </c>
       <c r="F15" s="76" t="str">
         <f>_xll.ohRangeRetrieveError(E15)</f>
@@ -2168,7 +2149,7 @@
       </c>
       <c r="E16" s="83" t="str">
         <f>_xll.qlSimpleQuote(D16,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDT6F1_Quote#0002</v>
+        <v>HKDT6F1_Quote#0001</v>
       </c>
       <c r="F16" s="78" t="str">
         <f>_xll.ohRangeRetrieveError(E16)</f>
@@ -2190,7 +2171,7 @@
       </c>
       <c r="E17" s="86" t="str">
         <f>_xll.qlSimpleQuote(D17,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDTOM6F1_Quote#0002</v>
+        <v>HKDTOM6F1_Quote#0001</v>
       </c>
       <c r="F17" s="76" t="str">
         <f>_xll.ohRangeRetrieveError(E17)</f>
@@ -2213,7 +2194,7 @@
       </c>
       <c r="E18" s="83" t="str">
         <f>_xll.qlSimpleQuote(D18,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD1x7F_Quote#0002</v>
+        <v>HKD1x7F_Quote#0001</v>
       </c>
       <c r="F18" s="78" t="str">
         <f>_xll.ohRangeRetrieveError(E18)</f>
@@ -2236,7 +2217,7 @@
       </c>
       <c r="E19" s="89" t="str">
         <f>_xll.qlSimpleQuote(D19,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD2x8F_Quote#0002</v>
+        <v>HKD2x8F_Quote#0001</v>
       </c>
       <c r="F19" s="79" t="str">
         <f>_xll.ohRangeRetrieveError(E19)</f>
@@ -2259,7 +2240,7 @@
       </c>
       <c r="E20" s="89" t="str">
         <f>_xll.qlSimpleQuote(D20,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD3x9F_Quote#0002</v>
+        <v>HKD3x9F_Quote#0001</v>
       </c>
       <c r="F20" s="79" t="str">
         <f>_xll.ohRangeRetrieveError(E20)</f>
@@ -2282,7 +2263,7 @@
       </c>
       <c r="E21" s="89" t="str">
         <f>_xll.qlSimpleQuote(D21,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD4x10F_Quote#0002</v>
+        <v>HKD4x10F_Quote#0001</v>
       </c>
       <c r="F21" s="79" t="str">
         <f>_xll.ohRangeRetrieveError(E21)</f>
@@ -2305,7 +2286,7 @@
       </c>
       <c r="E22" s="89" t="str">
         <f>_xll.qlSimpleQuote(D22,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD5x11F_Quote#0002</v>
+        <v>HKD5x11F_Quote#0001</v>
       </c>
       <c r="F22" s="79" t="str">
         <f>_xll.ohRangeRetrieveError(E22)</f>
@@ -2328,7 +2309,7 @@
       </c>
       <c r="E23" s="89" t="str">
         <f>_xll.qlSimpleQuote(D23,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD6x12F_Quote#0002</v>
+        <v>HKD6x12F_Quote#0001</v>
       </c>
       <c r="F23" s="79" t="str">
         <f>_xll.ohRangeRetrieveError(E23)</f>
@@ -2351,7 +2332,7 @@
       </c>
       <c r="E24" s="89" t="str">
         <f>_xll.qlSimpleQuote(D24,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD7x13F_Quote#0002</v>
+        <v>HKD7x13F_Quote#0001</v>
       </c>
       <c r="F24" s="79" t="str">
         <f>_xll.ohRangeRetrieveError(E24)</f>
@@ -2374,7 +2355,7 @@
       </c>
       <c r="E25" s="89" t="str">
         <f>_xll.qlSimpleQuote(D25,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD8x14F_Quote#0002</v>
+        <v>HKD8x14F_Quote#0001</v>
       </c>
       <c r="F25" s="79" t="str">
         <f>_xll.ohRangeRetrieveError(E25)</f>
@@ -2397,7 +2378,7 @@
       </c>
       <c r="E26" s="89" t="str">
         <f>_xll.qlSimpleQuote(D26,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD9x15F_Quote#0002</v>
+        <v>HKD9x15F_Quote#0001</v>
       </c>
       <c r="F26" s="79" t="str">
         <f>_xll.ohRangeRetrieveError(E26)</f>
@@ -2420,7 +2401,7 @@
       </c>
       <c r="E27" s="89" t="str">
         <f>_xll.qlSimpleQuote(D27,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD10x16F_Quote#0002</v>
+        <v>HKD10x16F_Quote#0001</v>
       </c>
       <c r="F27" s="79" t="str">
         <f>_xll.ohRangeRetrieveError(E27)</f>
@@ -2443,7 +2424,7 @@
       </c>
       <c r="E28" s="89" t="str">
         <f>_xll.qlSimpleQuote(D28,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD11x17F_Quote#0002</v>
+        <v>HKD11x17F_Quote#0001</v>
       </c>
       <c r="F28" s="79" t="str">
         <f>_xll.ohRangeRetrieveError(E28)</f>
@@ -2466,7 +2447,7 @@
       </c>
       <c r="E29" s="89" t="str">
         <f>_xll.qlSimpleQuote(D29,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD12x18F_Quote#0002</v>
+        <v>HKD12x18F_Quote#0001</v>
       </c>
       <c r="F29" s="79" t="str">
         <f>_xll.ohRangeRetrieveError(E29)</f>
@@ -2489,7 +2470,7 @@
       </c>
       <c r="E30" s="89" t="str">
         <f>_xll.qlSimpleQuote(D30,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD13x19F_Quote#0002</v>
+        <v>HKD13x19F_Quote#0001</v>
       </c>
       <c r="F30" s="79" t="str">
         <f>_xll.ohRangeRetrieveError(E30)</f>
@@ -2512,7 +2493,7 @@
       </c>
       <c r="E31" s="89" t="str">
         <f>_xll.qlSimpleQuote(D31,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD14x20F_Quote#0002</v>
+        <v>HKD14x20F_Quote#0001</v>
       </c>
       <c r="F31" s="79" t="str">
         <f>_xll.ohRangeRetrieveError(E31)</f>
@@ -2535,7 +2516,7 @@
       </c>
       <c r="E32" s="89" t="str">
         <f>_xll.qlSimpleQuote(D32,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD15x21F_Quote#0002</v>
+        <v>HKD15x21F_Quote#0001</v>
       </c>
       <c r="F32" s="79" t="str">
         <f>_xll.ohRangeRetrieveError(E32)</f>
@@ -2558,7 +2539,7 @@
       </c>
       <c r="E33" s="89" t="str">
         <f>_xll.qlSimpleQuote(D33,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD16x22F_Quote#0002</v>
+        <v>HKD16x22F_Quote#0001</v>
       </c>
       <c r="F33" s="79" t="str">
         <f>_xll.ohRangeRetrieveError(E33)</f>
@@ -2581,7 +2562,7 @@
       </c>
       <c r="E34" s="89" t="str">
         <f>_xll.qlSimpleQuote(D34,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD17x23F_Quote#0002</v>
+        <v>HKD17x23F_Quote#0001</v>
       </c>
       <c r="F34" s="79" t="str">
         <f>_xll.ohRangeRetrieveError(E34)</f>
@@ -2604,7 +2585,7 @@
       </c>
       <c r="E35" s="86" t="str">
         <f>_xll.qlSimpleQuote(D35,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD18x24F_Quote#0002</v>
+        <v>HKD18x24F_Quote#0001</v>
       </c>
       <c r="F35" s="76" t="str">
         <f>_xll.ohRangeRetrieveError(E35)</f>
@@ -2626,7 +2607,7 @@
       </c>
       <c r="E36" s="83" t="str">
         <f>_xll.qlSimpleQuote(D36,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDT12F1_Quote#0002</v>
+        <v>HKDT12F1_Quote#0001</v>
       </c>
       <c r="F36" s="78" t="str">
         <f>_xll.ohRangeRetrieveError(E36)</f>
@@ -2648,7 +2629,7 @@
       </c>
       <c r="E37" s="86" t="str">
         <f>_xll.qlSimpleQuote(D37,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDTOM12F1_Quote#0002</v>
+        <v>HKDTOM12F1_Quote#0001</v>
       </c>
       <c r="F37" s="76" t="str">
         <f>_xll.ohRangeRetrieveError(E37)</f>
@@ -2670,7 +2651,7 @@
       </c>
       <c r="E38" s="86" t="str">
         <f>_xll.qlSimpleQuote(D38,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD12x24F_Quote#0002</v>
+        <v>HKD12x24F_Quote#0001</v>
       </c>
       <c r="F38" s="76" t="str">
         <f>_xll.ohRangeRetrieveError(E38)</f>
@@ -2746,13 +2727,13 @@
         <f>Currency&amp;"_010_"&amp;$D$1&amp;$E$1&amp;".xml"</f>
         <v>HKD_010_FUT1M.xml</v>
       </c>
-      <c r="F2" s="64">
+      <c r="F2" s="64" t="e">
         <f>IF(Serialize,_xll.ohObjectSave(F3:F122,SerializationPath&amp;E2,FileOverwrite,Serialize),"---")</f>
-        <v>120</v>
+        <v>#NUM!</v>
       </c>
       <c r="G2" s="65" t="str">
-        <f>_xll.ohRangeRetrieveError(F2)</f>
-        <v/>
+        <f ca="1">_xll.ohRangeRetrieveError(F2)</f>
+        <v>ohObjectSave - Invalid parent path : C:\Projects\quantlib\QuantLibXL\Data\XML\020_YieldCurveBootstrap\010_Quotes\HKD_010_FUT1M.xml</v>
       </c>
       <c r="H2" s="55"/>
     </row>
@@ -2774,7 +2755,7 @@
       </c>
       <c r="F3" s="41" t="str">
         <f>_xll.qlSimpleQuote(E3,,PriceTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDFUT1MX3_Quote#0002</v>
+        <v>HKDFUT1MX3_Quote#0001</v>
       </c>
       <c r="G3" s="60" t="str">
         <f>_xll.ohRangeRetrieveError(F3)</f>
@@ -2799,7 +2780,7 @@
       </c>
       <c r="F4" s="12" t="str">
         <f>_xll.qlSimpleQuote(E4,,PriceTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDFUT1MZ3_Quote#0002</v>
+        <v>HKDFUT1MZ3_Quote#0001</v>
       </c>
       <c r="G4" s="61" t="str">
         <f>_xll.ohRangeRetrieveError(F4)</f>
@@ -2824,7 +2805,7 @@
       </c>
       <c r="F5" s="12" t="str">
         <f>_xll.qlSimpleQuote(E5,,PriceTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDFUT1MF4_Quote#0002</v>
+        <v>HKDFUT1MF4_Quote#0001</v>
       </c>
       <c r="G5" s="61" t="str">
         <f>_xll.ohRangeRetrieveError(F5)</f>
@@ -2849,7 +2830,7 @@
       </c>
       <c r="F6" s="12" t="str">
         <f>_xll.qlSimpleQuote(E6,,PriceTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDFUT1MG4_Quote#0002</v>
+        <v>HKDFUT1MG4_Quote#0001</v>
       </c>
       <c r="G6" s="61" t="str">
         <f>_xll.ohRangeRetrieveError(F6)</f>
@@ -2874,7 +2855,7 @@
       </c>
       <c r="F7" s="12" t="str">
         <f>_xll.qlSimpleQuote(E7,,PriceTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDFUT1MH4_Quote#0002</v>
+        <v>HKDFUT1MH4_Quote#0001</v>
       </c>
       <c r="G7" s="61" t="str">
         <f>_xll.ohRangeRetrieveError(F7)</f>
@@ -2899,7 +2880,7 @@
       </c>
       <c r="F8" s="12" t="str">
         <f>_xll.qlSimpleQuote(E8,,PriceTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDFUT1MJ4_Quote#0002</v>
+        <v>HKDFUT1MJ4_Quote#0001</v>
       </c>
       <c r="G8" s="61" t="str">
         <f>_xll.ohRangeRetrieveError(F8)</f>
@@ -2924,7 +2905,7 @@
       </c>
       <c r="F9" s="12" t="str">
         <f>_xll.qlSimpleQuote(E9,,PriceTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDFUT1MK4_Quote#0002</v>
+        <v>HKDFUT1MK4_Quote#0001</v>
       </c>
       <c r="G9" s="61" t="str">
         <f>_xll.ohRangeRetrieveError(F9)</f>
@@ -2949,7 +2930,7 @@
       </c>
       <c r="F10" s="12" t="str">
         <f>_xll.qlSimpleQuote(E10,,PriceTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDFUT1MM4_Quote#0002</v>
+        <v>HKDFUT1MM4_Quote#0001</v>
       </c>
       <c r="G10" s="61" t="str">
         <f>_xll.ohRangeRetrieveError(F10)</f>
@@ -2974,7 +2955,7 @@
       </c>
       <c r="F11" s="12" t="str">
         <f>_xll.qlSimpleQuote(E11,,PriceTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDFUT1MN4_Quote#0002</v>
+        <v>HKDFUT1MN4_Quote#0001</v>
       </c>
       <c r="G11" s="61" t="str">
         <f>_xll.ohRangeRetrieveError(F11)</f>
@@ -2999,7 +2980,7 @@
       </c>
       <c r="F12" s="12" t="str">
         <f>_xll.qlSimpleQuote(E12,,PriceTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDFUT1MQ4_Quote#0002</v>
+        <v>HKDFUT1MQ4_Quote#0001</v>
       </c>
       <c r="G12" s="61" t="str">
         <f>_xll.ohRangeRetrieveError(F12)</f>
@@ -3024,7 +3005,7 @@
       </c>
       <c r="F13" s="12" t="str">
         <f>_xll.qlSimpleQuote(E13,,PriceTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDFUT1MU4_Quote#0002</v>
+        <v>HKDFUT1MU4_Quote#0001</v>
       </c>
       <c r="G13" s="61" t="str">
         <f>_xll.ohRangeRetrieveError(F13)</f>
@@ -3049,7 +3030,7 @@
       </c>
       <c r="F14" s="12" t="str">
         <f>_xll.qlSimpleQuote(E14,,PriceTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDFUT1MV4_Quote#0002</v>
+        <v>HKDFUT1MV4_Quote#0001</v>
       </c>
       <c r="G14" s="61" t="str">
         <f>_xll.ohRangeRetrieveError(F14)</f>
@@ -3074,7 +3055,7 @@
       </c>
       <c r="F15" s="12" t="str">
         <f>_xll.qlSimpleQuote(E15,,PriceTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDFUT1MX4_Quote#0002</v>
+        <v>HKDFUT1MX4_Quote#0001</v>
       </c>
       <c r="G15" s="61" t="str">
         <f>_xll.ohRangeRetrieveError(F15)</f>
@@ -3099,7 +3080,7 @@
       </c>
       <c r="F16" s="12" t="str">
         <f>_xll.qlSimpleQuote(E16,,PriceTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDFUT1MZ4_Quote#0002</v>
+        <v>HKDFUT1MZ4_Quote#0001</v>
       </c>
       <c r="G16" s="61" t="str">
         <f>_xll.ohRangeRetrieveError(F16)</f>
@@ -3124,7 +3105,7 @@
       </c>
       <c r="F17" s="12" t="str">
         <f>_xll.qlSimpleQuote(E17,,PriceTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDFUT1MF5_Quote#0002</v>
+        <v>HKDFUT1MF5_Quote#0001</v>
       </c>
       <c r="G17" s="61" t="str">
         <f>_xll.ohRangeRetrieveError(F17)</f>
@@ -3149,7 +3130,7 @@
       </c>
       <c r="F18" s="12" t="str">
         <f>_xll.qlSimpleQuote(E18,,PriceTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDFUT1MG5_Quote#0002</v>
+        <v>HKDFUT1MG5_Quote#0001</v>
       </c>
       <c r="G18" s="61" t="str">
         <f>_xll.ohRangeRetrieveError(F18)</f>
@@ -3174,7 +3155,7 @@
       </c>
       <c r="F19" s="12" t="str">
         <f>_xll.qlSimpleQuote(E19,,PriceTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDFUT1MH5_Quote#0002</v>
+        <v>HKDFUT1MH5_Quote#0001</v>
       </c>
       <c r="G19" s="61" t="str">
         <f>_xll.ohRangeRetrieveError(F19)</f>
@@ -3199,7 +3180,7 @@
       </c>
       <c r="F20" s="12" t="str">
         <f>_xll.qlSimpleQuote(E20,,PriceTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDFUT1MJ5_Quote#0002</v>
+        <v>HKDFUT1MJ5_Quote#0001</v>
       </c>
       <c r="G20" s="61" t="str">
         <f>_xll.ohRangeRetrieveError(F20)</f>
@@ -3224,7 +3205,7 @@
       </c>
       <c r="F21" s="12" t="str">
         <f>_xll.qlSimpleQuote(E21,,PriceTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDFUT1MK5_Quote#0002</v>
+        <v>HKDFUT1MK5_Quote#0001</v>
       </c>
       <c r="G21" s="61" t="str">
         <f>_xll.ohRangeRetrieveError(F21)</f>
@@ -3249,7 +3230,7 @@
       </c>
       <c r="F22" s="12" t="str">
         <f>_xll.qlSimpleQuote(E22,,PriceTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDFUT1MM5_Quote#0002</v>
+        <v>HKDFUT1MM5_Quote#0001</v>
       </c>
       <c r="G22" s="61" t="str">
         <f>_xll.ohRangeRetrieveError(F22)</f>
@@ -3274,7 +3255,7 @@
       </c>
       <c r="F23" s="12" t="str">
         <f>_xll.qlSimpleQuote(E23,,PriceTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDFUT1MN5_Quote#0002</v>
+        <v>HKDFUT1MN5_Quote#0001</v>
       </c>
       <c r="G23" s="61" t="str">
         <f>_xll.ohRangeRetrieveError(F23)</f>
@@ -3299,7 +3280,7 @@
       </c>
       <c r="F24" s="12" t="str">
         <f>_xll.qlSimpleQuote(E24,,PriceTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDFUT1MQ5_Quote#0002</v>
+        <v>HKDFUT1MQ5_Quote#0001</v>
       </c>
       <c r="G24" s="61" t="str">
         <f>_xll.ohRangeRetrieveError(F24)</f>
@@ -3324,7 +3305,7 @@
       </c>
       <c r="F25" s="12" t="str">
         <f>_xll.qlSimpleQuote(E25,,PriceTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDFUT1MU5_Quote#0002</v>
+        <v>HKDFUT1MU5_Quote#0001</v>
       </c>
       <c r="G25" s="61" t="str">
         <f>_xll.ohRangeRetrieveError(F25)</f>
@@ -3349,7 +3330,7 @@
       </c>
       <c r="F26" s="12" t="str">
         <f>_xll.qlSimpleQuote(E26,,PriceTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDFUT1MV5_Quote#0002</v>
+        <v>HKDFUT1MV5_Quote#0001</v>
       </c>
       <c r="G26" s="61" t="str">
         <f>_xll.ohRangeRetrieveError(F26)</f>
@@ -3374,7 +3355,7 @@
       </c>
       <c r="F27" s="12" t="str">
         <f>_xll.qlSimpleQuote(E27,,PriceTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDFUT1MX5_Quote#0002</v>
+        <v>HKDFUT1MX5_Quote#0001</v>
       </c>
       <c r="G27" s="61" t="str">
         <f>_xll.ohRangeRetrieveError(F27)</f>
@@ -3399,7 +3380,7 @@
       </c>
       <c r="F28" s="12" t="str">
         <f>_xll.qlSimpleQuote(E28,,PriceTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDFUT1MZ5_Quote#0002</v>
+        <v>HKDFUT1MZ5_Quote#0001</v>
       </c>
       <c r="G28" s="61" t="str">
         <f>_xll.ohRangeRetrieveError(F28)</f>
@@ -3424,7 +3405,7 @@
       </c>
       <c r="F29" s="12" t="str">
         <f>_xll.qlSimpleQuote(E29,,PriceTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDFUT1MF6_Quote#0002</v>
+        <v>HKDFUT1MF6_Quote#0001</v>
       </c>
       <c r="G29" s="61" t="str">
         <f>_xll.ohRangeRetrieveError(F29)</f>
@@ -3449,7 +3430,7 @@
       </c>
       <c r="F30" s="12" t="str">
         <f>_xll.qlSimpleQuote(E30,,PriceTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDFUT1MG6_Quote#0002</v>
+        <v>HKDFUT1MG6_Quote#0001</v>
       </c>
       <c r="G30" s="61" t="str">
         <f>_xll.ohRangeRetrieveError(F30)</f>
@@ -3474,7 +3455,7 @@
       </c>
       <c r="F31" s="12" t="str">
         <f>_xll.qlSimpleQuote(E31,,PriceTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDFUT1MH6_Quote#0002</v>
+        <v>HKDFUT1MH6_Quote#0001</v>
       </c>
       <c r="G31" s="61" t="str">
         <f>_xll.ohRangeRetrieveError(F31)</f>
@@ -3499,7 +3480,7 @@
       </c>
       <c r="F32" s="12" t="str">
         <f>_xll.qlSimpleQuote(E32,,PriceTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDFUT1MJ6_Quote#0002</v>
+        <v>HKDFUT1MJ6_Quote#0001</v>
       </c>
       <c r="G32" s="61" t="str">
         <f>_xll.ohRangeRetrieveError(F32)</f>
@@ -3524,7 +3505,7 @@
       </c>
       <c r="F33" s="12" t="str">
         <f>_xll.qlSimpleQuote(E33,,PriceTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDFUT1MK6_Quote#0002</v>
+        <v>HKDFUT1MK6_Quote#0001</v>
       </c>
       <c r="G33" s="61" t="str">
         <f>_xll.ohRangeRetrieveError(F33)</f>
@@ -3549,7 +3530,7 @@
       </c>
       <c r="F34" s="12" t="str">
         <f>_xll.qlSimpleQuote(E34,,PriceTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDFUT1MM6_Quote#0002</v>
+        <v>HKDFUT1MM6_Quote#0001</v>
       </c>
       <c r="G34" s="61" t="str">
         <f>_xll.ohRangeRetrieveError(F34)</f>
@@ -3574,7 +3555,7 @@
       </c>
       <c r="F35" s="12" t="str">
         <f>_xll.qlSimpleQuote(E35,,PriceTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDFUT1MN6_Quote#0002</v>
+        <v>HKDFUT1MN6_Quote#0001</v>
       </c>
       <c r="G35" s="61" t="str">
         <f>_xll.ohRangeRetrieveError(F35)</f>
@@ -3599,7 +3580,7 @@
       </c>
       <c r="F36" s="12" t="str">
         <f>_xll.qlSimpleQuote(E36,,PriceTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDFUT1MQ6_Quote#0002</v>
+        <v>HKDFUT1MQ6_Quote#0001</v>
       </c>
       <c r="G36" s="61" t="str">
         <f>_xll.ohRangeRetrieveError(F36)</f>
@@ -3624,7 +3605,7 @@
       </c>
       <c r="F37" s="12" t="str">
         <f>_xll.qlSimpleQuote(E37,,PriceTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDFUT1MU6_Quote#0002</v>
+        <v>HKDFUT1MU6_Quote#0001</v>
       </c>
       <c r="G37" s="61" t="str">
         <f>_xll.ohRangeRetrieveError(F37)</f>
@@ -3649,7 +3630,7 @@
       </c>
       <c r="F38" s="12" t="str">
         <f>_xll.qlSimpleQuote(E38,,PriceTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDFUT1MV6_Quote#0002</v>
+        <v>HKDFUT1MV6_Quote#0001</v>
       </c>
       <c r="G38" s="61" t="str">
         <f>_xll.ohRangeRetrieveError(F38)</f>
@@ -3674,7 +3655,7 @@
       </c>
       <c r="F39" s="12" t="str">
         <f>_xll.qlSimpleQuote(E39,,PriceTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDFUT1MX6_Quote#0002</v>
+        <v>HKDFUT1MX6_Quote#0001</v>
       </c>
       <c r="G39" s="61" t="str">
         <f>_xll.ohRangeRetrieveError(F39)</f>
@@ -3699,7 +3680,7 @@
       </c>
       <c r="F40" s="12" t="str">
         <f>_xll.qlSimpleQuote(E40,,PriceTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDFUT1MZ6_Quote#0002</v>
+        <v>HKDFUT1MZ6_Quote#0001</v>
       </c>
       <c r="G40" s="61" t="str">
         <f>_xll.ohRangeRetrieveError(F40)</f>
@@ -3724,7 +3705,7 @@
       </c>
       <c r="F41" s="12" t="str">
         <f>_xll.qlSimpleQuote(E41,,PriceTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDFUT1MF7_Quote#0002</v>
+        <v>HKDFUT1MF7_Quote#0001</v>
       </c>
       <c r="G41" s="61" t="str">
         <f>_xll.ohRangeRetrieveError(F41)</f>
@@ -3749,7 +3730,7 @@
       </c>
       <c r="F42" s="12" t="str">
         <f>_xll.qlSimpleQuote(E42,,PriceTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDFUT1MG7_Quote#0002</v>
+        <v>HKDFUT1MG7_Quote#0001</v>
       </c>
       <c r="G42" s="61" t="str">
         <f>_xll.ohRangeRetrieveError(F42)</f>
@@ -3774,7 +3755,7 @@
       </c>
       <c r="F43" s="12" t="str">
         <f>_xll.qlSimpleQuote(E43,,PriceTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDFUT1MH7_Quote#0002</v>
+        <v>HKDFUT1MH7_Quote#0001</v>
       </c>
       <c r="G43" s="61" t="str">
         <f>_xll.ohRangeRetrieveError(F43)</f>
@@ -3799,7 +3780,7 @@
       </c>
       <c r="F44" s="12" t="str">
         <f>_xll.qlSimpleQuote(E44,,PriceTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDFUT1MJ7_Quote#0002</v>
+        <v>HKDFUT1MJ7_Quote#0001</v>
       </c>
       <c r="G44" s="61" t="str">
         <f>_xll.ohRangeRetrieveError(F44)</f>
@@ -3824,7 +3805,7 @@
       </c>
       <c r="F45" s="12" t="str">
         <f>_xll.qlSimpleQuote(E45,,PriceTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDFUT1MK7_Quote#0002</v>
+        <v>HKDFUT1MK7_Quote#0001</v>
       </c>
       <c r="G45" s="61" t="str">
         <f>_xll.ohRangeRetrieveError(F45)</f>
@@ -3849,7 +3830,7 @@
       </c>
       <c r="F46" s="12" t="str">
         <f>_xll.qlSimpleQuote(E46,,PriceTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDFUT1MM7_Quote#0002</v>
+        <v>HKDFUT1MM7_Quote#0001</v>
       </c>
       <c r="G46" s="61" t="str">
         <f>_xll.ohRangeRetrieveError(F46)</f>
@@ -3874,7 +3855,7 @@
       </c>
       <c r="F47" s="12" t="str">
         <f>_xll.qlSimpleQuote(E47,,PriceTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDFUT1MN7_Quote#0002</v>
+        <v>HKDFUT1MN7_Quote#0001</v>
       </c>
       <c r="G47" s="61" t="str">
         <f>_xll.ohRangeRetrieveError(F47)</f>
@@ -3899,7 +3880,7 @@
       </c>
       <c r="F48" s="12" t="str">
         <f>_xll.qlSimpleQuote(E48,,PriceTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDFUT1MQ7_Quote#0002</v>
+        <v>HKDFUT1MQ7_Quote#0001</v>
       </c>
       <c r="G48" s="61" t="str">
         <f>_xll.ohRangeRetrieveError(F48)</f>
@@ -3924,7 +3905,7 @@
       </c>
       <c r="F49" s="12" t="str">
         <f>_xll.qlSimpleQuote(E49,,PriceTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDFUT1MU7_Quote#0002</v>
+        <v>HKDFUT1MU7_Quote#0001</v>
       </c>
       <c r="G49" s="61" t="str">
         <f>_xll.ohRangeRetrieveError(F49)</f>
@@ -3949,7 +3930,7 @@
       </c>
       <c r="F50" s="12" t="str">
         <f>_xll.qlSimpleQuote(E50,,PriceTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDFUT1MV7_Quote#0002</v>
+        <v>HKDFUT1MV7_Quote#0001</v>
       </c>
       <c r="G50" s="61" t="str">
         <f>_xll.ohRangeRetrieveError(F50)</f>
@@ -3974,7 +3955,7 @@
       </c>
       <c r="F51" s="12" t="str">
         <f>_xll.qlSimpleQuote(E51,,PriceTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDFUT1MX7_Quote#0002</v>
+        <v>HKDFUT1MX7_Quote#0001</v>
       </c>
       <c r="G51" s="61" t="str">
         <f>_xll.ohRangeRetrieveError(F51)</f>
@@ -3999,7 +3980,7 @@
       </c>
       <c r="F52" s="12" t="str">
         <f>_xll.qlSimpleQuote(E52,,PriceTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDFUT1MZ7_Quote#0002</v>
+        <v>HKDFUT1MZ7_Quote#0001</v>
       </c>
       <c r="G52" s="61" t="str">
         <f>_xll.ohRangeRetrieveError(F52)</f>
@@ -4024,7 +4005,7 @@
       </c>
       <c r="F53" s="12" t="str">
         <f>_xll.qlSimpleQuote(E53,,PriceTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDFUT1MF8_Quote#0002</v>
+        <v>HKDFUT1MF8_Quote#0001</v>
       </c>
       <c r="G53" s="61" t="str">
         <f>_xll.ohRangeRetrieveError(F53)</f>
@@ -4049,7 +4030,7 @@
       </c>
       <c r="F54" s="12" t="str">
         <f>_xll.qlSimpleQuote(E54,,PriceTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDFUT1MG8_Quote#0002</v>
+        <v>HKDFUT1MG8_Quote#0001</v>
       </c>
       <c r="G54" s="61" t="str">
         <f>_xll.ohRangeRetrieveError(F54)</f>
@@ -4074,7 +4055,7 @@
       </c>
       <c r="F55" s="12" t="str">
         <f>_xll.qlSimpleQuote(E55,,PriceTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDFUT1MH8_Quote#0002</v>
+        <v>HKDFUT1MH8_Quote#0001</v>
       </c>
       <c r="G55" s="61" t="str">
         <f>_xll.ohRangeRetrieveError(F55)</f>
@@ -4099,7 +4080,7 @@
       </c>
       <c r="F56" s="12" t="str">
         <f>_xll.qlSimpleQuote(E56,,PriceTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDFUT1MJ8_Quote#0002</v>
+        <v>HKDFUT1MJ8_Quote#0001</v>
       </c>
       <c r="G56" s="61" t="str">
         <f>_xll.ohRangeRetrieveError(F56)</f>
@@ -4124,7 +4105,7 @@
       </c>
       <c r="F57" s="12" t="str">
         <f>_xll.qlSimpleQuote(E57,,PriceTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDFUT1MK8_Quote#0002</v>
+        <v>HKDFUT1MK8_Quote#0001</v>
       </c>
       <c r="G57" s="61" t="str">
         <f>_xll.ohRangeRetrieveError(F57)</f>
@@ -4149,7 +4130,7 @@
       </c>
       <c r="F58" s="12" t="str">
         <f>_xll.qlSimpleQuote(E58,,PriceTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDFUT1MM8_Quote#0002</v>
+        <v>HKDFUT1MM8_Quote#0001</v>
       </c>
       <c r="G58" s="61" t="str">
         <f>_xll.ohRangeRetrieveError(F58)</f>
@@ -4174,7 +4155,7 @@
       </c>
       <c r="F59" s="12" t="str">
         <f>_xll.qlSimpleQuote(E59,,PriceTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDFUT1MN8_Quote#0002</v>
+        <v>HKDFUT1MN8_Quote#0001</v>
       </c>
       <c r="G59" s="61" t="str">
         <f>_xll.ohRangeRetrieveError(F59)</f>
@@ -4199,7 +4180,7 @@
       </c>
       <c r="F60" s="12" t="str">
         <f>_xll.qlSimpleQuote(E60,,PriceTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDFUT1MQ8_Quote#0002</v>
+        <v>HKDFUT1MQ8_Quote#0001</v>
       </c>
       <c r="G60" s="61" t="str">
         <f>_xll.ohRangeRetrieveError(F60)</f>
@@ -4224,7 +4205,7 @@
       </c>
       <c r="F61" s="12" t="str">
         <f>_xll.qlSimpleQuote(E61,,PriceTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDFUT1MU8_Quote#0002</v>
+        <v>HKDFUT1MU8_Quote#0001</v>
       </c>
       <c r="G61" s="61" t="str">
         <f>_xll.ohRangeRetrieveError(F61)</f>
@@ -4249,7 +4230,7 @@
       </c>
       <c r="F62" s="12" t="str">
         <f>_xll.qlSimpleQuote(E62,,PriceTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDFUT1MV8_Quote#0002</v>
+        <v>HKDFUT1MV8_Quote#0001</v>
       </c>
       <c r="G62" s="61" t="str">
         <f>_xll.ohRangeRetrieveError(F62)</f>
@@ -4274,7 +4255,7 @@
       </c>
       <c r="F63" s="12" t="str">
         <f>_xll.qlSimpleQuote(E63,,PriceTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDFUT1MX8_Quote#0002</v>
+        <v>HKDFUT1MX8_Quote#0001</v>
       </c>
       <c r="G63" s="61" t="str">
         <f>_xll.ohRangeRetrieveError(F63)</f>
@@ -4299,7 +4280,7 @@
       </c>
       <c r="F64" s="12" t="str">
         <f>_xll.qlSimpleQuote(E64,,PriceTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDFUT1MZ8_Quote#0002</v>
+        <v>HKDFUT1MZ8_Quote#0001</v>
       </c>
       <c r="G64" s="61" t="str">
         <f>_xll.ohRangeRetrieveError(F64)</f>
@@ -4324,7 +4305,7 @@
       </c>
       <c r="F65" s="12" t="str">
         <f>_xll.qlSimpleQuote(E65,,PriceTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDFUT1MF9_Quote#0002</v>
+        <v>HKDFUT1MF9_Quote#0001</v>
       </c>
       <c r="G65" s="61" t="str">
         <f>_xll.ohRangeRetrieveError(F65)</f>
@@ -4349,7 +4330,7 @@
       </c>
       <c r="F66" s="12" t="str">
         <f>_xll.qlSimpleQuote(E66,,PriceTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDFUT1MG9_Quote#0002</v>
+        <v>HKDFUT1MG9_Quote#0001</v>
       </c>
       <c r="G66" s="61" t="str">
         <f>_xll.ohRangeRetrieveError(F66)</f>
@@ -4374,7 +4355,7 @@
       </c>
       <c r="F67" s="12" t="str">
         <f>_xll.qlSimpleQuote(E67,,PriceTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDFUT1MH9_Quote#0002</v>
+        <v>HKDFUT1MH9_Quote#0001</v>
       </c>
       <c r="G67" s="61" t="str">
         <f>_xll.ohRangeRetrieveError(F67)</f>
@@ -4399,7 +4380,7 @@
       </c>
       <c r="F68" s="12" t="str">
         <f>_xll.qlSimpleQuote(E68,,PriceTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDFUT1MJ9_Quote#0002</v>
+        <v>HKDFUT1MJ9_Quote#0001</v>
       </c>
       <c r="G68" s="61" t="str">
         <f>_xll.ohRangeRetrieveError(F68)</f>
@@ -4424,7 +4405,7 @@
       </c>
       <c r="F69" s="12" t="str">
         <f>_xll.qlSimpleQuote(E69,,PriceTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDFUT1MK9_Quote#0002</v>
+        <v>HKDFUT1MK9_Quote#0001</v>
       </c>
       <c r="G69" s="61" t="str">
         <f>_xll.ohRangeRetrieveError(F69)</f>
@@ -4449,7 +4430,7 @@
       </c>
       <c r="F70" s="12" t="str">
         <f>_xll.qlSimpleQuote(E70,,PriceTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDFUT1MM9_Quote#0002</v>
+        <v>HKDFUT1MM9_Quote#0001</v>
       </c>
       <c r="G70" s="61" t="str">
         <f>_xll.ohRangeRetrieveError(F70)</f>
@@ -4474,7 +4455,7 @@
       </c>
       <c r="F71" s="12" t="str">
         <f>_xll.qlSimpleQuote(E71,,PriceTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDFUT1MN9_Quote#0002</v>
+        <v>HKDFUT1MN9_Quote#0001</v>
       </c>
       <c r="G71" s="61" t="str">
         <f>_xll.ohRangeRetrieveError(F71)</f>
@@ -4499,7 +4480,7 @@
       </c>
       <c r="F72" s="12" t="str">
         <f>_xll.qlSimpleQuote(E72,,PriceTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDFUT1MQ9_Quote#0002</v>
+        <v>HKDFUT1MQ9_Quote#0001</v>
       </c>
       <c r="G72" s="61" t="str">
         <f>_xll.ohRangeRetrieveError(F72)</f>
@@ -4524,7 +4505,7 @@
       </c>
       <c r="F73" s="12" t="str">
         <f>_xll.qlSimpleQuote(E73,,PriceTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDFUT1MU9_Quote#0002</v>
+        <v>HKDFUT1MU9_Quote#0001</v>
       </c>
       <c r="G73" s="61" t="str">
         <f>_xll.ohRangeRetrieveError(F73)</f>
@@ -4549,7 +4530,7 @@
       </c>
       <c r="F74" s="12" t="str">
         <f>_xll.qlSimpleQuote(E74,,PriceTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDFUT1MV9_Quote#0002</v>
+        <v>HKDFUT1MV9_Quote#0001</v>
       </c>
       <c r="G74" s="61" t="str">
         <f>_xll.ohRangeRetrieveError(F74)</f>
@@ -4574,7 +4555,7 @@
       </c>
       <c r="F75" s="12" t="str">
         <f>_xll.qlSimpleQuote(E75,,PriceTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDFUT1MX9_Quote#0002</v>
+        <v>HKDFUT1MX9_Quote#0001</v>
       </c>
       <c r="G75" s="61" t="str">
         <f>_xll.ohRangeRetrieveError(F75)</f>
@@ -4599,7 +4580,7 @@
       </c>
       <c r="F76" s="12" t="str">
         <f>_xll.qlSimpleQuote(E76,,PriceTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDFUT1MZ9_Quote#0002</v>
+        <v>HKDFUT1MZ9_Quote#0001</v>
       </c>
       <c r="G76" s="61" t="str">
         <f>_xll.ohRangeRetrieveError(F76)</f>
@@ -4624,7 +4605,7 @@
       </c>
       <c r="F77" s="12" t="str">
         <f>_xll.qlSimpleQuote(E77,,PriceTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDFUT1MF0_Quote#0002</v>
+        <v>HKDFUT1MF0_Quote#0001</v>
       </c>
       <c r="G77" s="61" t="str">
         <f>_xll.ohRangeRetrieveError(F77)</f>
@@ -4649,7 +4630,7 @@
       </c>
       <c r="F78" s="12" t="str">
         <f>_xll.qlSimpleQuote(E78,,PriceTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDFUT1MG0_Quote#0002</v>
+        <v>HKDFUT1MG0_Quote#0001</v>
       </c>
       <c r="G78" s="61" t="str">
         <f>_xll.ohRangeRetrieveError(F78)</f>
@@ -4674,7 +4655,7 @@
       </c>
       <c r="F79" s="12" t="str">
         <f>_xll.qlSimpleQuote(E79,,PriceTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDFUT1MH0_Quote#0002</v>
+        <v>HKDFUT1MH0_Quote#0001</v>
       </c>
       <c r="G79" s="61" t="str">
         <f>_xll.ohRangeRetrieveError(F79)</f>
@@ -4699,7 +4680,7 @@
       </c>
       <c r="F80" s="12" t="str">
         <f>_xll.qlSimpleQuote(E80,,PriceTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDFUT1MJ0_Quote#0002</v>
+        <v>HKDFUT1MJ0_Quote#0001</v>
       </c>
       <c r="G80" s="61" t="str">
         <f>_xll.ohRangeRetrieveError(F80)</f>
@@ -4724,7 +4705,7 @@
       </c>
       <c r="F81" s="12" t="str">
         <f>_xll.qlSimpleQuote(E81,,PriceTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDFUT1MK0_Quote#0002</v>
+        <v>HKDFUT1MK0_Quote#0001</v>
       </c>
       <c r="G81" s="61" t="str">
         <f>_xll.ohRangeRetrieveError(F81)</f>
@@ -4749,7 +4730,7 @@
       </c>
       <c r="F82" s="12" t="str">
         <f>_xll.qlSimpleQuote(E82,,PriceTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDFUT1MM0_Quote#0002</v>
+        <v>HKDFUT1MM0_Quote#0001</v>
       </c>
       <c r="G82" s="61" t="str">
         <f>_xll.ohRangeRetrieveError(F82)</f>
@@ -4774,7 +4755,7 @@
       </c>
       <c r="F83" s="12" t="str">
         <f>_xll.qlSimpleQuote(E83,,PriceTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDFUT1MN0_Quote#0002</v>
+        <v>HKDFUT1MN0_Quote#0001</v>
       </c>
       <c r="G83" s="61" t="str">
         <f>_xll.ohRangeRetrieveError(F83)</f>
@@ -4799,7 +4780,7 @@
       </c>
       <c r="F84" s="12" t="str">
         <f>_xll.qlSimpleQuote(E84,,PriceTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDFUT1MQ0_Quote#0002</v>
+        <v>HKDFUT1MQ0_Quote#0001</v>
       </c>
       <c r="G84" s="61" t="str">
         <f>_xll.ohRangeRetrieveError(F84)</f>
@@ -4824,7 +4805,7 @@
       </c>
       <c r="F85" s="12" t="str">
         <f>_xll.qlSimpleQuote(E85,,PriceTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDFUT1MU0_Quote#0002</v>
+        <v>HKDFUT1MU0_Quote#0001</v>
       </c>
       <c r="G85" s="61" t="str">
         <f>_xll.ohRangeRetrieveError(F85)</f>
@@ -4849,7 +4830,7 @@
       </c>
       <c r="F86" s="12" t="str">
         <f>_xll.qlSimpleQuote(E86,,PriceTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDFUT1MV0_Quote#0002</v>
+        <v>HKDFUT1MV0_Quote#0001</v>
       </c>
       <c r="G86" s="61" t="str">
         <f>_xll.ohRangeRetrieveError(F86)</f>
@@ -4874,7 +4855,7 @@
       </c>
       <c r="F87" s="12" t="str">
         <f>_xll.qlSimpleQuote(E87,,PriceTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDFUT1MX0_Quote#0002</v>
+        <v>HKDFUT1MX0_Quote#0001</v>
       </c>
       <c r="G87" s="61" t="str">
         <f>_xll.ohRangeRetrieveError(F87)</f>
@@ -4899,7 +4880,7 @@
       </c>
       <c r="F88" s="12" t="str">
         <f>_xll.qlSimpleQuote(E88,,PriceTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDFUT1MZ0_Quote#0002</v>
+        <v>HKDFUT1MZ0_Quote#0001</v>
       </c>
       <c r="G88" s="61" t="str">
         <f>_xll.ohRangeRetrieveError(F88)</f>
@@ -4924,7 +4905,7 @@
       </c>
       <c r="F89" s="12" t="str">
         <f>_xll.qlSimpleQuote(E89,,PriceTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDFUT1MF1_Quote#0002</v>
+        <v>HKDFUT1MF1_Quote#0001</v>
       </c>
       <c r="G89" s="61" t="str">
         <f>_xll.ohRangeRetrieveError(F89)</f>
@@ -4949,7 +4930,7 @@
       </c>
       <c r="F90" s="12" t="str">
         <f>_xll.qlSimpleQuote(E90,,PriceTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDFUT1MG1_Quote#0002</v>
+        <v>HKDFUT1MG1_Quote#0001</v>
       </c>
       <c r="G90" s="61" t="str">
         <f>_xll.ohRangeRetrieveError(F90)</f>
@@ -4974,7 +4955,7 @@
       </c>
       <c r="F91" s="12" t="str">
         <f>_xll.qlSimpleQuote(E91,,PriceTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDFUT1MH1_Quote#0002</v>
+        <v>HKDFUT1MH1_Quote#0001</v>
       </c>
       <c r="G91" s="61" t="str">
         <f>_xll.ohRangeRetrieveError(F91)</f>
@@ -4999,7 +4980,7 @@
       </c>
       <c r="F92" s="12" t="str">
         <f>_xll.qlSimpleQuote(E92,,PriceTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDFUT1MJ1_Quote#0002</v>
+        <v>HKDFUT1MJ1_Quote#0001</v>
       </c>
       <c r="G92" s="61" t="str">
         <f>_xll.ohRangeRetrieveError(F92)</f>
@@ -5024,7 +5005,7 @@
       </c>
       <c r="F93" s="12" t="str">
         <f>_xll.qlSimpleQuote(E93,,PriceTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDFUT1MK1_Quote#0002</v>
+        <v>HKDFUT1MK1_Quote#0001</v>
       </c>
       <c r="G93" s="61" t="str">
         <f>_xll.ohRangeRetrieveError(F93)</f>
@@ -5049,7 +5030,7 @@
       </c>
       <c r="F94" s="12" t="str">
         <f>_xll.qlSimpleQuote(E94,,PriceTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDFUT1MM1_Quote#0002</v>
+        <v>HKDFUT1MM1_Quote#0001</v>
       </c>
       <c r="G94" s="61" t="str">
         <f>_xll.ohRangeRetrieveError(F94)</f>
@@ -5074,7 +5055,7 @@
       </c>
       <c r="F95" s="12" t="str">
         <f>_xll.qlSimpleQuote(E95,,PriceTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDFUT1MN1_Quote#0002</v>
+        <v>HKDFUT1MN1_Quote#0001</v>
       </c>
       <c r="G95" s="61" t="str">
         <f>_xll.ohRangeRetrieveError(F95)</f>
@@ -5099,7 +5080,7 @@
       </c>
       <c r="F96" s="12" t="str">
         <f>_xll.qlSimpleQuote(E96,,PriceTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDFUT1MQ1_Quote#0002</v>
+        <v>HKDFUT1MQ1_Quote#0001</v>
       </c>
       <c r="G96" s="61" t="str">
         <f>_xll.ohRangeRetrieveError(F96)</f>
@@ -5124,7 +5105,7 @@
       </c>
       <c r="F97" s="12" t="str">
         <f>_xll.qlSimpleQuote(E97,,PriceTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDFUT1MU1_Quote#0002</v>
+        <v>HKDFUT1MU1_Quote#0001</v>
       </c>
       <c r="G97" s="61" t="str">
         <f>_xll.ohRangeRetrieveError(F97)</f>
@@ -5149,7 +5130,7 @@
       </c>
       <c r="F98" s="12" t="str">
         <f>_xll.qlSimpleQuote(E98,,PriceTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDFUT1MV1_Quote#0002</v>
+        <v>HKDFUT1MV1_Quote#0001</v>
       </c>
       <c r="G98" s="61" t="str">
         <f>_xll.ohRangeRetrieveError(F98)</f>
@@ -5174,7 +5155,7 @@
       </c>
       <c r="F99" s="12" t="str">
         <f>_xll.qlSimpleQuote(E99,,PriceTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDFUT1MX1_Quote#0002</v>
+        <v>HKDFUT1MX1_Quote#0001</v>
       </c>
       <c r="G99" s="61" t="str">
         <f>_xll.ohRangeRetrieveError(F99)</f>
@@ -5199,7 +5180,7 @@
       </c>
       <c r="F100" s="12" t="str">
         <f>_xll.qlSimpleQuote(E100,,PriceTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDFUT1MZ1_Quote#0002</v>
+        <v>HKDFUT1MZ1_Quote#0001</v>
       </c>
       <c r="G100" s="61" t="str">
         <f>_xll.ohRangeRetrieveError(F100)</f>
@@ -5224,7 +5205,7 @@
       </c>
       <c r="F101" s="12" t="str">
         <f>_xll.qlSimpleQuote(E101,,PriceTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDFUT1MF2_Quote#0002</v>
+        <v>HKDFUT1MF2_Quote#0001</v>
       </c>
       <c r="G101" s="61" t="str">
         <f>_xll.ohRangeRetrieveError(F101)</f>
@@ -5249,7 +5230,7 @@
       </c>
       <c r="F102" s="12" t="str">
         <f>_xll.qlSimpleQuote(E102,,PriceTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDFUT1MG2_Quote#0002</v>
+        <v>HKDFUT1MG2_Quote#0001</v>
       </c>
       <c r="G102" s="61" t="str">
         <f>_xll.ohRangeRetrieveError(F102)</f>
@@ -5274,7 +5255,7 @@
       </c>
       <c r="F103" s="12" t="str">
         <f>_xll.qlSimpleQuote(E103,,PriceTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDFUT1MH2_Quote#0002</v>
+        <v>HKDFUT1MH2_Quote#0001</v>
       </c>
       <c r="G103" s="61" t="str">
         <f>_xll.ohRangeRetrieveError(F103)</f>
@@ -5299,7 +5280,7 @@
       </c>
       <c r="F104" s="12" t="str">
         <f>_xll.qlSimpleQuote(E104,,PriceTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDFUT1MJ2_Quote#0002</v>
+        <v>HKDFUT1MJ2_Quote#0001</v>
       </c>
       <c r="G104" s="61" t="str">
         <f>_xll.ohRangeRetrieveError(F104)</f>
@@ -5324,7 +5305,7 @@
       </c>
       <c r="F105" s="12" t="str">
         <f>_xll.qlSimpleQuote(E105,,PriceTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDFUT1MK2_Quote#0002</v>
+        <v>HKDFUT1MK2_Quote#0001</v>
       </c>
       <c r="G105" s="61" t="str">
         <f>_xll.ohRangeRetrieveError(F105)</f>
@@ -5349,7 +5330,7 @@
       </c>
       <c r="F106" s="12" t="str">
         <f>_xll.qlSimpleQuote(E106,,PriceTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDFUT1MM2_Quote#0002</v>
+        <v>HKDFUT1MM2_Quote#0001</v>
       </c>
       <c r="G106" s="61" t="str">
         <f>_xll.ohRangeRetrieveError(F106)</f>
@@ -5374,7 +5355,7 @@
       </c>
       <c r="F107" s="12" t="str">
         <f>_xll.qlSimpleQuote(E107,,PriceTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDFUT1MN2_Quote#0002</v>
+        <v>HKDFUT1MN2_Quote#0001</v>
       </c>
       <c r="G107" s="61" t="str">
         <f>_xll.ohRangeRetrieveError(F107)</f>
@@ -5399,7 +5380,7 @@
       </c>
       <c r="F108" s="12" t="str">
         <f>_xll.qlSimpleQuote(E108,,PriceTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDFUT1MQ2_Quote#0002</v>
+        <v>HKDFUT1MQ2_Quote#0001</v>
       </c>
       <c r="G108" s="61" t="str">
         <f>_xll.ohRangeRetrieveError(F108)</f>
@@ -5424,7 +5405,7 @@
       </c>
       <c r="F109" s="12" t="str">
         <f>_xll.qlSimpleQuote(E109,,PriceTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDFUT1MU2_Quote#0002</v>
+        <v>HKDFUT1MU2_Quote#0001</v>
       </c>
       <c r="G109" s="61" t="str">
         <f>_xll.ohRangeRetrieveError(F109)</f>
@@ -5449,7 +5430,7 @@
       </c>
       <c r="F110" s="12" t="str">
         <f>_xll.qlSimpleQuote(E110,,PriceTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDFUT1MV2_Quote#0002</v>
+        <v>HKDFUT1MV2_Quote#0001</v>
       </c>
       <c r="G110" s="61" t="str">
         <f>_xll.ohRangeRetrieveError(F110)</f>
@@ -5474,7 +5455,7 @@
       </c>
       <c r="F111" s="12" t="str">
         <f>_xll.qlSimpleQuote(E111,,PriceTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDFUT1MX2_Quote#0002</v>
+        <v>HKDFUT1MX2_Quote#0001</v>
       </c>
       <c r="G111" s="61" t="str">
         <f>_xll.ohRangeRetrieveError(F111)</f>
@@ -5499,7 +5480,7 @@
       </c>
       <c r="F112" s="12" t="str">
         <f>_xll.qlSimpleQuote(E112,,PriceTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDFUT1MZ2_Quote#0002</v>
+        <v>HKDFUT1MZ2_Quote#0001</v>
       </c>
       <c r="G112" s="61" t="str">
         <f>_xll.ohRangeRetrieveError(F112)</f>
@@ -5524,7 +5505,7 @@
       </c>
       <c r="F113" s="12" t="str">
         <f>_xll.qlSimpleQuote(E113,,PriceTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDFUT1MF3_Quote#0002</v>
+        <v>HKDFUT1MF3_Quote#0001</v>
       </c>
       <c r="G113" s="61" t="str">
         <f>_xll.ohRangeRetrieveError(F113)</f>
@@ -5549,7 +5530,7 @@
       </c>
       <c r="F114" s="12" t="str">
         <f>_xll.qlSimpleQuote(E114,,PriceTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDFUT1MG3_Quote#0002</v>
+        <v>HKDFUT1MG3_Quote#0001</v>
       </c>
       <c r="G114" s="61" t="str">
         <f>_xll.ohRangeRetrieveError(F114)</f>
@@ -5574,7 +5555,7 @@
       </c>
       <c r="F115" s="12" t="str">
         <f>_xll.qlSimpleQuote(E115,,PriceTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDFUT1MH3_Quote#0002</v>
+        <v>HKDFUT1MH3_Quote#0001</v>
       </c>
       <c r="G115" s="61" t="str">
         <f>_xll.ohRangeRetrieveError(F115)</f>
@@ -5599,7 +5580,7 @@
       </c>
       <c r="F116" s="12" t="str">
         <f>_xll.qlSimpleQuote(E116,,PriceTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDFUT1MJ3_Quote#0002</v>
+        <v>HKDFUT1MJ3_Quote#0001</v>
       </c>
       <c r="G116" s="61" t="str">
         <f>_xll.ohRangeRetrieveError(F116)</f>
@@ -5624,7 +5605,7 @@
       </c>
       <c r="F117" s="12" t="str">
         <f>_xll.qlSimpleQuote(E117,,PriceTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDFUT1MK3_Quote#0002</v>
+        <v>HKDFUT1MK3_Quote#0001</v>
       </c>
       <c r="G117" s="61" t="str">
         <f>_xll.ohRangeRetrieveError(F117)</f>
@@ -5649,7 +5630,7 @@
       </c>
       <c r="F118" s="12" t="str">
         <f>_xll.qlSimpleQuote(E118,,PriceTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDFUT1MM3_Quote#0002</v>
+        <v>HKDFUT1MM3_Quote#0001</v>
       </c>
       <c r="G118" s="61" t="str">
         <f>_xll.ohRangeRetrieveError(F118)</f>
@@ -5674,7 +5655,7 @@
       </c>
       <c r="F119" s="12" t="str">
         <f>_xll.qlSimpleQuote(E119,,PriceTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDFUT1MN3_Quote#0002</v>
+        <v>HKDFUT1MN3_Quote#0001</v>
       </c>
       <c r="G119" s="61" t="str">
         <f>_xll.ohRangeRetrieveError(F119)</f>
@@ -5699,7 +5680,7 @@
       </c>
       <c r="F120" s="12" t="str">
         <f>_xll.qlSimpleQuote(E120,,PriceTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDFUT1MQ3_Quote#0002</v>
+        <v>HKDFUT1MQ3_Quote#0001</v>
       </c>
       <c r="G120" s="61" t="str">
         <f>_xll.ohRangeRetrieveError(F120)</f>
@@ -5724,7 +5705,7 @@
       </c>
       <c r="F121" s="12" t="str">
         <f>_xll.qlSimpleQuote(E121,,PriceTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDFUT1MU3_Quote#0002</v>
+        <v>HKDFUT1MU3_Quote#0001</v>
       </c>
       <c r="G121" s="61" t="str">
         <f>_xll.ohRangeRetrieveError(F121)</f>
@@ -5749,7 +5730,7 @@
       </c>
       <c r="F122" s="12" t="str">
         <f>_xll.qlSimpleQuote(E122,,PriceTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDFUT1MV3_Quote#0002</v>
+        <v>HKDFUT1MV3_Quote#0001</v>
       </c>
       <c r="G122" s="61" t="str">
         <f>_xll.ohRangeRetrieveError(F122)</f>
@@ -5826,13 +5807,13 @@
         <f>Currency&amp;"_010_"&amp;$D$1&amp;$E$1&amp;".xml"</f>
         <v>HKD_010_FUT3M.xml</v>
       </c>
-      <c r="F2" s="64">
+      <c r="F2" s="64" t="e">
         <f>IF(Serialize,_xll.ohObjectSave(F3:F122,SerializationPath&amp;E2,FileOverwrite,Serialize),"---")</f>
-        <v>120</v>
+        <v>#NUM!</v>
       </c>
       <c r="G2" s="65" t="str">
-        <f>_xll.ohRangeRetrieveError(F2)</f>
-        <v/>
+        <f ca="1">_xll.ohRangeRetrieveError(F2)</f>
+        <v>ohObjectSave - Invalid parent path : C:\Projects\quantlib\QuantLibXL\Data\XML\020_YieldCurveBootstrap\010_Quotes\HKD_010_FUT3M.xml</v>
       </c>
       <c r="H2" s="55"/>
     </row>
@@ -5854,7 +5835,7 @@
       </c>
       <c r="F3" s="41" t="str">
         <f>_xll.qlSimpleQuote(E3,,PriceTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDFUT3MX3_Quote#0002</v>
+        <v>HKDFUT3MX3_Quote#0001</v>
       </c>
       <c r="G3" s="60" t="str">
         <f>_xll.ohRangeRetrieveError(F3)</f>
@@ -5879,7 +5860,7 @@
       </c>
       <c r="F4" s="12" t="str">
         <f>_xll.qlSimpleQuote(E4,,PriceTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDFUT3MZ3_Quote#0002</v>
+        <v>HKDFUT3MZ3_Quote#0001</v>
       </c>
       <c r="G4" s="61" t="str">
         <f>_xll.ohRangeRetrieveError(F4)</f>
@@ -5904,7 +5885,7 @@
       </c>
       <c r="F5" s="12" t="str">
         <f>_xll.qlSimpleQuote(E5,,PriceTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDFUT3MF4_Quote#0002</v>
+        <v>HKDFUT3MF4_Quote#0001</v>
       </c>
       <c r="G5" s="61" t="str">
         <f>_xll.ohRangeRetrieveError(F5)</f>
@@ -5929,7 +5910,7 @@
       </c>
       <c r="F6" s="12" t="str">
         <f>_xll.qlSimpleQuote(E6,,PriceTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDFUT3MG4_Quote#0002</v>
+        <v>HKDFUT3MG4_Quote#0001</v>
       </c>
       <c r="G6" s="61" t="str">
         <f>_xll.ohRangeRetrieveError(F6)</f>
@@ -5954,7 +5935,7 @@
       </c>
       <c r="F7" s="12" t="str">
         <f>_xll.qlSimpleQuote(E7,,PriceTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDFUT3MH4_Quote#0002</v>
+        <v>HKDFUT3MH4_Quote#0001</v>
       </c>
       <c r="G7" s="61" t="str">
         <f>_xll.ohRangeRetrieveError(F7)</f>
@@ -5979,7 +5960,7 @@
       </c>
       <c r="F8" s="12" t="str">
         <f>_xll.qlSimpleQuote(E8,,PriceTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDFUT3MJ4_Quote#0002</v>
+        <v>HKDFUT3MJ4_Quote#0001</v>
       </c>
       <c r="G8" s="61" t="str">
         <f>_xll.ohRangeRetrieveError(F8)</f>
@@ -6004,7 +5985,7 @@
       </c>
       <c r="F9" s="12" t="str">
         <f>_xll.qlSimpleQuote(E9,,PriceTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDFUT3MK4_Quote#0002</v>
+        <v>HKDFUT3MK4_Quote#0001</v>
       </c>
       <c r="G9" s="61" t="str">
         <f>_xll.ohRangeRetrieveError(F9)</f>
@@ -6029,7 +6010,7 @@
       </c>
       <c r="F10" s="12" t="str">
         <f>_xll.qlSimpleQuote(E10,,PriceTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDFUT3MM4_Quote#0002</v>
+        <v>HKDFUT3MM4_Quote#0001</v>
       </c>
       <c r="G10" s="61" t="str">
         <f>_xll.ohRangeRetrieveError(F10)</f>
@@ -6054,7 +6035,7 @@
       </c>
       <c r="F11" s="12" t="str">
         <f>_xll.qlSimpleQuote(E11,,PriceTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDFUT3MN4_Quote#0002</v>
+        <v>HKDFUT3MN4_Quote#0001</v>
       </c>
       <c r="G11" s="61" t="str">
         <f>_xll.ohRangeRetrieveError(F11)</f>
@@ -6079,7 +6060,7 @@
       </c>
       <c r="F12" s="12" t="str">
         <f>_xll.qlSimpleQuote(E12,,PriceTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDFUT3MQ4_Quote#0002</v>
+        <v>HKDFUT3MQ4_Quote#0001</v>
       </c>
       <c r="G12" s="61" t="str">
         <f>_xll.ohRangeRetrieveError(F12)</f>
@@ -6104,7 +6085,7 @@
       </c>
       <c r="F13" s="12" t="str">
         <f>_xll.qlSimpleQuote(E13,,PriceTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDFUT3MU4_Quote#0002</v>
+        <v>HKDFUT3MU4_Quote#0001</v>
       </c>
       <c r="G13" s="61" t="str">
         <f>_xll.ohRangeRetrieveError(F13)</f>
@@ -6129,7 +6110,7 @@
       </c>
       <c r="F14" s="12" t="str">
         <f>_xll.qlSimpleQuote(E14,,PriceTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDFUT3MV4_Quote#0002</v>
+        <v>HKDFUT3MV4_Quote#0001</v>
       </c>
       <c r="G14" s="61" t="str">
         <f>_xll.ohRangeRetrieveError(F14)</f>
@@ -6154,7 +6135,7 @@
       </c>
       <c r="F15" s="12" t="str">
         <f>_xll.qlSimpleQuote(E15,,PriceTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDFUT3MX4_Quote#0002</v>
+        <v>HKDFUT3MX4_Quote#0001</v>
       </c>
       <c r="G15" s="61" t="str">
         <f>_xll.ohRangeRetrieveError(F15)</f>
@@ -6179,7 +6160,7 @@
       </c>
       <c r="F16" s="12" t="str">
         <f>_xll.qlSimpleQuote(E16,,PriceTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDFUT3MZ4_Quote#0002</v>
+        <v>HKDFUT3MZ4_Quote#0001</v>
       </c>
       <c r="G16" s="61" t="str">
         <f>_xll.ohRangeRetrieveError(F16)</f>
@@ -6204,7 +6185,7 @@
       </c>
       <c r="F17" s="12" t="str">
         <f>_xll.qlSimpleQuote(E17,,PriceTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDFUT3MF5_Quote#0002</v>
+        <v>HKDFUT3MF5_Quote#0001</v>
       </c>
       <c r="G17" s="61" t="str">
         <f>_xll.ohRangeRetrieveError(F17)</f>
@@ -6229,7 +6210,7 @@
       </c>
       <c r="F18" s="12" t="str">
         <f>_xll.qlSimpleQuote(E18,,PriceTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDFUT3MG5_Quote#0002</v>
+        <v>HKDFUT3MG5_Quote#0001</v>
       </c>
       <c r="G18" s="61" t="str">
         <f>_xll.ohRangeRetrieveError(F18)</f>
@@ -6254,7 +6235,7 @@
       </c>
       <c r="F19" s="12" t="str">
         <f>_xll.qlSimpleQuote(E19,,PriceTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDFUT3MH5_Quote#0002</v>
+        <v>HKDFUT3MH5_Quote#0001</v>
       </c>
       <c r="G19" s="61" t="str">
         <f>_xll.ohRangeRetrieveError(F19)</f>
@@ -6279,7 +6260,7 @@
       </c>
       <c r="F20" s="12" t="str">
         <f>_xll.qlSimpleQuote(E20,,PriceTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDFUT3MJ5_Quote#0002</v>
+        <v>HKDFUT3MJ5_Quote#0001</v>
       </c>
       <c r="G20" s="61" t="str">
         <f>_xll.ohRangeRetrieveError(F20)</f>
@@ -6304,7 +6285,7 @@
       </c>
       <c r="F21" s="12" t="str">
         <f>_xll.qlSimpleQuote(E21,,PriceTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDFUT3MK5_Quote#0002</v>
+        <v>HKDFUT3MK5_Quote#0001</v>
       </c>
       <c r="G21" s="61" t="str">
         <f>_xll.ohRangeRetrieveError(F21)</f>
@@ -6329,7 +6310,7 @@
       </c>
       <c r="F22" s="12" t="str">
         <f>_xll.qlSimpleQuote(E22,,PriceTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDFUT3MM5_Quote#0002</v>
+        <v>HKDFUT3MM5_Quote#0001</v>
       </c>
       <c r="G22" s="61" t="str">
         <f>_xll.ohRangeRetrieveError(F22)</f>
@@ -6354,7 +6335,7 @@
       </c>
       <c r="F23" s="12" t="str">
         <f>_xll.qlSimpleQuote(E23,,PriceTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDFUT3MN5_Quote#0002</v>
+        <v>HKDFUT3MN5_Quote#0001</v>
       </c>
       <c r="G23" s="61" t="str">
         <f>_xll.ohRangeRetrieveError(F23)</f>
@@ -6379,7 +6360,7 @@
       </c>
       <c r="F24" s="12" t="str">
         <f>_xll.qlSimpleQuote(E24,,PriceTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDFUT3MQ5_Quote#0002</v>
+        <v>HKDFUT3MQ5_Quote#0001</v>
       </c>
       <c r="G24" s="61" t="str">
         <f>_xll.ohRangeRetrieveError(F24)</f>
@@ -6404,7 +6385,7 @@
       </c>
       <c r="F25" s="12" t="str">
         <f>_xll.qlSimpleQuote(E25,,PriceTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDFUT3MU5_Quote#0002</v>
+        <v>HKDFUT3MU5_Quote#0001</v>
       </c>
       <c r="G25" s="61" t="str">
         <f>_xll.ohRangeRetrieveError(F25)</f>
@@ -6429,7 +6410,7 @@
       </c>
       <c r="F26" s="12" t="str">
         <f>_xll.qlSimpleQuote(E26,,PriceTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDFUT3MV5_Quote#0002</v>
+        <v>HKDFUT3MV5_Quote#0001</v>
       </c>
       <c r="G26" s="61" t="str">
         <f>_xll.ohRangeRetrieveError(F26)</f>
@@ -6454,7 +6435,7 @@
       </c>
       <c r="F27" s="12" t="str">
         <f>_xll.qlSimpleQuote(E27,,PriceTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDFUT3MX5_Quote#0002</v>
+        <v>HKDFUT3MX5_Quote#0001</v>
       </c>
       <c r="G27" s="61" t="str">
         <f>_xll.ohRangeRetrieveError(F27)</f>
@@ -6479,7 +6460,7 @@
       </c>
       <c r="F28" s="12" t="str">
         <f>_xll.qlSimpleQuote(E28,,PriceTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDFUT3MZ5_Quote#0002</v>
+        <v>HKDFUT3MZ5_Quote#0001</v>
       </c>
       <c r="G28" s="61" t="str">
         <f>_xll.ohRangeRetrieveError(F28)</f>
@@ -6504,7 +6485,7 @@
       </c>
       <c r="F29" s="12" t="str">
         <f>_xll.qlSimpleQuote(E29,,PriceTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDFUT3MF6_Quote#0002</v>
+        <v>HKDFUT3MF6_Quote#0001</v>
       </c>
       <c r="G29" s="61" t="str">
         <f>_xll.ohRangeRetrieveError(F29)</f>
@@ -6529,7 +6510,7 @@
       </c>
       <c r="F30" s="12" t="str">
         <f>_xll.qlSimpleQuote(E30,,PriceTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDFUT3MG6_Quote#0002</v>
+        <v>HKDFUT3MG6_Quote#0001</v>
       </c>
       <c r="G30" s="61" t="str">
         <f>_xll.ohRangeRetrieveError(F30)</f>
@@ -6554,7 +6535,7 @@
       </c>
       <c r="F31" s="12" t="str">
         <f>_xll.qlSimpleQuote(E31,,PriceTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDFUT3MH6_Quote#0002</v>
+        <v>HKDFUT3MH6_Quote#0001</v>
       </c>
       <c r="G31" s="61" t="str">
         <f>_xll.ohRangeRetrieveError(F31)</f>
@@ -6579,7 +6560,7 @@
       </c>
       <c r="F32" s="12" t="str">
         <f>_xll.qlSimpleQuote(E32,,PriceTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDFUT3MJ6_Quote#0002</v>
+        <v>HKDFUT3MJ6_Quote#0001</v>
       </c>
       <c r="G32" s="61" t="str">
         <f>_xll.ohRangeRetrieveError(F32)</f>
@@ -6604,7 +6585,7 @@
       </c>
       <c r="F33" s="12" t="str">
         <f>_xll.qlSimpleQuote(E33,,PriceTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDFUT3MK6_Quote#0002</v>
+        <v>HKDFUT3MK6_Quote#0001</v>
       </c>
       <c r="G33" s="61" t="str">
         <f>_xll.ohRangeRetrieveError(F33)</f>
@@ -6629,7 +6610,7 @@
       </c>
       <c r="F34" s="12" t="str">
         <f>_xll.qlSimpleQuote(E34,,PriceTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDFUT3MM6_Quote#0002</v>
+        <v>HKDFUT3MM6_Quote#0001</v>
       </c>
       <c r="G34" s="61" t="str">
         <f>_xll.ohRangeRetrieveError(F34)</f>
@@ -6654,7 +6635,7 @@
       </c>
       <c r="F35" s="12" t="str">
         <f>_xll.qlSimpleQuote(E35,,PriceTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDFUT3MN6_Quote#0002</v>
+        <v>HKDFUT3MN6_Quote#0001</v>
       </c>
       <c r="G35" s="61" t="str">
         <f>_xll.ohRangeRetrieveError(F35)</f>
@@ -6679,7 +6660,7 @@
       </c>
       <c r="F36" s="12" t="str">
         <f>_xll.qlSimpleQuote(E36,,PriceTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDFUT3MQ6_Quote#0002</v>
+        <v>HKDFUT3MQ6_Quote#0001</v>
       </c>
       <c r="G36" s="61" t="str">
         <f>_xll.ohRangeRetrieveError(F36)</f>
@@ -6704,7 +6685,7 @@
       </c>
       <c r="F37" s="12" t="str">
         <f>_xll.qlSimpleQuote(E37,,PriceTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDFUT3MU6_Quote#0002</v>
+        <v>HKDFUT3MU6_Quote#0001</v>
       </c>
       <c r="G37" s="61" t="str">
         <f>_xll.ohRangeRetrieveError(F37)</f>
@@ -6729,7 +6710,7 @@
       </c>
       <c r="F38" s="12" t="str">
         <f>_xll.qlSimpleQuote(E38,,PriceTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDFUT3MV6_Quote#0002</v>
+        <v>HKDFUT3MV6_Quote#0001</v>
       </c>
       <c r="G38" s="61" t="str">
         <f>_xll.ohRangeRetrieveError(F38)</f>
@@ -6754,7 +6735,7 @@
       </c>
       <c r="F39" s="12" t="str">
         <f>_xll.qlSimpleQuote(E39,,PriceTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDFUT3MX6_Quote#0002</v>
+        <v>HKDFUT3MX6_Quote#0001</v>
       </c>
       <c r="G39" s="61" t="str">
         <f>_xll.ohRangeRetrieveError(F39)</f>
@@ -6779,7 +6760,7 @@
       </c>
       <c r="F40" s="12" t="str">
         <f>_xll.qlSimpleQuote(E40,,PriceTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDFUT3MZ6_Quote#0002</v>
+        <v>HKDFUT3MZ6_Quote#0001</v>
       </c>
       <c r="G40" s="61" t="str">
         <f>_xll.ohRangeRetrieveError(F40)</f>
@@ -6804,7 +6785,7 @@
       </c>
       <c r="F41" s="12" t="str">
         <f>_xll.qlSimpleQuote(E41,,PriceTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDFUT3MF7_Quote#0002</v>
+        <v>HKDFUT3MF7_Quote#0001</v>
       </c>
       <c r="G41" s="61" t="str">
         <f>_xll.ohRangeRetrieveError(F41)</f>
@@ -6829,7 +6810,7 @@
       </c>
       <c r="F42" s="12" t="str">
         <f>_xll.qlSimpleQuote(E42,,PriceTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDFUT3MG7_Quote#0002</v>
+        <v>HKDFUT3MG7_Quote#0001</v>
       </c>
       <c r="G42" s="61" t="str">
         <f>_xll.ohRangeRetrieveError(F42)</f>
@@ -6854,7 +6835,7 @@
       </c>
       <c r="F43" s="12" t="str">
         <f>_xll.qlSimpleQuote(E43,,PriceTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDFUT3MH7_Quote#0002</v>
+        <v>HKDFUT3MH7_Quote#0001</v>
       </c>
       <c r="G43" s="61" t="str">
         <f>_xll.ohRangeRetrieveError(F43)</f>
@@ -6879,7 +6860,7 @@
       </c>
       <c r="F44" s="12" t="str">
         <f>_xll.qlSimpleQuote(E44,,PriceTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDFUT3MJ7_Quote#0002</v>
+        <v>HKDFUT3MJ7_Quote#0001</v>
       </c>
       <c r="G44" s="61" t="str">
         <f>_xll.ohRangeRetrieveError(F44)</f>
@@ -6904,7 +6885,7 @@
       </c>
       <c r="F45" s="12" t="str">
         <f>_xll.qlSimpleQuote(E45,,PriceTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDFUT3MK7_Quote#0002</v>
+        <v>HKDFUT3MK7_Quote#0001</v>
       </c>
       <c r="G45" s="61" t="str">
         <f>_xll.ohRangeRetrieveError(F45)</f>
@@ -6929,7 +6910,7 @@
       </c>
       <c r="F46" s="12" t="str">
         <f>_xll.qlSimpleQuote(E46,,PriceTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDFUT3MM7_Quote#0002</v>
+        <v>HKDFUT3MM7_Quote#0001</v>
       </c>
       <c r="G46" s="61" t="str">
         <f>_xll.ohRangeRetrieveError(F46)</f>
@@ -6954,7 +6935,7 @@
       </c>
       <c r="F47" s="12" t="str">
         <f>_xll.qlSimpleQuote(E47,,PriceTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDFUT3MN7_Quote#0002</v>
+        <v>HKDFUT3MN7_Quote#0001</v>
       </c>
       <c r="G47" s="61" t="str">
         <f>_xll.ohRangeRetrieveError(F47)</f>
@@ -6979,7 +6960,7 @@
       </c>
       <c r="F48" s="12" t="str">
         <f>_xll.qlSimpleQuote(E48,,PriceTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDFUT3MQ7_Quote#0002</v>
+        <v>HKDFUT3MQ7_Quote#0001</v>
       </c>
       <c r="G48" s="61" t="str">
         <f>_xll.ohRangeRetrieveError(F48)</f>
@@ -7004,7 +6985,7 @@
       </c>
       <c r="F49" s="12" t="str">
         <f>_xll.qlSimpleQuote(E49,,PriceTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDFUT3MU7_Quote#0002</v>
+        <v>HKDFUT3MU7_Quote#0001</v>
       </c>
       <c r="G49" s="61" t="str">
         <f>_xll.ohRangeRetrieveError(F49)</f>
@@ -7029,7 +7010,7 @@
       </c>
       <c r="F50" s="12" t="str">
         <f>_xll.qlSimpleQuote(E50,,PriceTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDFUT3MV7_Quote#0002</v>
+        <v>HKDFUT3MV7_Quote#0001</v>
       </c>
       <c r="G50" s="61" t="str">
         <f>_xll.ohRangeRetrieveError(F50)</f>
@@ -7054,7 +7035,7 @@
       </c>
       <c r="F51" s="12" t="str">
         <f>_xll.qlSimpleQuote(E51,,PriceTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDFUT3MX7_Quote#0002</v>
+        <v>HKDFUT3MX7_Quote#0001</v>
       </c>
       <c r="G51" s="61" t="str">
         <f>_xll.ohRangeRetrieveError(F51)</f>
@@ -7079,7 +7060,7 @@
       </c>
       <c r="F52" s="12" t="str">
         <f>_xll.qlSimpleQuote(E52,,PriceTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDFUT3MZ7_Quote#0002</v>
+        <v>HKDFUT3MZ7_Quote#0001</v>
       </c>
       <c r="G52" s="61" t="str">
         <f>_xll.ohRangeRetrieveError(F52)</f>
@@ -7104,7 +7085,7 @@
       </c>
       <c r="F53" s="12" t="str">
         <f>_xll.qlSimpleQuote(E53,,PriceTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDFUT3MF8_Quote#0002</v>
+        <v>HKDFUT3MF8_Quote#0001</v>
       </c>
       <c r="G53" s="61" t="str">
         <f>_xll.ohRangeRetrieveError(F53)</f>
@@ -7129,7 +7110,7 @@
       </c>
       <c r="F54" s="12" t="str">
         <f>_xll.qlSimpleQuote(E54,,PriceTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDFUT3MG8_Quote#0002</v>
+        <v>HKDFUT3MG8_Quote#0001</v>
       </c>
       <c r="G54" s="61" t="str">
         <f>_xll.ohRangeRetrieveError(F54)</f>
@@ -7154,7 +7135,7 @@
       </c>
       <c r="F55" s="12" t="str">
         <f>_xll.qlSimpleQuote(E55,,PriceTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDFUT3MH8_Quote#0002</v>
+        <v>HKDFUT3MH8_Quote#0001</v>
       </c>
       <c r="G55" s="61" t="str">
         <f>_xll.ohRangeRetrieveError(F55)</f>
@@ -7179,7 +7160,7 @@
       </c>
       <c r="F56" s="12" t="str">
         <f>_xll.qlSimpleQuote(E56,,PriceTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDFUT3MJ8_Quote#0002</v>
+        <v>HKDFUT3MJ8_Quote#0001</v>
       </c>
       <c r="G56" s="61" t="str">
         <f>_xll.ohRangeRetrieveError(F56)</f>
@@ -7204,7 +7185,7 @@
       </c>
       <c r="F57" s="12" t="str">
         <f>_xll.qlSimpleQuote(E57,,PriceTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDFUT3MK8_Quote#0002</v>
+        <v>HKDFUT3MK8_Quote#0001</v>
       </c>
       <c r="G57" s="61" t="str">
         <f>_xll.ohRangeRetrieveError(F57)</f>
@@ -7229,7 +7210,7 @@
       </c>
       <c r="F58" s="12" t="str">
         <f>_xll.qlSimpleQuote(E58,,PriceTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDFUT3MM8_Quote#0002</v>
+        <v>HKDFUT3MM8_Quote#0001</v>
       </c>
       <c r="G58" s="61" t="str">
         <f>_xll.ohRangeRetrieveError(F58)</f>
@@ -7254,7 +7235,7 @@
       </c>
       <c r="F59" s="12" t="str">
         <f>_xll.qlSimpleQuote(E59,,PriceTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDFUT3MN8_Quote#0002</v>
+        <v>HKDFUT3MN8_Quote#0001</v>
       </c>
       <c r="G59" s="61" t="str">
         <f>_xll.ohRangeRetrieveError(F59)</f>
@@ -7279,7 +7260,7 @@
       </c>
       <c r="F60" s="12" t="str">
         <f>_xll.qlSimpleQuote(E60,,PriceTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDFUT3MQ8_Quote#0002</v>
+        <v>HKDFUT3MQ8_Quote#0001</v>
       </c>
       <c r="G60" s="61" t="str">
         <f>_xll.ohRangeRetrieveError(F60)</f>
@@ -7304,7 +7285,7 @@
       </c>
       <c r="F61" s="12" t="str">
         <f>_xll.qlSimpleQuote(E61,,PriceTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDFUT3MU8_Quote#0002</v>
+        <v>HKDFUT3MU8_Quote#0001</v>
       </c>
       <c r="G61" s="61" t="str">
         <f>_xll.ohRangeRetrieveError(F61)</f>
@@ -7329,7 +7310,7 @@
       </c>
       <c r="F62" s="12" t="str">
         <f>_xll.qlSimpleQuote(E62,,PriceTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDFUT3MV8_Quote#0002</v>
+        <v>HKDFUT3MV8_Quote#0001</v>
       </c>
       <c r="G62" s="61" t="str">
         <f>_xll.ohRangeRetrieveError(F62)</f>
@@ -7354,7 +7335,7 @@
       </c>
       <c r="F63" s="12" t="str">
         <f>_xll.qlSimpleQuote(E63,,PriceTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDFUT3MX8_Quote#0002</v>
+        <v>HKDFUT3MX8_Quote#0001</v>
       </c>
       <c r="G63" s="61" t="str">
         <f>_xll.ohRangeRetrieveError(F63)</f>
@@ -7379,7 +7360,7 @@
       </c>
       <c r="F64" s="12" t="str">
         <f>_xll.qlSimpleQuote(E64,,PriceTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDFUT3MZ8_Quote#0002</v>
+        <v>HKDFUT3MZ8_Quote#0001</v>
       </c>
       <c r="G64" s="61" t="str">
         <f>_xll.ohRangeRetrieveError(F64)</f>
@@ -7404,7 +7385,7 @@
       </c>
       <c r="F65" s="12" t="str">
         <f>_xll.qlSimpleQuote(E65,,PriceTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDFUT3MF9_Quote#0002</v>
+        <v>HKDFUT3MF9_Quote#0001</v>
       </c>
       <c r="G65" s="61" t="str">
         <f>_xll.ohRangeRetrieveError(F65)</f>
@@ -7429,7 +7410,7 @@
       </c>
       <c r="F66" s="12" t="str">
         <f>_xll.qlSimpleQuote(E66,,PriceTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDFUT3MG9_Quote#0002</v>
+        <v>HKDFUT3MG9_Quote#0001</v>
       </c>
       <c r="G66" s="61" t="str">
         <f>_xll.ohRangeRetrieveError(F66)</f>
@@ -7454,7 +7435,7 @@
       </c>
       <c r="F67" s="12" t="str">
         <f>_xll.qlSimpleQuote(E67,,PriceTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDFUT3MH9_Quote#0002</v>
+        <v>HKDFUT3MH9_Quote#0001</v>
       </c>
       <c r="G67" s="61" t="str">
         <f>_xll.ohRangeRetrieveError(F67)</f>
@@ -7479,7 +7460,7 @@
       </c>
       <c r="F68" s="12" t="str">
         <f>_xll.qlSimpleQuote(E68,,PriceTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDFUT3MJ9_Quote#0002</v>
+        <v>HKDFUT3MJ9_Quote#0001</v>
       </c>
       <c r="G68" s="61" t="str">
         <f>_xll.ohRangeRetrieveError(F68)</f>
@@ -7504,7 +7485,7 @@
       </c>
       <c r="F69" s="12" t="str">
         <f>_xll.qlSimpleQuote(E69,,PriceTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDFUT3MK9_Quote#0002</v>
+        <v>HKDFUT3MK9_Quote#0001</v>
       </c>
       <c r="G69" s="61" t="str">
         <f>_xll.ohRangeRetrieveError(F69)</f>
@@ -7529,7 +7510,7 @@
       </c>
       <c r="F70" s="12" t="str">
         <f>_xll.qlSimpleQuote(E70,,PriceTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDFUT3MM9_Quote#0002</v>
+        <v>HKDFUT3MM9_Quote#0001</v>
       </c>
       <c r="G70" s="61" t="str">
         <f>_xll.ohRangeRetrieveError(F70)</f>
@@ -7554,7 +7535,7 @@
       </c>
       <c r="F71" s="12" t="str">
         <f>_xll.qlSimpleQuote(E71,,PriceTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDFUT3MN9_Quote#0002</v>
+        <v>HKDFUT3MN9_Quote#0001</v>
       </c>
       <c r="G71" s="61" t="str">
         <f>_xll.ohRangeRetrieveError(F71)</f>
@@ -7579,7 +7560,7 @@
       </c>
       <c r="F72" s="12" t="str">
         <f>_xll.qlSimpleQuote(E72,,PriceTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDFUT3MQ9_Quote#0002</v>
+        <v>HKDFUT3MQ9_Quote#0001</v>
       </c>
       <c r="G72" s="61" t="str">
         <f>_xll.ohRangeRetrieveError(F72)</f>
@@ -7604,7 +7585,7 @@
       </c>
       <c r="F73" s="12" t="str">
         <f>_xll.qlSimpleQuote(E73,,PriceTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDFUT3MU9_Quote#0002</v>
+        <v>HKDFUT3MU9_Quote#0001</v>
       </c>
       <c r="G73" s="61" t="str">
         <f>_xll.ohRangeRetrieveError(F73)</f>
@@ -7629,7 +7610,7 @@
       </c>
       <c r="F74" s="12" t="str">
         <f>_xll.qlSimpleQuote(E74,,PriceTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDFUT3MV9_Quote#0002</v>
+        <v>HKDFUT3MV9_Quote#0001</v>
       </c>
       <c r="G74" s="61" t="str">
         <f>_xll.ohRangeRetrieveError(F74)</f>
@@ -7654,7 +7635,7 @@
       </c>
       <c r="F75" s="12" t="str">
         <f>_xll.qlSimpleQuote(E75,,PriceTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDFUT3MX9_Quote#0002</v>
+        <v>HKDFUT3MX9_Quote#0001</v>
       </c>
       <c r="G75" s="61" t="str">
         <f>_xll.ohRangeRetrieveError(F75)</f>
@@ -7679,7 +7660,7 @@
       </c>
       <c r="F76" s="12" t="str">
         <f>_xll.qlSimpleQuote(E76,,PriceTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDFUT3MZ9_Quote#0002</v>
+        <v>HKDFUT3MZ9_Quote#0001</v>
       </c>
       <c r="G76" s="61" t="str">
         <f>_xll.ohRangeRetrieveError(F76)</f>
@@ -7704,7 +7685,7 @@
       </c>
       <c r="F77" s="12" t="str">
         <f>_xll.qlSimpleQuote(E77,,PriceTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDFUT3MF0_Quote#0002</v>
+        <v>HKDFUT3MF0_Quote#0001</v>
       </c>
       <c r="G77" s="61" t="str">
         <f>_xll.ohRangeRetrieveError(F77)</f>
@@ -7729,7 +7710,7 @@
       </c>
       <c r="F78" s="12" t="str">
         <f>_xll.qlSimpleQuote(E78,,PriceTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDFUT3MG0_Quote#0002</v>
+        <v>HKDFUT3MG0_Quote#0001</v>
       </c>
       <c r="G78" s="61" t="str">
         <f>_xll.ohRangeRetrieveError(F78)</f>
@@ -7754,7 +7735,7 @@
       </c>
       <c r="F79" s="12" t="str">
         <f>_xll.qlSimpleQuote(E79,,PriceTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDFUT3MH0_Quote#0002</v>
+        <v>HKDFUT3MH0_Quote#0001</v>
       </c>
       <c r="G79" s="61" t="str">
         <f>_xll.ohRangeRetrieveError(F79)</f>
@@ -7779,7 +7760,7 @@
       </c>
       <c r="F80" s="12" t="str">
         <f>_xll.qlSimpleQuote(E80,,PriceTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDFUT3MJ0_Quote#0002</v>
+        <v>HKDFUT3MJ0_Quote#0001</v>
       </c>
       <c r="G80" s="61" t="str">
         <f>_xll.ohRangeRetrieveError(F80)</f>
@@ -7804,7 +7785,7 @@
       </c>
       <c r="F81" s="12" t="str">
         <f>_xll.qlSimpleQuote(E81,,PriceTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDFUT3MK0_Quote#0002</v>
+        <v>HKDFUT3MK0_Quote#0001</v>
       </c>
       <c r="G81" s="61" t="str">
         <f>_xll.ohRangeRetrieveError(F81)</f>
@@ -7829,7 +7810,7 @@
       </c>
       <c r="F82" s="12" t="str">
         <f>_xll.qlSimpleQuote(E82,,PriceTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDFUT3MM0_Quote#0002</v>
+        <v>HKDFUT3MM0_Quote#0001</v>
       </c>
       <c r="G82" s="61" t="str">
         <f>_xll.ohRangeRetrieveError(F82)</f>
@@ -7854,7 +7835,7 @@
       </c>
       <c r="F83" s="12" t="str">
         <f>_xll.qlSimpleQuote(E83,,PriceTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDFUT3MN0_Quote#0002</v>
+        <v>HKDFUT3MN0_Quote#0001</v>
       </c>
       <c r="G83" s="61" t="str">
         <f>_xll.ohRangeRetrieveError(F83)</f>
@@ -7879,7 +7860,7 @@
       </c>
       <c r="F84" s="12" t="str">
         <f>_xll.qlSimpleQuote(E84,,PriceTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDFUT3MQ0_Quote#0002</v>
+        <v>HKDFUT3MQ0_Quote#0001</v>
       </c>
       <c r="G84" s="61" t="str">
         <f>_xll.ohRangeRetrieveError(F84)</f>
@@ -7904,7 +7885,7 @@
       </c>
       <c r="F85" s="12" t="str">
         <f>_xll.qlSimpleQuote(E85,,PriceTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDFUT3MU0_Quote#0002</v>
+        <v>HKDFUT3MU0_Quote#0001</v>
       </c>
       <c r="G85" s="61" t="str">
         <f>_xll.ohRangeRetrieveError(F85)</f>
@@ -7929,7 +7910,7 @@
       </c>
       <c r="F86" s="12" t="str">
         <f>_xll.qlSimpleQuote(E86,,PriceTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDFUT3MV0_Quote#0002</v>
+        <v>HKDFUT3MV0_Quote#0001</v>
       </c>
       <c r="G86" s="61" t="str">
         <f>_xll.ohRangeRetrieveError(F86)</f>
@@ -7954,7 +7935,7 @@
       </c>
       <c r="F87" s="12" t="str">
         <f>_xll.qlSimpleQuote(E87,,PriceTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDFUT3MX0_Quote#0002</v>
+        <v>HKDFUT3MX0_Quote#0001</v>
       </c>
       <c r="G87" s="61" t="str">
         <f>_xll.ohRangeRetrieveError(F87)</f>
@@ -7979,7 +7960,7 @@
       </c>
       <c r="F88" s="12" t="str">
         <f>_xll.qlSimpleQuote(E88,,PriceTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDFUT3MZ0_Quote#0002</v>
+        <v>HKDFUT3MZ0_Quote#0001</v>
       </c>
       <c r="G88" s="61" t="str">
         <f>_xll.ohRangeRetrieveError(F88)</f>
@@ -8004,7 +7985,7 @@
       </c>
       <c r="F89" s="12" t="str">
         <f>_xll.qlSimpleQuote(E89,,PriceTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDFUT3MF1_Quote#0002</v>
+        <v>HKDFUT3MF1_Quote#0001</v>
       </c>
       <c r="G89" s="61" t="str">
         <f>_xll.ohRangeRetrieveError(F89)</f>
@@ -8029,7 +8010,7 @@
       </c>
       <c r="F90" s="12" t="str">
         <f>_xll.qlSimpleQuote(E90,,PriceTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDFUT3MG1_Quote#0002</v>
+        <v>HKDFUT3MG1_Quote#0001</v>
       </c>
       <c r="G90" s="61" t="str">
         <f>_xll.ohRangeRetrieveError(F90)</f>
@@ -8054,7 +8035,7 @@
       </c>
       <c r="F91" s="12" t="str">
         <f>_xll.qlSimpleQuote(E91,,PriceTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDFUT3MH1_Quote#0002</v>
+        <v>HKDFUT3MH1_Quote#0001</v>
       </c>
       <c r="G91" s="61" t="str">
         <f>_xll.ohRangeRetrieveError(F91)</f>
@@ -8079,7 +8060,7 @@
       </c>
       <c r="F92" s="12" t="str">
         <f>_xll.qlSimpleQuote(E92,,PriceTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDFUT3MJ1_Quote#0002</v>
+        <v>HKDFUT3MJ1_Quote#0001</v>
       </c>
       <c r="G92" s="61" t="str">
         <f>_xll.ohRangeRetrieveError(F92)</f>
@@ -8104,7 +8085,7 @@
       </c>
       <c r="F93" s="12" t="str">
         <f>_xll.qlSimpleQuote(E93,,PriceTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDFUT3MK1_Quote#0002</v>
+        <v>HKDFUT3MK1_Quote#0001</v>
       </c>
       <c r="G93" s="61" t="str">
         <f>_xll.ohRangeRetrieveError(F93)</f>
@@ -8129,7 +8110,7 @@
       </c>
       <c r="F94" s="12" t="str">
         <f>_xll.qlSimpleQuote(E94,,PriceTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDFUT3MM1_Quote#0002</v>
+        <v>HKDFUT3MM1_Quote#0001</v>
       </c>
       <c r="G94" s="61" t="str">
         <f>_xll.ohRangeRetrieveError(F94)</f>
@@ -8154,7 +8135,7 @@
       </c>
       <c r="F95" s="12" t="str">
         <f>_xll.qlSimpleQuote(E95,,PriceTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDFUT3MN1_Quote#0002</v>
+        <v>HKDFUT3MN1_Quote#0001</v>
       </c>
       <c r="G95" s="61" t="str">
         <f>_xll.ohRangeRetrieveError(F95)</f>
@@ -8179,7 +8160,7 @@
       </c>
       <c r="F96" s="12" t="str">
         <f>_xll.qlSimpleQuote(E96,,PriceTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDFUT3MQ1_Quote#0002</v>
+        <v>HKDFUT3MQ1_Quote#0001</v>
       </c>
       <c r="G96" s="61" t="str">
         <f>_xll.ohRangeRetrieveError(F96)</f>
@@ -8204,7 +8185,7 @@
       </c>
       <c r="F97" s="12" t="str">
         <f>_xll.qlSimpleQuote(E97,,PriceTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDFUT3MU1_Quote#0002</v>
+        <v>HKDFUT3MU1_Quote#0001</v>
       </c>
       <c r="G97" s="61" t="str">
         <f>_xll.ohRangeRetrieveError(F97)</f>
@@ -8229,7 +8210,7 @@
       </c>
       <c r="F98" s="12" t="str">
         <f>_xll.qlSimpleQuote(E98,,PriceTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDFUT3MV1_Quote#0002</v>
+        <v>HKDFUT3MV1_Quote#0001</v>
       </c>
       <c r="G98" s="61" t="str">
         <f>_xll.ohRangeRetrieveError(F98)</f>
@@ -8254,7 +8235,7 @@
       </c>
       <c r="F99" s="12" t="str">
         <f>_xll.qlSimpleQuote(E99,,PriceTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDFUT3MX1_Quote#0002</v>
+        <v>HKDFUT3MX1_Quote#0001</v>
       </c>
       <c r="G99" s="61" t="str">
         <f>_xll.ohRangeRetrieveError(F99)</f>
@@ -8279,7 +8260,7 @@
       </c>
       <c r="F100" s="12" t="str">
         <f>_xll.qlSimpleQuote(E100,,PriceTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDFUT3MZ1_Quote#0002</v>
+        <v>HKDFUT3MZ1_Quote#0001</v>
       </c>
       <c r="G100" s="61" t="str">
         <f>_xll.ohRangeRetrieveError(F100)</f>
@@ -8304,7 +8285,7 @@
       </c>
       <c r="F101" s="12" t="str">
         <f>_xll.qlSimpleQuote(E101,,PriceTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDFUT3MF2_Quote#0002</v>
+        <v>HKDFUT3MF2_Quote#0001</v>
       </c>
       <c r="G101" s="61" t="str">
         <f>_xll.ohRangeRetrieveError(F101)</f>
@@ -8329,7 +8310,7 @@
       </c>
       <c r="F102" s="12" t="str">
         <f>_xll.qlSimpleQuote(E102,,PriceTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDFUT3MG2_Quote#0002</v>
+        <v>HKDFUT3MG2_Quote#0001</v>
       </c>
       <c r="G102" s="61" t="str">
         <f>_xll.ohRangeRetrieveError(F102)</f>
@@ -8354,7 +8335,7 @@
       </c>
       <c r="F103" s="12" t="str">
         <f>_xll.qlSimpleQuote(E103,,PriceTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDFUT3MH2_Quote#0002</v>
+        <v>HKDFUT3MH2_Quote#0001</v>
       </c>
       <c r="G103" s="61" t="str">
         <f>_xll.ohRangeRetrieveError(F103)</f>
@@ -8379,7 +8360,7 @@
       </c>
       <c r="F104" s="12" t="str">
         <f>_xll.qlSimpleQuote(E104,,PriceTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDFUT3MJ2_Quote#0002</v>
+        <v>HKDFUT3MJ2_Quote#0001</v>
       </c>
       <c r="G104" s="61" t="str">
         <f>_xll.ohRangeRetrieveError(F104)</f>
@@ -8404,7 +8385,7 @@
       </c>
       <c r="F105" s="12" t="str">
         <f>_xll.qlSimpleQuote(E105,,PriceTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDFUT3MK2_Quote#0002</v>
+        <v>HKDFUT3MK2_Quote#0001</v>
       </c>
       <c r="G105" s="61" t="str">
         <f>_xll.ohRangeRetrieveError(F105)</f>
@@ -8429,7 +8410,7 @@
       </c>
       <c r="F106" s="12" t="str">
         <f>_xll.qlSimpleQuote(E106,,PriceTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDFUT3MM2_Quote#0002</v>
+        <v>HKDFUT3MM2_Quote#0001</v>
       </c>
       <c r="G106" s="61" t="str">
         <f>_xll.ohRangeRetrieveError(F106)</f>
@@ -8454,7 +8435,7 @@
       </c>
       <c r="F107" s="12" t="str">
         <f>_xll.qlSimpleQuote(E107,,PriceTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDFUT3MN2_Quote#0002</v>
+        <v>HKDFUT3MN2_Quote#0001</v>
       </c>
       <c r="G107" s="61" t="str">
         <f>_xll.ohRangeRetrieveError(F107)</f>
@@ -8479,7 +8460,7 @@
       </c>
       <c r="F108" s="12" t="str">
         <f>_xll.qlSimpleQuote(E108,,PriceTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDFUT3MQ2_Quote#0002</v>
+        <v>HKDFUT3MQ2_Quote#0001</v>
       </c>
       <c r="G108" s="61" t="str">
         <f>_xll.ohRangeRetrieveError(F108)</f>
@@ -8504,7 +8485,7 @@
       </c>
       <c r="F109" s="12" t="str">
         <f>_xll.qlSimpleQuote(E109,,PriceTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDFUT3MU2_Quote#0002</v>
+        <v>HKDFUT3MU2_Quote#0001</v>
       </c>
       <c r="G109" s="61" t="str">
         <f>_xll.ohRangeRetrieveError(F109)</f>
@@ -8529,7 +8510,7 @@
       </c>
       <c r="F110" s="12" t="str">
         <f>_xll.qlSimpleQuote(E110,,PriceTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDFUT3MV2_Quote#0002</v>
+        <v>HKDFUT3MV2_Quote#0001</v>
       </c>
       <c r="G110" s="61" t="str">
         <f>_xll.ohRangeRetrieveError(F110)</f>
@@ -8554,7 +8535,7 @@
       </c>
       <c r="F111" s="12" t="str">
         <f>_xll.qlSimpleQuote(E111,,PriceTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDFUT3MX2_Quote#0002</v>
+        <v>HKDFUT3MX2_Quote#0001</v>
       </c>
       <c r="G111" s="61" t="str">
         <f>_xll.ohRangeRetrieveError(F111)</f>
@@ -8579,7 +8560,7 @@
       </c>
       <c r="F112" s="12" t="str">
         <f>_xll.qlSimpleQuote(E112,,PriceTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDFUT3MZ2_Quote#0002</v>
+        <v>HKDFUT3MZ2_Quote#0001</v>
       </c>
       <c r="G112" s="61" t="str">
         <f>_xll.ohRangeRetrieveError(F112)</f>
@@ -8604,7 +8585,7 @@
       </c>
       <c r="F113" s="12" t="str">
         <f>_xll.qlSimpleQuote(E113,,PriceTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDFUT3MF3_Quote#0002</v>
+        <v>HKDFUT3MF3_Quote#0001</v>
       </c>
       <c r="G113" s="61" t="str">
         <f>_xll.ohRangeRetrieveError(F113)</f>
@@ -8629,7 +8610,7 @@
       </c>
       <c r="F114" s="12" t="str">
         <f>_xll.qlSimpleQuote(E114,,PriceTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDFUT3MG3_Quote#0002</v>
+        <v>HKDFUT3MG3_Quote#0001</v>
       </c>
       <c r="G114" s="61" t="str">
         <f>_xll.ohRangeRetrieveError(F114)</f>
@@ -8654,7 +8635,7 @@
       </c>
       <c r="F115" s="12" t="str">
         <f>_xll.qlSimpleQuote(E115,,PriceTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDFUT3MH3_Quote#0002</v>
+        <v>HKDFUT3MH3_Quote#0001</v>
       </c>
       <c r="G115" s="61" t="str">
         <f>_xll.ohRangeRetrieveError(F115)</f>
@@ -8679,7 +8660,7 @@
       </c>
       <c r="F116" s="12" t="str">
         <f>_xll.qlSimpleQuote(E116,,PriceTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDFUT3MJ3_Quote#0002</v>
+        <v>HKDFUT3MJ3_Quote#0001</v>
       </c>
       <c r="G116" s="61" t="str">
         <f>_xll.ohRangeRetrieveError(F116)</f>
@@ -8704,7 +8685,7 @@
       </c>
       <c r="F117" s="12" t="str">
         <f>_xll.qlSimpleQuote(E117,,PriceTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDFUT3MK3_Quote#0002</v>
+        <v>HKDFUT3MK3_Quote#0001</v>
       </c>
       <c r="G117" s="61" t="str">
         <f>_xll.ohRangeRetrieveError(F117)</f>
@@ -8729,7 +8710,7 @@
       </c>
       <c r="F118" s="12" t="str">
         <f>_xll.qlSimpleQuote(E118,,PriceTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDFUT3MM3_Quote#0002</v>
+        <v>HKDFUT3MM3_Quote#0001</v>
       </c>
       <c r="G118" s="61" t="str">
         <f>_xll.ohRangeRetrieveError(F118)</f>
@@ -8754,7 +8735,7 @@
       </c>
       <c r="F119" s="12" t="str">
         <f>_xll.qlSimpleQuote(E119,,PriceTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDFUT3MN3_Quote#0002</v>
+        <v>HKDFUT3MN3_Quote#0001</v>
       </c>
       <c r="G119" s="61" t="str">
         <f>_xll.ohRangeRetrieveError(F119)</f>
@@ -8779,7 +8760,7 @@
       </c>
       <c r="F120" s="12" t="str">
         <f>_xll.qlSimpleQuote(E120,,PriceTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDFUT3MQ3_Quote#0002</v>
+        <v>HKDFUT3MQ3_Quote#0001</v>
       </c>
       <c r="G120" s="61" t="str">
         <f>_xll.ohRangeRetrieveError(F120)</f>
@@ -8804,7 +8785,7 @@
       </c>
       <c r="F121" s="12" t="str">
         <f>_xll.qlSimpleQuote(E121,,PriceTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDFUT3MU3_Quote#0002</v>
+        <v>HKDFUT3MU3_Quote#0001</v>
       </c>
       <c r="G121" s="61" t="str">
         <f>_xll.ohRangeRetrieveError(F121)</f>
@@ -8829,7 +8810,7 @@
       </c>
       <c r="F122" s="12" t="str">
         <f>_xll.qlSimpleQuote(E122,,PriceTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDFUT3MV3_Quote#0002</v>
+        <v>HKDFUT3MV3_Quote#0001</v>
       </c>
       <c r="G122" s="61" t="str">
         <f>_xll.ohRangeRetrieveError(F122)</f>
@@ -8906,13 +8887,13 @@
         <f>Currency&amp;"_010_"&amp;$D$1&amp;$E$1&amp;".xml"</f>
         <v>HKD_010_IMMFRA6M.xml</v>
       </c>
-      <c r="F2" s="64">
+      <c r="F2" s="64" t="e">
         <f>IF(Serialize,_xll.ohObjectSave(F3:F122,SerializationPath&amp;E2,FileOverwrite,Serialize),"---")</f>
-        <v>120</v>
+        <v>#NUM!</v>
       </c>
       <c r="G2" s="65" t="str">
-        <f>_xll.ohRangeRetrieveError(F2)</f>
-        <v/>
+        <f ca="1">_xll.ohRangeRetrieveError(F2)</f>
+        <v>ohObjectSave - Invalid parent path : C:\Projects\quantlib\QuantLibXL\Data\XML\020_YieldCurveBootstrap\010_Quotes\HKD_010_IMMFRA6M.xml</v>
       </c>
       <c r="H2" s="55"/>
     </row>
@@ -8934,7 +8915,7 @@
       </c>
       <c r="F3" s="41" t="str">
         <f>_xll.qlSimpleQuote(E3,,PriceTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDIMMFRA6MX3_Quote#0002</v>
+        <v>HKDIMMFRA6MX3_Quote#0001</v>
       </c>
       <c r="G3" s="60" t="str">
         <f>_xll.ohRangeRetrieveError(F3)</f>
@@ -8959,7 +8940,7 @@
       </c>
       <c r="F4" s="12" t="str">
         <f>_xll.qlSimpleQuote(E4,,PriceTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDIMMFRA6MZ3_Quote#0002</v>
+        <v>HKDIMMFRA6MZ3_Quote#0001</v>
       </c>
       <c r="G4" s="61" t="str">
         <f>_xll.ohRangeRetrieveError(F4)</f>
@@ -8984,7 +8965,7 @@
       </c>
       <c r="F5" s="12" t="str">
         <f>_xll.qlSimpleQuote(E5,,PriceTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDIMMFRA6MF4_Quote#0002</v>
+        <v>HKDIMMFRA6MF4_Quote#0001</v>
       </c>
       <c r="G5" s="61" t="str">
         <f>_xll.ohRangeRetrieveError(F5)</f>
@@ -9009,7 +8990,7 @@
       </c>
       <c r="F6" s="12" t="str">
         <f>_xll.qlSimpleQuote(E6,,PriceTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDIMMFRA6MG4_Quote#0002</v>
+        <v>HKDIMMFRA6MG4_Quote#0001</v>
       </c>
       <c r="G6" s="61" t="str">
         <f>_xll.ohRangeRetrieveError(F6)</f>
@@ -9034,7 +9015,7 @@
       </c>
       <c r="F7" s="12" t="str">
         <f>_xll.qlSimpleQuote(E7,,PriceTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDIMMFRA6MH4_Quote#0002</v>
+        <v>HKDIMMFRA6MH4_Quote#0001</v>
       </c>
       <c r="G7" s="61" t="str">
         <f>_xll.ohRangeRetrieveError(F7)</f>
@@ -9059,7 +9040,7 @@
       </c>
       <c r="F8" s="12" t="str">
         <f>_xll.qlSimpleQuote(E8,,PriceTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDIMMFRA6MJ4_Quote#0002</v>
+        <v>HKDIMMFRA6MJ4_Quote#0001</v>
       </c>
       <c r="G8" s="61" t="str">
         <f>_xll.ohRangeRetrieveError(F8)</f>
@@ -9084,7 +9065,7 @@
       </c>
       <c r="F9" s="12" t="str">
         <f>_xll.qlSimpleQuote(E9,,PriceTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDIMMFRA6MK4_Quote#0002</v>
+        <v>HKDIMMFRA6MK4_Quote#0001</v>
       </c>
       <c r="G9" s="61" t="str">
         <f>_xll.ohRangeRetrieveError(F9)</f>
@@ -9109,7 +9090,7 @@
       </c>
       <c r="F10" s="12" t="str">
         <f>_xll.qlSimpleQuote(E10,,PriceTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDIMMFRA6MM4_Quote#0002</v>
+        <v>HKDIMMFRA6MM4_Quote#0001</v>
       </c>
       <c r="G10" s="61" t="str">
         <f>_xll.ohRangeRetrieveError(F10)</f>
@@ -9134,7 +9115,7 @@
       </c>
       <c r="F11" s="12" t="str">
         <f>_xll.qlSimpleQuote(E11,,PriceTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDIMMFRA6MN4_Quote#0002</v>
+        <v>HKDIMMFRA6MN4_Quote#0001</v>
       </c>
       <c r="G11" s="61" t="str">
         <f>_xll.ohRangeRetrieveError(F11)</f>
@@ -9159,7 +9140,7 @@
       </c>
       <c r="F12" s="12" t="str">
         <f>_xll.qlSimpleQuote(E12,,PriceTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDIMMFRA6MQ4_Quote#0002</v>
+        <v>HKDIMMFRA6MQ4_Quote#0001</v>
       </c>
       <c r="G12" s="61" t="str">
         <f>_xll.ohRangeRetrieveError(F12)</f>
@@ -9184,7 +9165,7 @@
       </c>
       <c r="F13" s="12" t="str">
         <f>_xll.qlSimpleQuote(E13,,PriceTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDIMMFRA6MU4_Quote#0002</v>
+        <v>HKDIMMFRA6MU4_Quote#0001</v>
       </c>
       <c r="G13" s="61" t="str">
         <f>_xll.ohRangeRetrieveError(F13)</f>
@@ -9209,7 +9190,7 @@
       </c>
       <c r="F14" s="12" t="str">
         <f>_xll.qlSimpleQuote(E14,,PriceTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDIMMFRA6MV4_Quote#0002</v>
+        <v>HKDIMMFRA6MV4_Quote#0001</v>
       </c>
       <c r="G14" s="61" t="str">
         <f>_xll.ohRangeRetrieveError(F14)</f>
@@ -9234,7 +9215,7 @@
       </c>
       <c r="F15" s="12" t="str">
         <f>_xll.qlSimpleQuote(E15,,PriceTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDIMMFRA6MX4_Quote#0002</v>
+        <v>HKDIMMFRA6MX4_Quote#0001</v>
       </c>
       <c r="G15" s="61" t="str">
         <f>_xll.ohRangeRetrieveError(F15)</f>
@@ -9259,7 +9240,7 @@
       </c>
       <c r="F16" s="12" t="str">
         <f>_xll.qlSimpleQuote(E16,,PriceTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDIMMFRA6MZ4_Quote#0002</v>
+        <v>HKDIMMFRA6MZ4_Quote#0001</v>
       </c>
       <c r="G16" s="61" t="str">
         <f>_xll.ohRangeRetrieveError(F16)</f>
@@ -9284,7 +9265,7 @@
       </c>
       <c r="F17" s="12" t="str">
         <f>_xll.qlSimpleQuote(E17,,PriceTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDIMMFRA6MF5_Quote#0002</v>
+        <v>HKDIMMFRA6MF5_Quote#0001</v>
       </c>
       <c r="G17" s="61" t="str">
         <f>_xll.ohRangeRetrieveError(F17)</f>
@@ -9309,7 +9290,7 @@
       </c>
       <c r="F18" s="12" t="str">
         <f>_xll.qlSimpleQuote(E18,,PriceTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDIMMFRA6MG5_Quote#0002</v>
+        <v>HKDIMMFRA6MG5_Quote#0001</v>
       </c>
       <c r="G18" s="61" t="str">
         <f>_xll.ohRangeRetrieveError(F18)</f>
@@ -9334,7 +9315,7 @@
       </c>
       <c r="F19" s="12" t="str">
         <f>_xll.qlSimpleQuote(E19,,PriceTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDIMMFRA6MH5_Quote#0002</v>
+        <v>HKDIMMFRA6MH5_Quote#0001</v>
       </c>
       <c r="G19" s="61" t="str">
         <f>_xll.ohRangeRetrieveError(F19)</f>
@@ -9359,7 +9340,7 @@
       </c>
       <c r="F20" s="12" t="str">
         <f>_xll.qlSimpleQuote(E20,,PriceTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDIMMFRA6MJ5_Quote#0002</v>
+        <v>HKDIMMFRA6MJ5_Quote#0001</v>
       </c>
       <c r="G20" s="61" t="str">
         <f>_xll.ohRangeRetrieveError(F20)</f>
@@ -9384,7 +9365,7 @@
       </c>
       <c r="F21" s="12" t="str">
         <f>_xll.qlSimpleQuote(E21,,PriceTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDIMMFRA6MK5_Quote#0002</v>
+        <v>HKDIMMFRA6MK5_Quote#0001</v>
       </c>
       <c r="G21" s="61" t="str">
         <f>_xll.ohRangeRetrieveError(F21)</f>
@@ -9409,7 +9390,7 @@
       </c>
       <c r="F22" s="12" t="str">
         <f>_xll.qlSimpleQuote(E22,,PriceTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDIMMFRA6MM5_Quote#0002</v>
+        <v>HKDIMMFRA6MM5_Quote#0001</v>
       </c>
       <c r="G22" s="61" t="str">
         <f>_xll.ohRangeRetrieveError(F22)</f>
@@ -9434,7 +9415,7 @@
       </c>
       <c r="F23" s="12" t="str">
         <f>_xll.qlSimpleQuote(E23,,PriceTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDIMMFRA6MN5_Quote#0002</v>
+        <v>HKDIMMFRA6MN5_Quote#0001</v>
       </c>
       <c r="G23" s="61" t="str">
         <f>_xll.ohRangeRetrieveError(F23)</f>
@@ -9459,7 +9440,7 @@
       </c>
       <c r="F24" s="12" t="str">
         <f>_xll.qlSimpleQuote(E24,,PriceTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDIMMFRA6MQ5_Quote#0002</v>
+        <v>HKDIMMFRA6MQ5_Quote#0001</v>
       </c>
       <c r="G24" s="61" t="str">
         <f>_xll.ohRangeRetrieveError(F24)</f>
@@ -9484,7 +9465,7 @@
       </c>
       <c r="F25" s="12" t="str">
         <f>_xll.qlSimpleQuote(E25,,PriceTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDIMMFRA6MU5_Quote#0002</v>
+        <v>HKDIMMFRA6MU5_Quote#0001</v>
       </c>
       <c r="G25" s="61" t="str">
         <f>_xll.ohRangeRetrieveError(F25)</f>
@@ -9509,7 +9490,7 @@
       </c>
       <c r="F26" s="12" t="str">
         <f>_xll.qlSimpleQuote(E26,,PriceTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDIMMFRA6MV5_Quote#0002</v>
+        <v>HKDIMMFRA6MV5_Quote#0001</v>
       </c>
       <c r="G26" s="61" t="str">
         <f>_xll.ohRangeRetrieveError(F26)</f>
@@ -9534,7 +9515,7 @@
       </c>
       <c r="F27" s="12" t="str">
         <f>_xll.qlSimpleQuote(E27,,PriceTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDIMMFRA6MX5_Quote#0002</v>
+        <v>HKDIMMFRA6MX5_Quote#0001</v>
       </c>
       <c r="G27" s="61" t="str">
         <f>_xll.ohRangeRetrieveError(F27)</f>
@@ -9559,7 +9540,7 @@
       </c>
       <c r="F28" s="12" t="str">
         <f>_xll.qlSimpleQuote(E28,,PriceTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDIMMFRA6MZ5_Quote#0002</v>
+        <v>HKDIMMFRA6MZ5_Quote#0001</v>
       </c>
       <c r="G28" s="61" t="str">
         <f>_xll.ohRangeRetrieveError(F28)</f>
@@ -9584,7 +9565,7 @@
       </c>
       <c r="F29" s="12" t="str">
         <f>_xll.qlSimpleQuote(E29,,PriceTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDIMMFRA6MF6_Quote#0002</v>
+        <v>HKDIMMFRA6MF6_Quote#0001</v>
       </c>
       <c r="G29" s="61" t="str">
         <f>_xll.ohRangeRetrieveError(F29)</f>
@@ -9609,7 +9590,7 @@
       </c>
       <c r="F30" s="12" t="str">
         <f>_xll.qlSimpleQuote(E30,,PriceTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDIMMFRA6MG6_Quote#0002</v>
+        <v>HKDIMMFRA6MG6_Quote#0001</v>
       </c>
       <c r="G30" s="61" t="str">
         <f>_xll.ohRangeRetrieveError(F30)</f>
@@ -9634,7 +9615,7 @@
       </c>
       <c r="F31" s="12" t="str">
         <f>_xll.qlSimpleQuote(E31,,PriceTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDIMMFRA6MH6_Quote#0002</v>
+        <v>HKDIMMFRA6MH6_Quote#0001</v>
       </c>
       <c r="G31" s="61" t="str">
         <f>_xll.ohRangeRetrieveError(F31)</f>
@@ -9659,7 +9640,7 @@
       </c>
       <c r="F32" s="12" t="str">
         <f>_xll.qlSimpleQuote(E32,,PriceTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDIMMFRA6MJ6_Quote#0002</v>
+        <v>HKDIMMFRA6MJ6_Quote#0001</v>
       </c>
       <c r="G32" s="61" t="str">
         <f>_xll.ohRangeRetrieveError(F32)</f>
@@ -9684,7 +9665,7 @@
       </c>
       <c r="F33" s="12" t="str">
         <f>_xll.qlSimpleQuote(E33,,PriceTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDIMMFRA6MK6_Quote#0002</v>
+        <v>HKDIMMFRA6MK6_Quote#0001</v>
       </c>
       <c r="G33" s="61" t="str">
         <f>_xll.ohRangeRetrieveError(F33)</f>
@@ -9709,7 +9690,7 @@
       </c>
       <c r="F34" s="12" t="str">
         <f>_xll.qlSimpleQuote(E34,,PriceTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDIMMFRA6MM6_Quote#0002</v>
+        <v>HKDIMMFRA6MM6_Quote#0001</v>
       </c>
       <c r="G34" s="61" t="str">
         <f>_xll.ohRangeRetrieveError(F34)</f>
@@ -9734,7 +9715,7 @@
       </c>
       <c r="F35" s="12" t="str">
         <f>_xll.qlSimpleQuote(E35,,PriceTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDIMMFRA6MN6_Quote#0002</v>
+        <v>HKDIMMFRA6MN6_Quote#0001</v>
       </c>
       <c r="G35" s="61" t="str">
         <f>_xll.ohRangeRetrieveError(F35)</f>
@@ -9759,7 +9740,7 @@
       </c>
       <c r="F36" s="12" t="str">
         <f>_xll.qlSimpleQuote(E36,,PriceTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDIMMFRA6MQ6_Quote#0002</v>
+        <v>HKDIMMFRA6MQ6_Quote#0001</v>
       </c>
       <c r="G36" s="61" t="str">
         <f>_xll.ohRangeRetrieveError(F36)</f>
@@ -9784,7 +9765,7 @@
       </c>
       <c r="F37" s="12" t="str">
         <f>_xll.qlSimpleQuote(E37,,PriceTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDIMMFRA6MU6_Quote#0002</v>
+        <v>HKDIMMFRA6MU6_Quote#0001</v>
       </c>
       <c r="G37" s="61" t="str">
         <f>_xll.ohRangeRetrieveError(F37)</f>
@@ -9809,7 +9790,7 @@
       </c>
       <c r="F38" s="12" t="str">
         <f>_xll.qlSimpleQuote(E38,,PriceTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDIMMFRA6MV6_Quote#0002</v>
+        <v>HKDIMMFRA6MV6_Quote#0001</v>
       </c>
       <c r="G38" s="61" t="str">
         <f>_xll.ohRangeRetrieveError(F38)</f>
@@ -9834,7 +9815,7 @@
       </c>
       <c r="F39" s="12" t="str">
         <f>_xll.qlSimpleQuote(E39,,PriceTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDIMMFRA6MX6_Quote#0002</v>
+        <v>HKDIMMFRA6MX6_Quote#0001</v>
       </c>
       <c r="G39" s="61" t="str">
         <f>_xll.ohRangeRetrieveError(F39)</f>
@@ -9859,7 +9840,7 @@
       </c>
       <c r="F40" s="12" t="str">
         <f>_xll.qlSimpleQuote(E40,,PriceTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDIMMFRA6MZ6_Quote#0002</v>
+        <v>HKDIMMFRA6MZ6_Quote#0001</v>
       </c>
       <c r="G40" s="61" t="str">
         <f>_xll.ohRangeRetrieveError(F40)</f>
@@ -9884,7 +9865,7 @@
       </c>
       <c r="F41" s="12" t="str">
         <f>_xll.qlSimpleQuote(E41,,PriceTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDIMMFRA6MF7_Quote#0002</v>
+        <v>HKDIMMFRA6MF7_Quote#0001</v>
       </c>
       <c r="G41" s="61" t="str">
         <f>_xll.ohRangeRetrieveError(F41)</f>
@@ -9909,7 +9890,7 @@
       </c>
       <c r="F42" s="12" t="str">
         <f>_xll.qlSimpleQuote(E42,,PriceTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDIMMFRA6MG7_Quote#0002</v>
+        <v>HKDIMMFRA6MG7_Quote#0001</v>
       </c>
       <c r="G42" s="61" t="str">
         <f>_xll.ohRangeRetrieveError(F42)</f>
@@ -9934,7 +9915,7 @@
       </c>
       <c r="F43" s="12" t="str">
         <f>_xll.qlSimpleQuote(E43,,PriceTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDIMMFRA6MH7_Quote#0002</v>
+        <v>HKDIMMFRA6MH7_Quote#0001</v>
       </c>
       <c r="G43" s="61" t="str">
         <f>_xll.ohRangeRetrieveError(F43)</f>
@@ -9959,7 +9940,7 @@
       </c>
       <c r="F44" s="12" t="str">
         <f>_xll.qlSimpleQuote(E44,,PriceTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDIMMFRA6MJ7_Quote#0002</v>
+        <v>HKDIMMFRA6MJ7_Quote#0001</v>
       </c>
       <c r="G44" s="61" t="str">
         <f>_xll.ohRangeRetrieveError(F44)</f>
@@ -9984,7 +9965,7 @@
       </c>
       <c r="F45" s="12" t="str">
         <f>_xll.qlSimpleQuote(E45,,PriceTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDIMMFRA6MK7_Quote#0002</v>
+        <v>HKDIMMFRA6MK7_Quote#0001</v>
       </c>
       <c r="G45" s="61" t="str">
         <f>_xll.ohRangeRetrieveError(F45)</f>
@@ -10009,7 +9990,7 @@
       </c>
       <c r="F46" s="12" t="str">
         <f>_xll.qlSimpleQuote(E46,,PriceTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDIMMFRA6MM7_Quote#0002</v>
+        <v>HKDIMMFRA6MM7_Quote#0001</v>
       </c>
       <c r="G46" s="61" t="str">
         <f>_xll.ohRangeRetrieveError(F46)</f>
@@ -10034,7 +10015,7 @@
       </c>
       <c r="F47" s="12" t="str">
         <f>_xll.qlSimpleQuote(E47,,PriceTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDIMMFRA6MN7_Quote#0002</v>
+        <v>HKDIMMFRA6MN7_Quote#0001</v>
       </c>
       <c r="G47" s="61" t="str">
         <f>_xll.ohRangeRetrieveError(F47)</f>
@@ -10059,7 +10040,7 @@
       </c>
       <c r="F48" s="12" t="str">
         <f>_xll.qlSimpleQuote(E48,,PriceTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDIMMFRA6MQ7_Quote#0002</v>
+        <v>HKDIMMFRA6MQ7_Quote#0001</v>
       </c>
       <c r="G48" s="61" t="str">
         <f>_xll.ohRangeRetrieveError(F48)</f>
@@ -10084,7 +10065,7 @@
       </c>
       <c r="F49" s="12" t="str">
         <f>_xll.qlSimpleQuote(E49,,PriceTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDIMMFRA6MU7_Quote#0002</v>
+        <v>HKDIMMFRA6MU7_Quote#0001</v>
       </c>
       <c r="G49" s="61" t="str">
         <f>_xll.ohRangeRetrieveError(F49)</f>
@@ -10109,7 +10090,7 @@
       </c>
       <c r="F50" s="12" t="str">
         <f>_xll.qlSimpleQuote(E50,,PriceTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDIMMFRA6MV7_Quote#0002</v>
+        <v>HKDIMMFRA6MV7_Quote#0001</v>
       </c>
       <c r="G50" s="61" t="str">
         <f>_xll.ohRangeRetrieveError(F50)</f>
@@ -10134,7 +10115,7 @@
       </c>
       <c r="F51" s="12" t="str">
         <f>_xll.qlSimpleQuote(E51,,PriceTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDIMMFRA6MX7_Quote#0002</v>
+        <v>HKDIMMFRA6MX7_Quote#0001</v>
       </c>
       <c r="G51" s="61" t="str">
         <f>_xll.ohRangeRetrieveError(F51)</f>
@@ -10159,7 +10140,7 @@
       </c>
       <c r="F52" s="12" t="str">
         <f>_xll.qlSimpleQuote(E52,,PriceTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDIMMFRA6MZ7_Quote#0002</v>
+        <v>HKDIMMFRA6MZ7_Quote#0001</v>
       </c>
       <c r="G52" s="61" t="str">
         <f>_xll.ohRangeRetrieveError(F52)</f>
@@ -10184,7 +10165,7 @@
       </c>
       <c r="F53" s="12" t="str">
         <f>_xll.qlSimpleQuote(E53,,PriceTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDIMMFRA6MF8_Quote#0002</v>
+        <v>HKDIMMFRA6MF8_Quote#0001</v>
       </c>
       <c r="G53" s="61" t="str">
         <f>_xll.ohRangeRetrieveError(F53)</f>
@@ -10209,7 +10190,7 @@
       </c>
       <c r="F54" s="12" t="str">
         <f>_xll.qlSimpleQuote(E54,,PriceTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDIMMFRA6MG8_Quote#0002</v>
+        <v>HKDIMMFRA6MG8_Quote#0001</v>
       </c>
       <c r="G54" s="61" t="str">
         <f>_xll.ohRangeRetrieveError(F54)</f>
@@ -10234,7 +10215,7 @@
       </c>
       <c r="F55" s="12" t="str">
         <f>_xll.qlSimpleQuote(E55,,PriceTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDIMMFRA6MH8_Quote#0002</v>
+        <v>HKDIMMFRA6MH8_Quote#0001</v>
       </c>
       <c r="G55" s="61" t="str">
         <f>_xll.ohRangeRetrieveError(F55)</f>
@@ -10259,7 +10240,7 @@
       </c>
       <c r="F56" s="12" t="str">
         <f>_xll.qlSimpleQuote(E56,,PriceTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDIMMFRA6MJ8_Quote#0002</v>
+        <v>HKDIMMFRA6MJ8_Quote#0001</v>
       </c>
       <c r="G56" s="61" t="str">
         <f>_xll.ohRangeRetrieveError(F56)</f>
@@ -10284,7 +10265,7 @@
       </c>
       <c r="F57" s="12" t="str">
         <f>_xll.qlSimpleQuote(E57,,PriceTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDIMMFRA6MK8_Quote#0002</v>
+        <v>HKDIMMFRA6MK8_Quote#0001</v>
       </c>
       <c r="G57" s="61" t="str">
         <f>_xll.ohRangeRetrieveError(F57)</f>
@@ -10309,7 +10290,7 @@
       </c>
       <c r="F58" s="12" t="str">
         <f>_xll.qlSimpleQuote(E58,,PriceTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDIMMFRA6MM8_Quote#0002</v>
+        <v>HKDIMMFRA6MM8_Quote#0001</v>
       </c>
       <c r="G58" s="61" t="str">
         <f>_xll.ohRangeRetrieveError(F58)</f>
@@ -10334,7 +10315,7 @@
       </c>
       <c r="F59" s="12" t="str">
         <f>_xll.qlSimpleQuote(E59,,PriceTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDIMMFRA6MN8_Quote#0002</v>
+        <v>HKDIMMFRA6MN8_Quote#0001</v>
       </c>
       <c r="G59" s="61" t="str">
         <f>_xll.ohRangeRetrieveError(F59)</f>
@@ -10359,7 +10340,7 @@
       </c>
       <c r="F60" s="12" t="str">
         <f>_xll.qlSimpleQuote(E60,,PriceTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDIMMFRA6MQ8_Quote#0002</v>
+        <v>HKDIMMFRA6MQ8_Quote#0001</v>
       </c>
       <c r="G60" s="61" t="str">
         <f>_xll.ohRangeRetrieveError(F60)</f>
@@ -10384,7 +10365,7 @@
       </c>
       <c r="F61" s="12" t="str">
         <f>_xll.qlSimpleQuote(E61,,PriceTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDIMMFRA6MU8_Quote#0002</v>
+        <v>HKDIMMFRA6MU8_Quote#0001</v>
       </c>
       <c r="G61" s="61" t="str">
         <f>_xll.ohRangeRetrieveError(F61)</f>
@@ -10409,7 +10390,7 @@
       </c>
       <c r="F62" s="12" t="str">
         <f>_xll.qlSimpleQuote(E62,,PriceTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDIMMFRA6MV8_Quote#0002</v>
+        <v>HKDIMMFRA6MV8_Quote#0001</v>
       </c>
       <c r="G62" s="61" t="str">
         <f>_xll.ohRangeRetrieveError(F62)</f>
@@ -10434,7 +10415,7 @@
       </c>
       <c r="F63" s="12" t="str">
         <f>_xll.qlSimpleQuote(E63,,PriceTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDIMMFRA6MX8_Quote#0002</v>
+        <v>HKDIMMFRA6MX8_Quote#0001</v>
       </c>
       <c r="G63" s="61" t="str">
         <f>_xll.ohRangeRetrieveError(F63)</f>
@@ -10459,7 +10440,7 @@
       </c>
       <c r="F64" s="12" t="str">
         <f>_xll.qlSimpleQuote(E64,,PriceTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDIMMFRA6MZ8_Quote#0002</v>
+        <v>HKDIMMFRA6MZ8_Quote#0001</v>
       </c>
       <c r="G64" s="61" t="str">
         <f>_xll.ohRangeRetrieveError(F64)</f>
@@ -10484,7 +10465,7 @@
       </c>
       <c r="F65" s="12" t="str">
         <f>_xll.qlSimpleQuote(E65,,PriceTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDIMMFRA6MF9_Quote#0002</v>
+        <v>HKDIMMFRA6MF9_Quote#0001</v>
       </c>
       <c r="G65" s="61" t="str">
         <f>_xll.ohRangeRetrieveError(F65)</f>
@@ -10509,7 +10490,7 @@
       </c>
       <c r="F66" s="12" t="str">
         <f>_xll.qlSimpleQuote(E66,,PriceTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDIMMFRA6MG9_Quote#0002</v>
+        <v>HKDIMMFRA6MG9_Quote#0001</v>
       </c>
       <c r="G66" s="61" t="str">
         <f>_xll.ohRangeRetrieveError(F66)</f>
@@ -10534,7 +10515,7 @@
       </c>
       <c r="F67" s="12" t="str">
         <f>_xll.qlSimpleQuote(E67,,PriceTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDIMMFRA6MH9_Quote#0002</v>
+        <v>HKDIMMFRA6MH9_Quote#0001</v>
       </c>
       <c r="G67" s="61" t="str">
         <f>_xll.ohRangeRetrieveError(F67)</f>
@@ -10559,7 +10540,7 @@
       </c>
       <c r="F68" s="12" t="str">
         <f>_xll.qlSimpleQuote(E68,,PriceTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDIMMFRA6MJ9_Quote#0002</v>
+        <v>HKDIMMFRA6MJ9_Quote#0001</v>
       </c>
       <c r="G68" s="61" t="str">
         <f>_xll.ohRangeRetrieveError(F68)</f>
@@ -10584,7 +10565,7 @@
       </c>
       <c r="F69" s="12" t="str">
         <f>_xll.qlSimpleQuote(E69,,PriceTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDIMMFRA6MK9_Quote#0002</v>
+        <v>HKDIMMFRA6MK9_Quote#0001</v>
       </c>
       <c r="G69" s="61" t="str">
         <f>_xll.ohRangeRetrieveError(F69)</f>
@@ -10609,7 +10590,7 @@
       </c>
       <c r="F70" s="12" t="str">
         <f>_xll.qlSimpleQuote(E70,,PriceTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDIMMFRA6MM9_Quote#0002</v>
+        <v>HKDIMMFRA6MM9_Quote#0001</v>
       </c>
       <c r="G70" s="61" t="str">
         <f>_xll.ohRangeRetrieveError(F70)</f>
@@ -10634,7 +10615,7 @@
       </c>
       <c r="F71" s="12" t="str">
         <f>_xll.qlSimpleQuote(E71,,PriceTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDIMMFRA6MN9_Quote#0002</v>
+        <v>HKDIMMFRA6MN9_Quote#0001</v>
       </c>
       <c r="G71" s="61" t="str">
         <f>_xll.ohRangeRetrieveError(F71)</f>
@@ -10659,7 +10640,7 @@
       </c>
       <c r="F72" s="12" t="str">
         <f>_xll.qlSimpleQuote(E72,,PriceTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDIMMFRA6MQ9_Quote#0002</v>
+        <v>HKDIMMFRA6MQ9_Quote#0001</v>
       </c>
       <c r="G72" s="61" t="str">
         <f>_xll.ohRangeRetrieveError(F72)</f>
@@ -10684,7 +10665,7 @@
       </c>
       <c r="F73" s="12" t="str">
         <f>_xll.qlSimpleQuote(E73,,PriceTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDIMMFRA6MU9_Quote#0002</v>
+        <v>HKDIMMFRA6MU9_Quote#0001</v>
       </c>
       <c r="G73" s="61" t="str">
         <f>_xll.ohRangeRetrieveError(F73)</f>
@@ -10709,7 +10690,7 @@
       </c>
       <c r="F74" s="12" t="str">
         <f>_xll.qlSimpleQuote(E74,,PriceTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDIMMFRA6MV9_Quote#0002</v>
+        <v>HKDIMMFRA6MV9_Quote#0001</v>
       </c>
       <c r="G74" s="61" t="str">
         <f>_xll.ohRangeRetrieveError(F74)</f>
@@ -10734,7 +10715,7 @@
       </c>
       <c r="F75" s="12" t="str">
         <f>_xll.qlSimpleQuote(E75,,PriceTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDIMMFRA6MX9_Quote#0002</v>
+        <v>HKDIMMFRA6MX9_Quote#0001</v>
       </c>
       <c r="G75" s="61" t="str">
         <f>_xll.ohRangeRetrieveError(F75)</f>
@@ -10759,7 +10740,7 @@
       </c>
       <c r="F76" s="12" t="str">
         <f>_xll.qlSimpleQuote(E76,,PriceTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDIMMFRA6MZ9_Quote#0002</v>
+        <v>HKDIMMFRA6MZ9_Quote#0001</v>
       </c>
       <c r="G76" s="61" t="str">
         <f>_xll.ohRangeRetrieveError(F76)</f>
@@ -10784,7 +10765,7 @@
       </c>
       <c r="F77" s="12" t="str">
         <f>_xll.qlSimpleQuote(E77,,PriceTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDIMMFRA6MF0_Quote#0002</v>
+        <v>HKDIMMFRA6MF0_Quote#0001</v>
       </c>
       <c r="G77" s="61" t="str">
         <f>_xll.ohRangeRetrieveError(F77)</f>
@@ -10809,7 +10790,7 @@
       </c>
       <c r="F78" s="12" t="str">
         <f>_xll.qlSimpleQuote(E78,,PriceTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDIMMFRA6MG0_Quote#0002</v>
+        <v>HKDIMMFRA6MG0_Quote#0001</v>
       </c>
       <c r="G78" s="61" t="str">
         <f>_xll.ohRangeRetrieveError(F78)</f>
@@ -10834,7 +10815,7 @@
       </c>
       <c r="F79" s="12" t="str">
         <f>_xll.qlSimpleQuote(E79,,PriceTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDIMMFRA6MH0_Quote#0002</v>
+        <v>HKDIMMFRA6MH0_Quote#0001</v>
       </c>
       <c r="G79" s="61" t="str">
         <f>_xll.ohRangeRetrieveError(F79)</f>
@@ -10859,7 +10840,7 @@
       </c>
       <c r="F80" s="12" t="str">
         <f>_xll.qlSimpleQuote(E80,,PriceTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDIMMFRA6MJ0_Quote#0002</v>
+        <v>HKDIMMFRA6MJ0_Quote#0001</v>
       </c>
       <c r="G80" s="61" t="str">
         <f>_xll.ohRangeRetrieveError(F80)</f>
@@ -10884,7 +10865,7 @@
       </c>
       <c r="F81" s="12" t="str">
         <f>_xll.qlSimpleQuote(E81,,PriceTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDIMMFRA6MK0_Quote#0002</v>
+        <v>HKDIMMFRA6MK0_Quote#0001</v>
       </c>
       <c r="G81" s="61" t="str">
         <f>_xll.ohRangeRetrieveError(F81)</f>
@@ -10909,7 +10890,7 @@
       </c>
       <c r="F82" s="12" t="str">
         <f>_xll.qlSimpleQuote(E82,,PriceTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDIMMFRA6MM0_Quote#0002</v>
+        <v>HKDIMMFRA6MM0_Quote#0001</v>
       </c>
       <c r="G82" s="61" t="str">
         <f>_xll.ohRangeRetrieveError(F82)</f>
@@ -10934,7 +10915,7 @@
       </c>
       <c r="F83" s="12" t="str">
         <f>_xll.qlSimpleQuote(E83,,PriceTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDIMMFRA6MN0_Quote#0002</v>
+        <v>HKDIMMFRA6MN0_Quote#0001</v>
       </c>
       <c r="G83" s="61" t="str">
         <f>_xll.ohRangeRetrieveError(F83)</f>
@@ -10959,7 +10940,7 @@
       </c>
       <c r="F84" s="12" t="str">
         <f>_xll.qlSimpleQuote(E84,,PriceTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDIMMFRA6MQ0_Quote#0002</v>
+        <v>HKDIMMFRA6MQ0_Quote#0001</v>
       </c>
       <c r="G84" s="61" t="str">
         <f>_xll.ohRangeRetrieveError(F84)</f>
@@ -10984,7 +10965,7 @@
       </c>
       <c r="F85" s="12" t="str">
         <f>_xll.qlSimpleQuote(E85,,PriceTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDIMMFRA6MU0_Quote#0002</v>
+        <v>HKDIMMFRA6MU0_Quote#0001</v>
       </c>
       <c r="G85" s="61" t="str">
         <f>_xll.ohRangeRetrieveError(F85)</f>
@@ -11009,7 +10990,7 @@
       </c>
       <c r="F86" s="12" t="str">
         <f>_xll.qlSimpleQuote(E86,,PriceTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDIMMFRA6MV0_Quote#0002</v>
+        <v>HKDIMMFRA6MV0_Quote#0001</v>
       </c>
       <c r="G86" s="61" t="str">
         <f>_xll.ohRangeRetrieveError(F86)</f>
@@ -11034,7 +11015,7 @@
       </c>
       <c r="F87" s="12" t="str">
         <f>_xll.qlSimpleQuote(E87,,PriceTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDIMMFRA6MX0_Quote#0002</v>
+        <v>HKDIMMFRA6MX0_Quote#0001</v>
       </c>
       <c r="G87" s="61" t="str">
         <f>_xll.ohRangeRetrieveError(F87)</f>
@@ -11059,7 +11040,7 @@
       </c>
       <c r="F88" s="12" t="str">
         <f>_xll.qlSimpleQuote(E88,,PriceTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDIMMFRA6MZ0_Quote#0002</v>
+        <v>HKDIMMFRA6MZ0_Quote#0001</v>
       </c>
       <c r="G88" s="61" t="str">
         <f>_xll.ohRangeRetrieveError(F88)</f>
@@ -11084,7 +11065,7 @@
       </c>
       <c r="F89" s="12" t="str">
         <f>_xll.qlSimpleQuote(E89,,PriceTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDIMMFRA6MF1_Quote#0002</v>
+        <v>HKDIMMFRA6MF1_Quote#0001</v>
       </c>
       <c r="G89" s="61" t="str">
         <f>_xll.ohRangeRetrieveError(F89)</f>
@@ -11109,7 +11090,7 @@
       </c>
       <c r="F90" s="12" t="str">
         <f>_xll.qlSimpleQuote(E90,,PriceTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDIMMFRA6MG1_Quote#0002</v>
+        <v>HKDIMMFRA6MG1_Quote#0001</v>
       </c>
       <c r="G90" s="61" t="str">
         <f>_xll.ohRangeRetrieveError(F90)</f>
@@ -11134,7 +11115,7 @@
       </c>
       <c r="F91" s="12" t="str">
         <f>_xll.qlSimpleQuote(E91,,PriceTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDIMMFRA6MH1_Quote#0002</v>
+        <v>HKDIMMFRA6MH1_Quote#0001</v>
       </c>
       <c r="G91" s="61" t="str">
         <f>_xll.ohRangeRetrieveError(F91)</f>
@@ -11159,7 +11140,7 @@
       </c>
       <c r="F92" s="12" t="str">
         <f>_xll.qlSimpleQuote(E92,,PriceTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDIMMFRA6MJ1_Quote#0002</v>
+        <v>HKDIMMFRA6MJ1_Quote#0001</v>
       </c>
       <c r="G92" s="61" t="str">
         <f>_xll.ohRangeRetrieveError(F92)</f>
@@ -11184,7 +11165,7 @@
       </c>
       <c r="F93" s="12" t="str">
         <f>_xll.qlSimpleQuote(E93,,PriceTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDIMMFRA6MK1_Quote#0002</v>
+        <v>HKDIMMFRA6MK1_Quote#0001</v>
       </c>
       <c r="G93" s="61" t="str">
         <f>_xll.ohRangeRetrieveError(F93)</f>
@@ -11209,7 +11190,7 @@
       </c>
       <c r="F94" s="12" t="str">
         <f>_xll.qlSimpleQuote(E94,,PriceTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDIMMFRA6MM1_Quote#0002</v>
+        <v>HKDIMMFRA6MM1_Quote#0001</v>
       </c>
       <c r="G94" s="61" t="str">
         <f>_xll.ohRangeRetrieveError(F94)</f>
@@ -11234,7 +11215,7 @@
       </c>
       <c r="F95" s="12" t="str">
         <f>_xll.qlSimpleQuote(E95,,PriceTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDIMMFRA6MN1_Quote#0002</v>
+        <v>HKDIMMFRA6MN1_Quote#0001</v>
       </c>
       <c r="G95" s="61" t="str">
         <f>_xll.ohRangeRetrieveError(F95)</f>
@@ -11259,7 +11240,7 @@
       </c>
       <c r="F96" s="12" t="str">
         <f>_xll.qlSimpleQuote(E96,,PriceTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDIMMFRA6MQ1_Quote#0002</v>
+        <v>HKDIMMFRA6MQ1_Quote#0001</v>
       </c>
       <c r="G96" s="61" t="str">
         <f>_xll.ohRangeRetrieveError(F96)</f>
@@ -11284,7 +11265,7 @@
       </c>
       <c r="F97" s="12" t="str">
         <f>_xll.qlSimpleQuote(E97,,PriceTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDIMMFRA6MU1_Quote#0002</v>
+        <v>HKDIMMFRA6MU1_Quote#0001</v>
       </c>
       <c r="G97" s="61" t="str">
         <f>_xll.ohRangeRetrieveError(F97)</f>
@@ -11309,7 +11290,7 @@
       </c>
       <c r="F98" s="12" t="str">
         <f>_xll.qlSimpleQuote(E98,,PriceTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDIMMFRA6MV1_Quote#0002</v>
+        <v>HKDIMMFRA6MV1_Quote#0001</v>
       </c>
       <c r="G98" s="61" t="str">
         <f>_xll.ohRangeRetrieveError(F98)</f>
@@ -11334,7 +11315,7 @@
       </c>
       <c r="F99" s="12" t="str">
         <f>_xll.qlSimpleQuote(E99,,PriceTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDIMMFRA6MX1_Quote#0002</v>
+        <v>HKDIMMFRA6MX1_Quote#0001</v>
       </c>
       <c r="G99" s="61" t="str">
         <f>_xll.ohRangeRetrieveError(F99)</f>
@@ -11359,7 +11340,7 @@
       </c>
       <c r="F100" s="12" t="str">
         <f>_xll.qlSimpleQuote(E100,,PriceTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDIMMFRA6MZ1_Quote#0002</v>
+        <v>HKDIMMFRA6MZ1_Quote#0001</v>
       </c>
       <c r="G100" s="61" t="str">
         <f>_xll.ohRangeRetrieveError(F100)</f>
@@ -11384,7 +11365,7 @@
       </c>
       <c r="F101" s="12" t="str">
         <f>_xll.qlSimpleQuote(E101,,PriceTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDIMMFRA6MF2_Quote#0002</v>
+        <v>HKDIMMFRA6MF2_Quote#0001</v>
       </c>
       <c r="G101" s="61" t="str">
         <f>_xll.ohRangeRetrieveError(F101)</f>
@@ -11409,7 +11390,7 @@
       </c>
       <c r="F102" s="12" t="str">
         <f>_xll.qlSimpleQuote(E102,,PriceTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDIMMFRA6MG2_Quote#0002</v>
+        <v>HKDIMMFRA6MG2_Quote#0001</v>
       </c>
       <c r="G102" s="61" t="str">
         <f>_xll.ohRangeRetrieveError(F102)</f>
@@ -11434,7 +11415,7 @@
       </c>
       <c r="F103" s="12" t="str">
         <f>_xll.qlSimpleQuote(E103,,PriceTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDIMMFRA6MH2_Quote#0002</v>
+        <v>HKDIMMFRA6MH2_Quote#0001</v>
       </c>
       <c r="G103" s="61" t="str">
         <f>_xll.ohRangeRetrieveError(F103)</f>
@@ -11459,7 +11440,7 @@
       </c>
       <c r="F104" s="12" t="str">
         <f>_xll.qlSimpleQuote(E104,,PriceTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDIMMFRA6MJ2_Quote#0002</v>
+        <v>HKDIMMFRA6MJ2_Quote#0001</v>
       </c>
       <c r="G104" s="61" t="str">
         <f>_xll.ohRangeRetrieveError(F104)</f>
@@ -11484,7 +11465,7 @@
       </c>
       <c r="F105" s="12" t="str">
         <f>_xll.qlSimpleQuote(E105,,PriceTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDIMMFRA6MK2_Quote#0002</v>
+        <v>HKDIMMFRA6MK2_Quote#0001</v>
       </c>
       <c r="G105" s="61" t="str">
         <f>_xll.ohRangeRetrieveError(F105)</f>
@@ -11509,7 +11490,7 @@
       </c>
       <c r="F106" s="12" t="str">
         <f>_xll.qlSimpleQuote(E106,,PriceTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDIMMFRA6MM2_Quote#0002</v>
+        <v>HKDIMMFRA6MM2_Quote#0001</v>
       </c>
       <c r="G106" s="61" t="str">
         <f>_xll.ohRangeRetrieveError(F106)</f>
@@ -11534,7 +11515,7 @@
       </c>
       <c r="F107" s="12" t="str">
         <f>_xll.qlSimpleQuote(E107,,PriceTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDIMMFRA6MN2_Quote#0002</v>
+        <v>HKDIMMFRA6MN2_Quote#0001</v>
       </c>
       <c r="G107" s="61" t="str">
         <f>_xll.ohRangeRetrieveError(F107)</f>
@@ -11559,7 +11540,7 @@
       </c>
       <c r="F108" s="12" t="str">
         <f>_xll.qlSimpleQuote(E108,,PriceTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDIMMFRA6MQ2_Quote#0002</v>
+        <v>HKDIMMFRA6MQ2_Quote#0001</v>
       </c>
       <c r="G108" s="61" t="str">
         <f>_xll.ohRangeRetrieveError(F108)</f>
@@ -11584,7 +11565,7 @@
       </c>
       <c r="F109" s="12" t="str">
         <f>_xll.qlSimpleQuote(E109,,PriceTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDIMMFRA6MU2_Quote#0002</v>
+        <v>HKDIMMFRA6MU2_Quote#0001</v>
       </c>
       <c r="G109" s="61" t="str">
         <f>_xll.ohRangeRetrieveError(F109)</f>
@@ -11609,7 +11590,7 @@
       </c>
       <c r="F110" s="12" t="str">
         <f>_xll.qlSimpleQuote(E110,,PriceTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDIMMFRA6MV2_Quote#0002</v>
+        <v>HKDIMMFRA6MV2_Quote#0001</v>
       </c>
       <c r="G110" s="61" t="str">
         <f>_xll.ohRangeRetrieveError(F110)</f>
@@ -11634,7 +11615,7 @@
       </c>
       <c r="F111" s="12" t="str">
         <f>_xll.qlSimpleQuote(E111,,PriceTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDIMMFRA6MX2_Quote#0002</v>
+        <v>HKDIMMFRA6MX2_Quote#0001</v>
       </c>
       <c r="G111" s="61" t="str">
         <f>_xll.ohRangeRetrieveError(F111)</f>
@@ -11659,7 +11640,7 @@
       </c>
       <c r="F112" s="12" t="str">
         <f>_xll.qlSimpleQuote(E112,,PriceTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDIMMFRA6MZ2_Quote#0002</v>
+        <v>HKDIMMFRA6MZ2_Quote#0001</v>
       </c>
       <c r="G112" s="61" t="str">
         <f>_xll.ohRangeRetrieveError(F112)</f>
@@ -11684,7 +11665,7 @@
       </c>
       <c r="F113" s="12" t="str">
         <f>_xll.qlSimpleQuote(E113,,PriceTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDIMMFRA6MF3_Quote#0002</v>
+        <v>HKDIMMFRA6MF3_Quote#0001</v>
       </c>
       <c r="G113" s="61" t="str">
         <f>_xll.ohRangeRetrieveError(F113)</f>
@@ -11709,7 +11690,7 @@
       </c>
       <c r="F114" s="12" t="str">
         <f>_xll.qlSimpleQuote(E114,,PriceTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDIMMFRA6MG3_Quote#0002</v>
+        <v>HKDIMMFRA6MG3_Quote#0001</v>
       </c>
       <c r="G114" s="61" t="str">
         <f>_xll.ohRangeRetrieveError(F114)</f>
@@ -11734,7 +11715,7 @@
       </c>
       <c r="F115" s="12" t="str">
         <f>_xll.qlSimpleQuote(E115,,PriceTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDIMMFRA6MH3_Quote#0002</v>
+        <v>HKDIMMFRA6MH3_Quote#0001</v>
       </c>
       <c r="G115" s="61" t="str">
         <f>_xll.ohRangeRetrieveError(F115)</f>
@@ -11759,7 +11740,7 @@
       </c>
       <c r="F116" s="12" t="str">
         <f>_xll.qlSimpleQuote(E116,,PriceTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDIMMFRA6MJ3_Quote#0002</v>
+        <v>HKDIMMFRA6MJ3_Quote#0001</v>
       </c>
       <c r="G116" s="61" t="str">
         <f>_xll.ohRangeRetrieveError(F116)</f>
@@ -11784,7 +11765,7 @@
       </c>
       <c r="F117" s="12" t="str">
         <f>_xll.qlSimpleQuote(E117,,PriceTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDIMMFRA6MK3_Quote#0002</v>
+        <v>HKDIMMFRA6MK3_Quote#0001</v>
       </c>
       <c r="G117" s="61" t="str">
         <f>_xll.ohRangeRetrieveError(F117)</f>
@@ -11809,7 +11790,7 @@
       </c>
       <c r="F118" s="12" t="str">
         <f>_xll.qlSimpleQuote(E118,,PriceTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDIMMFRA6MM3_Quote#0002</v>
+        <v>HKDIMMFRA6MM3_Quote#0001</v>
       </c>
       <c r="G118" s="61" t="str">
         <f>_xll.ohRangeRetrieveError(F118)</f>
@@ -11834,7 +11815,7 @@
       </c>
       <c r="F119" s="12" t="str">
         <f>_xll.qlSimpleQuote(E119,,PriceTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDIMMFRA6MN3_Quote#0002</v>
+        <v>HKDIMMFRA6MN3_Quote#0001</v>
       </c>
       <c r="G119" s="61" t="str">
         <f>_xll.ohRangeRetrieveError(F119)</f>
@@ -11859,7 +11840,7 @@
       </c>
       <c r="F120" s="12" t="str">
         <f>_xll.qlSimpleQuote(E120,,PriceTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDIMMFRA6MQ3_Quote#0002</v>
+        <v>HKDIMMFRA6MQ3_Quote#0001</v>
       </c>
       <c r="G120" s="61" t="str">
         <f>_xll.ohRangeRetrieveError(F120)</f>
@@ -11884,7 +11865,7 @@
       </c>
       <c r="F121" s="12" t="str">
         <f>_xll.qlSimpleQuote(E121,,PriceTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDIMMFRA6MU3_Quote#0002</v>
+        <v>HKDIMMFRA6MU3_Quote#0001</v>
       </c>
       <c r="G121" s="61" t="str">
         <f>_xll.ohRangeRetrieveError(F121)</f>
@@ -11909,7 +11890,7 @@
       </c>
       <c r="F122" s="12" t="str">
         <f>_xll.qlSimpleQuote(E122,,PriceTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDIMMFRA6MV3_Quote#0002</v>
+        <v>HKDIMMFRA6MV3_Quote#0001</v>
       </c>
       <c r="G122" s="61" t="str">
         <f>_xll.ohRangeRetrieveError(F122)</f>
@@ -11967,13 +11948,13 @@
         <f>Currency&amp;"_010_"&amp;"FuturesHWConvAdj.xml"</f>
         <v>HKD_010_FuturesHWConvAdj.xml</v>
       </c>
-      <c r="C2" s="70">
+      <c r="C2" s="70" t="e">
         <f>IF(Serialize,_xll.ohObjectSave(C3:C4,SerializationPath&amp;B2,FileOverwrite,Serialize),"---")</f>
-        <v>2</v>
+        <v>#NUM!</v>
       </c>
       <c r="D2" s="61" t="str">
-        <f>_xll.ohRangeRetrieveError(C2)</f>
-        <v/>
+        <f ca="1">_xll.ohRangeRetrieveError(C2)</f>
+        <v>ohObjectSave - Invalid parent path : C:\Projects\quantlib\QuantLibXL\Data\XML\020_YieldCurveBootstrap\010_Quotes\HKD_010_FuturesHWConvAdj.xml</v>
       </c>
       <c r="E2" s="43"/>
     </row>
@@ -11985,7 +11966,7 @@
       </c>
       <c r="C3" s="29" t="str">
         <f>_xll.qlSimpleQuote(B3,,,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDHW_Volatility_Quote#0002</v>
+        <v>HKDHW_Volatility_Quote#0001</v>
       </c>
       <c r="D3" s="61" t="str">
         <f>_xll.ohRangeRetrieveError(C3)</f>
@@ -12001,7 +11982,7 @@
       </c>
       <c r="C4" s="29" t="str">
         <f>_xll.qlSimpleQuote(B4,,,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDHW_MeanReversion_Quote#0002</v>
+        <v>HKDHW_MeanReversion_Quote#0001</v>
       </c>
       <c r="D4" s="61" t="str">
         <f>_xll.ohRangeRetrieveError(C4)</f>

--- a/QuantLibXL/Data/XLS/020_YieldCurveBootstrap/010_Quotes/HKD_010_DepoFRAFuturesQuotes.xlsx
+++ b/QuantLibXL/Data/XLS/020_YieldCurveBootstrap/010_Quotes/HKD_010_DepoFRAFuturesQuotes.xlsx
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="60">
   <si>
     <t>Currency</t>
   </si>
@@ -209,6 +209,9 @@
   </si>
   <si>
     <t>x12F</t>
+  </si>
+  <si>
+    <t>C:\Users\erik\junk\</t>
   </si>
 </sst>
 </file>
@@ -1296,9 +1299,8 @@
       <c r="C8" s="20" t="s">
         <v>22</v>
       </c>
-      <c r="D8" s="23" t="str">
-        <f>qlSerializationPath(Trigger)</f>
-        <v>C:\Projects\quantlib\QuantLibXL\Data\XML\020_YieldCurveBootstrap\010_Quotes\</v>
+      <c r="D8" s="23" t="s">
+        <v>59</v>
       </c>
       <c r="E8" s="22"/>
     </row>
@@ -1439,7 +1441,7 @@
       </c>
       <c r="E2" s="65" t="str">
         <f ca="1">_xll.ohRangeRetrieveError(D2)</f>
-        <v>ohObjectSave - Invalid parent path : C:\Projects\quantlib\QuantLibXL\Data\XML\020_YieldCurveBootstrap\010_Quotes\HKD_010_Deposits.xml</v>
+        <v/>
       </c>
       <c r="F2" s="34"/>
     </row>
@@ -1845,7 +1847,7 @@
       </c>
       <c r="F2" s="75" t="str">
         <f ca="1">_xll.ohRangeRetrieveError(E2)</f>
-        <v>ohObjectSave - Invalid parent path : C:\Projects\quantlib\QuantLibXL\Data\XML\020_YieldCurveBootstrap\010_Quotes\HKD_010_FRA.xml</v>
+        <v/>
       </c>
       <c r="G2" s="2"/>
     </row>
@@ -2733,7 +2735,7 @@
       </c>
       <c r="G2" s="65" t="str">
         <f ca="1">_xll.ohRangeRetrieveError(F2)</f>
-        <v>ohObjectSave - Invalid parent path : C:\Projects\quantlib\QuantLibXL\Data\XML\020_YieldCurveBootstrap\010_Quotes\HKD_010_FUT1M.xml</v>
+        <v/>
       </c>
       <c r="H2" s="55"/>
     </row>
@@ -5813,7 +5815,7 @@
       </c>
       <c r="G2" s="65" t="str">
         <f ca="1">_xll.ohRangeRetrieveError(F2)</f>
-        <v>ohObjectSave - Invalid parent path : C:\Projects\quantlib\QuantLibXL\Data\XML\020_YieldCurveBootstrap\010_Quotes\HKD_010_FUT3M.xml</v>
+        <v/>
       </c>
       <c r="H2" s="55"/>
     </row>
@@ -8893,7 +8895,7 @@
       </c>
       <c r="G2" s="65" t="str">
         <f ca="1">_xll.ohRangeRetrieveError(F2)</f>
-        <v>ohObjectSave - Invalid parent path : C:\Projects\quantlib\QuantLibXL\Data\XML\020_YieldCurveBootstrap\010_Quotes\HKD_010_IMMFRA6M.xml</v>
+        <v/>
       </c>
       <c r="H2" s="55"/>
     </row>
@@ -11954,7 +11956,7 @@
       </c>
       <c r="D2" s="61" t="str">
         <f ca="1">_xll.ohRangeRetrieveError(C2)</f>
-        <v>ohObjectSave - Invalid parent path : C:\Projects\quantlib\QuantLibXL\Data\XML\020_YieldCurveBootstrap\010_Quotes\HKD_010_FuturesHWConvAdj.xml</v>
+        <v/>
       </c>
       <c r="E2" s="43"/>
     </row>

--- a/QuantLibXL/Data/XLS/020_YieldCurveBootstrap/010_Quotes/HKD_010_DepoFRAFuturesQuotes.xlsx
+++ b/QuantLibXL/Data/XLS/020_YieldCurveBootstrap/010_Quotes/HKD_010_DepoFRAFuturesQuotes.xlsx
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="59">
   <si>
     <t>Currency</t>
   </si>
@@ -209,9 +209,6 @@
   </si>
   <si>
     <t>x12F</t>
-  </si>
-  <si>
-    <t>C:\Users\erik\junk\</t>
   </si>
 </sst>
 </file>
@@ -1299,8 +1296,9 @@
       <c r="C8" s="20" t="s">
         <v>22</v>
       </c>
-      <c r="D8" s="23" t="s">
-        <v>59</v>
+      <c r="D8" s="23" t="str">
+        <f ca="1">SUBSTITUTE(LEFT(CELL("filename",A1),FIND("[",CELL("filename",A1),1)-1),"\XLS\","\XML\")</f>
+        <v>C:\Users\erik\Documents\repos\quantlib_nando\QuantLibXL\Data\XML\020_YieldCurveBootstrap\010_Quotes\</v>
       </c>
       <c r="E8" s="22"/>
     </row>
@@ -1436,12 +1434,12 @@
         <v>HKD_010_Deposits.xml</v>
       </c>
       <c r="D2" s="72" t="e">
-        <f>IF(Serialize,_xll.ohObjectSave(D3:D20,SerializationPath&amp;C2,FileOverwrite,Serialize),"---")</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="E2" s="65" t="str">
+        <f ca="1">IF(Serialize,_xll.ohObjectSave(D3:D20,SerializationPath&amp;C2,FileOverwrite,Serialize),"---")</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="E2" s="65" t="e">
         <f ca="1">_xll.ohRangeRetrieveError(D2)</f>
-        <v/>
+        <v>#NAME?</v>
       </c>
       <c r="F2" s="34"/>
     </row>
@@ -1842,12 +1840,12 @@
         <v>HKD_010_FRA.xml</v>
       </c>
       <c r="E2" s="80" t="e">
-        <f>IF(Serialize,_xll.ohObjectSave(E3:E38,SerializationPath&amp;D2,FileOverwrite,Serialize),"---")</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="F2" s="75" t="str">
+        <f ca="1">IF(Serialize,_xll.ohObjectSave(E3:E38,SerializationPath&amp;D2,FileOverwrite,Serialize),"---")</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="F2" s="75" t="e">
         <f ca="1">_xll.ohRangeRetrieveError(E2)</f>
-        <v/>
+        <v>#NAME?</v>
       </c>
       <c r="G2" s="2"/>
     </row>
@@ -2730,12 +2728,12 @@
         <v>HKD_010_FUT1M.xml</v>
       </c>
       <c r="F2" s="64" t="e">
-        <f>IF(Serialize,_xll.ohObjectSave(F3:F122,SerializationPath&amp;E2,FileOverwrite,Serialize),"---")</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="G2" s="65" t="str">
+        <f ca="1">IF(Serialize,_xll.ohObjectSave(F3:F122,SerializationPath&amp;E2,FileOverwrite,Serialize),"---")</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="G2" s="65" t="e">
         <f ca="1">_xll.ohRangeRetrieveError(F2)</f>
-        <v/>
+        <v>#NAME?</v>
       </c>
       <c r="H2" s="55"/>
     </row>
@@ -5810,12 +5808,12 @@
         <v>HKD_010_FUT3M.xml</v>
       </c>
       <c r="F2" s="64" t="e">
-        <f>IF(Serialize,_xll.ohObjectSave(F3:F122,SerializationPath&amp;E2,FileOverwrite,Serialize),"---")</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="G2" s="65" t="str">
+        <f ca="1">IF(Serialize,_xll.ohObjectSave(F3:F122,SerializationPath&amp;E2,FileOverwrite,Serialize),"---")</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="G2" s="65" t="e">
         <f ca="1">_xll.ohRangeRetrieveError(F2)</f>
-        <v/>
+        <v>#NAME?</v>
       </c>
       <c r="H2" s="55"/>
     </row>
@@ -8890,12 +8888,12 @@
         <v>HKD_010_IMMFRA6M.xml</v>
       </c>
       <c r="F2" s="64" t="e">
-        <f>IF(Serialize,_xll.ohObjectSave(F3:F122,SerializationPath&amp;E2,FileOverwrite,Serialize),"---")</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="G2" s="65" t="str">
+        <f ca="1">IF(Serialize,_xll.ohObjectSave(F3:F122,SerializationPath&amp;E2,FileOverwrite,Serialize),"---")</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="G2" s="65" t="e">
         <f ca="1">_xll.ohRangeRetrieveError(F2)</f>
-        <v/>
+        <v>#NAME?</v>
       </c>
       <c r="H2" s="55"/>
     </row>
@@ -11951,12 +11949,12 @@
         <v>HKD_010_FuturesHWConvAdj.xml</v>
       </c>
       <c r="C2" s="70" t="e">
-        <f>IF(Serialize,_xll.ohObjectSave(C3:C4,SerializationPath&amp;B2,FileOverwrite,Serialize),"---")</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="D2" s="61" t="str">
+        <f ca="1">IF(Serialize,_xll.ohObjectSave(C3:C4,SerializationPath&amp;B2,FileOverwrite,Serialize),"---")</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="D2" s="61" t="e">
         <f ca="1">_xll.ohRangeRetrieveError(C2)</f>
-        <v/>
+        <v>#NAME?</v>
       </c>
       <c r="E2" s="43"/>
     </row>

--- a/QuantLibXL/Data/XLS/020_YieldCurveBootstrap/010_Quotes/HKD_010_DepoFRAFuturesQuotes.xlsx
+++ b/QuantLibXL/Data/XLS/020_YieldCurveBootstrap/010_Quotes/HKD_010_DepoFRAFuturesQuotes.xlsx
@@ -1229,7 +1229,7 @@
     <row r="1" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B1" s="14" t="str">
         <f>_xll.qlxlVersion(TRUE,Trigger)</f>
-        <v>QuantLibXL 1.3.0 - MS VC++ 9.0 - Multithreaded Dynamic Runtime library - Release Configuration - Nov  4 2013 11:55:45</v>
+        <v>QuantLibXL 1.3.0 - MS VC++ 9.0 - Multithreaded Static Runtime library - Release Configuration - Nov  6 2013 01:01:46</v>
       </c>
     </row>
     <row r="2" spans="1:5" s="16" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
@@ -1298,7 +1298,7 @@
       </c>
       <c r="D8" s="23" t="str">
         <f ca="1">SUBSTITUTE(LEFT(CELL("filename",A1),FIND("[",CELL("filename",A1),1)-1),"\XLS\","\XML\")</f>
-        <v>C:\Users\erik\Documents\repos\quantlib_nando\QuantLibXL\Data\XML\020_YieldCurveBootstrap\010_Quotes\</v>
+        <v>C:\Projects\quantlib\QuantLibXL\Data\XML\020_YieldCurveBootstrap\010_Quotes\</v>
       </c>
       <c r="E8" s="22"/>
     </row>
@@ -1433,13 +1433,13 @@
         <f>Currency&amp;"_010_"&amp;"Deposits.xml"</f>
         <v>HKD_010_Deposits.xml</v>
       </c>
-      <c r="D2" s="72" t="e">
-        <f ca="1">IF(Serialize,_xll.ohObjectSave(D3:D20,SerializationPath&amp;C2,FileOverwrite,Serialize),"---")</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="E2" s="65" t="e">
+      <c r="D2" s="72">
+        <f ca="1">IF(Serialize,_xll.ohObjectSave(D3:D20,SerializationPath&amp;C2,FileOverwrite,,Serialize),"---")</f>
+        <v>18</v>
+      </c>
+      <c r="E2" s="65" t="str">
         <f ca="1">_xll.ohRangeRetrieveError(D2)</f>
-        <v>#NAME?</v>
+        <v/>
       </c>
       <c r="F2" s="34"/>
     </row>
@@ -1454,7 +1454,7 @@
       </c>
       <c r="D3" s="93" t="str">
         <f>_xll.qlSimpleQuote(C3,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDOND_Quote#0001</v>
+        <v>HKDOND_Quote#0002</v>
       </c>
       <c r="E3" s="61" t="str">
         <f>_xll.ohRangeRetrieveError(D3)</f>
@@ -1473,7 +1473,7 @@
       </c>
       <c r="D4" s="93" t="str">
         <f>_xll.qlSimpleQuote(C4,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDTND_Quote#0001</v>
+        <v>HKDTND_Quote#0002</v>
       </c>
       <c r="E4" s="61" t="str">
         <f>_xll.ohRangeRetrieveError(D4)</f>
@@ -1492,7 +1492,7 @@
       </c>
       <c r="D5" s="93" t="str">
         <f>_xll.qlSimpleQuote(C5,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDSND_Quote#0001</v>
+        <v>HKDSND_Quote#0002</v>
       </c>
       <c r="E5" s="61" t="str">
         <f>_xll.ohRangeRetrieveError(D5)</f>
@@ -1511,7 +1511,7 @@
       </c>
       <c r="D6" s="93" t="str">
         <f>_xll.qlSimpleQuote(C6,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDSWD_Quote#0001</v>
+        <v>HKDSWD_Quote#0002</v>
       </c>
       <c r="E6" s="61" t="str">
         <f>_xll.ohRangeRetrieveError(D6)</f>
@@ -1530,7 +1530,7 @@
       </c>
       <c r="D7" s="93" t="str">
         <f>_xll.qlSimpleQuote(C7,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD2WD_Quote#0001</v>
+        <v>HKD2WD_Quote#0002</v>
       </c>
       <c r="E7" s="61" t="str">
         <f>_xll.ohRangeRetrieveError(D7)</f>
@@ -1549,7 +1549,7 @@
       </c>
       <c r="D8" s="93" t="str">
         <f>_xll.qlSimpleQuote(C8,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD3WD_Quote#0001</v>
+        <v>HKD3WD_Quote#0002</v>
       </c>
       <c r="E8" s="61" t="str">
         <f>_xll.ohRangeRetrieveError(D8)</f>
@@ -1568,7 +1568,7 @@
       </c>
       <c r="D9" s="93" t="str">
         <f>_xll.qlSimpleQuote(C9,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD1MD_Quote#0001</v>
+        <v>HKD1MD_Quote#0002</v>
       </c>
       <c r="E9" s="61" t="str">
         <f>_xll.ohRangeRetrieveError(D9)</f>
@@ -1587,7 +1587,7 @@
       </c>
       <c r="D10" s="93" t="str">
         <f>_xll.qlSimpleQuote(C10,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD2MD_Quote#0001</v>
+        <v>HKD2MD_Quote#0002</v>
       </c>
       <c r="E10" s="61" t="str">
         <f>_xll.ohRangeRetrieveError(D10)</f>
@@ -1606,7 +1606,7 @@
       </c>
       <c r="D11" s="93" t="str">
         <f>_xll.qlSimpleQuote(C11,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD3MD_Quote#0001</v>
+        <v>HKD3MD_Quote#0002</v>
       </c>
       <c r="E11" s="61" t="str">
         <f>_xll.ohRangeRetrieveError(D11)</f>
@@ -1625,7 +1625,7 @@
       </c>
       <c r="D12" s="93" t="str">
         <f>_xll.qlSimpleQuote(C12,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD4MD_Quote#0001</v>
+        <v>HKD4MD_Quote#0002</v>
       </c>
       <c r="E12" s="61" t="str">
         <f>_xll.ohRangeRetrieveError(D12)</f>
@@ -1644,7 +1644,7 @@
       </c>
       <c r="D13" s="93" t="str">
         <f>_xll.qlSimpleQuote(C13,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD5MD_Quote#0001</v>
+        <v>HKD5MD_Quote#0002</v>
       </c>
       <c r="E13" s="61" t="str">
         <f>_xll.ohRangeRetrieveError(D13)</f>
@@ -1663,7 +1663,7 @@
       </c>
       <c r="D14" s="93" t="str">
         <f>_xll.qlSimpleQuote(C14,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD6MD_Quote#0001</v>
+        <v>HKD6MD_Quote#0002</v>
       </c>
       <c r="E14" s="61" t="str">
         <f>_xll.ohRangeRetrieveError(D14)</f>
@@ -1682,7 +1682,7 @@
       </c>
       <c r="D15" s="93" t="str">
         <f>_xll.qlSimpleQuote(C15,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD7MD_Quote#0001</v>
+        <v>HKD7MD_Quote#0002</v>
       </c>
       <c r="E15" s="61" t="str">
         <f>_xll.ohRangeRetrieveError(D15)</f>
@@ -1701,7 +1701,7 @@
       </c>
       <c r="D16" s="93" t="str">
         <f>_xll.qlSimpleQuote(C16,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD8MD_Quote#0001</v>
+        <v>HKD8MD_Quote#0002</v>
       </c>
       <c r="E16" s="61" t="str">
         <f>_xll.ohRangeRetrieveError(D16)</f>
@@ -1720,7 +1720,7 @@
       </c>
       <c r="D17" s="93" t="str">
         <f>_xll.qlSimpleQuote(C17,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD9MD_Quote#0001</v>
+        <v>HKD9MD_Quote#0002</v>
       </c>
       <c r="E17" s="61" t="str">
         <f>_xll.ohRangeRetrieveError(D17)</f>
@@ -1739,7 +1739,7 @@
       </c>
       <c r="D18" s="93" t="str">
         <f>_xll.qlSimpleQuote(C18,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD10MD_Quote#0001</v>
+        <v>HKD10MD_Quote#0002</v>
       </c>
       <c r="E18" s="61" t="str">
         <f>_xll.ohRangeRetrieveError(D18)</f>
@@ -1758,7 +1758,7 @@
       </c>
       <c r="D19" s="93" t="str">
         <f>_xll.qlSimpleQuote(C19,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD11MD_Quote#0001</v>
+        <v>HKD11MD_Quote#0002</v>
       </c>
       <c r="E19" s="61" t="str">
         <f>_xll.ohRangeRetrieveError(D19)</f>
@@ -1777,7 +1777,7 @@
       </c>
       <c r="D20" s="93" t="str">
         <f>_xll.qlSimpleQuote(C20,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD1YD_Quote#0001</v>
+        <v>HKD1YD_Quote#0002</v>
       </c>
       <c r="E20" s="61" t="str">
         <f>_xll.ohRangeRetrieveError(D20)</f>
@@ -1839,13 +1839,13 @@
         <f>Currency&amp;"_010_"&amp;"FRA.xml"</f>
         <v>HKD_010_FRA.xml</v>
       </c>
-      <c r="E2" s="80" t="e">
-        <f ca="1">IF(Serialize,_xll.ohObjectSave(E3:E38,SerializationPath&amp;D2,FileOverwrite,Serialize),"---")</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="F2" s="75" t="e">
+      <c r="E2" s="80">
+        <f ca="1">IF(Serialize,_xll.ohObjectSave(E3:E38,SerializationPath&amp;D2,FileOverwrite,,Serialize),"---")</f>
+        <v>36</v>
+      </c>
+      <c r="F2" s="75" t="str">
         <f ca="1">_xll.ohRangeRetrieveError(E2)</f>
-        <v>#NAME?</v>
+        <v/>
       </c>
       <c r="G2" s="2"/>
     </row>
@@ -1863,7 +1863,7 @@
       </c>
       <c r="E3" s="83" t="str">
         <f>_xll.qlSimpleQuote(D3,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDT1F1_Quote#0001</v>
+        <v>HKDT1F1_Quote#0002</v>
       </c>
       <c r="F3" s="78" t="str">
         <f>_xll.ohRangeRetrieveError(E3)</f>
@@ -1885,7 +1885,7 @@
       </c>
       <c r="E4" s="86" t="str">
         <f>_xll.qlSimpleQuote(D4,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDTOM1F1_Quote#0001</v>
+        <v>HKDTOM1F1_Quote#0002</v>
       </c>
       <c r="F4" s="76" t="str">
         <f>_xll.ohRangeRetrieveError(E4)</f>
@@ -1907,7 +1907,7 @@
       </c>
       <c r="E5" s="83" t="str">
         <f>_xll.qlSimpleQuote(D5,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDT3F1_Quote#0001</v>
+        <v>HKDT3F1_Quote#0002</v>
       </c>
       <c r="F5" s="78" t="str">
         <f>_xll.ohRangeRetrieveError(E5)</f>
@@ -1929,7 +1929,7 @@
       </c>
       <c r="E6" s="86" t="str">
         <f>_xll.qlSimpleQuote(D6,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDTOM3F1_Quote#0001</v>
+        <v>HKDTOM3F1_Quote#0002</v>
       </c>
       <c r="F6" s="76" t="str">
         <f>_xll.ohRangeRetrieveError(E6)</f>
@@ -1951,7 +1951,7 @@
       </c>
       <c r="E7" s="83" t="str">
         <f>_xll.qlSimpleQuote(D7,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD1x4F_Quote#0001</v>
+        <v>HKD1x4F_Quote#0002</v>
       </c>
       <c r="F7" s="78" t="str">
         <f>_xll.ohRangeRetrieveError(E7)</f>
@@ -1973,7 +1973,7 @@
       </c>
       <c r="E8" s="89" t="str">
         <f>_xll.qlSimpleQuote(D8,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD2x5F_Quote#0001</v>
+        <v>HKD2x5F_Quote#0002</v>
       </c>
       <c r="F8" s="79" t="str">
         <f>_xll.ohRangeRetrieveError(E8)</f>
@@ -1995,7 +1995,7 @@
       </c>
       <c r="E9" s="89" t="str">
         <f>_xll.qlSimpleQuote(D9,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD3x6F_Quote#0001</v>
+        <v>HKD3x6F_Quote#0002</v>
       </c>
       <c r="F9" s="79" t="str">
         <f>_xll.ohRangeRetrieveError(E9)</f>
@@ -2017,7 +2017,7 @@
       </c>
       <c r="E10" s="89" t="str">
         <f>_xll.qlSimpleQuote(D10,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD4x7F_Quote#0001</v>
+        <v>HKD4x7F_Quote#0002</v>
       </c>
       <c r="F10" s="79" t="str">
         <f>_xll.ohRangeRetrieveError(E10)</f>
@@ -2039,7 +2039,7 @@
       </c>
       <c r="E11" s="89" t="str">
         <f>_xll.qlSimpleQuote(D11,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD5x8F_Quote#0001</v>
+        <v>HKD5x8F_Quote#0002</v>
       </c>
       <c r="F11" s="79" t="str">
         <f>_xll.ohRangeRetrieveError(E11)</f>
@@ -2061,7 +2061,7 @@
       </c>
       <c r="E12" s="89" t="str">
         <f>_xll.qlSimpleQuote(D12,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD6x9F_Quote#0001</v>
+        <v>HKD6x9F_Quote#0002</v>
       </c>
       <c r="F12" s="79" t="str">
         <f>_xll.ohRangeRetrieveError(E12)</f>
@@ -2083,7 +2083,7 @@
       </c>
       <c r="E13" s="89" t="str">
         <f>_xll.qlSimpleQuote(D13,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD7x10F_Quote#0001</v>
+        <v>HKD7x10F_Quote#0002</v>
       </c>
       <c r="F13" s="79" t="str">
         <f>_xll.ohRangeRetrieveError(E13)</f>
@@ -2105,7 +2105,7 @@
       </c>
       <c r="E14" s="89" t="str">
         <f>_xll.qlSimpleQuote(D14,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD8x11F_Quote#0001</v>
+        <v>HKD8x11F_Quote#0002</v>
       </c>
       <c r="F14" s="79" t="str">
         <f>_xll.ohRangeRetrieveError(E14)</f>
@@ -2127,7 +2127,7 @@
       </c>
       <c r="E15" s="86" t="str">
         <f>_xll.qlSimpleQuote(D15,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD9x12F_Quote#0001</v>
+        <v>HKD9x12F_Quote#0002</v>
       </c>
       <c r="F15" s="76" t="str">
         <f>_xll.ohRangeRetrieveError(E15)</f>
@@ -2149,7 +2149,7 @@
       </c>
       <c r="E16" s="83" t="str">
         <f>_xll.qlSimpleQuote(D16,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDT6F1_Quote#0001</v>
+        <v>HKDT6F1_Quote#0002</v>
       </c>
       <c r="F16" s="78" t="str">
         <f>_xll.ohRangeRetrieveError(E16)</f>
@@ -2171,7 +2171,7 @@
       </c>
       <c r="E17" s="86" t="str">
         <f>_xll.qlSimpleQuote(D17,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDTOM6F1_Quote#0001</v>
+        <v>HKDTOM6F1_Quote#0002</v>
       </c>
       <c r="F17" s="76" t="str">
         <f>_xll.ohRangeRetrieveError(E17)</f>
@@ -2194,7 +2194,7 @@
       </c>
       <c r="E18" s="83" t="str">
         <f>_xll.qlSimpleQuote(D18,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD1x7F_Quote#0001</v>
+        <v>HKD1x7F_Quote#0002</v>
       </c>
       <c r="F18" s="78" t="str">
         <f>_xll.ohRangeRetrieveError(E18)</f>
@@ -2217,7 +2217,7 @@
       </c>
       <c r="E19" s="89" t="str">
         <f>_xll.qlSimpleQuote(D19,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD2x8F_Quote#0001</v>
+        <v>HKD2x8F_Quote#0002</v>
       </c>
       <c r="F19" s="79" t="str">
         <f>_xll.ohRangeRetrieveError(E19)</f>
@@ -2240,7 +2240,7 @@
       </c>
       <c r="E20" s="89" t="str">
         <f>_xll.qlSimpleQuote(D20,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD3x9F_Quote#0001</v>
+        <v>HKD3x9F_Quote#0002</v>
       </c>
       <c r="F20" s="79" t="str">
         <f>_xll.ohRangeRetrieveError(E20)</f>
@@ -2263,7 +2263,7 @@
       </c>
       <c r="E21" s="89" t="str">
         <f>_xll.qlSimpleQuote(D21,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD4x10F_Quote#0001</v>
+        <v>HKD4x10F_Quote#0002</v>
       </c>
       <c r="F21" s="79" t="str">
         <f>_xll.ohRangeRetrieveError(E21)</f>
@@ -2286,7 +2286,7 @@
       </c>
       <c r="E22" s="89" t="str">
         <f>_xll.qlSimpleQuote(D22,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD5x11F_Quote#0001</v>
+        <v>HKD5x11F_Quote#0002</v>
       </c>
       <c r="F22" s="79" t="str">
         <f>_xll.ohRangeRetrieveError(E22)</f>
@@ -2309,7 +2309,7 @@
       </c>
       <c r="E23" s="89" t="str">
         <f>_xll.qlSimpleQuote(D23,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD6x12F_Quote#0001</v>
+        <v>HKD6x12F_Quote#0002</v>
       </c>
       <c r="F23" s="79" t="str">
         <f>_xll.ohRangeRetrieveError(E23)</f>
@@ -2332,7 +2332,7 @@
       </c>
       <c r="E24" s="89" t="str">
         <f>_xll.qlSimpleQuote(D24,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD7x13F_Quote#0001</v>
+        <v>HKD7x13F_Quote#0002</v>
       </c>
       <c r="F24" s="79" t="str">
         <f>_xll.ohRangeRetrieveError(E24)</f>
@@ -2355,7 +2355,7 @@
       </c>
       <c r="E25" s="89" t="str">
         <f>_xll.qlSimpleQuote(D25,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD8x14F_Quote#0001</v>
+        <v>HKD8x14F_Quote#0002</v>
       </c>
       <c r="F25" s="79" t="str">
         <f>_xll.ohRangeRetrieveError(E25)</f>
@@ -2378,7 +2378,7 @@
       </c>
       <c r="E26" s="89" t="str">
         <f>_xll.qlSimpleQuote(D26,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD9x15F_Quote#0001</v>
+        <v>HKD9x15F_Quote#0002</v>
       </c>
       <c r="F26" s="79" t="str">
         <f>_xll.ohRangeRetrieveError(E26)</f>
@@ -2401,7 +2401,7 @@
       </c>
       <c r="E27" s="89" t="str">
         <f>_xll.qlSimpleQuote(D27,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD10x16F_Quote#0001</v>
+        <v>HKD10x16F_Quote#0002</v>
       </c>
       <c r="F27" s="79" t="str">
         <f>_xll.ohRangeRetrieveError(E27)</f>
@@ -2424,7 +2424,7 @@
       </c>
       <c r="E28" s="89" t="str">
         <f>_xll.qlSimpleQuote(D28,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD11x17F_Quote#0001</v>
+        <v>HKD11x17F_Quote#0002</v>
       </c>
       <c r="F28" s="79" t="str">
         <f>_xll.ohRangeRetrieveError(E28)</f>
@@ -2447,7 +2447,7 @@
       </c>
       <c r="E29" s="89" t="str">
         <f>_xll.qlSimpleQuote(D29,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD12x18F_Quote#0001</v>
+        <v>HKD12x18F_Quote#0002</v>
       </c>
       <c r="F29" s="79" t="str">
         <f>_xll.ohRangeRetrieveError(E29)</f>
@@ -2470,7 +2470,7 @@
       </c>
       <c r="E30" s="89" t="str">
         <f>_xll.qlSimpleQuote(D30,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD13x19F_Quote#0001</v>
+        <v>HKD13x19F_Quote#0002</v>
       </c>
       <c r="F30" s="79" t="str">
         <f>_xll.ohRangeRetrieveError(E30)</f>
@@ -2493,7 +2493,7 @@
       </c>
       <c r="E31" s="89" t="str">
         <f>_xll.qlSimpleQuote(D31,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD14x20F_Quote#0001</v>
+        <v>HKD14x20F_Quote#0002</v>
       </c>
       <c r="F31" s="79" t="str">
         <f>_xll.ohRangeRetrieveError(E31)</f>
@@ -2516,7 +2516,7 @@
       </c>
       <c r="E32" s="89" t="str">
         <f>_xll.qlSimpleQuote(D32,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD15x21F_Quote#0001</v>
+        <v>HKD15x21F_Quote#0002</v>
       </c>
       <c r="F32" s="79" t="str">
         <f>_xll.ohRangeRetrieveError(E32)</f>
@@ -2539,7 +2539,7 @@
       </c>
       <c r="E33" s="89" t="str">
         <f>_xll.qlSimpleQuote(D33,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD16x22F_Quote#0001</v>
+        <v>HKD16x22F_Quote#0002</v>
       </c>
       <c r="F33" s="79" t="str">
         <f>_xll.ohRangeRetrieveError(E33)</f>
@@ -2562,7 +2562,7 @@
       </c>
       <c r="E34" s="89" t="str">
         <f>_xll.qlSimpleQuote(D34,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD17x23F_Quote#0001</v>
+        <v>HKD17x23F_Quote#0002</v>
       </c>
       <c r="F34" s="79" t="str">
         <f>_xll.ohRangeRetrieveError(E34)</f>
@@ -2585,7 +2585,7 @@
       </c>
       <c r="E35" s="86" t="str">
         <f>_xll.qlSimpleQuote(D35,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD18x24F_Quote#0001</v>
+        <v>HKD18x24F_Quote#0002</v>
       </c>
       <c r="F35" s="76" t="str">
         <f>_xll.ohRangeRetrieveError(E35)</f>
@@ -2607,7 +2607,7 @@
       </c>
       <c r="E36" s="83" t="str">
         <f>_xll.qlSimpleQuote(D36,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDT12F1_Quote#0001</v>
+        <v>HKDT12F1_Quote#0002</v>
       </c>
       <c r="F36" s="78" t="str">
         <f>_xll.ohRangeRetrieveError(E36)</f>
@@ -2629,7 +2629,7 @@
       </c>
       <c r="E37" s="86" t="str">
         <f>_xll.qlSimpleQuote(D37,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDTOM12F1_Quote#0001</v>
+        <v>HKDTOM12F1_Quote#0002</v>
       </c>
       <c r="F37" s="76" t="str">
         <f>_xll.ohRangeRetrieveError(E37)</f>
@@ -2651,7 +2651,7 @@
       </c>
       <c r="E38" s="86" t="str">
         <f>_xll.qlSimpleQuote(D38,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD12x24F_Quote#0001</v>
+        <v>HKD12x24F_Quote#0002</v>
       </c>
       <c r="F38" s="76" t="str">
         <f>_xll.ohRangeRetrieveError(E38)</f>
@@ -2727,13 +2727,13 @@
         <f>Currency&amp;"_010_"&amp;$D$1&amp;$E$1&amp;".xml"</f>
         <v>HKD_010_FUT1M.xml</v>
       </c>
-      <c r="F2" s="64" t="e">
-        <f ca="1">IF(Serialize,_xll.ohObjectSave(F3:F122,SerializationPath&amp;E2,FileOverwrite,Serialize),"---")</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="G2" s="65" t="e">
+      <c r="F2" s="64">
+        <f ca="1">IF(Serialize,_xll.ohObjectSave(F3:F122,SerializationPath&amp;E2,FileOverwrite,,Serialize),"---")</f>
+        <v>120</v>
+      </c>
+      <c r="G2" s="65" t="str">
         <f ca="1">_xll.ohRangeRetrieveError(F2)</f>
-        <v>#NAME?</v>
+        <v/>
       </c>
       <c r="H2" s="55"/>
     </row>
@@ -2755,7 +2755,7 @@
       </c>
       <c r="F3" s="41" t="str">
         <f>_xll.qlSimpleQuote(E3,,PriceTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDFUT1MX3_Quote#0001</v>
+        <v>HKDFUT1MX3_Quote#0002</v>
       </c>
       <c r="G3" s="60" t="str">
         <f>_xll.ohRangeRetrieveError(F3)</f>
@@ -2780,7 +2780,7 @@
       </c>
       <c r="F4" s="12" t="str">
         <f>_xll.qlSimpleQuote(E4,,PriceTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDFUT1MZ3_Quote#0001</v>
+        <v>HKDFUT1MZ3_Quote#0002</v>
       </c>
       <c r="G4" s="61" t="str">
         <f>_xll.ohRangeRetrieveError(F4)</f>
@@ -2805,7 +2805,7 @@
       </c>
       <c r="F5" s="12" t="str">
         <f>_xll.qlSimpleQuote(E5,,PriceTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDFUT1MF4_Quote#0001</v>
+        <v>HKDFUT1MF4_Quote#0002</v>
       </c>
       <c r="G5" s="61" t="str">
         <f>_xll.ohRangeRetrieveError(F5)</f>
@@ -2830,7 +2830,7 @@
       </c>
       <c r="F6" s="12" t="str">
         <f>_xll.qlSimpleQuote(E6,,PriceTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDFUT1MG4_Quote#0001</v>
+        <v>HKDFUT1MG4_Quote#0002</v>
       </c>
       <c r="G6" s="61" t="str">
         <f>_xll.ohRangeRetrieveError(F6)</f>
@@ -2855,7 +2855,7 @@
       </c>
       <c r="F7" s="12" t="str">
         <f>_xll.qlSimpleQuote(E7,,PriceTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDFUT1MH4_Quote#0001</v>
+        <v>HKDFUT1MH4_Quote#0002</v>
       </c>
       <c r="G7" s="61" t="str">
         <f>_xll.ohRangeRetrieveError(F7)</f>
@@ -2880,7 +2880,7 @@
       </c>
       <c r="F8" s="12" t="str">
         <f>_xll.qlSimpleQuote(E8,,PriceTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDFUT1MJ4_Quote#0001</v>
+        <v>HKDFUT1MJ4_Quote#0002</v>
       </c>
       <c r="G8" s="61" t="str">
         <f>_xll.ohRangeRetrieveError(F8)</f>
@@ -2905,7 +2905,7 @@
       </c>
       <c r="F9" s="12" t="str">
         <f>_xll.qlSimpleQuote(E9,,PriceTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDFUT1MK4_Quote#0001</v>
+        <v>HKDFUT1MK4_Quote#0002</v>
       </c>
       <c r="G9" s="61" t="str">
         <f>_xll.ohRangeRetrieveError(F9)</f>
@@ -2930,7 +2930,7 @@
       </c>
       <c r="F10" s="12" t="str">
         <f>_xll.qlSimpleQuote(E10,,PriceTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDFUT1MM4_Quote#0001</v>
+        <v>HKDFUT1MM4_Quote#0002</v>
       </c>
       <c r="G10" s="61" t="str">
         <f>_xll.ohRangeRetrieveError(F10)</f>
@@ -2955,7 +2955,7 @@
       </c>
       <c r="F11" s="12" t="str">
         <f>_xll.qlSimpleQuote(E11,,PriceTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDFUT1MN4_Quote#0001</v>
+        <v>HKDFUT1MN4_Quote#0002</v>
       </c>
       <c r="G11" s="61" t="str">
         <f>_xll.ohRangeRetrieveError(F11)</f>
@@ -2980,7 +2980,7 @@
       </c>
       <c r="F12" s="12" t="str">
         <f>_xll.qlSimpleQuote(E12,,PriceTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDFUT1MQ4_Quote#0001</v>
+        <v>HKDFUT1MQ4_Quote#0002</v>
       </c>
       <c r="G12" s="61" t="str">
         <f>_xll.ohRangeRetrieveError(F12)</f>
@@ -3005,7 +3005,7 @@
       </c>
       <c r="F13" s="12" t="str">
         <f>_xll.qlSimpleQuote(E13,,PriceTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDFUT1MU4_Quote#0001</v>
+        <v>HKDFUT1MU4_Quote#0002</v>
       </c>
       <c r="G13" s="61" t="str">
         <f>_xll.ohRangeRetrieveError(F13)</f>
@@ -3030,7 +3030,7 @@
       </c>
       <c r="F14" s="12" t="str">
         <f>_xll.qlSimpleQuote(E14,,PriceTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDFUT1MV4_Quote#0001</v>
+        <v>HKDFUT1MV4_Quote#0002</v>
       </c>
       <c r="G14" s="61" t="str">
         <f>_xll.ohRangeRetrieveError(F14)</f>
@@ -3055,7 +3055,7 @@
       </c>
       <c r="F15" s="12" t="str">
         <f>_xll.qlSimpleQuote(E15,,PriceTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDFUT1MX4_Quote#0001</v>
+        <v>HKDFUT1MX4_Quote#0002</v>
       </c>
       <c r="G15" s="61" t="str">
         <f>_xll.ohRangeRetrieveError(F15)</f>
@@ -3080,7 +3080,7 @@
       </c>
       <c r="F16" s="12" t="str">
         <f>_xll.qlSimpleQuote(E16,,PriceTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDFUT1MZ4_Quote#0001</v>
+        <v>HKDFUT1MZ4_Quote#0002</v>
       </c>
       <c r="G16" s="61" t="str">
         <f>_xll.ohRangeRetrieveError(F16)</f>
@@ -3105,7 +3105,7 @@
       </c>
       <c r="F17" s="12" t="str">
         <f>_xll.qlSimpleQuote(E17,,PriceTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDFUT1MF5_Quote#0001</v>
+        <v>HKDFUT1MF5_Quote#0002</v>
       </c>
       <c r="G17" s="61" t="str">
         <f>_xll.ohRangeRetrieveError(F17)</f>
@@ -3130,7 +3130,7 @@
       </c>
       <c r="F18" s="12" t="str">
         <f>_xll.qlSimpleQuote(E18,,PriceTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDFUT1MG5_Quote#0001</v>
+        <v>HKDFUT1MG5_Quote#0002</v>
       </c>
       <c r="G18" s="61" t="str">
         <f>_xll.ohRangeRetrieveError(F18)</f>
@@ -3155,7 +3155,7 @@
       </c>
       <c r="F19" s="12" t="str">
         <f>_xll.qlSimpleQuote(E19,,PriceTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDFUT1MH5_Quote#0001</v>
+        <v>HKDFUT1MH5_Quote#0002</v>
       </c>
       <c r="G19" s="61" t="str">
         <f>_xll.ohRangeRetrieveError(F19)</f>
@@ -3180,7 +3180,7 @@
       </c>
       <c r="F20" s="12" t="str">
         <f>_xll.qlSimpleQuote(E20,,PriceTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDFUT1MJ5_Quote#0001</v>
+        <v>HKDFUT1MJ5_Quote#0002</v>
       </c>
       <c r="G20" s="61" t="str">
         <f>_xll.ohRangeRetrieveError(F20)</f>
@@ -3205,7 +3205,7 @@
       </c>
       <c r="F21" s="12" t="str">
         <f>_xll.qlSimpleQuote(E21,,PriceTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDFUT1MK5_Quote#0001</v>
+        <v>HKDFUT1MK5_Quote#0002</v>
       </c>
       <c r="G21" s="61" t="str">
         <f>_xll.ohRangeRetrieveError(F21)</f>
@@ -3230,7 +3230,7 @@
       </c>
       <c r="F22" s="12" t="str">
         <f>_xll.qlSimpleQuote(E22,,PriceTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDFUT1MM5_Quote#0001</v>
+        <v>HKDFUT1MM5_Quote#0002</v>
       </c>
       <c r="G22" s="61" t="str">
         <f>_xll.ohRangeRetrieveError(F22)</f>
@@ -3255,7 +3255,7 @@
       </c>
       <c r="F23" s="12" t="str">
         <f>_xll.qlSimpleQuote(E23,,PriceTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDFUT1MN5_Quote#0001</v>
+        <v>HKDFUT1MN5_Quote#0002</v>
       </c>
       <c r="G23" s="61" t="str">
         <f>_xll.ohRangeRetrieveError(F23)</f>
@@ -3280,7 +3280,7 @@
       </c>
       <c r="F24" s="12" t="str">
         <f>_xll.qlSimpleQuote(E24,,PriceTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDFUT1MQ5_Quote#0001</v>
+        <v>HKDFUT1MQ5_Quote#0002</v>
       </c>
       <c r="G24" s="61" t="str">
         <f>_xll.ohRangeRetrieveError(F24)</f>
@@ -3305,7 +3305,7 @@
       </c>
       <c r="F25" s="12" t="str">
         <f>_xll.qlSimpleQuote(E25,,PriceTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDFUT1MU5_Quote#0001</v>
+        <v>HKDFUT1MU5_Quote#0002</v>
       </c>
       <c r="G25" s="61" t="str">
         <f>_xll.ohRangeRetrieveError(F25)</f>
@@ -3330,7 +3330,7 @@
       </c>
       <c r="F26" s="12" t="str">
         <f>_xll.qlSimpleQuote(E26,,PriceTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDFUT1MV5_Quote#0001</v>
+        <v>HKDFUT1MV5_Quote#0002</v>
       </c>
       <c r="G26" s="61" t="str">
         <f>_xll.ohRangeRetrieveError(F26)</f>
@@ -3355,7 +3355,7 @@
       </c>
       <c r="F27" s="12" t="str">
         <f>_xll.qlSimpleQuote(E27,,PriceTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDFUT1MX5_Quote#0001</v>
+        <v>HKDFUT1MX5_Quote#0002</v>
       </c>
       <c r="G27" s="61" t="str">
         <f>_xll.ohRangeRetrieveError(F27)</f>
@@ -3380,7 +3380,7 @@
       </c>
       <c r="F28" s="12" t="str">
         <f>_xll.qlSimpleQuote(E28,,PriceTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDFUT1MZ5_Quote#0001</v>
+        <v>HKDFUT1MZ5_Quote#0002</v>
       </c>
       <c r="G28" s="61" t="str">
         <f>_xll.ohRangeRetrieveError(F28)</f>
@@ -3405,7 +3405,7 @@
       </c>
       <c r="F29" s="12" t="str">
         <f>_xll.qlSimpleQuote(E29,,PriceTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDFUT1MF6_Quote#0001</v>
+        <v>HKDFUT1MF6_Quote#0002</v>
       </c>
       <c r="G29" s="61" t="str">
         <f>_xll.ohRangeRetrieveError(F29)</f>
@@ -3430,7 +3430,7 @@
       </c>
       <c r="F30" s="12" t="str">
         <f>_xll.qlSimpleQuote(E30,,PriceTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDFUT1MG6_Quote#0001</v>
+        <v>HKDFUT1MG6_Quote#0002</v>
       </c>
       <c r="G30" s="61" t="str">
         <f>_xll.ohRangeRetrieveError(F30)</f>
@@ -3455,7 +3455,7 @@
       </c>
       <c r="F31" s="12" t="str">
         <f>_xll.qlSimpleQuote(E31,,PriceTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDFUT1MH6_Quote#0001</v>
+        <v>HKDFUT1MH6_Quote#0002</v>
       </c>
       <c r="G31" s="61" t="str">
         <f>_xll.ohRangeRetrieveError(F31)</f>
@@ -3480,7 +3480,7 @@
       </c>
       <c r="F32" s="12" t="str">
         <f>_xll.qlSimpleQuote(E32,,PriceTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDFUT1MJ6_Quote#0001</v>
+        <v>HKDFUT1MJ6_Quote#0002</v>
       </c>
       <c r="G32" s="61" t="str">
         <f>_xll.ohRangeRetrieveError(F32)</f>
@@ -3505,7 +3505,7 @@
       </c>
       <c r="F33" s="12" t="str">
         <f>_xll.qlSimpleQuote(E33,,PriceTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDFUT1MK6_Quote#0001</v>
+        <v>HKDFUT1MK6_Quote#0002</v>
       </c>
       <c r="G33" s="61" t="str">
         <f>_xll.ohRangeRetrieveError(F33)</f>
@@ -3530,7 +3530,7 @@
       </c>
       <c r="F34" s="12" t="str">
         <f>_xll.qlSimpleQuote(E34,,PriceTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDFUT1MM6_Quote#0001</v>
+        <v>HKDFUT1MM6_Quote#0002</v>
       </c>
       <c r="G34" s="61" t="str">
         <f>_xll.ohRangeRetrieveError(F34)</f>
@@ -3555,7 +3555,7 @@
       </c>
       <c r="F35" s="12" t="str">
         <f>_xll.qlSimpleQuote(E35,,PriceTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDFUT1MN6_Quote#0001</v>
+        <v>HKDFUT1MN6_Quote#0002</v>
       </c>
       <c r="G35" s="61" t="str">
         <f>_xll.ohRangeRetrieveError(F35)</f>
@@ -3580,7 +3580,7 @@
       </c>
       <c r="F36" s="12" t="str">
         <f>_xll.qlSimpleQuote(E36,,PriceTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDFUT1MQ6_Quote#0001</v>
+        <v>HKDFUT1MQ6_Quote#0002</v>
       </c>
       <c r="G36" s="61" t="str">
         <f>_xll.ohRangeRetrieveError(F36)</f>
@@ -3605,7 +3605,7 @@
       </c>
       <c r="F37" s="12" t="str">
         <f>_xll.qlSimpleQuote(E37,,PriceTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDFUT1MU6_Quote#0001</v>
+        <v>HKDFUT1MU6_Quote#0002</v>
       </c>
       <c r="G37" s="61" t="str">
         <f>_xll.ohRangeRetrieveError(F37)</f>
@@ -3630,7 +3630,7 @@
       </c>
       <c r="F38" s="12" t="str">
         <f>_xll.qlSimpleQuote(E38,,PriceTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDFUT1MV6_Quote#0001</v>
+        <v>HKDFUT1MV6_Quote#0002</v>
       </c>
       <c r="G38" s="61" t="str">
         <f>_xll.ohRangeRetrieveError(F38)</f>
@@ -3655,7 +3655,7 @@
       </c>
       <c r="F39" s="12" t="str">
         <f>_xll.qlSimpleQuote(E39,,PriceTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDFUT1MX6_Quote#0001</v>
+        <v>HKDFUT1MX6_Quote#0002</v>
       </c>
       <c r="G39" s="61" t="str">
         <f>_xll.ohRangeRetrieveError(F39)</f>
@@ -3680,7 +3680,7 @@
       </c>
       <c r="F40" s="12" t="str">
         <f>_xll.qlSimpleQuote(E40,,PriceTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDFUT1MZ6_Quote#0001</v>
+        <v>HKDFUT1MZ6_Quote#0002</v>
       </c>
       <c r="G40" s="61" t="str">
         <f>_xll.ohRangeRetrieveError(F40)</f>
@@ -3705,7 +3705,7 @@
       </c>
       <c r="F41" s="12" t="str">
         <f>_xll.qlSimpleQuote(E41,,PriceTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDFUT1MF7_Quote#0001</v>
+        <v>HKDFUT1MF7_Quote#0002</v>
       </c>
       <c r="G41" s="61" t="str">
         <f>_xll.ohRangeRetrieveError(F41)</f>
@@ -3730,7 +3730,7 @@
       </c>
       <c r="F42" s="12" t="str">
         <f>_xll.qlSimpleQuote(E42,,PriceTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDFUT1MG7_Quote#0001</v>
+        <v>HKDFUT1MG7_Quote#0002</v>
       </c>
       <c r="G42" s="61" t="str">
         <f>_xll.ohRangeRetrieveError(F42)</f>
@@ -3755,7 +3755,7 @@
       </c>
       <c r="F43" s="12" t="str">
         <f>_xll.qlSimpleQuote(E43,,PriceTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDFUT1MH7_Quote#0001</v>
+        <v>HKDFUT1MH7_Quote#0002</v>
       </c>
       <c r="G43" s="61" t="str">
         <f>_xll.ohRangeRetrieveError(F43)</f>
@@ -3780,7 +3780,7 @@
       </c>
       <c r="F44" s="12" t="str">
         <f>_xll.qlSimpleQuote(E44,,PriceTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDFUT1MJ7_Quote#0001</v>
+        <v>HKDFUT1MJ7_Quote#0002</v>
       </c>
       <c r="G44" s="61" t="str">
         <f>_xll.ohRangeRetrieveError(F44)</f>
@@ -3805,7 +3805,7 @@
       </c>
       <c r="F45" s="12" t="str">
         <f>_xll.qlSimpleQuote(E45,,PriceTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDFUT1MK7_Quote#0001</v>
+        <v>HKDFUT1MK7_Quote#0002</v>
       </c>
       <c r="G45" s="61" t="str">
         <f>_xll.ohRangeRetrieveError(F45)</f>
@@ -3830,7 +3830,7 @@
       </c>
       <c r="F46" s="12" t="str">
         <f>_xll.qlSimpleQuote(E46,,PriceTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDFUT1MM7_Quote#0001</v>
+        <v>HKDFUT1MM7_Quote#0002</v>
       </c>
       <c r="G46" s="61" t="str">
         <f>_xll.ohRangeRetrieveError(F46)</f>
@@ -3855,7 +3855,7 @@
       </c>
       <c r="F47" s="12" t="str">
         <f>_xll.qlSimpleQuote(E47,,PriceTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDFUT1MN7_Quote#0001</v>
+        <v>HKDFUT1MN7_Quote#0002</v>
       </c>
       <c r="G47" s="61" t="str">
         <f>_xll.ohRangeRetrieveError(F47)</f>
@@ -3880,7 +3880,7 @@
       </c>
       <c r="F48" s="12" t="str">
         <f>_xll.qlSimpleQuote(E48,,PriceTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDFUT1MQ7_Quote#0001</v>
+        <v>HKDFUT1MQ7_Quote#0002</v>
       </c>
       <c r="G48" s="61" t="str">
         <f>_xll.ohRangeRetrieveError(F48)</f>
@@ -3905,7 +3905,7 @@
       </c>
       <c r="F49" s="12" t="str">
         <f>_xll.qlSimpleQuote(E49,,PriceTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDFUT1MU7_Quote#0001</v>
+        <v>HKDFUT1MU7_Quote#0002</v>
       </c>
       <c r="G49" s="61" t="str">
         <f>_xll.ohRangeRetrieveError(F49)</f>
@@ -3930,7 +3930,7 @@
       </c>
       <c r="F50" s="12" t="str">
         <f>_xll.qlSimpleQuote(E50,,PriceTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDFUT1MV7_Quote#0001</v>
+        <v>HKDFUT1MV7_Quote#0002</v>
       </c>
       <c r="G50" s="61" t="str">
         <f>_xll.ohRangeRetrieveError(F50)</f>
@@ -3955,7 +3955,7 @@
       </c>
       <c r="F51" s="12" t="str">
         <f>_xll.qlSimpleQuote(E51,,PriceTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDFUT1MX7_Quote#0001</v>
+        <v>HKDFUT1MX7_Quote#0002</v>
       </c>
       <c r="G51" s="61" t="str">
         <f>_xll.ohRangeRetrieveError(F51)</f>
@@ -3980,7 +3980,7 @@
       </c>
       <c r="F52" s="12" t="str">
         <f>_xll.qlSimpleQuote(E52,,PriceTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDFUT1MZ7_Quote#0001</v>
+        <v>HKDFUT1MZ7_Quote#0002</v>
       </c>
       <c r="G52" s="61" t="str">
         <f>_xll.ohRangeRetrieveError(F52)</f>
@@ -4005,7 +4005,7 @@
       </c>
       <c r="F53" s="12" t="str">
         <f>_xll.qlSimpleQuote(E53,,PriceTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDFUT1MF8_Quote#0001</v>
+        <v>HKDFUT1MF8_Quote#0002</v>
       </c>
       <c r="G53" s="61" t="str">
         <f>_xll.ohRangeRetrieveError(F53)</f>
@@ -4030,7 +4030,7 @@
       </c>
       <c r="F54" s="12" t="str">
         <f>_xll.qlSimpleQuote(E54,,PriceTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDFUT1MG8_Quote#0001</v>
+        <v>HKDFUT1MG8_Quote#0002</v>
       </c>
       <c r="G54" s="61" t="str">
         <f>_xll.ohRangeRetrieveError(F54)</f>
@@ -4055,7 +4055,7 @@
       </c>
       <c r="F55" s="12" t="str">
         <f>_xll.qlSimpleQuote(E55,,PriceTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDFUT1MH8_Quote#0001</v>
+        <v>HKDFUT1MH8_Quote#0002</v>
       </c>
       <c r="G55" s="61" t="str">
         <f>_xll.ohRangeRetrieveError(F55)</f>
@@ -4080,7 +4080,7 @@
       </c>
       <c r="F56" s="12" t="str">
         <f>_xll.qlSimpleQuote(E56,,PriceTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDFUT1MJ8_Quote#0001</v>
+        <v>HKDFUT1MJ8_Quote#0002</v>
       </c>
       <c r="G56" s="61" t="str">
         <f>_xll.ohRangeRetrieveError(F56)</f>
@@ -4105,7 +4105,7 @@
       </c>
       <c r="F57" s="12" t="str">
         <f>_xll.qlSimpleQuote(E57,,PriceTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDFUT1MK8_Quote#0001</v>
+        <v>HKDFUT1MK8_Quote#0002</v>
       </c>
       <c r="G57" s="61" t="str">
         <f>_xll.ohRangeRetrieveError(F57)</f>
@@ -4130,7 +4130,7 @@
       </c>
       <c r="F58" s="12" t="str">
         <f>_xll.qlSimpleQuote(E58,,PriceTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDFUT1MM8_Quote#0001</v>
+        <v>HKDFUT1MM8_Quote#0002</v>
       </c>
       <c r="G58" s="61" t="str">
         <f>_xll.ohRangeRetrieveError(F58)</f>
@@ -4155,7 +4155,7 @@
       </c>
       <c r="F59" s="12" t="str">
         <f>_xll.qlSimpleQuote(E59,,PriceTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDFUT1MN8_Quote#0001</v>
+        <v>HKDFUT1MN8_Quote#0002</v>
       </c>
       <c r="G59" s="61" t="str">
         <f>_xll.ohRangeRetrieveError(F59)</f>
@@ -4180,7 +4180,7 @@
       </c>
       <c r="F60" s="12" t="str">
         <f>_xll.qlSimpleQuote(E60,,PriceTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDFUT1MQ8_Quote#0001</v>
+        <v>HKDFUT1MQ8_Quote#0002</v>
       </c>
       <c r="G60" s="61" t="str">
         <f>_xll.ohRangeRetrieveError(F60)</f>
@@ -4205,7 +4205,7 @@
       </c>
       <c r="F61" s="12" t="str">
         <f>_xll.qlSimpleQuote(E61,,PriceTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDFUT1MU8_Quote#0001</v>
+        <v>HKDFUT1MU8_Quote#0002</v>
       </c>
       <c r="G61" s="61" t="str">
         <f>_xll.ohRangeRetrieveError(F61)</f>
@@ -4230,7 +4230,7 @@
       </c>
       <c r="F62" s="12" t="str">
         <f>_xll.qlSimpleQuote(E62,,PriceTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDFUT1MV8_Quote#0001</v>
+        <v>HKDFUT1MV8_Quote#0002</v>
       </c>
       <c r="G62" s="61" t="str">
         <f>_xll.ohRangeRetrieveError(F62)</f>
@@ -4255,7 +4255,7 @@
       </c>
       <c r="F63" s="12" t="str">
         <f>_xll.qlSimpleQuote(E63,,PriceTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDFUT1MX8_Quote#0001</v>
+        <v>HKDFUT1MX8_Quote#0002</v>
       </c>
       <c r="G63" s="61" t="str">
         <f>_xll.ohRangeRetrieveError(F63)</f>
@@ -4280,7 +4280,7 @@
       </c>
       <c r="F64" s="12" t="str">
         <f>_xll.qlSimpleQuote(E64,,PriceTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDFUT1MZ8_Quote#0001</v>
+        <v>HKDFUT1MZ8_Quote#0002</v>
       </c>
       <c r="G64" s="61" t="str">
         <f>_xll.ohRangeRetrieveError(F64)</f>
@@ -4305,7 +4305,7 @@
       </c>
       <c r="F65" s="12" t="str">
         <f>_xll.qlSimpleQuote(E65,,PriceTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDFUT1MF9_Quote#0001</v>
+        <v>HKDFUT1MF9_Quote#0002</v>
       </c>
       <c r="G65" s="61" t="str">
         <f>_xll.ohRangeRetrieveError(F65)</f>
@@ -4330,7 +4330,7 @@
       </c>
       <c r="F66" s="12" t="str">
         <f>_xll.qlSimpleQuote(E66,,PriceTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDFUT1MG9_Quote#0001</v>
+        <v>HKDFUT1MG9_Quote#0002</v>
       </c>
       <c r="G66" s="61" t="str">
         <f>_xll.ohRangeRetrieveError(F66)</f>
@@ -4355,7 +4355,7 @@
       </c>
       <c r="F67" s="12" t="str">
         <f>_xll.qlSimpleQuote(E67,,PriceTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDFUT1MH9_Quote#0001</v>
+        <v>HKDFUT1MH9_Quote#0002</v>
       </c>
       <c r="G67" s="61" t="str">
         <f>_xll.ohRangeRetrieveError(F67)</f>
@@ -4380,7 +4380,7 @@
       </c>
       <c r="F68" s="12" t="str">
         <f>_xll.qlSimpleQuote(E68,,PriceTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDFUT1MJ9_Quote#0001</v>
+        <v>HKDFUT1MJ9_Quote#0002</v>
       </c>
       <c r="G68" s="61" t="str">
         <f>_xll.ohRangeRetrieveError(F68)</f>
@@ -4405,7 +4405,7 @@
       </c>
       <c r="F69" s="12" t="str">
         <f>_xll.qlSimpleQuote(E69,,PriceTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDFUT1MK9_Quote#0001</v>
+        <v>HKDFUT1MK9_Quote#0002</v>
       </c>
       <c r="G69" s="61" t="str">
         <f>_xll.ohRangeRetrieveError(F69)</f>
@@ -4430,7 +4430,7 @@
       </c>
       <c r="F70" s="12" t="str">
         <f>_xll.qlSimpleQuote(E70,,PriceTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDFUT1MM9_Quote#0001</v>
+        <v>HKDFUT1MM9_Quote#0002</v>
       </c>
       <c r="G70" s="61" t="str">
         <f>_xll.ohRangeRetrieveError(F70)</f>
@@ -4455,7 +4455,7 @@
       </c>
       <c r="F71" s="12" t="str">
         <f>_xll.qlSimpleQuote(E71,,PriceTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDFUT1MN9_Quote#0001</v>
+        <v>HKDFUT1MN9_Quote#0002</v>
       </c>
       <c r="G71" s="61" t="str">
         <f>_xll.ohRangeRetrieveError(F71)</f>
@@ -4480,7 +4480,7 @@
       </c>
       <c r="F72" s="12" t="str">
         <f>_xll.qlSimpleQuote(E72,,PriceTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDFUT1MQ9_Quote#0001</v>
+        <v>HKDFUT1MQ9_Quote#0002</v>
       </c>
       <c r="G72" s="61" t="str">
         <f>_xll.ohRangeRetrieveError(F72)</f>
@@ -4505,7 +4505,7 @@
       </c>
       <c r="F73" s="12" t="str">
         <f>_xll.qlSimpleQuote(E73,,PriceTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDFUT1MU9_Quote#0001</v>
+        <v>HKDFUT1MU9_Quote#0002</v>
       </c>
       <c r="G73" s="61" t="str">
         <f>_xll.ohRangeRetrieveError(F73)</f>
@@ -4530,7 +4530,7 @@
       </c>
       <c r="F74" s="12" t="str">
         <f>_xll.qlSimpleQuote(E74,,PriceTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDFUT1MV9_Quote#0001</v>
+        <v>HKDFUT1MV9_Quote#0002</v>
       </c>
       <c r="G74" s="61" t="str">
         <f>_xll.ohRangeRetrieveError(F74)</f>
@@ -4555,7 +4555,7 @@
       </c>
       <c r="F75" s="12" t="str">
         <f>_xll.qlSimpleQuote(E75,,PriceTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDFUT1MX9_Quote#0001</v>
+        <v>HKDFUT1MX9_Quote#0002</v>
       </c>
       <c r="G75" s="61" t="str">
         <f>_xll.ohRangeRetrieveError(F75)</f>
@@ -4580,7 +4580,7 @@
       </c>
       <c r="F76" s="12" t="str">
         <f>_xll.qlSimpleQuote(E76,,PriceTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDFUT1MZ9_Quote#0001</v>
+        <v>HKDFUT1MZ9_Quote#0002</v>
       </c>
       <c r="G76" s="61" t="str">
         <f>_xll.ohRangeRetrieveError(F76)</f>
@@ -4605,7 +4605,7 @@
       </c>
       <c r="F77" s="12" t="str">
         <f>_xll.qlSimpleQuote(E77,,PriceTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDFUT1MF0_Quote#0001</v>
+        <v>HKDFUT1MF0_Quote#0002</v>
       </c>
       <c r="G77" s="61" t="str">
         <f>_xll.ohRangeRetrieveError(F77)</f>
@@ -4630,7 +4630,7 @@
       </c>
       <c r="F78" s="12" t="str">
         <f>_xll.qlSimpleQuote(E78,,PriceTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDFUT1MG0_Quote#0001</v>
+        <v>HKDFUT1MG0_Quote#0002</v>
       </c>
       <c r="G78" s="61" t="str">
         <f>_xll.ohRangeRetrieveError(F78)</f>
@@ -4655,7 +4655,7 @@
       </c>
       <c r="F79" s="12" t="str">
         <f>_xll.qlSimpleQuote(E79,,PriceTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDFUT1MH0_Quote#0001</v>
+        <v>HKDFUT1MH0_Quote#0002</v>
       </c>
       <c r="G79" s="61" t="str">
         <f>_xll.ohRangeRetrieveError(F79)</f>
@@ -4680,7 +4680,7 @@
       </c>
       <c r="F80" s="12" t="str">
         <f>_xll.qlSimpleQuote(E80,,PriceTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDFUT1MJ0_Quote#0001</v>
+        <v>HKDFUT1MJ0_Quote#0002</v>
       </c>
       <c r="G80" s="61" t="str">
         <f>_xll.ohRangeRetrieveError(F80)</f>
@@ -4705,7 +4705,7 @@
       </c>
       <c r="F81" s="12" t="str">
         <f>_xll.qlSimpleQuote(E81,,PriceTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDFUT1MK0_Quote#0001</v>
+        <v>HKDFUT1MK0_Quote#0002</v>
       </c>
       <c r="G81" s="61" t="str">
         <f>_xll.ohRangeRetrieveError(F81)</f>
@@ -4730,7 +4730,7 @@
       </c>
       <c r="F82" s="12" t="str">
         <f>_xll.qlSimpleQuote(E82,,PriceTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDFUT1MM0_Quote#0001</v>
+        <v>HKDFUT1MM0_Quote#0002</v>
       </c>
       <c r="G82" s="61" t="str">
         <f>_xll.ohRangeRetrieveError(F82)</f>
@@ -4755,7 +4755,7 @@
       </c>
       <c r="F83" s="12" t="str">
         <f>_xll.qlSimpleQuote(E83,,PriceTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDFUT1MN0_Quote#0001</v>
+        <v>HKDFUT1MN0_Quote#0002</v>
       </c>
       <c r="G83" s="61" t="str">
         <f>_xll.ohRangeRetrieveError(F83)</f>
@@ -4780,7 +4780,7 @@
       </c>
       <c r="F84" s="12" t="str">
         <f>_xll.qlSimpleQuote(E84,,PriceTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDFUT1MQ0_Quote#0001</v>
+        <v>HKDFUT1MQ0_Quote#0002</v>
       </c>
       <c r="G84" s="61" t="str">
         <f>_xll.ohRangeRetrieveError(F84)</f>
@@ -4805,7 +4805,7 @@
       </c>
       <c r="F85" s="12" t="str">
         <f>_xll.qlSimpleQuote(E85,,PriceTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDFUT1MU0_Quote#0001</v>
+        <v>HKDFUT1MU0_Quote#0002</v>
       </c>
       <c r="G85" s="61" t="str">
         <f>_xll.ohRangeRetrieveError(F85)</f>
@@ -4830,7 +4830,7 @@
       </c>
       <c r="F86" s="12" t="str">
         <f>_xll.qlSimpleQuote(E86,,PriceTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDFUT1MV0_Quote#0001</v>
+        <v>HKDFUT1MV0_Quote#0002</v>
       </c>
       <c r="G86" s="61" t="str">
         <f>_xll.ohRangeRetrieveError(F86)</f>
@@ -4855,7 +4855,7 @@
       </c>
       <c r="F87" s="12" t="str">
         <f>_xll.qlSimpleQuote(E87,,PriceTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDFUT1MX0_Quote#0001</v>
+        <v>HKDFUT1MX0_Quote#0002</v>
       </c>
       <c r="G87" s="61" t="str">
         <f>_xll.ohRangeRetrieveError(F87)</f>
@@ -4880,7 +4880,7 @@
       </c>
       <c r="F88" s="12" t="str">
         <f>_xll.qlSimpleQuote(E88,,PriceTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDFUT1MZ0_Quote#0001</v>
+        <v>HKDFUT1MZ0_Quote#0002</v>
       </c>
       <c r="G88" s="61" t="str">
         <f>_xll.ohRangeRetrieveError(F88)</f>
@@ -4905,7 +4905,7 @@
       </c>
       <c r="F89" s="12" t="str">
         <f>_xll.qlSimpleQuote(E89,,PriceTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDFUT1MF1_Quote#0001</v>
+        <v>HKDFUT1MF1_Quote#0002</v>
       </c>
       <c r="G89" s="61" t="str">
         <f>_xll.ohRangeRetrieveError(F89)</f>
@@ -4930,7 +4930,7 @@
       </c>
       <c r="F90" s="12" t="str">
         <f>_xll.qlSimpleQuote(E90,,PriceTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDFUT1MG1_Quote#0001</v>
+        <v>HKDFUT1MG1_Quote#0002</v>
       </c>
       <c r="G90" s="61" t="str">
         <f>_xll.ohRangeRetrieveError(F90)</f>
@@ -4955,7 +4955,7 @@
       </c>
       <c r="F91" s="12" t="str">
         <f>_xll.qlSimpleQuote(E91,,PriceTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDFUT1MH1_Quote#0001</v>
+        <v>HKDFUT1MH1_Quote#0002</v>
       </c>
       <c r="G91" s="61" t="str">
         <f>_xll.ohRangeRetrieveError(F91)</f>
@@ -4980,7 +4980,7 @@
       </c>
       <c r="F92" s="12" t="str">
         <f>_xll.qlSimpleQuote(E92,,PriceTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDFUT1MJ1_Quote#0001</v>
+        <v>HKDFUT1MJ1_Quote#0002</v>
       </c>
       <c r="G92" s="61" t="str">
         <f>_xll.ohRangeRetrieveError(F92)</f>
@@ -5005,7 +5005,7 @@
       </c>
       <c r="F93" s="12" t="str">
         <f>_xll.qlSimpleQuote(E93,,PriceTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDFUT1MK1_Quote#0001</v>
+        <v>HKDFUT1MK1_Quote#0002</v>
       </c>
       <c r="G93" s="61" t="str">
         <f>_xll.ohRangeRetrieveError(F93)</f>
@@ -5030,7 +5030,7 @@
       </c>
       <c r="F94" s="12" t="str">
         <f>_xll.qlSimpleQuote(E94,,PriceTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDFUT1MM1_Quote#0001</v>
+        <v>HKDFUT1MM1_Quote#0002</v>
       </c>
       <c r="G94" s="61" t="str">
         <f>_xll.ohRangeRetrieveError(F94)</f>
@@ -5055,7 +5055,7 @@
       </c>
       <c r="F95" s="12" t="str">
         <f>_xll.qlSimpleQuote(E95,,PriceTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDFUT1MN1_Quote#0001</v>
+        <v>HKDFUT1MN1_Quote#0002</v>
       </c>
       <c r="G95" s="61" t="str">
         <f>_xll.ohRangeRetrieveError(F95)</f>
@@ -5080,7 +5080,7 @@
       </c>
       <c r="F96" s="12" t="str">
         <f>_xll.qlSimpleQuote(E96,,PriceTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDFUT1MQ1_Quote#0001</v>
+        <v>HKDFUT1MQ1_Quote#0002</v>
       </c>
       <c r="G96" s="61" t="str">
         <f>_xll.ohRangeRetrieveError(F96)</f>
@@ -5105,7 +5105,7 @@
       </c>
       <c r="F97" s="12" t="str">
         <f>_xll.qlSimpleQuote(E97,,PriceTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDFUT1MU1_Quote#0001</v>
+        <v>HKDFUT1MU1_Quote#0002</v>
       </c>
       <c r="G97" s="61" t="str">
         <f>_xll.ohRangeRetrieveError(F97)</f>
@@ -5130,7 +5130,7 @@
       </c>
       <c r="F98" s="12" t="str">
         <f>_xll.qlSimpleQuote(E98,,PriceTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDFUT1MV1_Quote#0001</v>
+        <v>HKDFUT1MV1_Quote#0002</v>
       </c>
       <c r="G98" s="61" t="str">
         <f>_xll.ohRangeRetrieveError(F98)</f>
@@ -5155,7 +5155,7 @@
       </c>
       <c r="F99" s="12" t="str">
         <f>_xll.qlSimpleQuote(E99,,PriceTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDFUT1MX1_Quote#0001</v>
+        <v>HKDFUT1MX1_Quote#0002</v>
       </c>
       <c r="G99" s="61" t="str">
         <f>_xll.ohRangeRetrieveError(F99)</f>
@@ -5180,7 +5180,7 @@
       </c>
       <c r="F100" s="12" t="str">
         <f>_xll.qlSimpleQuote(E100,,PriceTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDFUT1MZ1_Quote#0001</v>
+        <v>HKDFUT1MZ1_Quote#0002</v>
       </c>
       <c r="G100" s="61" t="str">
         <f>_xll.ohRangeRetrieveError(F100)</f>
@@ -5205,7 +5205,7 @@
       </c>
       <c r="F101" s="12" t="str">
         <f>_xll.qlSimpleQuote(E101,,PriceTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDFUT1MF2_Quote#0001</v>
+        <v>HKDFUT1MF2_Quote#0002</v>
       </c>
       <c r="G101" s="61" t="str">
         <f>_xll.ohRangeRetrieveError(F101)</f>
@@ -5230,7 +5230,7 @@
       </c>
       <c r="F102" s="12" t="str">
         <f>_xll.qlSimpleQuote(E102,,PriceTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDFUT1MG2_Quote#0001</v>
+        <v>HKDFUT1MG2_Quote#0002</v>
       </c>
       <c r="G102" s="61" t="str">
         <f>_xll.ohRangeRetrieveError(F102)</f>
@@ -5255,7 +5255,7 @@
       </c>
       <c r="F103" s="12" t="str">
         <f>_xll.qlSimpleQuote(E103,,PriceTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDFUT1MH2_Quote#0001</v>
+        <v>HKDFUT1MH2_Quote#0002</v>
       </c>
       <c r="G103" s="61" t="str">
         <f>_xll.ohRangeRetrieveError(F103)</f>
@@ -5280,7 +5280,7 @@
       </c>
       <c r="F104" s="12" t="str">
         <f>_xll.qlSimpleQuote(E104,,PriceTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDFUT1MJ2_Quote#0001</v>
+        <v>HKDFUT1MJ2_Quote#0002</v>
       </c>
       <c r="G104" s="61" t="str">
         <f>_xll.ohRangeRetrieveError(F104)</f>
@@ -5305,7 +5305,7 @@
       </c>
       <c r="F105" s="12" t="str">
         <f>_xll.qlSimpleQuote(E105,,PriceTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDFUT1MK2_Quote#0001</v>
+        <v>HKDFUT1MK2_Quote#0002</v>
       </c>
       <c r="G105" s="61" t="str">
         <f>_xll.ohRangeRetrieveError(F105)</f>
@@ -5330,7 +5330,7 @@
       </c>
       <c r="F106" s="12" t="str">
         <f>_xll.qlSimpleQuote(E106,,PriceTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDFUT1MM2_Quote#0001</v>
+        <v>HKDFUT1MM2_Quote#0002</v>
       </c>
       <c r="G106" s="61" t="str">
         <f>_xll.ohRangeRetrieveError(F106)</f>
@@ -5355,7 +5355,7 @@
       </c>
       <c r="F107" s="12" t="str">
         <f>_xll.qlSimpleQuote(E107,,PriceTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDFUT1MN2_Quote#0001</v>
+        <v>HKDFUT1MN2_Quote#0002</v>
       </c>
       <c r="G107" s="61" t="str">
         <f>_xll.ohRangeRetrieveError(F107)</f>
@@ -5380,7 +5380,7 @@
       </c>
       <c r="F108" s="12" t="str">
         <f>_xll.qlSimpleQuote(E108,,PriceTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDFUT1MQ2_Quote#0001</v>
+        <v>HKDFUT1MQ2_Quote#0002</v>
       </c>
       <c r="G108" s="61" t="str">
         <f>_xll.ohRangeRetrieveError(F108)</f>
@@ -5405,7 +5405,7 @@
       </c>
       <c r="F109" s="12" t="str">
         <f>_xll.qlSimpleQuote(E109,,PriceTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDFUT1MU2_Quote#0001</v>
+        <v>HKDFUT1MU2_Quote#0002</v>
       </c>
       <c r="G109" s="61" t="str">
         <f>_xll.ohRangeRetrieveError(F109)</f>
@@ -5430,7 +5430,7 @@
       </c>
       <c r="F110" s="12" t="str">
         <f>_xll.qlSimpleQuote(E110,,PriceTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDFUT1MV2_Quote#0001</v>
+        <v>HKDFUT1MV2_Quote#0002</v>
       </c>
       <c r="G110" s="61" t="str">
         <f>_xll.ohRangeRetrieveError(F110)</f>
@@ -5455,7 +5455,7 @@
       </c>
       <c r="F111" s="12" t="str">
         <f>_xll.qlSimpleQuote(E111,,PriceTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDFUT1MX2_Quote#0001</v>
+        <v>HKDFUT1MX2_Quote#0002</v>
       </c>
       <c r="G111" s="61" t="str">
         <f>_xll.ohRangeRetrieveError(F111)</f>
@@ -5480,7 +5480,7 @@
       </c>
       <c r="F112" s="12" t="str">
         <f>_xll.qlSimpleQuote(E112,,PriceTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDFUT1MZ2_Quote#0001</v>
+        <v>HKDFUT1MZ2_Quote#0002</v>
       </c>
       <c r="G112" s="61" t="str">
         <f>_xll.ohRangeRetrieveError(F112)</f>
@@ -5505,7 +5505,7 @@
       </c>
       <c r="F113" s="12" t="str">
         <f>_xll.qlSimpleQuote(E113,,PriceTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDFUT1MF3_Quote#0001</v>
+        <v>HKDFUT1MF3_Quote#0002</v>
       </c>
       <c r="G113" s="61" t="str">
         <f>_xll.ohRangeRetrieveError(F113)</f>
@@ -5530,7 +5530,7 @@
       </c>
       <c r="F114" s="12" t="str">
         <f>_xll.qlSimpleQuote(E114,,PriceTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDFUT1MG3_Quote#0001</v>
+        <v>HKDFUT1MG3_Quote#0002</v>
       </c>
       <c r="G114" s="61" t="str">
         <f>_xll.ohRangeRetrieveError(F114)</f>
@@ -5555,7 +5555,7 @@
       </c>
       <c r="F115" s="12" t="str">
         <f>_xll.qlSimpleQuote(E115,,PriceTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDFUT1MH3_Quote#0001</v>
+        <v>HKDFUT1MH3_Quote#0002</v>
       </c>
       <c r="G115" s="61" t="str">
         <f>_xll.ohRangeRetrieveError(F115)</f>
@@ -5580,7 +5580,7 @@
       </c>
       <c r="F116" s="12" t="str">
         <f>_xll.qlSimpleQuote(E116,,PriceTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDFUT1MJ3_Quote#0001</v>
+        <v>HKDFUT1MJ3_Quote#0002</v>
       </c>
       <c r="G116" s="61" t="str">
         <f>_xll.ohRangeRetrieveError(F116)</f>
@@ -5605,7 +5605,7 @@
       </c>
       <c r="F117" s="12" t="str">
         <f>_xll.qlSimpleQuote(E117,,PriceTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDFUT1MK3_Quote#0001</v>
+        <v>HKDFUT1MK3_Quote#0002</v>
       </c>
       <c r="G117" s="61" t="str">
         <f>_xll.ohRangeRetrieveError(F117)</f>
@@ -5630,7 +5630,7 @@
       </c>
       <c r="F118" s="12" t="str">
         <f>_xll.qlSimpleQuote(E118,,PriceTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDFUT1MM3_Quote#0001</v>
+        <v>HKDFUT1MM3_Quote#0002</v>
       </c>
       <c r="G118" s="61" t="str">
         <f>_xll.ohRangeRetrieveError(F118)</f>
@@ -5655,7 +5655,7 @@
       </c>
       <c r="F119" s="12" t="str">
         <f>_xll.qlSimpleQuote(E119,,PriceTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDFUT1MN3_Quote#0001</v>
+        <v>HKDFUT1MN3_Quote#0002</v>
       </c>
       <c r="G119" s="61" t="str">
         <f>_xll.ohRangeRetrieveError(F119)</f>
@@ -5680,7 +5680,7 @@
       </c>
       <c r="F120" s="12" t="str">
         <f>_xll.qlSimpleQuote(E120,,PriceTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDFUT1MQ3_Quote#0001</v>
+        <v>HKDFUT1MQ3_Quote#0002</v>
       </c>
       <c r="G120" s="61" t="str">
         <f>_xll.ohRangeRetrieveError(F120)</f>
@@ -5705,7 +5705,7 @@
       </c>
       <c r="F121" s="12" t="str">
         <f>_xll.qlSimpleQuote(E121,,PriceTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDFUT1MU3_Quote#0001</v>
+        <v>HKDFUT1MU3_Quote#0002</v>
       </c>
       <c r="G121" s="61" t="str">
         <f>_xll.ohRangeRetrieveError(F121)</f>
@@ -5730,7 +5730,7 @@
       </c>
       <c r="F122" s="12" t="str">
         <f>_xll.qlSimpleQuote(E122,,PriceTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDFUT1MV3_Quote#0001</v>
+        <v>HKDFUT1MV3_Quote#0002</v>
       </c>
       <c r="G122" s="61" t="str">
         <f>_xll.ohRangeRetrieveError(F122)</f>
@@ -5807,13 +5807,13 @@
         <f>Currency&amp;"_010_"&amp;$D$1&amp;$E$1&amp;".xml"</f>
         <v>HKD_010_FUT3M.xml</v>
       </c>
-      <c r="F2" s="64" t="e">
-        <f ca="1">IF(Serialize,_xll.ohObjectSave(F3:F122,SerializationPath&amp;E2,FileOverwrite,Serialize),"---")</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="G2" s="65" t="e">
+      <c r="F2" s="64">
+        <f ca="1">IF(Serialize,_xll.ohObjectSave(F3:F122,SerializationPath&amp;E2,FileOverwrite,,Serialize),"---")</f>
+        <v>120</v>
+      </c>
+      <c r="G2" s="65" t="str">
         <f ca="1">_xll.ohRangeRetrieveError(F2)</f>
-        <v>#NAME?</v>
+        <v/>
       </c>
       <c r="H2" s="55"/>
     </row>
@@ -5835,7 +5835,7 @@
       </c>
       <c r="F3" s="41" t="str">
         <f>_xll.qlSimpleQuote(E3,,PriceTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDFUT3MX3_Quote#0001</v>
+        <v>HKDFUT3MX3_Quote#0002</v>
       </c>
       <c r="G3" s="60" t="str">
         <f>_xll.ohRangeRetrieveError(F3)</f>
@@ -5860,7 +5860,7 @@
       </c>
       <c r="F4" s="12" t="str">
         <f>_xll.qlSimpleQuote(E4,,PriceTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDFUT3MZ3_Quote#0001</v>
+        <v>HKDFUT3MZ3_Quote#0002</v>
       </c>
       <c r="G4" s="61" t="str">
         <f>_xll.ohRangeRetrieveError(F4)</f>
@@ -5885,7 +5885,7 @@
       </c>
       <c r="F5" s="12" t="str">
         <f>_xll.qlSimpleQuote(E5,,PriceTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDFUT3MF4_Quote#0001</v>
+        <v>HKDFUT3MF4_Quote#0002</v>
       </c>
       <c r="G5" s="61" t="str">
         <f>_xll.ohRangeRetrieveError(F5)</f>
@@ -5910,7 +5910,7 @@
       </c>
       <c r="F6" s="12" t="str">
         <f>_xll.qlSimpleQuote(E6,,PriceTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDFUT3MG4_Quote#0001</v>
+        <v>HKDFUT3MG4_Quote#0002</v>
       </c>
       <c r="G6" s="61" t="str">
         <f>_xll.ohRangeRetrieveError(F6)</f>
@@ -5935,7 +5935,7 @@
       </c>
       <c r="F7" s="12" t="str">
         <f>_xll.qlSimpleQuote(E7,,PriceTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDFUT3MH4_Quote#0001</v>
+        <v>HKDFUT3MH4_Quote#0002</v>
       </c>
       <c r="G7" s="61" t="str">
         <f>_xll.ohRangeRetrieveError(F7)</f>
@@ -5960,7 +5960,7 @@
       </c>
       <c r="F8" s="12" t="str">
         <f>_xll.qlSimpleQuote(E8,,PriceTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDFUT3MJ4_Quote#0001</v>
+        <v>HKDFUT3MJ4_Quote#0002</v>
       </c>
       <c r="G8" s="61" t="str">
         <f>_xll.ohRangeRetrieveError(F8)</f>
@@ -5985,7 +5985,7 @@
       </c>
       <c r="F9" s="12" t="str">
         <f>_xll.qlSimpleQuote(E9,,PriceTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDFUT3MK4_Quote#0001</v>
+        <v>HKDFUT3MK4_Quote#0002</v>
       </c>
       <c r="G9" s="61" t="str">
         <f>_xll.ohRangeRetrieveError(F9)</f>
@@ -6010,7 +6010,7 @@
       </c>
       <c r="F10" s="12" t="str">
         <f>_xll.qlSimpleQuote(E10,,PriceTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDFUT3MM4_Quote#0001</v>
+        <v>HKDFUT3MM4_Quote#0002</v>
       </c>
       <c r="G10" s="61" t="str">
         <f>_xll.ohRangeRetrieveError(F10)</f>
@@ -6035,7 +6035,7 @@
       </c>
       <c r="F11" s="12" t="str">
         <f>_xll.qlSimpleQuote(E11,,PriceTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDFUT3MN4_Quote#0001</v>
+        <v>HKDFUT3MN4_Quote#0002</v>
       </c>
       <c r="G11" s="61" t="str">
         <f>_xll.ohRangeRetrieveError(F11)</f>
@@ -6060,7 +6060,7 @@
       </c>
       <c r="F12" s="12" t="str">
         <f>_xll.qlSimpleQuote(E12,,PriceTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDFUT3MQ4_Quote#0001</v>
+        <v>HKDFUT3MQ4_Quote#0002</v>
       </c>
       <c r="G12" s="61" t="str">
         <f>_xll.ohRangeRetrieveError(F12)</f>
@@ -6085,7 +6085,7 @@
       </c>
       <c r="F13" s="12" t="str">
         <f>_xll.qlSimpleQuote(E13,,PriceTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDFUT3MU4_Quote#0001</v>
+        <v>HKDFUT3MU4_Quote#0002</v>
       </c>
       <c r="G13" s="61" t="str">
         <f>_xll.ohRangeRetrieveError(F13)</f>
@@ -6110,7 +6110,7 @@
       </c>
       <c r="F14" s="12" t="str">
         <f>_xll.qlSimpleQuote(E14,,PriceTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDFUT3MV4_Quote#0001</v>
+        <v>HKDFUT3MV4_Quote#0002</v>
       </c>
       <c r="G14" s="61" t="str">
         <f>_xll.ohRangeRetrieveError(F14)</f>
@@ -6135,7 +6135,7 @@
       </c>
       <c r="F15" s="12" t="str">
         <f>_xll.qlSimpleQuote(E15,,PriceTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDFUT3MX4_Quote#0001</v>
+        <v>HKDFUT3MX4_Quote#0002</v>
       </c>
       <c r="G15" s="61" t="str">
         <f>_xll.ohRangeRetrieveError(F15)</f>
@@ -6160,7 +6160,7 @@
       </c>
       <c r="F16" s="12" t="str">
         <f>_xll.qlSimpleQuote(E16,,PriceTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDFUT3MZ4_Quote#0001</v>
+        <v>HKDFUT3MZ4_Quote#0002</v>
       </c>
       <c r="G16" s="61" t="str">
         <f>_xll.ohRangeRetrieveError(F16)</f>
@@ -6185,7 +6185,7 @@
       </c>
       <c r="F17" s="12" t="str">
         <f>_xll.qlSimpleQuote(E17,,PriceTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDFUT3MF5_Quote#0001</v>
+        <v>HKDFUT3MF5_Quote#0002</v>
       </c>
       <c r="G17" s="61" t="str">
         <f>_xll.ohRangeRetrieveError(F17)</f>
@@ -6210,7 +6210,7 @@
       </c>
       <c r="F18" s="12" t="str">
         <f>_xll.qlSimpleQuote(E18,,PriceTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDFUT3MG5_Quote#0001</v>
+        <v>HKDFUT3MG5_Quote#0002</v>
       </c>
       <c r="G18" s="61" t="str">
         <f>_xll.ohRangeRetrieveError(F18)</f>
@@ -6235,7 +6235,7 @@
       </c>
       <c r="F19" s="12" t="str">
         <f>_xll.qlSimpleQuote(E19,,PriceTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDFUT3MH5_Quote#0001</v>
+        <v>HKDFUT3MH5_Quote#0002</v>
       </c>
       <c r="G19" s="61" t="str">
         <f>_xll.ohRangeRetrieveError(F19)</f>
@@ -6260,7 +6260,7 @@
       </c>
       <c r="F20" s="12" t="str">
         <f>_xll.qlSimpleQuote(E20,,PriceTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDFUT3MJ5_Quote#0001</v>
+        <v>HKDFUT3MJ5_Quote#0002</v>
       </c>
       <c r="G20" s="61" t="str">
         <f>_xll.ohRangeRetrieveError(F20)</f>
@@ -6285,7 +6285,7 @@
       </c>
       <c r="F21" s="12" t="str">
         <f>_xll.qlSimpleQuote(E21,,PriceTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDFUT3MK5_Quote#0001</v>
+        <v>HKDFUT3MK5_Quote#0002</v>
       </c>
       <c r="G21" s="61" t="str">
         <f>_xll.ohRangeRetrieveError(F21)</f>
@@ -6310,7 +6310,7 @@
       </c>
       <c r="F22" s="12" t="str">
         <f>_xll.qlSimpleQuote(E22,,PriceTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDFUT3MM5_Quote#0001</v>
+        <v>HKDFUT3MM5_Quote#0002</v>
       </c>
       <c r="G22" s="61" t="str">
         <f>_xll.ohRangeRetrieveError(F22)</f>
@@ -6335,7 +6335,7 @@
       </c>
       <c r="F23" s="12" t="str">
         <f>_xll.qlSimpleQuote(E23,,PriceTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDFUT3MN5_Quote#0001</v>
+        <v>HKDFUT3MN5_Quote#0002</v>
       </c>
       <c r="G23" s="61" t="str">
         <f>_xll.ohRangeRetrieveError(F23)</f>
@@ -6360,7 +6360,7 @@
       </c>
       <c r="F24" s="12" t="str">
         <f>_xll.qlSimpleQuote(E24,,PriceTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDFUT3MQ5_Quote#0001</v>
+        <v>HKDFUT3MQ5_Quote#0002</v>
       </c>
       <c r="G24" s="61" t="str">
         <f>_xll.ohRangeRetrieveError(F24)</f>
@@ -6385,7 +6385,7 @@
       </c>
       <c r="F25" s="12" t="str">
         <f>_xll.qlSimpleQuote(E25,,PriceTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDFUT3MU5_Quote#0001</v>
+        <v>HKDFUT3MU5_Quote#0002</v>
       </c>
       <c r="G25" s="61" t="str">
         <f>_xll.ohRangeRetrieveError(F25)</f>
@@ -6410,7 +6410,7 @@
       </c>
       <c r="F26" s="12" t="str">
         <f>_xll.qlSimpleQuote(E26,,PriceTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDFUT3MV5_Quote#0001</v>
+        <v>HKDFUT3MV5_Quote#0002</v>
       </c>
       <c r="G26" s="61" t="str">
         <f>_xll.ohRangeRetrieveError(F26)</f>
@@ -6435,7 +6435,7 @@
       </c>
       <c r="F27" s="12" t="str">
         <f>_xll.qlSimpleQuote(E27,,PriceTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDFUT3MX5_Quote#0001</v>
+        <v>HKDFUT3MX5_Quote#0002</v>
       </c>
       <c r="G27" s="61" t="str">
         <f>_xll.ohRangeRetrieveError(F27)</f>
@@ -6460,7 +6460,7 @@
       </c>
       <c r="F28" s="12" t="str">
         <f>_xll.qlSimpleQuote(E28,,PriceTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDFUT3MZ5_Quote#0001</v>
+        <v>HKDFUT3MZ5_Quote#0002</v>
       </c>
       <c r="G28" s="61" t="str">
         <f>_xll.ohRangeRetrieveError(F28)</f>
@@ -6485,7 +6485,7 @@
       </c>
       <c r="F29" s="12" t="str">
         <f>_xll.qlSimpleQuote(E29,,PriceTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDFUT3MF6_Quote#0001</v>
+        <v>HKDFUT3MF6_Quote#0002</v>
       </c>
       <c r="G29" s="61" t="str">
         <f>_xll.ohRangeRetrieveError(F29)</f>
@@ -6510,7 +6510,7 @@
       </c>
       <c r="F30" s="12" t="str">
         <f>_xll.qlSimpleQuote(E30,,PriceTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDFUT3MG6_Quote#0001</v>
+        <v>HKDFUT3MG6_Quote#0002</v>
       </c>
       <c r="G30" s="61" t="str">
         <f>_xll.ohRangeRetrieveError(F30)</f>
@@ -6535,7 +6535,7 @@
       </c>
       <c r="F31" s="12" t="str">
         <f>_xll.qlSimpleQuote(E31,,PriceTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDFUT3MH6_Quote#0001</v>
+        <v>HKDFUT3MH6_Quote#0002</v>
       </c>
       <c r="G31" s="61" t="str">
         <f>_xll.ohRangeRetrieveError(F31)</f>
@@ -6560,7 +6560,7 @@
       </c>
       <c r="F32" s="12" t="str">
         <f>_xll.qlSimpleQuote(E32,,PriceTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDFUT3MJ6_Quote#0001</v>
+        <v>HKDFUT3MJ6_Quote#0002</v>
       </c>
       <c r="G32" s="61" t="str">
         <f>_xll.ohRangeRetrieveError(F32)</f>
@@ -6585,7 +6585,7 @@
       </c>
       <c r="F33" s="12" t="str">
         <f>_xll.qlSimpleQuote(E33,,PriceTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDFUT3MK6_Quote#0001</v>
+        <v>HKDFUT3MK6_Quote#0002</v>
       </c>
       <c r="G33" s="61" t="str">
         <f>_xll.ohRangeRetrieveError(F33)</f>
@@ -6610,7 +6610,7 @@
       </c>
       <c r="F34" s="12" t="str">
         <f>_xll.qlSimpleQuote(E34,,PriceTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDFUT3MM6_Quote#0001</v>
+        <v>HKDFUT3MM6_Quote#0002</v>
       </c>
       <c r="G34" s="61" t="str">
         <f>_xll.ohRangeRetrieveError(F34)</f>
@@ -6635,7 +6635,7 @@
       </c>
       <c r="F35" s="12" t="str">
         <f>_xll.qlSimpleQuote(E35,,PriceTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDFUT3MN6_Quote#0001</v>
+        <v>HKDFUT3MN6_Quote#0002</v>
       </c>
       <c r="G35" s="61" t="str">
         <f>_xll.ohRangeRetrieveError(F35)</f>
@@ -6660,7 +6660,7 @@
       </c>
       <c r="F36" s="12" t="str">
         <f>_xll.qlSimpleQuote(E36,,PriceTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDFUT3MQ6_Quote#0001</v>
+        <v>HKDFUT3MQ6_Quote#0002</v>
       </c>
       <c r="G36" s="61" t="str">
         <f>_xll.ohRangeRetrieveError(F36)</f>
@@ -6685,7 +6685,7 @@
       </c>
       <c r="F37" s="12" t="str">
         <f>_xll.qlSimpleQuote(E37,,PriceTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDFUT3MU6_Quote#0001</v>
+        <v>HKDFUT3MU6_Quote#0002</v>
       </c>
       <c r="G37" s="61" t="str">
         <f>_xll.ohRangeRetrieveError(F37)</f>
@@ -6710,7 +6710,7 @@
       </c>
       <c r="F38" s="12" t="str">
         <f>_xll.qlSimpleQuote(E38,,PriceTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDFUT3MV6_Quote#0001</v>
+        <v>HKDFUT3MV6_Quote#0002</v>
       </c>
       <c r="G38" s="61" t="str">
         <f>_xll.ohRangeRetrieveError(F38)</f>
@@ -6735,7 +6735,7 @@
       </c>
       <c r="F39" s="12" t="str">
         <f>_xll.qlSimpleQuote(E39,,PriceTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDFUT3MX6_Quote#0001</v>
+        <v>HKDFUT3MX6_Quote#0002</v>
       </c>
       <c r="G39" s="61" t="str">
         <f>_xll.ohRangeRetrieveError(F39)</f>
@@ -6760,7 +6760,7 @@
       </c>
       <c r="F40" s="12" t="str">
         <f>_xll.qlSimpleQuote(E40,,PriceTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDFUT3MZ6_Quote#0001</v>
+        <v>HKDFUT3MZ6_Quote#0002</v>
       </c>
       <c r="G40" s="61" t="str">
         <f>_xll.ohRangeRetrieveError(F40)</f>
@@ -6785,7 +6785,7 @@
       </c>
       <c r="F41" s="12" t="str">
         <f>_xll.qlSimpleQuote(E41,,PriceTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDFUT3MF7_Quote#0001</v>
+        <v>HKDFUT3MF7_Quote#0002</v>
       </c>
       <c r="G41" s="61" t="str">
         <f>_xll.ohRangeRetrieveError(F41)</f>
@@ -6810,7 +6810,7 @@
       </c>
       <c r="F42" s="12" t="str">
         <f>_xll.qlSimpleQuote(E42,,PriceTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDFUT3MG7_Quote#0001</v>
+        <v>HKDFUT3MG7_Quote#0002</v>
       </c>
       <c r="G42" s="61" t="str">
         <f>_xll.ohRangeRetrieveError(F42)</f>
@@ -6835,7 +6835,7 @@
       </c>
       <c r="F43" s="12" t="str">
         <f>_xll.qlSimpleQuote(E43,,PriceTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDFUT3MH7_Quote#0001</v>
+        <v>HKDFUT3MH7_Quote#0002</v>
       </c>
       <c r="G43" s="61" t="str">
         <f>_xll.ohRangeRetrieveError(F43)</f>
@@ -6860,7 +6860,7 @@
       </c>
       <c r="F44" s="12" t="str">
         <f>_xll.qlSimpleQuote(E44,,PriceTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDFUT3MJ7_Quote#0001</v>
+        <v>HKDFUT3MJ7_Quote#0002</v>
       </c>
       <c r="G44" s="61" t="str">
         <f>_xll.ohRangeRetrieveError(F44)</f>
@@ -6885,7 +6885,7 @@
       </c>
       <c r="F45" s="12" t="str">
         <f>_xll.qlSimpleQuote(E45,,PriceTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDFUT3MK7_Quote#0001</v>
+        <v>HKDFUT3MK7_Quote#0002</v>
       </c>
       <c r="G45" s="61" t="str">
         <f>_xll.ohRangeRetrieveError(F45)</f>
@@ -6910,7 +6910,7 @@
       </c>
       <c r="F46" s="12" t="str">
         <f>_xll.qlSimpleQuote(E46,,PriceTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDFUT3MM7_Quote#0001</v>
+        <v>HKDFUT3MM7_Quote#0002</v>
       </c>
       <c r="G46" s="61" t="str">
         <f>_xll.ohRangeRetrieveError(F46)</f>
@@ -6935,7 +6935,7 @@
       </c>
       <c r="F47" s="12" t="str">
         <f>_xll.qlSimpleQuote(E47,,PriceTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDFUT3MN7_Quote#0001</v>
+        <v>HKDFUT3MN7_Quote#0002</v>
       </c>
       <c r="G47" s="61" t="str">
         <f>_xll.ohRangeRetrieveError(F47)</f>
@@ -6960,7 +6960,7 @@
       </c>
       <c r="F48" s="12" t="str">
         <f>_xll.qlSimpleQuote(E48,,PriceTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDFUT3MQ7_Quote#0001</v>
+        <v>HKDFUT3MQ7_Quote#0002</v>
       </c>
       <c r="G48" s="61" t="str">
         <f>_xll.ohRangeRetrieveError(F48)</f>
@@ -6985,7 +6985,7 @@
       </c>
       <c r="F49" s="12" t="str">
         <f>_xll.qlSimpleQuote(E49,,PriceTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDFUT3MU7_Quote#0001</v>
+        <v>HKDFUT3MU7_Quote#0002</v>
       </c>
       <c r="G49" s="61" t="str">
         <f>_xll.ohRangeRetrieveError(F49)</f>
@@ -7010,7 +7010,7 @@
       </c>
       <c r="F50" s="12" t="str">
         <f>_xll.qlSimpleQuote(E50,,PriceTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDFUT3MV7_Quote#0001</v>
+        <v>HKDFUT3MV7_Quote#0002</v>
       </c>
       <c r="G50" s="61" t="str">
         <f>_xll.ohRangeRetrieveError(F50)</f>
@@ -7035,7 +7035,7 @@
       </c>
       <c r="F51" s="12" t="str">
         <f>_xll.qlSimpleQuote(E51,,PriceTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDFUT3MX7_Quote#0001</v>
+        <v>HKDFUT3MX7_Quote#0002</v>
       </c>
       <c r="G51" s="61" t="str">
         <f>_xll.ohRangeRetrieveError(F51)</f>
@@ -7060,7 +7060,7 @@
       </c>
       <c r="F52" s="12" t="str">
         <f>_xll.qlSimpleQuote(E52,,PriceTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDFUT3MZ7_Quote#0001</v>
+        <v>HKDFUT3MZ7_Quote#0002</v>
       </c>
       <c r="G52" s="61" t="str">
         <f>_xll.ohRangeRetrieveError(F52)</f>
@@ -7085,7 +7085,7 @@
       </c>
       <c r="F53" s="12" t="str">
         <f>_xll.qlSimpleQuote(E53,,PriceTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDFUT3MF8_Quote#0001</v>
+        <v>HKDFUT3MF8_Quote#0002</v>
       </c>
       <c r="G53" s="61" t="str">
         <f>_xll.ohRangeRetrieveError(F53)</f>
@@ -7110,7 +7110,7 @@
       </c>
       <c r="F54" s="12" t="str">
         <f>_xll.qlSimpleQuote(E54,,PriceTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDFUT3MG8_Quote#0001</v>
+        <v>HKDFUT3MG8_Quote#0002</v>
       </c>
       <c r="G54" s="61" t="str">
         <f>_xll.ohRangeRetrieveError(F54)</f>
@@ -7135,7 +7135,7 @@
       </c>
       <c r="F55" s="12" t="str">
         <f>_xll.qlSimpleQuote(E55,,PriceTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDFUT3MH8_Quote#0001</v>
+        <v>HKDFUT3MH8_Quote#0002</v>
       </c>
       <c r="G55" s="61" t="str">
         <f>_xll.ohRangeRetrieveError(F55)</f>
@@ -7160,7 +7160,7 @@
       </c>
       <c r="F56" s="12" t="str">
         <f>_xll.qlSimpleQuote(E56,,PriceTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDFUT3MJ8_Quote#0001</v>
+        <v>HKDFUT3MJ8_Quote#0002</v>
       </c>
       <c r="G56" s="61" t="str">
         <f>_xll.ohRangeRetrieveError(F56)</f>
@@ -7185,7 +7185,7 @@
       </c>
       <c r="F57" s="12" t="str">
         <f>_xll.qlSimpleQuote(E57,,PriceTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDFUT3MK8_Quote#0001</v>
+        <v>HKDFUT3MK8_Quote#0002</v>
       </c>
       <c r="G57" s="61" t="str">
         <f>_xll.ohRangeRetrieveError(F57)</f>
@@ -7210,7 +7210,7 @@
       </c>
       <c r="F58" s="12" t="str">
         <f>_xll.qlSimpleQuote(E58,,PriceTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDFUT3MM8_Quote#0001</v>
+        <v>HKDFUT3MM8_Quote#0002</v>
       </c>
       <c r="G58" s="61" t="str">
         <f>_xll.ohRangeRetrieveError(F58)</f>
@@ -7235,7 +7235,7 @@
       </c>
       <c r="F59" s="12" t="str">
         <f>_xll.qlSimpleQuote(E59,,PriceTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDFUT3MN8_Quote#0001</v>
+        <v>HKDFUT3MN8_Quote#0002</v>
       </c>
       <c r="G59" s="61" t="str">
         <f>_xll.ohRangeRetrieveError(F59)</f>
@@ -7260,7 +7260,7 @@
       </c>
       <c r="F60" s="12" t="str">
         <f>_xll.qlSimpleQuote(E60,,PriceTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDFUT3MQ8_Quote#0001</v>
+        <v>HKDFUT3MQ8_Quote#0002</v>
       </c>
       <c r="G60" s="61" t="str">
         <f>_xll.ohRangeRetrieveError(F60)</f>
@@ -7285,7 +7285,7 @@
       </c>
       <c r="F61" s="12" t="str">
         <f>_xll.qlSimpleQuote(E61,,PriceTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDFUT3MU8_Quote#0001</v>
+        <v>HKDFUT3MU8_Quote#0002</v>
       </c>
       <c r="G61" s="61" t="str">
         <f>_xll.ohRangeRetrieveError(F61)</f>
@@ -7310,7 +7310,7 @@
       </c>
       <c r="F62" s="12" t="str">
         <f>_xll.qlSimpleQuote(E62,,PriceTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDFUT3MV8_Quote#0001</v>
+        <v>HKDFUT3MV8_Quote#0002</v>
       </c>
       <c r="G62" s="61" t="str">
         <f>_xll.ohRangeRetrieveError(F62)</f>
@@ -7335,7 +7335,7 @@
       </c>
       <c r="F63" s="12" t="str">
         <f>_xll.qlSimpleQuote(E63,,PriceTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDFUT3MX8_Quote#0001</v>
+        <v>HKDFUT3MX8_Quote#0002</v>
       </c>
       <c r="G63" s="61" t="str">
         <f>_xll.ohRangeRetrieveError(F63)</f>
@@ -7360,7 +7360,7 @@
       </c>
       <c r="F64" s="12" t="str">
         <f>_xll.qlSimpleQuote(E64,,PriceTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDFUT3MZ8_Quote#0001</v>
+        <v>HKDFUT3MZ8_Quote#0002</v>
       </c>
       <c r="G64" s="61" t="str">
         <f>_xll.ohRangeRetrieveError(F64)</f>
@@ -7385,7 +7385,7 @@
       </c>
       <c r="F65" s="12" t="str">
         <f>_xll.qlSimpleQuote(E65,,PriceTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDFUT3MF9_Quote#0001</v>
+        <v>HKDFUT3MF9_Quote#0002</v>
       </c>
       <c r="G65" s="61" t="str">
         <f>_xll.ohRangeRetrieveError(F65)</f>
@@ -7410,7 +7410,7 @@
       </c>
       <c r="F66" s="12" t="str">
         <f>_xll.qlSimpleQuote(E66,,PriceTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDFUT3MG9_Quote#0001</v>
+        <v>HKDFUT3MG9_Quote#0002</v>
       </c>
       <c r="G66" s="61" t="str">
         <f>_xll.ohRangeRetrieveError(F66)</f>
@@ -7435,7 +7435,7 @@
       </c>
       <c r="F67" s="12" t="str">
         <f>_xll.qlSimpleQuote(E67,,PriceTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDFUT3MH9_Quote#0001</v>
+        <v>HKDFUT3MH9_Quote#0002</v>
       </c>
       <c r="G67" s="61" t="str">
         <f>_xll.ohRangeRetrieveError(F67)</f>
@@ -7460,7 +7460,7 @@
       </c>
       <c r="F68" s="12" t="str">
         <f>_xll.qlSimpleQuote(E68,,PriceTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDFUT3MJ9_Quote#0001</v>
+        <v>HKDFUT3MJ9_Quote#0002</v>
       </c>
       <c r="G68" s="61" t="str">
         <f>_xll.ohRangeRetrieveError(F68)</f>
@@ -7485,7 +7485,7 @@
       </c>
       <c r="F69" s="12" t="str">
         <f>_xll.qlSimpleQuote(E69,,PriceTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDFUT3MK9_Quote#0001</v>
+        <v>HKDFUT3MK9_Quote#0002</v>
       </c>
       <c r="G69" s="61" t="str">
         <f>_xll.ohRangeRetrieveError(F69)</f>
@@ -7510,7 +7510,7 @@
       </c>
       <c r="F70" s="12" t="str">
         <f>_xll.qlSimpleQuote(E70,,PriceTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDFUT3MM9_Quote#0001</v>
+        <v>HKDFUT3MM9_Quote#0002</v>
       </c>
       <c r="G70" s="61" t="str">
         <f>_xll.ohRangeRetrieveError(F70)</f>
@@ -7535,7 +7535,7 @@
       </c>
       <c r="F71" s="12" t="str">
         <f>_xll.qlSimpleQuote(E71,,PriceTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDFUT3MN9_Quote#0001</v>
+        <v>HKDFUT3MN9_Quote#0002</v>
       </c>
       <c r="G71" s="61" t="str">
         <f>_xll.ohRangeRetrieveError(F71)</f>
@@ -7560,7 +7560,7 @@
       </c>
       <c r="F72" s="12" t="str">
         <f>_xll.qlSimpleQuote(E72,,PriceTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDFUT3MQ9_Quote#0001</v>
+        <v>HKDFUT3MQ9_Quote#0002</v>
       </c>
       <c r="G72" s="61" t="str">
         <f>_xll.ohRangeRetrieveError(F72)</f>
@@ -7585,7 +7585,7 @@
       </c>
       <c r="F73" s="12" t="str">
         <f>_xll.qlSimpleQuote(E73,,PriceTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDFUT3MU9_Quote#0001</v>
+        <v>HKDFUT3MU9_Quote#0002</v>
       </c>
       <c r="G73" s="61" t="str">
         <f>_xll.ohRangeRetrieveError(F73)</f>
@@ -7610,7 +7610,7 @@
       </c>
       <c r="F74" s="12" t="str">
         <f>_xll.qlSimpleQuote(E74,,PriceTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDFUT3MV9_Quote#0001</v>
+        <v>HKDFUT3MV9_Quote#0002</v>
       </c>
       <c r="G74" s="61" t="str">
         <f>_xll.ohRangeRetrieveError(F74)</f>
@@ -7635,7 +7635,7 @@
       </c>
       <c r="F75" s="12" t="str">
         <f>_xll.qlSimpleQuote(E75,,PriceTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDFUT3MX9_Quote#0001</v>
+        <v>HKDFUT3MX9_Quote#0002</v>
       </c>
       <c r="G75" s="61" t="str">
         <f>_xll.ohRangeRetrieveError(F75)</f>
@@ -7660,7 +7660,7 @@
       </c>
       <c r="F76" s="12" t="str">
         <f>_xll.qlSimpleQuote(E76,,PriceTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDFUT3MZ9_Quote#0001</v>
+        <v>HKDFUT3MZ9_Quote#0002</v>
       </c>
       <c r="G76" s="61" t="str">
         <f>_xll.ohRangeRetrieveError(F76)</f>
@@ -7685,7 +7685,7 @@
       </c>
       <c r="F77" s="12" t="str">
         <f>_xll.qlSimpleQuote(E77,,PriceTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDFUT3MF0_Quote#0001</v>
+        <v>HKDFUT3MF0_Quote#0002</v>
       </c>
       <c r="G77" s="61" t="str">
         <f>_xll.ohRangeRetrieveError(F77)</f>
@@ -7710,7 +7710,7 @@
       </c>
       <c r="F78" s="12" t="str">
         <f>_xll.qlSimpleQuote(E78,,PriceTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDFUT3MG0_Quote#0001</v>
+        <v>HKDFUT3MG0_Quote#0002</v>
       </c>
       <c r="G78" s="61" t="str">
         <f>_xll.ohRangeRetrieveError(F78)</f>
@@ -7735,7 +7735,7 @@
       </c>
       <c r="F79" s="12" t="str">
         <f>_xll.qlSimpleQuote(E79,,PriceTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDFUT3MH0_Quote#0001</v>
+        <v>HKDFUT3MH0_Quote#0002</v>
       </c>
       <c r="G79" s="61" t="str">
         <f>_xll.ohRangeRetrieveError(F79)</f>
@@ -7760,7 +7760,7 @@
       </c>
       <c r="F80" s="12" t="str">
         <f>_xll.qlSimpleQuote(E80,,PriceTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDFUT3MJ0_Quote#0001</v>
+        <v>HKDFUT3MJ0_Quote#0002</v>
       </c>
       <c r="G80" s="61" t="str">
         <f>_xll.ohRangeRetrieveError(F80)</f>
@@ -7785,7 +7785,7 @@
       </c>
       <c r="F81" s="12" t="str">
         <f>_xll.qlSimpleQuote(E81,,PriceTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDFUT3MK0_Quote#0001</v>
+        <v>HKDFUT3MK0_Quote#0002</v>
       </c>
       <c r="G81" s="61" t="str">
         <f>_xll.ohRangeRetrieveError(F81)</f>
@@ -7810,7 +7810,7 @@
       </c>
       <c r="F82" s="12" t="str">
         <f>_xll.qlSimpleQuote(E82,,PriceTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDFUT3MM0_Quote#0001</v>
+        <v>HKDFUT3MM0_Quote#0002</v>
       </c>
       <c r="G82" s="61" t="str">
         <f>_xll.ohRangeRetrieveError(F82)</f>
@@ -7835,7 +7835,7 @@
       </c>
       <c r="F83" s="12" t="str">
         <f>_xll.qlSimpleQuote(E83,,PriceTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDFUT3MN0_Quote#0001</v>
+        <v>HKDFUT3MN0_Quote#0002</v>
       </c>
       <c r="G83" s="61" t="str">
         <f>_xll.ohRangeRetrieveError(F83)</f>
@@ -7860,7 +7860,7 @@
       </c>
       <c r="F84" s="12" t="str">
         <f>_xll.qlSimpleQuote(E84,,PriceTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDFUT3MQ0_Quote#0001</v>
+        <v>HKDFUT3MQ0_Quote#0002</v>
       </c>
       <c r="G84" s="61" t="str">
         <f>_xll.ohRangeRetrieveError(F84)</f>
@@ -7885,7 +7885,7 @@
       </c>
       <c r="F85" s="12" t="str">
         <f>_xll.qlSimpleQuote(E85,,PriceTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDFUT3MU0_Quote#0001</v>
+        <v>HKDFUT3MU0_Quote#0002</v>
       </c>
       <c r="G85" s="61" t="str">
         <f>_xll.ohRangeRetrieveError(F85)</f>
@@ -7910,7 +7910,7 @@
       </c>
       <c r="F86" s="12" t="str">
         <f>_xll.qlSimpleQuote(E86,,PriceTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDFUT3MV0_Quote#0001</v>
+        <v>HKDFUT3MV0_Quote#0002</v>
       </c>
       <c r="G86" s="61" t="str">
         <f>_xll.ohRangeRetrieveError(F86)</f>
@@ -7935,7 +7935,7 @@
       </c>
       <c r="F87" s="12" t="str">
         <f>_xll.qlSimpleQuote(E87,,PriceTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDFUT3MX0_Quote#0001</v>
+        <v>HKDFUT3MX0_Quote#0002</v>
       </c>
       <c r="G87" s="61" t="str">
         <f>_xll.ohRangeRetrieveError(F87)</f>
@@ -7960,7 +7960,7 @@
       </c>
       <c r="F88" s="12" t="str">
         <f>_xll.qlSimpleQuote(E88,,PriceTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDFUT3MZ0_Quote#0001</v>
+        <v>HKDFUT3MZ0_Quote#0002</v>
       </c>
       <c r="G88" s="61" t="str">
         <f>_xll.ohRangeRetrieveError(F88)</f>
@@ -7985,7 +7985,7 @@
       </c>
       <c r="F89" s="12" t="str">
         <f>_xll.qlSimpleQuote(E89,,PriceTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDFUT3MF1_Quote#0001</v>
+        <v>HKDFUT3MF1_Quote#0002</v>
       </c>
       <c r="G89" s="61" t="str">
         <f>_xll.ohRangeRetrieveError(F89)</f>
@@ -8010,7 +8010,7 @@
       </c>
       <c r="F90" s="12" t="str">
         <f>_xll.qlSimpleQuote(E90,,PriceTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDFUT3MG1_Quote#0001</v>
+        <v>HKDFUT3MG1_Quote#0002</v>
       </c>
       <c r="G90" s="61" t="str">
         <f>_xll.ohRangeRetrieveError(F90)</f>
@@ -8035,7 +8035,7 @@
       </c>
       <c r="F91" s="12" t="str">
         <f>_xll.qlSimpleQuote(E91,,PriceTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDFUT3MH1_Quote#0001</v>
+        <v>HKDFUT3MH1_Quote#0002</v>
       </c>
       <c r="G91" s="61" t="str">
         <f>_xll.ohRangeRetrieveError(F91)</f>
@@ -8060,7 +8060,7 @@
       </c>
       <c r="F92" s="12" t="str">
         <f>_xll.qlSimpleQuote(E92,,PriceTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDFUT3MJ1_Quote#0001</v>
+        <v>HKDFUT3MJ1_Quote#0002</v>
       </c>
       <c r="G92" s="61" t="str">
         <f>_xll.ohRangeRetrieveError(F92)</f>
@@ -8085,7 +8085,7 @@
       </c>
       <c r="F93" s="12" t="str">
         <f>_xll.qlSimpleQuote(E93,,PriceTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDFUT3MK1_Quote#0001</v>
+        <v>HKDFUT3MK1_Quote#0002</v>
       </c>
       <c r="G93" s="61" t="str">
         <f>_xll.ohRangeRetrieveError(F93)</f>
@@ -8110,7 +8110,7 @@
       </c>
       <c r="F94" s="12" t="str">
         <f>_xll.qlSimpleQuote(E94,,PriceTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDFUT3MM1_Quote#0001</v>
+        <v>HKDFUT3MM1_Quote#0002</v>
       </c>
       <c r="G94" s="61" t="str">
         <f>_xll.ohRangeRetrieveError(F94)</f>
@@ -8135,7 +8135,7 @@
       </c>
       <c r="F95" s="12" t="str">
         <f>_xll.qlSimpleQuote(E95,,PriceTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDFUT3MN1_Quote#0001</v>
+        <v>HKDFUT3MN1_Quote#0002</v>
       </c>
       <c r="G95" s="61" t="str">
         <f>_xll.ohRangeRetrieveError(F95)</f>
@@ -8160,7 +8160,7 @@
       </c>
       <c r="F96" s="12" t="str">
         <f>_xll.qlSimpleQuote(E96,,PriceTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDFUT3MQ1_Quote#0001</v>
+        <v>HKDFUT3MQ1_Quote#0002</v>
       </c>
       <c r="G96" s="61" t="str">
         <f>_xll.ohRangeRetrieveError(F96)</f>
@@ -8185,7 +8185,7 @@
       </c>
       <c r="F97" s="12" t="str">
         <f>_xll.qlSimpleQuote(E97,,PriceTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDFUT3MU1_Quote#0001</v>
+        <v>HKDFUT3MU1_Quote#0002</v>
       </c>
       <c r="G97" s="61" t="str">
         <f>_xll.ohRangeRetrieveError(F97)</f>
@@ -8210,7 +8210,7 @@
       </c>
       <c r="F98" s="12" t="str">
         <f>_xll.qlSimpleQuote(E98,,PriceTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDFUT3MV1_Quote#0001</v>
+        <v>HKDFUT3MV1_Quote#0002</v>
       </c>
       <c r="G98" s="61" t="str">
         <f>_xll.ohRangeRetrieveError(F98)</f>
@@ -8235,7 +8235,7 @@
       </c>
       <c r="F99" s="12" t="str">
         <f>_xll.qlSimpleQuote(E99,,PriceTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDFUT3MX1_Quote#0001</v>
+        <v>HKDFUT3MX1_Quote#0002</v>
       </c>
       <c r="G99" s="61" t="str">
         <f>_xll.ohRangeRetrieveError(F99)</f>
@@ -8260,7 +8260,7 @@
       </c>
       <c r="F100" s="12" t="str">
         <f>_xll.qlSimpleQuote(E100,,PriceTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDFUT3MZ1_Quote#0001</v>
+        <v>HKDFUT3MZ1_Quote#0002</v>
       </c>
       <c r="G100" s="61" t="str">
         <f>_xll.ohRangeRetrieveError(F100)</f>
@@ -8285,7 +8285,7 @@
       </c>
       <c r="F101" s="12" t="str">
         <f>_xll.qlSimpleQuote(E101,,PriceTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDFUT3MF2_Quote#0001</v>
+        <v>HKDFUT3MF2_Quote#0002</v>
       </c>
       <c r="G101" s="61" t="str">
         <f>_xll.ohRangeRetrieveError(F101)</f>
@@ -8310,7 +8310,7 @@
       </c>
       <c r="F102" s="12" t="str">
         <f>_xll.qlSimpleQuote(E102,,PriceTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDFUT3MG2_Quote#0001</v>
+        <v>HKDFUT3MG2_Quote#0002</v>
       </c>
       <c r="G102" s="61" t="str">
         <f>_xll.ohRangeRetrieveError(F102)</f>
@@ -8335,7 +8335,7 @@
       </c>
       <c r="F103" s="12" t="str">
         <f>_xll.qlSimpleQuote(E103,,PriceTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDFUT3MH2_Quote#0001</v>
+        <v>HKDFUT3MH2_Quote#0002</v>
       </c>
       <c r="G103" s="61" t="str">
         <f>_xll.ohRangeRetrieveError(F103)</f>
@@ -8360,7 +8360,7 @@
       </c>
       <c r="F104" s="12" t="str">
         <f>_xll.qlSimpleQuote(E104,,PriceTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDFUT3MJ2_Quote#0001</v>
+        <v>HKDFUT3MJ2_Quote#0002</v>
       </c>
       <c r="G104" s="61" t="str">
         <f>_xll.ohRangeRetrieveError(F104)</f>
@@ -8385,7 +8385,7 @@
       </c>
       <c r="F105" s="12" t="str">
         <f>_xll.qlSimpleQuote(E105,,PriceTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDFUT3MK2_Quote#0001</v>
+        <v>HKDFUT3MK2_Quote#0002</v>
       </c>
       <c r="G105" s="61" t="str">
         <f>_xll.ohRangeRetrieveError(F105)</f>
@@ -8410,7 +8410,7 @@
       </c>
       <c r="F106" s="12" t="str">
         <f>_xll.qlSimpleQuote(E106,,PriceTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDFUT3MM2_Quote#0001</v>
+        <v>HKDFUT3MM2_Quote#0002</v>
       </c>
       <c r="G106" s="61" t="str">
         <f>_xll.ohRangeRetrieveError(F106)</f>
@@ -8435,7 +8435,7 @@
       </c>
       <c r="F107" s="12" t="str">
         <f>_xll.qlSimpleQuote(E107,,PriceTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDFUT3MN2_Quote#0001</v>
+        <v>HKDFUT3MN2_Quote#0002</v>
       </c>
       <c r="G107" s="61" t="str">
         <f>_xll.ohRangeRetrieveError(F107)</f>
@@ -8460,7 +8460,7 @@
       </c>
       <c r="F108" s="12" t="str">
         <f>_xll.qlSimpleQuote(E108,,PriceTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDFUT3MQ2_Quote#0001</v>
+        <v>HKDFUT3MQ2_Quote#0002</v>
       </c>
       <c r="G108" s="61" t="str">
         <f>_xll.ohRangeRetrieveError(F108)</f>
@@ -8485,7 +8485,7 @@
       </c>
       <c r="F109" s="12" t="str">
         <f>_xll.qlSimpleQuote(E109,,PriceTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDFUT3MU2_Quote#0001</v>
+        <v>HKDFUT3MU2_Quote#0002</v>
       </c>
       <c r="G109" s="61" t="str">
         <f>_xll.ohRangeRetrieveError(F109)</f>
@@ -8510,7 +8510,7 @@
       </c>
       <c r="F110" s="12" t="str">
         <f>_xll.qlSimpleQuote(E110,,PriceTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDFUT3MV2_Quote#0001</v>
+        <v>HKDFUT3MV2_Quote#0002</v>
       </c>
       <c r="G110" s="61" t="str">
         <f>_xll.ohRangeRetrieveError(F110)</f>
@@ -8535,7 +8535,7 @@
       </c>
       <c r="F111" s="12" t="str">
         <f>_xll.qlSimpleQuote(E111,,PriceTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDFUT3MX2_Quote#0001</v>
+        <v>HKDFUT3MX2_Quote#0002</v>
       </c>
       <c r="G111" s="61" t="str">
         <f>_xll.ohRangeRetrieveError(F111)</f>
@@ -8560,7 +8560,7 @@
       </c>
       <c r="F112" s="12" t="str">
         <f>_xll.qlSimpleQuote(E112,,PriceTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDFUT3MZ2_Quote#0001</v>
+        <v>HKDFUT3MZ2_Quote#0002</v>
       </c>
       <c r="G112" s="61" t="str">
         <f>_xll.ohRangeRetrieveError(F112)</f>
@@ -8585,7 +8585,7 @@
       </c>
       <c r="F113" s="12" t="str">
         <f>_xll.qlSimpleQuote(E113,,PriceTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDFUT3MF3_Quote#0001</v>
+        <v>HKDFUT3MF3_Quote#0002</v>
       </c>
       <c r="G113" s="61" t="str">
         <f>_xll.ohRangeRetrieveError(F113)</f>
@@ -8610,7 +8610,7 @@
       </c>
       <c r="F114" s="12" t="str">
         <f>_xll.qlSimpleQuote(E114,,PriceTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDFUT3MG3_Quote#0001</v>
+        <v>HKDFUT3MG3_Quote#0002</v>
       </c>
       <c r="G114" s="61" t="str">
         <f>_xll.ohRangeRetrieveError(F114)</f>
@@ -8635,7 +8635,7 @@
       </c>
       <c r="F115" s="12" t="str">
         <f>_xll.qlSimpleQuote(E115,,PriceTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDFUT3MH3_Quote#0001</v>
+        <v>HKDFUT3MH3_Quote#0002</v>
       </c>
       <c r="G115" s="61" t="str">
         <f>_xll.ohRangeRetrieveError(F115)</f>
@@ -8660,7 +8660,7 @@
       </c>
       <c r="F116" s="12" t="str">
         <f>_xll.qlSimpleQuote(E116,,PriceTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDFUT3MJ3_Quote#0001</v>
+        <v>HKDFUT3MJ3_Quote#0002</v>
       </c>
       <c r="G116" s="61" t="str">
         <f>_xll.ohRangeRetrieveError(F116)</f>
@@ -8685,7 +8685,7 @@
       </c>
       <c r="F117" s="12" t="str">
         <f>_xll.qlSimpleQuote(E117,,PriceTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDFUT3MK3_Quote#0001</v>
+        <v>HKDFUT3MK3_Quote#0002</v>
       </c>
       <c r="G117" s="61" t="str">
         <f>_xll.ohRangeRetrieveError(F117)</f>
@@ -8710,7 +8710,7 @@
       </c>
       <c r="F118" s="12" t="str">
         <f>_xll.qlSimpleQuote(E118,,PriceTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDFUT3MM3_Quote#0001</v>
+        <v>HKDFUT3MM3_Quote#0002</v>
       </c>
       <c r="G118" s="61" t="str">
         <f>_xll.ohRangeRetrieveError(F118)</f>
@@ -8735,7 +8735,7 @@
       </c>
       <c r="F119" s="12" t="str">
         <f>_xll.qlSimpleQuote(E119,,PriceTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDFUT3MN3_Quote#0001</v>
+        <v>HKDFUT3MN3_Quote#0002</v>
       </c>
       <c r="G119" s="61" t="str">
         <f>_xll.ohRangeRetrieveError(F119)</f>
@@ -8760,7 +8760,7 @@
       </c>
       <c r="F120" s="12" t="str">
         <f>_xll.qlSimpleQuote(E120,,PriceTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDFUT3MQ3_Quote#0001</v>
+        <v>HKDFUT3MQ3_Quote#0002</v>
       </c>
       <c r="G120" s="61" t="str">
         <f>_xll.ohRangeRetrieveError(F120)</f>
@@ -8785,7 +8785,7 @@
       </c>
       <c r="F121" s="12" t="str">
         <f>_xll.qlSimpleQuote(E121,,PriceTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDFUT3MU3_Quote#0001</v>
+        <v>HKDFUT3MU3_Quote#0002</v>
       </c>
       <c r="G121" s="61" t="str">
         <f>_xll.ohRangeRetrieveError(F121)</f>
@@ -8810,7 +8810,7 @@
       </c>
       <c r="F122" s="12" t="str">
         <f>_xll.qlSimpleQuote(E122,,PriceTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDFUT3MV3_Quote#0001</v>
+        <v>HKDFUT3MV3_Quote#0002</v>
       </c>
       <c r="G122" s="61" t="str">
         <f>_xll.ohRangeRetrieveError(F122)</f>
@@ -8887,13 +8887,13 @@
         <f>Currency&amp;"_010_"&amp;$D$1&amp;$E$1&amp;".xml"</f>
         <v>HKD_010_IMMFRA6M.xml</v>
       </c>
-      <c r="F2" s="64" t="e">
-        <f ca="1">IF(Serialize,_xll.ohObjectSave(F3:F122,SerializationPath&amp;E2,FileOverwrite,Serialize),"---")</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="G2" s="65" t="e">
+      <c r="F2" s="64">
+        <f ca="1">IF(Serialize,_xll.ohObjectSave(F3:F122,SerializationPath&amp;E2,FileOverwrite,,Serialize),"---")</f>
+        <v>120</v>
+      </c>
+      <c r="G2" s="65" t="str">
         <f ca="1">_xll.ohRangeRetrieveError(F2)</f>
-        <v>#NAME?</v>
+        <v/>
       </c>
       <c r="H2" s="55"/>
     </row>
@@ -8915,7 +8915,7 @@
       </c>
       <c r="F3" s="41" t="str">
         <f>_xll.qlSimpleQuote(E3,,PriceTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDIMMFRA6MX3_Quote#0001</v>
+        <v>HKDIMMFRA6MX3_Quote#0002</v>
       </c>
       <c r="G3" s="60" t="str">
         <f>_xll.ohRangeRetrieveError(F3)</f>
@@ -8940,7 +8940,7 @@
       </c>
       <c r="F4" s="12" t="str">
         <f>_xll.qlSimpleQuote(E4,,PriceTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDIMMFRA6MZ3_Quote#0001</v>
+        <v>HKDIMMFRA6MZ3_Quote#0002</v>
       </c>
       <c r="G4" s="61" t="str">
         <f>_xll.ohRangeRetrieveError(F4)</f>
@@ -8965,7 +8965,7 @@
       </c>
       <c r="F5" s="12" t="str">
         <f>_xll.qlSimpleQuote(E5,,PriceTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDIMMFRA6MF4_Quote#0001</v>
+        <v>HKDIMMFRA6MF4_Quote#0002</v>
       </c>
       <c r="G5" s="61" t="str">
         <f>_xll.ohRangeRetrieveError(F5)</f>
@@ -8990,7 +8990,7 @@
       </c>
       <c r="F6" s="12" t="str">
         <f>_xll.qlSimpleQuote(E6,,PriceTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDIMMFRA6MG4_Quote#0001</v>
+        <v>HKDIMMFRA6MG4_Quote#0002</v>
       </c>
       <c r="G6" s="61" t="str">
         <f>_xll.ohRangeRetrieveError(F6)</f>
@@ -9015,7 +9015,7 @@
       </c>
       <c r="F7" s="12" t="str">
         <f>_xll.qlSimpleQuote(E7,,PriceTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDIMMFRA6MH4_Quote#0001</v>
+        <v>HKDIMMFRA6MH4_Quote#0002</v>
       </c>
       <c r="G7" s="61" t="str">
         <f>_xll.ohRangeRetrieveError(F7)</f>
@@ -9040,7 +9040,7 @@
       </c>
       <c r="F8" s="12" t="str">
         <f>_xll.qlSimpleQuote(E8,,PriceTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDIMMFRA6MJ4_Quote#0001</v>
+        <v>HKDIMMFRA6MJ4_Quote#0002</v>
       </c>
       <c r="G8" s="61" t="str">
         <f>_xll.ohRangeRetrieveError(F8)</f>
@@ -9065,7 +9065,7 @@
       </c>
       <c r="F9" s="12" t="str">
         <f>_xll.qlSimpleQuote(E9,,PriceTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDIMMFRA6MK4_Quote#0001</v>
+        <v>HKDIMMFRA6MK4_Quote#0002</v>
       </c>
       <c r="G9" s="61" t="str">
         <f>_xll.ohRangeRetrieveError(F9)</f>
@@ -9090,7 +9090,7 @@
       </c>
       <c r="F10" s="12" t="str">
         <f>_xll.qlSimpleQuote(E10,,PriceTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDIMMFRA6MM4_Quote#0001</v>
+        <v>HKDIMMFRA6MM4_Quote#0002</v>
       </c>
       <c r="G10" s="61" t="str">
         <f>_xll.ohRangeRetrieveError(F10)</f>
@@ -9115,7 +9115,7 @@
       </c>
       <c r="F11" s="12" t="str">
         <f>_xll.qlSimpleQuote(E11,,PriceTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDIMMFRA6MN4_Quote#0001</v>
+        <v>HKDIMMFRA6MN4_Quote#0002</v>
       </c>
       <c r="G11" s="61" t="str">
         <f>_xll.ohRangeRetrieveError(F11)</f>
@@ -9140,7 +9140,7 @@
       </c>
       <c r="F12" s="12" t="str">
         <f>_xll.qlSimpleQuote(E12,,PriceTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDIMMFRA6MQ4_Quote#0001</v>
+        <v>HKDIMMFRA6MQ4_Quote#0002</v>
       </c>
       <c r="G12" s="61" t="str">
         <f>_xll.ohRangeRetrieveError(F12)</f>
@@ -9165,7 +9165,7 @@
       </c>
       <c r="F13" s="12" t="str">
         <f>_xll.qlSimpleQuote(E13,,PriceTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDIMMFRA6MU4_Quote#0001</v>
+        <v>HKDIMMFRA6MU4_Quote#0002</v>
       </c>
       <c r="G13" s="61" t="str">
         <f>_xll.ohRangeRetrieveError(F13)</f>
@@ -9190,7 +9190,7 @@
       </c>
       <c r="F14" s="12" t="str">
         <f>_xll.qlSimpleQuote(E14,,PriceTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDIMMFRA6MV4_Quote#0001</v>
+        <v>HKDIMMFRA6MV4_Quote#0002</v>
       </c>
       <c r="G14" s="61" t="str">
         <f>_xll.ohRangeRetrieveError(F14)</f>
@@ -9215,7 +9215,7 @@
       </c>
       <c r="F15" s="12" t="str">
         <f>_xll.qlSimpleQuote(E15,,PriceTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDIMMFRA6MX4_Quote#0001</v>
+        <v>HKDIMMFRA6MX4_Quote#0002</v>
       </c>
       <c r="G15" s="61" t="str">
         <f>_xll.ohRangeRetrieveError(F15)</f>
@@ -9240,7 +9240,7 @@
       </c>
       <c r="F16" s="12" t="str">
         <f>_xll.qlSimpleQuote(E16,,PriceTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDIMMFRA6MZ4_Quote#0001</v>
+        <v>HKDIMMFRA6MZ4_Quote#0002</v>
       </c>
       <c r="G16" s="61" t="str">
         <f>_xll.ohRangeRetrieveError(F16)</f>
@@ -9265,7 +9265,7 @@
       </c>
       <c r="F17" s="12" t="str">
         <f>_xll.qlSimpleQuote(E17,,PriceTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDIMMFRA6MF5_Quote#0001</v>
+        <v>HKDIMMFRA6MF5_Quote#0002</v>
       </c>
       <c r="G17" s="61" t="str">
         <f>_xll.ohRangeRetrieveError(F17)</f>
@@ -9290,7 +9290,7 @@
       </c>
       <c r="F18" s="12" t="str">
         <f>_xll.qlSimpleQuote(E18,,PriceTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDIMMFRA6MG5_Quote#0001</v>
+        <v>HKDIMMFRA6MG5_Quote#0002</v>
       </c>
       <c r="G18" s="61" t="str">
         <f>_xll.ohRangeRetrieveError(F18)</f>
@@ -9315,7 +9315,7 @@
       </c>
       <c r="F19" s="12" t="str">
         <f>_xll.qlSimpleQuote(E19,,PriceTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDIMMFRA6MH5_Quote#0001</v>
+        <v>HKDIMMFRA6MH5_Quote#0002</v>
       </c>
       <c r="G19" s="61" t="str">
         <f>_xll.ohRangeRetrieveError(F19)</f>
@@ -9340,7 +9340,7 @@
       </c>
       <c r="F20" s="12" t="str">
         <f>_xll.qlSimpleQuote(E20,,PriceTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDIMMFRA6MJ5_Quote#0001</v>
+        <v>HKDIMMFRA6MJ5_Quote#0002</v>
       </c>
       <c r="G20" s="61" t="str">
         <f>_xll.ohRangeRetrieveError(F20)</f>
@@ -9365,7 +9365,7 @@
       </c>
       <c r="F21" s="12" t="str">
         <f>_xll.qlSimpleQuote(E21,,PriceTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDIMMFRA6MK5_Quote#0001</v>
+        <v>HKDIMMFRA6MK5_Quote#0002</v>
       </c>
       <c r="G21" s="61" t="str">
         <f>_xll.ohRangeRetrieveError(F21)</f>
@@ -9390,7 +9390,7 @@
       </c>
       <c r="F22" s="12" t="str">
         <f>_xll.qlSimpleQuote(E22,,PriceTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDIMMFRA6MM5_Quote#0001</v>
+        <v>HKDIMMFRA6MM5_Quote#0002</v>
       </c>
       <c r="G22" s="61" t="str">
         <f>_xll.ohRangeRetrieveError(F22)</f>
@@ -9415,7 +9415,7 @@
       </c>
       <c r="F23" s="12" t="str">
         <f>_xll.qlSimpleQuote(E23,,PriceTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDIMMFRA6MN5_Quote#0001</v>
+        <v>HKDIMMFRA6MN5_Quote#0002</v>
       </c>
       <c r="G23" s="61" t="str">
         <f>_xll.ohRangeRetrieveError(F23)</f>
@@ -9440,7 +9440,7 @@
       </c>
       <c r="F24" s="12" t="str">
         <f>_xll.qlSimpleQuote(E24,,PriceTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDIMMFRA6MQ5_Quote#0001</v>
+        <v>HKDIMMFRA6MQ5_Quote#0002</v>
       </c>
       <c r="G24" s="61" t="str">
         <f>_xll.ohRangeRetrieveError(F24)</f>
@@ -9465,7 +9465,7 @@
       </c>
       <c r="F25" s="12" t="str">
         <f>_xll.qlSimpleQuote(E25,,PriceTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDIMMFRA6MU5_Quote#0001</v>
+        <v>HKDIMMFRA6MU5_Quote#0002</v>
       </c>
       <c r="G25" s="61" t="str">
         <f>_xll.ohRangeRetrieveError(F25)</f>
@@ -9490,7 +9490,7 @@
       </c>
       <c r="F26" s="12" t="str">
         <f>_xll.qlSimpleQuote(E26,,PriceTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDIMMFRA6MV5_Quote#0001</v>
+        <v>HKDIMMFRA6MV5_Quote#0002</v>
       </c>
       <c r="G26" s="61" t="str">
         <f>_xll.ohRangeRetrieveError(F26)</f>
@@ -9515,7 +9515,7 @@
       </c>
       <c r="F27" s="12" t="str">
         <f>_xll.qlSimpleQuote(E27,,PriceTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDIMMFRA6MX5_Quote#0001</v>
+        <v>HKDIMMFRA6MX5_Quote#0002</v>
       </c>
       <c r="G27" s="61" t="str">
         <f>_xll.ohRangeRetrieveError(F27)</f>
@@ -9540,7 +9540,7 @@
       </c>
       <c r="F28" s="12" t="str">
         <f>_xll.qlSimpleQuote(E28,,PriceTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDIMMFRA6MZ5_Quote#0001</v>
+        <v>HKDIMMFRA6MZ5_Quote#0002</v>
       </c>
       <c r="G28" s="61" t="str">
         <f>_xll.ohRangeRetrieveError(F28)</f>
@@ -9565,7 +9565,7 @@
       </c>
       <c r="F29" s="12" t="str">
         <f>_xll.qlSimpleQuote(E29,,PriceTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDIMMFRA6MF6_Quote#0001</v>
+        <v>HKDIMMFRA6MF6_Quote#0002</v>
       </c>
       <c r="G29" s="61" t="str">
         <f>_xll.ohRangeRetrieveError(F29)</f>
@@ -9590,7 +9590,7 @@
       </c>
       <c r="F30" s="12" t="str">
         <f>_xll.qlSimpleQuote(E30,,PriceTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDIMMFRA6MG6_Quote#0001</v>
+        <v>HKDIMMFRA6MG6_Quote#0002</v>
       </c>
       <c r="G30" s="61" t="str">
         <f>_xll.ohRangeRetrieveError(F30)</f>
@@ -9615,7 +9615,7 @@
       </c>
       <c r="F31" s="12" t="str">
         <f>_xll.qlSimpleQuote(E31,,PriceTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDIMMFRA6MH6_Quote#0001</v>
+        <v>HKDIMMFRA6MH6_Quote#0002</v>
       </c>
       <c r="G31" s="61" t="str">
         <f>_xll.ohRangeRetrieveError(F31)</f>
@@ -9640,7 +9640,7 @@
       </c>
       <c r="F32" s="12" t="str">
         <f>_xll.qlSimpleQuote(E32,,PriceTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDIMMFRA6MJ6_Quote#0001</v>
+        <v>HKDIMMFRA6MJ6_Quote#0002</v>
       </c>
       <c r="G32" s="61" t="str">
         <f>_xll.ohRangeRetrieveError(F32)</f>
@@ -9665,7 +9665,7 @@
       </c>
       <c r="F33" s="12" t="str">
         <f>_xll.qlSimpleQuote(E33,,PriceTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDIMMFRA6MK6_Quote#0001</v>
+        <v>HKDIMMFRA6MK6_Quote#0002</v>
       </c>
       <c r="G33" s="61" t="str">
         <f>_xll.ohRangeRetrieveError(F33)</f>
@@ -9690,7 +9690,7 @@
       </c>
       <c r="F34" s="12" t="str">
         <f>_xll.qlSimpleQuote(E34,,PriceTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDIMMFRA6MM6_Quote#0001</v>
+        <v>HKDIMMFRA6MM6_Quote#0002</v>
       </c>
       <c r="G34" s="61" t="str">
         <f>_xll.ohRangeRetrieveError(F34)</f>
@@ -9715,7 +9715,7 @@
       </c>
       <c r="F35" s="12" t="str">
         <f>_xll.qlSimpleQuote(E35,,PriceTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDIMMFRA6MN6_Quote#0001</v>
+        <v>HKDIMMFRA6MN6_Quote#0002</v>
       </c>
       <c r="G35" s="61" t="str">
         <f>_xll.ohRangeRetrieveError(F35)</f>
@@ -9740,7 +9740,7 @@
       </c>
       <c r="F36" s="12" t="str">
         <f>_xll.qlSimpleQuote(E36,,PriceTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDIMMFRA6MQ6_Quote#0001</v>
+        <v>HKDIMMFRA6MQ6_Quote#0002</v>
       </c>
       <c r="G36" s="61" t="str">
         <f>_xll.ohRangeRetrieveError(F36)</f>
@@ -9765,7 +9765,7 @@
       </c>
       <c r="F37" s="12" t="str">
         <f>_xll.qlSimpleQuote(E37,,PriceTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDIMMFRA6MU6_Quote#0001</v>
+        <v>HKDIMMFRA6MU6_Quote#0002</v>
       </c>
       <c r="G37" s="61" t="str">
         <f>_xll.ohRangeRetrieveError(F37)</f>
@@ -9790,7 +9790,7 @@
       </c>
       <c r="F38" s="12" t="str">
         <f>_xll.qlSimpleQuote(E38,,PriceTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDIMMFRA6MV6_Quote#0001</v>
+        <v>HKDIMMFRA6MV6_Quote#0002</v>
       </c>
       <c r="G38" s="61" t="str">
         <f>_xll.ohRangeRetrieveError(F38)</f>
@@ -9815,7 +9815,7 @@
       </c>
       <c r="F39" s="12" t="str">
         <f>_xll.qlSimpleQuote(E39,,PriceTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDIMMFRA6MX6_Quote#0001</v>
+        <v>HKDIMMFRA6MX6_Quote#0002</v>
       </c>
       <c r="G39" s="61" t="str">
         <f>_xll.ohRangeRetrieveError(F39)</f>
@@ -9840,7 +9840,7 @@
       </c>
       <c r="F40" s="12" t="str">
         <f>_xll.qlSimpleQuote(E40,,PriceTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDIMMFRA6MZ6_Quote#0001</v>
+        <v>HKDIMMFRA6MZ6_Quote#0002</v>
       </c>
       <c r="G40" s="61" t="str">
         <f>_xll.ohRangeRetrieveError(F40)</f>
@@ -9865,7 +9865,7 @@
       </c>
       <c r="F41" s="12" t="str">
         <f>_xll.qlSimpleQuote(E41,,PriceTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDIMMFRA6MF7_Quote#0001</v>
+        <v>HKDIMMFRA6MF7_Quote#0002</v>
       </c>
       <c r="G41" s="61" t="str">
         <f>_xll.ohRangeRetrieveError(F41)</f>
@@ -9890,7 +9890,7 @@
       </c>
       <c r="F42" s="12" t="str">
         <f>_xll.qlSimpleQuote(E42,,PriceTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDIMMFRA6MG7_Quote#0001</v>
+        <v>HKDIMMFRA6MG7_Quote#0002</v>
       </c>
       <c r="G42" s="61" t="str">
         <f>_xll.ohRangeRetrieveError(F42)</f>
@@ -9915,7 +9915,7 @@
       </c>
       <c r="F43" s="12" t="str">
         <f>_xll.qlSimpleQuote(E43,,PriceTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDIMMFRA6MH7_Quote#0001</v>
+        <v>HKDIMMFRA6MH7_Quote#0002</v>
       </c>
       <c r="G43" s="61" t="str">
         <f>_xll.ohRangeRetrieveError(F43)</f>
@@ -9940,7 +9940,7 @@
       </c>
       <c r="F44" s="12" t="str">
         <f>_xll.qlSimpleQuote(E44,,PriceTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDIMMFRA6MJ7_Quote#0001</v>
+        <v>HKDIMMFRA6MJ7_Quote#0002</v>
       </c>
       <c r="G44" s="61" t="str">
         <f>_xll.ohRangeRetrieveError(F44)</f>
@@ -9965,7 +9965,7 @@
       </c>
       <c r="F45" s="12" t="str">
         <f>_xll.qlSimpleQuote(E45,,PriceTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDIMMFRA6MK7_Quote#0001</v>
+        <v>HKDIMMFRA6MK7_Quote#0002</v>
       </c>
       <c r="G45" s="61" t="str">
         <f>_xll.ohRangeRetrieveError(F45)</f>
@@ -9990,7 +9990,7 @@
       </c>
       <c r="F46" s="12" t="str">
         <f>_xll.qlSimpleQuote(E46,,PriceTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDIMMFRA6MM7_Quote#0001</v>
+        <v>HKDIMMFRA6MM7_Quote#0002</v>
       </c>
       <c r="G46" s="61" t="str">
         <f>_xll.ohRangeRetrieveError(F46)</f>
@@ -10015,7 +10015,7 @@
       </c>
       <c r="F47" s="12" t="str">
         <f>_xll.qlSimpleQuote(E47,,PriceTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDIMMFRA6MN7_Quote#0001</v>
+        <v>HKDIMMFRA6MN7_Quote#0002</v>
       </c>
       <c r="G47" s="61" t="str">
         <f>_xll.ohRangeRetrieveError(F47)</f>
@@ -10040,7 +10040,7 @@
       </c>
       <c r="F48" s="12" t="str">
         <f>_xll.qlSimpleQuote(E48,,PriceTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDIMMFRA6MQ7_Quote#0001</v>
+        <v>HKDIMMFRA6MQ7_Quote#0002</v>
       </c>
       <c r="G48" s="61" t="str">
         <f>_xll.ohRangeRetrieveError(F48)</f>
@@ -10065,7 +10065,7 @@
       </c>
       <c r="F49" s="12" t="str">
         <f>_xll.qlSimpleQuote(E49,,PriceTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDIMMFRA6MU7_Quote#0001</v>
+        <v>HKDIMMFRA6MU7_Quote#0002</v>
       </c>
       <c r="G49" s="61" t="str">
         <f>_xll.ohRangeRetrieveError(F49)</f>
@@ -10090,7 +10090,7 @@
       </c>
       <c r="F50" s="12" t="str">
         <f>_xll.qlSimpleQuote(E50,,PriceTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDIMMFRA6MV7_Quote#0001</v>
+        <v>HKDIMMFRA6MV7_Quote#0002</v>
       </c>
       <c r="G50" s="61" t="str">
         <f>_xll.ohRangeRetrieveError(F50)</f>
@@ -10115,7 +10115,7 @@
       </c>
       <c r="F51" s="12" t="str">
         <f>_xll.qlSimpleQuote(E51,,PriceTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDIMMFRA6MX7_Quote#0001</v>
+        <v>HKDIMMFRA6MX7_Quote#0002</v>
       </c>
       <c r="G51" s="61" t="str">
         <f>_xll.ohRangeRetrieveError(F51)</f>
@@ -10140,7 +10140,7 @@
       </c>
       <c r="F52" s="12" t="str">
         <f>_xll.qlSimpleQuote(E52,,PriceTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDIMMFRA6MZ7_Quote#0001</v>
+        <v>HKDIMMFRA6MZ7_Quote#0002</v>
       </c>
       <c r="G52" s="61" t="str">
         <f>_xll.ohRangeRetrieveError(F52)</f>
@@ -10165,7 +10165,7 @@
       </c>
       <c r="F53" s="12" t="str">
         <f>_xll.qlSimpleQuote(E53,,PriceTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDIMMFRA6MF8_Quote#0001</v>
+        <v>HKDIMMFRA6MF8_Quote#0002</v>
       </c>
       <c r="G53" s="61" t="str">
         <f>_xll.ohRangeRetrieveError(F53)</f>
@@ -10190,7 +10190,7 @@
       </c>
       <c r="F54" s="12" t="str">
         <f>_xll.qlSimpleQuote(E54,,PriceTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDIMMFRA6MG8_Quote#0001</v>
+        <v>HKDIMMFRA6MG8_Quote#0002</v>
       </c>
       <c r="G54" s="61" t="str">
         <f>_xll.ohRangeRetrieveError(F54)</f>
@@ -10215,7 +10215,7 @@
       </c>
       <c r="F55" s="12" t="str">
         <f>_xll.qlSimpleQuote(E55,,PriceTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDIMMFRA6MH8_Quote#0001</v>
+        <v>HKDIMMFRA6MH8_Quote#0002</v>
       </c>
       <c r="G55" s="61" t="str">
         <f>_xll.ohRangeRetrieveError(F55)</f>
@@ -10240,7 +10240,7 @@
       </c>
       <c r="F56" s="12" t="str">
         <f>_xll.qlSimpleQuote(E56,,PriceTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDIMMFRA6MJ8_Quote#0001</v>
+        <v>HKDIMMFRA6MJ8_Quote#0002</v>
       </c>
       <c r="G56" s="61" t="str">
         <f>_xll.ohRangeRetrieveError(F56)</f>
@@ -10265,7 +10265,7 @@
       </c>
       <c r="F57" s="12" t="str">
         <f>_xll.qlSimpleQuote(E57,,PriceTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDIMMFRA6MK8_Quote#0001</v>
+        <v>HKDIMMFRA6MK8_Quote#0002</v>
       </c>
       <c r="G57" s="61" t="str">
         <f>_xll.ohRangeRetrieveError(F57)</f>
@@ -10290,7 +10290,7 @@
       </c>
       <c r="F58" s="12" t="str">
         <f>_xll.qlSimpleQuote(E58,,PriceTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDIMMFRA6MM8_Quote#0001</v>
+        <v>HKDIMMFRA6MM8_Quote#0002</v>
       </c>
       <c r="G58" s="61" t="str">
         <f>_xll.ohRangeRetrieveError(F58)</f>
@@ -10315,7 +10315,7 @@
       </c>
       <c r="F59" s="12" t="str">
         <f>_xll.qlSimpleQuote(E59,,PriceTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDIMMFRA6MN8_Quote#0001</v>
+        <v>HKDIMMFRA6MN8_Quote#0002</v>
       </c>
       <c r="G59" s="61" t="str">
         <f>_xll.ohRangeRetrieveError(F59)</f>
@@ -10340,7 +10340,7 @@
       </c>
       <c r="F60" s="12" t="str">
         <f>_xll.qlSimpleQuote(E60,,PriceTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDIMMFRA6MQ8_Quote#0001</v>
+        <v>HKDIMMFRA6MQ8_Quote#0002</v>
       </c>
       <c r="G60" s="61" t="str">
         <f>_xll.ohRangeRetrieveError(F60)</f>
@@ -10365,7 +10365,7 @@
       </c>
       <c r="F61" s="12" t="str">
         <f>_xll.qlSimpleQuote(E61,,PriceTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDIMMFRA6MU8_Quote#0001</v>
+        <v>HKDIMMFRA6MU8_Quote#0002</v>
       </c>
       <c r="G61" s="61" t="str">
         <f>_xll.ohRangeRetrieveError(F61)</f>
@@ -10390,7 +10390,7 @@
       </c>
       <c r="F62" s="12" t="str">
         <f>_xll.qlSimpleQuote(E62,,PriceTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDIMMFRA6MV8_Quote#0001</v>
+        <v>HKDIMMFRA6MV8_Quote#0002</v>
       </c>
       <c r="G62" s="61" t="str">
         <f>_xll.ohRangeRetrieveError(F62)</f>
@@ -10415,7 +10415,7 @@
       </c>
       <c r="F63" s="12" t="str">
         <f>_xll.qlSimpleQuote(E63,,PriceTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDIMMFRA6MX8_Quote#0001</v>
+        <v>HKDIMMFRA6MX8_Quote#0002</v>
       </c>
       <c r="G63" s="61" t="str">
         <f>_xll.ohRangeRetrieveError(F63)</f>
@@ -10440,7 +10440,7 @@
       </c>
       <c r="F64" s="12" t="str">
         <f>_xll.qlSimpleQuote(E64,,PriceTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDIMMFRA6MZ8_Quote#0001</v>
+        <v>HKDIMMFRA6MZ8_Quote#0002</v>
       </c>
       <c r="G64" s="61" t="str">
         <f>_xll.ohRangeRetrieveError(F64)</f>
@@ -10465,7 +10465,7 @@
       </c>
       <c r="F65" s="12" t="str">
         <f>_xll.qlSimpleQuote(E65,,PriceTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDIMMFRA6MF9_Quote#0001</v>
+        <v>HKDIMMFRA6MF9_Quote#0002</v>
       </c>
       <c r="G65" s="61" t="str">
         <f>_xll.ohRangeRetrieveError(F65)</f>
@@ -10490,7 +10490,7 @@
       </c>
       <c r="F66" s="12" t="str">
         <f>_xll.qlSimpleQuote(E66,,PriceTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDIMMFRA6MG9_Quote#0001</v>
+        <v>HKDIMMFRA6MG9_Quote#0002</v>
       </c>
       <c r="G66" s="61" t="str">
         <f>_xll.ohRangeRetrieveError(F66)</f>
@@ -10515,7 +10515,7 @@
       </c>
       <c r="F67" s="12" t="str">
         <f>_xll.qlSimpleQuote(E67,,PriceTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDIMMFRA6MH9_Quote#0001</v>
+        <v>HKDIMMFRA6MH9_Quote#0002</v>
       </c>
       <c r="G67" s="61" t="str">
         <f>_xll.ohRangeRetrieveError(F67)</f>
@@ -10540,7 +10540,7 @@
       </c>
       <c r="F68" s="12" t="str">
         <f>_xll.qlSimpleQuote(E68,,PriceTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDIMMFRA6MJ9_Quote#0001</v>
+        <v>HKDIMMFRA6MJ9_Quote#0002</v>
       </c>
       <c r="G68" s="61" t="str">
         <f>_xll.ohRangeRetrieveError(F68)</f>
@@ -10565,7 +10565,7 @@
       </c>
       <c r="F69" s="12" t="str">
         <f>_xll.qlSimpleQuote(E69,,PriceTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDIMMFRA6MK9_Quote#0001</v>
+        <v>HKDIMMFRA6MK9_Quote#0002</v>
       </c>
       <c r="G69" s="61" t="str">
         <f>_xll.ohRangeRetrieveError(F69)</f>
@@ -10590,7 +10590,7 @@
       </c>
       <c r="F70" s="12" t="str">
         <f>_xll.qlSimpleQuote(E70,,PriceTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDIMMFRA6MM9_Quote#0001</v>
+        <v>HKDIMMFRA6MM9_Quote#0002</v>
       </c>
       <c r="G70" s="61" t="str">
         <f>_xll.ohRangeRetrieveError(F70)</f>
@@ -10615,7 +10615,7 @@
       </c>
       <c r="F71" s="12" t="str">
         <f>_xll.qlSimpleQuote(E71,,PriceTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDIMMFRA6MN9_Quote#0001</v>
+        <v>HKDIMMFRA6MN9_Quote#0002</v>
       </c>
       <c r="G71" s="61" t="str">
         <f>_xll.ohRangeRetrieveError(F71)</f>
@@ -10640,7 +10640,7 @@
       </c>
       <c r="F72" s="12" t="str">
         <f>_xll.qlSimpleQuote(E72,,PriceTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDIMMFRA6MQ9_Quote#0001</v>
+        <v>HKDIMMFRA6MQ9_Quote#0002</v>
       </c>
       <c r="G72" s="61" t="str">
         <f>_xll.ohRangeRetrieveError(F72)</f>
@@ -10665,7 +10665,7 @@
       </c>
       <c r="F73" s="12" t="str">
         <f>_xll.qlSimpleQuote(E73,,PriceTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDIMMFRA6MU9_Quote#0001</v>
+        <v>HKDIMMFRA6MU9_Quote#0002</v>
       </c>
       <c r="G73" s="61" t="str">
         <f>_xll.ohRangeRetrieveError(F73)</f>
@@ -10690,7 +10690,7 @@
       </c>
       <c r="F74" s="12" t="str">
         <f>_xll.qlSimpleQuote(E74,,PriceTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDIMMFRA6MV9_Quote#0001</v>
+        <v>HKDIMMFRA6MV9_Quote#0002</v>
       </c>
       <c r="G74" s="61" t="str">
         <f>_xll.ohRangeRetrieveError(F74)</f>
@@ -10715,7 +10715,7 @@
       </c>
       <c r="F75" s="12" t="str">
         <f>_xll.qlSimpleQuote(E75,,PriceTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDIMMFRA6MX9_Quote#0001</v>
+        <v>HKDIMMFRA6MX9_Quote#0002</v>
       </c>
       <c r="G75" s="61" t="str">
         <f>_xll.ohRangeRetrieveError(F75)</f>
@@ -10740,7 +10740,7 @@
       </c>
       <c r="F76" s="12" t="str">
         <f>_xll.qlSimpleQuote(E76,,PriceTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDIMMFRA6MZ9_Quote#0001</v>
+        <v>HKDIMMFRA6MZ9_Quote#0002</v>
       </c>
       <c r="G76" s="61" t="str">
         <f>_xll.ohRangeRetrieveError(F76)</f>
@@ -10765,7 +10765,7 @@
       </c>
       <c r="F77" s="12" t="str">
         <f>_xll.qlSimpleQuote(E77,,PriceTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDIMMFRA6MF0_Quote#0001</v>
+        <v>HKDIMMFRA6MF0_Quote#0002</v>
       </c>
       <c r="G77" s="61" t="str">
         <f>_xll.ohRangeRetrieveError(F77)</f>
@@ -10790,7 +10790,7 @@
       </c>
       <c r="F78" s="12" t="str">
         <f>_xll.qlSimpleQuote(E78,,PriceTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDIMMFRA6MG0_Quote#0001</v>
+        <v>HKDIMMFRA6MG0_Quote#0002</v>
       </c>
       <c r="G78" s="61" t="str">
         <f>_xll.ohRangeRetrieveError(F78)</f>
@@ -10815,7 +10815,7 @@
       </c>
       <c r="F79" s="12" t="str">
         <f>_xll.qlSimpleQuote(E79,,PriceTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDIMMFRA6MH0_Quote#0001</v>
+        <v>HKDIMMFRA6MH0_Quote#0002</v>
       </c>
       <c r="G79" s="61" t="str">
         <f>_xll.ohRangeRetrieveError(F79)</f>
@@ -10840,7 +10840,7 @@
       </c>
       <c r="F80" s="12" t="str">
         <f>_xll.qlSimpleQuote(E80,,PriceTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDIMMFRA6MJ0_Quote#0001</v>
+        <v>HKDIMMFRA6MJ0_Quote#0002</v>
       </c>
       <c r="G80" s="61" t="str">
         <f>_xll.ohRangeRetrieveError(F80)</f>
@@ -10865,7 +10865,7 @@
       </c>
       <c r="F81" s="12" t="str">
         <f>_xll.qlSimpleQuote(E81,,PriceTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDIMMFRA6MK0_Quote#0001</v>
+        <v>HKDIMMFRA6MK0_Quote#0002</v>
       </c>
       <c r="G81" s="61" t="str">
         <f>_xll.ohRangeRetrieveError(F81)</f>
@@ -10890,7 +10890,7 @@
       </c>
       <c r="F82" s="12" t="str">
         <f>_xll.qlSimpleQuote(E82,,PriceTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDIMMFRA6MM0_Quote#0001</v>
+        <v>HKDIMMFRA6MM0_Quote#0002</v>
       </c>
       <c r="G82" s="61" t="str">
         <f>_xll.ohRangeRetrieveError(F82)</f>
@@ -10915,7 +10915,7 @@
       </c>
       <c r="F83" s="12" t="str">
         <f>_xll.qlSimpleQuote(E83,,PriceTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDIMMFRA6MN0_Quote#0001</v>
+        <v>HKDIMMFRA6MN0_Quote#0002</v>
       </c>
       <c r="G83" s="61" t="str">
         <f>_xll.ohRangeRetrieveError(F83)</f>
@@ -10940,7 +10940,7 @@
       </c>
       <c r="F84" s="12" t="str">
         <f>_xll.qlSimpleQuote(E84,,PriceTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDIMMFRA6MQ0_Quote#0001</v>
+        <v>HKDIMMFRA6MQ0_Quote#0002</v>
       </c>
       <c r="G84" s="61" t="str">
         <f>_xll.ohRangeRetrieveError(F84)</f>
@@ -10965,7 +10965,7 @@
       </c>
       <c r="F85" s="12" t="str">
         <f>_xll.qlSimpleQuote(E85,,PriceTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDIMMFRA6MU0_Quote#0001</v>
+        <v>HKDIMMFRA6MU0_Quote#0002</v>
       </c>
       <c r="G85" s="61" t="str">
         <f>_xll.ohRangeRetrieveError(F85)</f>
@@ -10990,7 +10990,7 @@
       </c>
       <c r="F86" s="12" t="str">
         <f>_xll.qlSimpleQuote(E86,,PriceTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDIMMFRA6MV0_Quote#0001</v>
+        <v>HKDIMMFRA6MV0_Quote#0002</v>
       </c>
       <c r="G86" s="61" t="str">
         <f>_xll.ohRangeRetrieveError(F86)</f>
@@ -11015,7 +11015,7 @@
       </c>
       <c r="F87" s="12" t="str">
         <f>_xll.qlSimpleQuote(E87,,PriceTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDIMMFRA6MX0_Quote#0001</v>
+        <v>HKDIMMFRA6MX0_Quote#0002</v>
       </c>
       <c r="G87" s="61" t="str">
         <f>_xll.ohRangeRetrieveError(F87)</f>
@@ -11040,7 +11040,7 @@
       </c>
       <c r="F88" s="12" t="str">
         <f>_xll.qlSimpleQuote(E88,,PriceTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDIMMFRA6MZ0_Quote#0001</v>
+        <v>HKDIMMFRA6MZ0_Quote#0002</v>
       </c>
       <c r="G88" s="61" t="str">
         <f>_xll.ohRangeRetrieveError(F88)</f>
@@ -11065,7 +11065,7 @@
       </c>
       <c r="F89" s="12" t="str">
         <f>_xll.qlSimpleQuote(E89,,PriceTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDIMMFRA6MF1_Quote#0001</v>
+        <v>HKDIMMFRA6MF1_Quote#0002</v>
       </c>
       <c r="G89" s="61" t="str">
         <f>_xll.ohRangeRetrieveError(F89)</f>
@@ -11090,7 +11090,7 @@
       </c>
       <c r="F90" s="12" t="str">
         <f>_xll.qlSimpleQuote(E90,,PriceTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDIMMFRA6MG1_Quote#0001</v>
+        <v>HKDIMMFRA6MG1_Quote#0002</v>
       </c>
       <c r="G90" s="61" t="str">
         <f>_xll.ohRangeRetrieveError(F90)</f>
@@ -11115,7 +11115,7 @@
       </c>
       <c r="F91" s="12" t="str">
         <f>_xll.qlSimpleQuote(E91,,PriceTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDIMMFRA6MH1_Quote#0001</v>
+        <v>HKDIMMFRA6MH1_Quote#0002</v>
       </c>
       <c r="G91" s="61" t="str">
         <f>_xll.ohRangeRetrieveError(F91)</f>
@@ -11140,7 +11140,7 @@
       </c>
       <c r="F92" s="12" t="str">
         <f>_xll.qlSimpleQuote(E92,,PriceTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDIMMFRA6MJ1_Quote#0001</v>
+        <v>HKDIMMFRA6MJ1_Quote#0002</v>
       </c>
       <c r="G92" s="61" t="str">
         <f>_xll.ohRangeRetrieveError(F92)</f>
@@ -11165,7 +11165,7 @@
       </c>
       <c r="F93" s="12" t="str">
         <f>_xll.qlSimpleQuote(E93,,PriceTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDIMMFRA6MK1_Quote#0001</v>
+        <v>HKDIMMFRA6MK1_Quote#0002</v>
       </c>
       <c r="G93" s="61" t="str">
         <f>_xll.ohRangeRetrieveError(F93)</f>
@@ -11190,7 +11190,7 @@
       </c>
       <c r="F94" s="12" t="str">
         <f>_xll.qlSimpleQuote(E94,,PriceTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDIMMFRA6MM1_Quote#0001</v>
+        <v>HKDIMMFRA6MM1_Quote#0002</v>
       </c>
       <c r="G94" s="61" t="str">
         <f>_xll.ohRangeRetrieveError(F94)</f>
@@ -11215,7 +11215,7 @@
       </c>
       <c r="F95" s="12" t="str">
         <f>_xll.qlSimpleQuote(E95,,PriceTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDIMMFRA6MN1_Quote#0001</v>
+        <v>HKDIMMFRA6MN1_Quote#0002</v>
       </c>
       <c r="G95" s="61" t="str">
         <f>_xll.ohRangeRetrieveError(F95)</f>
@@ -11240,7 +11240,7 @@
       </c>
       <c r="F96" s="12" t="str">
         <f>_xll.qlSimpleQuote(E96,,PriceTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDIMMFRA6MQ1_Quote#0001</v>
+        <v>HKDIMMFRA6MQ1_Quote#0002</v>
       </c>
       <c r="G96" s="61" t="str">
         <f>_xll.ohRangeRetrieveError(F96)</f>
@@ -11265,7 +11265,7 @@
       </c>
       <c r="F97" s="12" t="str">
         <f>_xll.qlSimpleQuote(E97,,PriceTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDIMMFRA6MU1_Quote#0001</v>
+        <v>HKDIMMFRA6MU1_Quote#0002</v>
       </c>
       <c r="G97" s="61" t="str">
         <f>_xll.ohRangeRetrieveError(F97)</f>
@@ -11290,7 +11290,7 @@
       </c>
       <c r="F98" s="12" t="str">
         <f>_xll.qlSimpleQuote(E98,,PriceTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDIMMFRA6MV1_Quote#0001</v>
+        <v>HKDIMMFRA6MV1_Quote#0002</v>
       </c>
       <c r="G98" s="61" t="str">
         <f>_xll.ohRangeRetrieveError(F98)</f>
@@ -11315,7 +11315,7 @@
       </c>
       <c r="F99" s="12" t="str">
         <f>_xll.qlSimpleQuote(E99,,PriceTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDIMMFRA6MX1_Quote#0001</v>
+        <v>HKDIMMFRA6MX1_Quote#0002</v>
       </c>
       <c r="G99" s="61" t="str">
         <f>_xll.ohRangeRetrieveError(F99)</f>
@@ -11340,7 +11340,7 @@
       </c>
       <c r="F100" s="12" t="str">
         <f>_xll.qlSimpleQuote(E100,,PriceTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDIMMFRA6MZ1_Quote#0001</v>
+        <v>HKDIMMFRA6MZ1_Quote#0002</v>
       </c>
       <c r="G100" s="61" t="str">
         <f>_xll.ohRangeRetrieveError(F100)</f>
@@ -11365,7 +11365,7 @@
       </c>
       <c r="F101" s="12" t="str">
         <f>_xll.qlSimpleQuote(E101,,PriceTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDIMMFRA6MF2_Quote#0001</v>
+        <v>HKDIMMFRA6MF2_Quote#0002</v>
       </c>
       <c r="G101" s="61" t="str">
         <f>_xll.ohRangeRetrieveError(F101)</f>
@@ -11390,7 +11390,7 @@
       </c>
       <c r="F102" s="12" t="str">
         <f>_xll.qlSimpleQuote(E102,,PriceTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDIMMFRA6MG2_Quote#0001</v>
+        <v>HKDIMMFRA6MG2_Quote#0002</v>
       </c>
       <c r="G102" s="61" t="str">
         <f>_xll.ohRangeRetrieveError(F102)</f>
@@ -11415,7 +11415,7 @@
       </c>
       <c r="F103" s="12" t="str">
         <f>_xll.qlSimpleQuote(E103,,PriceTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDIMMFRA6MH2_Quote#0001</v>
+        <v>HKDIMMFRA6MH2_Quote#0002</v>
       </c>
       <c r="G103" s="61" t="str">
         <f>_xll.ohRangeRetrieveError(F103)</f>
@@ -11440,7 +11440,7 @@
       </c>
       <c r="F104" s="12" t="str">
         <f>_xll.qlSimpleQuote(E104,,PriceTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDIMMFRA6MJ2_Quote#0001</v>
+        <v>HKDIMMFRA6MJ2_Quote#0002</v>
       </c>
       <c r="G104" s="61" t="str">
         <f>_xll.ohRangeRetrieveError(F104)</f>
@@ -11465,7 +11465,7 @@
       </c>
       <c r="F105" s="12" t="str">
         <f>_xll.qlSimpleQuote(E105,,PriceTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDIMMFRA6MK2_Quote#0001</v>
+        <v>HKDIMMFRA6MK2_Quote#0002</v>
       </c>
       <c r="G105" s="61" t="str">
         <f>_xll.ohRangeRetrieveError(F105)</f>
@@ -11490,7 +11490,7 @@
       </c>
       <c r="F106" s="12" t="str">
         <f>_xll.qlSimpleQuote(E106,,PriceTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDIMMFRA6MM2_Quote#0001</v>
+        <v>HKDIMMFRA6MM2_Quote#0002</v>
       </c>
       <c r="G106" s="61" t="str">
         <f>_xll.ohRangeRetrieveError(F106)</f>
@@ -11515,7 +11515,7 @@
       </c>
       <c r="F107" s="12" t="str">
         <f>_xll.qlSimpleQuote(E107,,PriceTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDIMMFRA6MN2_Quote#0001</v>
+        <v>HKDIMMFRA6MN2_Quote#0002</v>
       </c>
       <c r="G107" s="61" t="str">
         <f>_xll.ohRangeRetrieveError(F107)</f>
@@ -11540,7 +11540,7 @@
       </c>
       <c r="F108" s="12" t="str">
         <f>_xll.qlSimpleQuote(E108,,PriceTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDIMMFRA6MQ2_Quote#0001</v>
+        <v>HKDIMMFRA6MQ2_Quote#0002</v>
       </c>
       <c r="G108" s="61" t="str">
         <f>_xll.ohRangeRetrieveError(F108)</f>
@@ -11565,7 +11565,7 @@
       </c>
       <c r="F109" s="12" t="str">
         <f>_xll.qlSimpleQuote(E109,,PriceTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDIMMFRA6MU2_Quote#0001</v>
+        <v>HKDIMMFRA6MU2_Quote#0002</v>
       </c>
       <c r="G109" s="61" t="str">
         <f>_xll.ohRangeRetrieveError(F109)</f>
@@ -11590,7 +11590,7 @@
       </c>
       <c r="F110" s="12" t="str">
         <f>_xll.qlSimpleQuote(E110,,PriceTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDIMMFRA6MV2_Quote#0001</v>
+        <v>HKDIMMFRA6MV2_Quote#0002</v>
       </c>
       <c r="G110" s="61" t="str">
         <f>_xll.ohRangeRetrieveError(F110)</f>
@@ -11615,7 +11615,7 @@
       </c>
       <c r="F111" s="12" t="str">
         <f>_xll.qlSimpleQuote(E111,,PriceTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDIMMFRA6MX2_Quote#0001</v>
+        <v>HKDIMMFRA6MX2_Quote#0002</v>
       </c>
       <c r="G111" s="61" t="str">
         <f>_xll.ohRangeRetrieveError(F111)</f>
@@ -11640,7 +11640,7 @@
       </c>
       <c r="F112" s="12" t="str">
         <f>_xll.qlSimpleQuote(E112,,PriceTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDIMMFRA6MZ2_Quote#0001</v>
+        <v>HKDIMMFRA6MZ2_Quote#0002</v>
       </c>
       <c r="G112" s="61" t="str">
         <f>_xll.ohRangeRetrieveError(F112)</f>
@@ -11665,7 +11665,7 @@
       </c>
       <c r="F113" s="12" t="str">
         <f>_xll.qlSimpleQuote(E113,,PriceTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDIMMFRA6MF3_Quote#0001</v>
+        <v>HKDIMMFRA6MF3_Quote#0002</v>
       </c>
       <c r="G113" s="61" t="str">
         <f>_xll.ohRangeRetrieveError(F113)</f>
@@ -11690,7 +11690,7 @@
       </c>
       <c r="F114" s="12" t="str">
         <f>_xll.qlSimpleQuote(E114,,PriceTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDIMMFRA6MG3_Quote#0001</v>
+        <v>HKDIMMFRA6MG3_Quote#0002</v>
       </c>
       <c r="G114" s="61" t="str">
         <f>_xll.ohRangeRetrieveError(F114)</f>
@@ -11715,7 +11715,7 @@
       </c>
       <c r="F115" s="12" t="str">
         <f>_xll.qlSimpleQuote(E115,,PriceTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDIMMFRA6MH3_Quote#0001</v>
+        <v>HKDIMMFRA6MH3_Quote#0002</v>
       </c>
       <c r="G115" s="61" t="str">
         <f>_xll.ohRangeRetrieveError(F115)</f>
@@ -11740,7 +11740,7 @@
       </c>
       <c r="F116" s="12" t="str">
         <f>_xll.qlSimpleQuote(E116,,PriceTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDIMMFRA6MJ3_Quote#0001</v>
+        <v>HKDIMMFRA6MJ3_Quote#0002</v>
       </c>
       <c r="G116" s="61" t="str">
         <f>_xll.ohRangeRetrieveError(F116)</f>
@@ -11765,7 +11765,7 @@
       </c>
       <c r="F117" s="12" t="str">
         <f>_xll.qlSimpleQuote(E117,,PriceTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDIMMFRA6MK3_Quote#0001</v>
+        <v>HKDIMMFRA6MK3_Quote#0002</v>
       </c>
       <c r="G117" s="61" t="str">
         <f>_xll.ohRangeRetrieveError(F117)</f>
@@ -11790,7 +11790,7 @@
       </c>
       <c r="F118" s="12" t="str">
         <f>_xll.qlSimpleQuote(E118,,PriceTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDIMMFRA6MM3_Quote#0001</v>
+        <v>HKDIMMFRA6MM3_Quote#0002</v>
       </c>
       <c r="G118" s="61" t="str">
         <f>_xll.ohRangeRetrieveError(F118)</f>
@@ -11815,7 +11815,7 @@
       </c>
       <c r="F119" s="12" t="str">
         <f>_xll.qlSimpleQuote(E119,,PriceTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDIMMFRA6MN3_Quote#0001</v>
+        <v>HKDIMMFRA6MN3_Quote#0002</v>
       </c>
       <c r="G119" s="61" t="str">
         <f>_xll.ohRangeRetrieveError(F119)</f>
@@ -11840,7 +11840,7 @@
       </c>
       <c r="F120" s="12" t="str">
         <f>_xll.qlSimpleQuote(E120,,PriceTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDIMMFRA6MQ3_Quote#0001</v>
+        <v>HKDIMMFRA6MQ3_Quote#0002</v>
       </c>
       <c r="G120" s="61" t="str">
         <f>_xll.ohRangeRetrieveError(F120)</f>
@@ -11865,7 +11865,7 @@
       </c>
       <c r="F121" s="12" t="str">
         <f>_xll.qlSimpleQuote(E121,,PriceTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDIMMFRA6MU3_Quote#0001</v>
+        <v>HKDIMMFRA6MU3_Quote#0002</v>
       </c>
       <c r="G121" s="61" t="str">
         <f>_xll.ohRangeRetrieveError(F121)</f>
@@ -11890,7 +11890,7 @@
       </c>
       <c r="F122" s="12" t="str">
         <f>_xll.qlSimpleQuote(E122,,PriceTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDIMMFRA6MV3_Quote#0001</v>
+        <v>HKDIMMFRA6MV3_Quote#0002</v>
       </c>
       <c r="G122" s="61" t="str">
         <f>_xll.ohRangeRetrieveError(F122)</f>
@@ -11948,13 +11948,13 @@
         <f>Currency&amp;"_010_"&amp;"FuturesHWConvAdj.xml"</f>
         <v>HKD_010_FuturesHWConvAdj.xml</v>
       </c>
-      <c r="C2" s="70" t="e">
-        <f ca="1">IF(Serialize,_xll.ohObjectSave(C3:C4,SerializationPath&amp;B2,FileOverwrite,Serialize),"---")</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="D2" s="61" t="e">
+      <c r="C2" s="70">
+        <f ca="1">IF(Serialize,_xll.ohObjectSave(C3:C4,SerializationPath&amp;B2,FileOverwrite,,Serialize),"---")</f>
+        <v>2</v>
+      </c>
+      <c r="D2" s="61" t="str">
         <f ca="1">_xll.ohRangeRetrieveError(C2)</f>
-        <v>#NAME?</v>
+        <v/>
       </c>
       <c r="E2" s="43"/>
     </row>
@@ -11966,7 +11966,7 @@
       </c>
       <c r="C3" s="29" t="str">
         <f>_xll.qlSimpleQuote(B3,,,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDHW_Volatility_Quote#0001</v>
+        <v>HKDHW_Volatility_Quote#0002</v>
       </c>
       <c r="D3" s="61" t="str">
         <f>_xll.ohRangeRetrieveError(C3)</f>
@@ -11982,7 +11982,7 @@
       </c>
       <c r="C4" s="29" t="str">
         <f>_xll.qlSimpleQuote(B4,,,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDHW_MeanReversion_Quote#0001</v>
+        <v>HKDHW_MeanReversion_Quote#0002</v>
       </c>
       <c r="D4" s="61" t="str">
         <f>_xll.ohRangeRetrieveError(C4)</f>
